--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -2257,13 +2257,13 @@
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -3486,7 +3486,7 @@
         <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.15</v>
@@ -3498,7 +3498,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
@@ -3507,16 +3507,16 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T17" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -3525,7 +3525,7 @@
         <v>2.15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -3534,16 +3534,16 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
         <v>6.6</v>
@@ -3561,7 +3561,7 @@
         <v>9.25</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.25</v>
@@ -3570,7 +3570,7 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM17" t="n">
         <v>25</v>
@@ -3579,22 +3579,22 @@
         <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS17" t="n">
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU17" t="n">
         <v>6.8</v>
@@ -3603,7 +3603,7 @@
         <v>55</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX17" t="n">
         <v>12.5</v>
@@ -3615,7 +3615,7 @@
         <v>50</v>
       </c>
       <c r="BA17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB17" t="n">
         <v>250</v>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
@@ -5515,16 +5515,16 @@
         <v>2.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V28" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W28" t="n">
         <v>10</v>
@@ -5533,10 +5533,10 @@
         <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
@@ -5545,7 +5545,7 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
         <v>7.5</v>
@@ -5560,10 +5560,10 @@
         <v>126</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
@@ -5596,7 +5596,7 @@
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5608,7 +5608,7 @@
         <v>5.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>21</v>
@@ -5682,7 +5682,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
         <v>1.14</v>
@@ -5691,10 +5691,10 @@
         <v>5.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S29" t="n">
         <v>1.25</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -6040,7 +6040,7 @@
         <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
@@ -6067,10 +6067,10 @@
         <v>3.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
         <v>17</v>
@@ -6097,7 +6097,7 @@
         <v>8</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -6106,13 +6106,13 @@
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6124,7 +6124,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
@@ -6136,7 +6136,7 @@
         <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
         <v>101</v>
@@ -6154,13 +6154,13 @@
         <v>4.33</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>41</v>
@@ -8579,7 +8579,7 @@
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J45" t="n">
         <v>4.33</v>
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -9307,7 +9307,7 @@
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -9355,7 +9355,7 @@
         <v>13</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z49" t="n">
         <v>23</v>
@@ -9370,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -9391,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="AK49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL49" t="n">
         <v>21</v>
@@ -9400,7 +9400,7 @@
         <v>26</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO49" t="n">
         <v>13</v>
@@ -9436,7 +9436,7 @@
         <v>21</v>
       </c>
       <c r="AZ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA49" t="n">
         <v>67</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J82" t="n">
         <v>5</v>
@@ -15349,10 +15349,10 @@
         <v>3.25</v>
       </c>
       <c r="U82" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V82" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W82" t="n">
         <v>15</v>
@@ -15361,7 +15361,7 @@
         <v>26</v>
       </c>
       <c r="Y82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z82" t="n">
         <v>51</v>
@@ -15376,7 +15376,7 @@
         <v>13</v>
       </c>
       <c r="AD82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE82" t="n">
         <v>17</v>
@@ -15385,7 +15385,7 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH82" t="n">
         <v>7.5</v>
@@ -15403,7 +15403,7 @@
         <v>13</v>
       </c>
       <c r="AM82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN82" t="n">
         <v>7</v>
@@ -15412,7 +15412,7 @@
         <v>26</v>
       </c>
       <c r="AP82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ82" t="n">
         <v>81</v>
@@ -15427,13 +15427,13 @@
         <v>3.25</v>
       </c>
       <c r="AU82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV82" t="n">
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX82" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -789,7 +789,7 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
         <v>2.2</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -2042,7 +2042,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2051,10 +2051,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -6431,10 +6431,10 @@
         <v>2.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
         <v>11</v>
@@ -6613,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W34" t="n">
         <v>9.5</v>
@@ -7866,7 +7866,7 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -8048,7 +8048,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -8579,7 +8579,7 @@
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J45" t="n">
         <v>4.33</v>
@@ -8594,25 +8594,25 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
         <v>2.05</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U45" t="n">
         <v>1.83</v>
@@ -8621,7 +8621,7 @@
         <v>1.83</v>
       </c>
       <c r="W45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X45" t="n">
         <v>19</v>
@@ -8690,7 +8690,7 @@
         <v>201</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU45" t="n">
         <v>8</v>
@@ -8779,16 +8779,16 @@
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -9137,13 +9137,13 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
         <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P48" t="n">
         <v>5.5</v>
@@ -9319,13 +9319,13 @@
         <v>3.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
         <v>3.75</v>
@@ -9525,10 +9525,10 @@
         <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V50" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W50" t="n">
         <v>12</v>
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W51" t="n">
         <v>13</v>
@@ -9865,13 +9865,13 @@
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
         <v>8.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P52" t="n">
         <v>3.25</v>
@@ -10047,13 +10047,13 @@
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
         <v>8.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -10229,13 +10229,13 @@
         <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
         <v>3.25</v>
@@ -10411,13 +10411,13 @@
         <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
         <v>4.33</v>
@@ -10593,13 +10593,13 @@
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>12</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -10775,22 +10775,22 @@
         <v>3.4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
         <v>19</v>
       </c>
       <c r="O57" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P57" t="n">
         <v>6</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R57" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S57" t="n">
         <v>1.25</v>
@@ -10939,16 +10939,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
@@ -10960,7 +10960,7 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
         <v>1.33</v>
@@ -10990,7 +10990,7 @@
         <v>7.5</v>
       </c>
       <c r="X58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y58" t="n">
         <v>9.5</v>
@@ -11008,7 +11008,7 @@
         <v>8.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
@@ -11026,10 +11026,10 @@
         <v>17</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="n">
         <v>29</v>
@@ -11041,7 +11041,7 @@
         <v>4.33</v>
       </c>
       <c r="AO58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP58" t="n">
         <v>23</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H61" t="n">
         <v>4.1</v>
@@ -11503,10 +11503,10 @@
         <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O61" t="n">
         <v>1.13</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H62" t="n">
         <v>4.75</v>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J63" t="n">
         <v>2.75</v>
@@ -11918,7 +11918,7 @@
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE63" t="n">
         <v>12</v>
@@ -11957,7 +11957,7 @@
         <v>19</v>
       </c>
       <c r="AQ63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR63" t="n">
         <v>51</v>
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H64" t="n">
         <v>3.9</v>
@@ -12055,16 +12055,16 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R64" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S64" t="n">
         <v>1.29</v>
@@ -12213,22 +12213,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J65" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K65" t="n">
         <v>2.25</v>
       </c>
       <c r="L65" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -12255,10 +12255,10 @@
         <v>3.25</v>
       </c>
       <c r="U65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W65" t="n">
         <v>11</v>
@@ -12270,10 +12270,10 @@
         <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB65" t="n">
         <v>26</v>
@@ -12303,7 +12303,7 @@
         <v>10</v>
       </c>
       <c r="AK65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL65" t="n">
         <v>19</v>
@@ -12312,10 +12312,10 @@
         <v>23</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP65" t="n">
         <v>21</v>
@@ -12971,7 +12971,7 @@
         <v>4.33</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R69" t="n">
         <v>2.15</v>
@@ -12983,7 +12983,7 @@
         <v>3.25</v>
       </c>
       <c r="U69" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V69" t="n">
         <v>2.2</v>
@@ -13153,7 +13153,7 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R70" t="n">
         <v>2.35</v>
@@ -13165,7 +13165,7 @@
         <v>3.5</v>
       </c>
       <c r="U70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V70" t="n">
         <v>2.5</v>
@@ -13338,7 +13338,7 @@
         <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13347,10 +13347,10 @@
         <v>2.63</v>
       </c>
       <c r="U71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W71" t="n">
         <v>10</v>
@@ -13520,7 +13520,7 @@
         <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S72" t="n">
         <v>1.44</v>
@@ -13702,7 +13702,7 @@
         <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S73" t="n">
         <v>1.44</v>
@@ -13881,10 +13881,10 @@
         <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R74" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S74" t="n">
         <v>1.33</v>
@@ -14066,7 +14066,7 @@
         <v>2.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
         <v>1.57</v>
@@ -14245,7 +14245,7 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R76" t="n">
         <v>2</v>
@@ -14430,7 +14430,7 @@
         <v>2.1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
         <v>1.44</v>
@@ -14961,13 +14961,13 @@
         <v>3.4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P80" t="n">
         <v>2.75</v>
@@ -14985,10 +14985,10 @@
         <v>2.5</v>
       </c>
       <c r="U80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W80" t="n">
         <v>8</v>
@@ -15325,10 +15325,10 @@
         <v>2.1</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O82" t="n">
         <v>1.22</v>
@@ -15513,10 +15513,10 @@
         <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q83" t="n">
         <v>1.22</v>
@@ -15701,10 +15701,10 @@
         <v>4.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R84" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S84" t="n">
         <v>1.29</v>
@@ -16235,10 +16235,10 @@
         <v>5.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD91"/>
+  <dimension ref="A1:BD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,7 +789,7 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
         <v>2.2</v>
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -2224,7 +2224,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2233,10 +2233,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -3680,7 +3680,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.18</v>
@@ -3689,10 +3689,10 @@
         <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -3871,10 +3871,10 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4250,7 +4250,7 @@
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4432,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4611,10 +4611,10 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
@@ -4796,7 +4796,7 @@
         <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
         <v>5.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
         <v>5</v>
@@ -6431,10 +6431,10 @@
         <v>2.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
         <v>11</v>
@@ -6613,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>9.5</v>
@@ -8779,16 +8779,16 @@
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -9137,13 +9137,13 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
         <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P48" t="n">
         <v>5.5</v>
@@ -9319,13 +9319,13 @@
         <v>3.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
         <v>3.75</v>
@@ -9501,13 +9501,13 @@
         <v>2.3</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
         <v>3.75</v>
@@ -9683,13 +9683,13 @@
         <v>2.2</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
         <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
         <v>3.5</v>
@@ -9889,10 +9889,10 @@
         <v>2.63</v>
       </c>
       <c r="U52" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V52" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W52" t="n">
         <v>6.5</v>
@@ -10071,10 +10071,10 @@
         <v>2.63</v>
       </c>
       <c r="U53" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W53" t="n">
         <v>7</v>
@@ -10229,13 +10229,13 @@
         <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
         <v>3.25</v>
@@ -10253,10 +10253,10 @@
         <v>2.63</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W54" t="n">
         <v>7</v>
@@ -10411,13 +10411,13 @@
         <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P55" t="n">
         <v>4.33</v>
@@ -10435,7 +10435,7 @@
         <v>3.25</v>
       </c>
       <c r="U55" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V55" t="n">
         <v>2.2</v>
@@ -10575,31 +10575,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L56" t="n">
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
         <v>12</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -10617,10 +10617,10 @@
         <v>3.25</v>
       </c>
       <c r="U56" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V56" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W56" t="n">
         <v>7.5</v>
@@ -10632,7 +10632,7 @@
         <v>8.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
         <v>12</v>
@@ -10644,7 +10644,7 @@
         <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE56" t="n">
         <v>17</v>
@@ -10671,7 +10671,7 @@
         <v>51</v>
       </c>
       <c r="AM56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN56" t="n">
         <v>3.5</v>
@@ -10704,13 +10704,13 @@
         <v>7.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY56" t="n">
         <v>34</v>
       </c>
       <c r="AZ56" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA56" t="n">
         <v>126</v>
@@ -10775,13 +10775,13 @@
         <v>3.4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
         <v>19</v>
       </c>
       <c r="O57" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P57" t="n">
         <v>6</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H61" t="n">
         <v>4.1</v>
@@ -11527,7 +11527,7 @@
         <v>4</v>
       </c>
       <c r="U61" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V61" t="n">
         <v>2.75</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H62" t="n">
         <v>4.75</v>
@@ -11688,7 +11688,7 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O62" t="n">
         <v>1.07</v>
@@ -11709,7 +11709,7 @@
         <v>5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V62" t="n">
         <v>3</v>
@@ -11849,7 +11849,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
@@ -11891,7 +11891,7 @@
         <v>3.25</v>
       </c>
       <c r="U63" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V63" t="n">
         <v>2.25</v>
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>3.9</v>
@@ -12073,7 +12073,7 @@
         <v>3.5</v>
       </c>
       <c r="U64" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V64" t="n">
         <v>2.25</v>
@@ -12213,22 +12213,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H65" t="n">
         <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J65" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K65" t="n">
         <v>2.25</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -12255,7 +12255,7 @@
         <v>3.25</v>
       </c>
       <c r="U65" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V65" t="n">
         <v>2.25</v>
@@ -12270,10 +12270,10 @@
         <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB65" t="n">
         <v>26</v>
@@ -12303,7 +12303,7 @@
         <v>10</v>
       </c>
       <c r="AK65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL65" t="n">
         <v>19</v>
@@ -12312,7 +12312,7 @@
         <v>23</v>
       </c>
       <c r="AN65" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO65" t="n">
         <v>15</v>
@@ -12971,7 +12971,7 @@
         <v>4.33</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R69" t="n">
         <v>2.15</v>
@@ -12983,7 +12983,7 @@
         <v>3.25</v>
       </c>
       <c r="U69" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V69" t="n">
         <v>2.2</v>
@@ -13153,7 +13153,7 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R70" t="n">
         <v>2.35</v>
@@ -13165,7 +13165,7 @@
         <v>3.5</v>
       </c>
       <c r="U70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V70" t="n">
         <v>2.5</v>
@@ -13338,7 +13338,7 @@
         <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13347,10 +13347,10 @@
         <v>2.63</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
         <v>10</v>
@@ -13520,7 +13520,7 @@
         <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S72" t="n">
         <v>1.44</v>
@@ -13702,7 +13702,7 @@
         <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="n">
         <v>1.44</v>
@@ -13881,10 +13881,10 @@
         <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R74" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S74" t="n">
         <v>1.33</v>
@@ -14066,7 +14066,7 @@
         <v>2.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S75" t="n">
         <v>1.57</v>
@@ -14245,7 +14245,7 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R76" t="n">
         <v>2</v>
@@ -14430,7 +14430,7 @@
         <v>2.1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="n">
         <v>1.44</v>
@@ -14961,13 +14961,13 @@
         <v>3.4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P80" t="n">
         <v>2.75</v>
@@ -14985,10 +14985,10 @@
         <v>2.5</v>
       </c>
       <c r="U80" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V80" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W80" t="n">
         <v>8</v>
@@ -15824,7 +15824,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0hUpePj4</t>
+          <t>6329OsCa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15834,167 +15834,167 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I85" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W85" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X85" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA85" t="n">
         <v>11</v>
       </c>
-      <c r="O85" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P85" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R85" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V85" t="n">
-        <v>2</v>
-      </c>
-      <c r="W85" t="n">
-        <v>8</v>
-      </c>
-      <c r="X85" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y85" t="n">
+      <c r="AB85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD85" t="n">
         <v>9</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AE85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH85" t="n">
         <v>19</v>
       </c>
-      <c r="AA85" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>11</v>
-      </c>
       <c r="AI85" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AK85" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AL85" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AM85" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AN85" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AO85" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AR85" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AS85" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="AU85" t="n">
         <v>8</v>
       </c>
       <c r="AV85" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW85" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="AX85" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AY85" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AZ85" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BA85" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BB85" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="BC85" t="n">
         <v>51</v>
@@ -16006,7 +16006,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2VF9Et0n</t>
+          <t>0hUpePj4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16026,82 +16026,82 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L86" t="n">
         <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P86" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R86" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S86" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T86" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V86" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W86" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X86" t="n">
         <v>10</v>
       </c>
       <c r="Y86" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA86" t="n">
         <v>17</v>
       </c>
-      <c r="AA86" t="n">
-        <v>15</v>
-      </c>
       <c r="AB86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>6.5</v>
@@ -16110,13 +16110,13 @@
         <v>13</v>
       </c>
       <c r="AF86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG86" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI86" t="n">
         <v>19</v>
@@ -16140,22 +16140,22 @@
         <v>11</v>
       </c>
       <c r="AP86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR86" t="n">
         <v>51</v>
       </c>
       <c r="AS86" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT86" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV86" t="n">
         <v>51</v>
@@ -16170,16 +16170,16 @@
         <v>26</v>
       </c>
       <c r="AZ86" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA86" t="n">
         <v>81</v>
       </c>
       <c r="BB86" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC86" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD86" t="n">
         <v>51</v>
@@ -16188,7 +16188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CAdbpJLa</t>
+          <t>2VF9Et0n</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16198,179 +16198,179 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N87" t="n">
+        <v>13</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V87" t="n">
         <v>2.1</v>
       </c>
-      <c r="L87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P87" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T87" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U87" t="n">
-        <v>2</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W87" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X87" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA87" t="n">
         <v>15</v>
       </c>
       <c r="AB87" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD87" t="n">
         <v>6.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF87" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG87" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH87" t="n">
         <v>12</v>
       </c>
       <c r="AI87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY87" t="n">
         <v>26</v>
       </c>
-      <c r="AJ87" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ87" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA87" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB87" t="n">
         <v>151</v>
       </c>
-      <c r="BB87" t="n">
-        <v>351</v>
-      </c>
       <c r="BC87" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD87" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>UNCX0BbC</t>
+          <t>CAdbpJLa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,179 +16380,179 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="H88" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K88" t="n">
         <v>2.1</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N88" t="n">
+        <v>9</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T88" t="n">
         <v>2.63</v>
       </c>
-      <c r="M88" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N88" t="n">
-        <v>17</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P88" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R88" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T88" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U88" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="W88" t="n">
+        <v>6</v>
+      </c>
+      <c r="X88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA88" t="n">
         <v>15</v>
       </c>
-      <c r="X88" t="n">
+      <c r="AB88" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE88" t="n">
         <v>19</v>
       </c>
-      <c r="Y88" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>11</v>
-      </c>
       <c r="AF88" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG88" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AH88" t="n">
         <v>12</v>
       </c>
       <c r="AI88" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AJ88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO88" t="n">
         <v>9</v>
       </c>
-      <c r="AK88" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>15</v>
-      </c>
       <c r="AP88" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ88" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR88" t="n">
         <v>51</v>
       </c>
       <c r="AS88" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ88" t="n">
         <v>101</v>
       </c>
-      <c r="AT88" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>34</v>
-      </c>
       <c r="BA88" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB88" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC88" t="n">
         <v>81</v>
       </c>
-      <c r="BC88" t="n">
-        <v>301</v>
-      </c>
       <c r="BD88" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AsOnWTM8</t>
+          <t>UNCX0BbC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,179 +16562,179 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J89" t="n">
         <v>3.4</v>
       </c>
-      <c r="I89" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K89" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M89" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="O89" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R89" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="T89" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U89" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V89" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="W89" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y89" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z89" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB89" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF89" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG89" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AI89" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ89" t="n">
         <v>9</v>
       </c>
       <c r="AK89" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL89" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN89" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO89" t="n">
         <v>15</v>
       </c>
       <c r="AP89" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AR89" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS89" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT89" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV89" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW89" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX89" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AY89" t="n">
         <v>17</v>
       </c>
       <c r="AZ89" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BA89" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BB89" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BC89" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD89" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Op6LF8xS</t>
+          <t>AsOnWTM8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16754,157 +16754,157 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.02</v>
+        <v>2.85</v>
       </c>
       <c r="H90" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.57</v>
+        <v>3.35</v>
       </c>
       <c r="K90" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L90" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="M90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O90" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R90" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="S90" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="T90" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U90" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V90" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="W90" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X90" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y90" t="n">
         <v>10.25</v>
       </c>
-      <c r="X90" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z90" t="n">
-        <v>19.5</v>
+        <v>35</v>
       </c>
       <c r="AA90" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AB90" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AC90" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE90" t="n">
         <v>11.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG90" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS90" t="n">
         <v>200</v>
       </c>
-      <c r="AH90" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK90" t="n">
+      <c r="AT90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ90" t="n">
         <v>45</v>
       </c>
-      <c r="AL90" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>70</v>
-      </c>
       <c r="BA90" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BB90" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC90" t="n">
         <v>51</v>
@@ -16916,7 +16916,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8IshAn0k</t>
+          <t>Op6LF8xS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -16936,151 +16936,151 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="H91" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I91" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="K91" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="L91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N91" t="n">
+        <v>9</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T91" t="n">
         <v>3.2</v>
       </c>
-      <c r="M91" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N91" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P91" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R91" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T91" t="n">
-        <v>2.95</v>
-      </c>
       <c r="U91" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V91" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W91" t="n">
         <v>10.25</v>
       </c>
       <c r="X91" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AD91" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE91" t="n">
         <v>11.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG91" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH91" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI91" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ91" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK91" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AL91" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AM91" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="AO91" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AR91" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AS91" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AU91" t="n">
         <v>6.4</v>
       </c>
       <c r="AV91" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW91" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY91" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA91" t="n">
         <v>80</v>
@@ -17093,6 +17093,370 @@
       </c>
       <c r="BD91" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>8IshAn0k</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W92" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X92" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WdfySwEF</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>21</v>
+      </c>
+      <c r="X93" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>500</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -3483,52 +3483,52 @@
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T17" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3537,28 +3537,28 @@
         <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>12.5</v>
@@ -3570,49 +3570,49 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO17" t="n">
         <v>14.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS17" t="n">
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>55</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>50</v>
       </c>
       <c r="BA17" t="n">
         <v>80</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -4220,7 +4220,7 @@
         <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -4253,7 +4253,7 @@
         <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>8.5</v>
@@ -4262,7 +4262,7 @@
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4280,13 +4280,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -4298,13 +4298,13 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4316,7 +4316,7 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>251</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>4.75</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.91</v>
@@ -4408,7 +4408,7 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -4429,10 +4429,10 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4453,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>9.5</v>
@@ -4465,13 +4465,13 @@
         <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
@@ -4486,31 +4486,31 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
         <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>8.5</v>
@@ -4528,7 +4528,7 @@
         <v>151</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
@@ -4769,10 +4769,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
         <v>1.57</v>
@@ -4805,10 +4805,10 @@
         <v>9.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>23</v>
@@ -4841,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -4850,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>15</v>
@@ -4862,7 +4862,7 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
         <v>301</v>
@@ -4883,10 +4883,10 @@
         <v>21</v>
       </c>
       <c r="AY24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>126</v>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
         <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
@@ -5509,16 +5509,16 @@
         <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.53</v>
@@ -5527,10 +5527,10 @@
         <v>2.38</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -5545,7 +5545,7 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>7.5</v>
@@ -5554,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
         <v>126</v>
@@ -5569,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
         <v>23</v>
@@ -5581,7 +5581,7 @@
         <v>4.33</v>
       </c>
       <c r="AO28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5596,7 +5596,7 @@
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5617,7 +5617,7 @@
         <v>51</v>
       </c>
       <c r="BA28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
         <v>126</v>
@@ -5864,7 +5864,7 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -7869,16 +7869,16 @@
         <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -8779,22 +8779,22 @@
         <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U46" t="n">
         <v>1.83</v>
@@ -8872,7 +8872,7 @@
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8961,16 +8961,16 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -9489,7 +9489,7 @@
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J50" t="n">
         <v>3.1</v>
@@ -9504,7 +9504,7 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -9537,7 +9537,7 @@
         <v>13</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
         <v>23</v>
@@ -9552,7 +9552,7 @@
         <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
         <v>13</v>
@@ -9573,7 +9573,7 @@
         <v>10</v>
       </c>
       <c r="AK50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
         <v>21</v>
@@ -9582,7 +9582,7 @@
         <v>26</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO50" t="n">
         <v>13</v>
@@ -9618,7 +9618,7 @@
         <v>21</v>
       </c>
       <c r="AZ50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA50" t="n">
         <v>67</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -9901,13 +9901,13 @@
         <v>29</v>
       </c>
       <c r="Y52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="n">
         <v>67</v>
       </c>
       <c r="AA52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB52" t="n">
         <v>51</v>
@@ -9916,7 +9916,7 @@
         <v>10</v>
       </c>
       <c r="AD52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE52" t="n">
         <v>19</v>
@@ -9946,10 +9946,10 @@
         <v>29</v>
       </c>
       <c r="AN52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP52" t="n">
         <v>41</v>
@@ -9967,13 +9967,13 @@
         <v>2.75</v>
       </c>
       <c r="AU52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX52" t="n">
         <v>8</v>
@@ -9982,7 +9982,7 @@
         <v>21</v>
       </c>
       <c r="AZ52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA52" t="n">
         <v>51</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>3</v>
@@ -10226,13 +10226,13 @@
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
@@ -10346,7 +10346,7 @@
         <v>29</v>
       </c>
       <c r="AZ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA54" t="n">
         <v>81</v>
@@ -10393,7 +10393,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
@@ -10402,13 +10402,13 @@
         <v>3.8</v>
       </c>
       <c r="J55" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -10507,7 +10507,7 @@
         <v>67</v>
       </c>
       <c r="AS55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT55" t="n">
         <v>2.63</v>
@@ -10593,13 +10593,13 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P56" t="n">
         <v>4.33</v>
@@ -10775,13 +10775,13 @@
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -11321,13 +11321,13 @@
         <v>2.1</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N60" t="n">
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P60" t="n">
         <v>4.5</v>
@@ -14230,7 +14230,7 @@
         <v>1.91</v>
       </c>
       <c r="L76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M76" t="n">
         <v>1.1</v>
@@ -14317,7 +14317,7 @@
         <v>5</v>
       </c>
       <c r="AO76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP76" t="n">
         <v>34</v>
@@ -14329,7 +14329,7 @@
         <v>101</v>
       </c>
       <c r="AS76" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT76" t="n">
         <v>2.25</v>
@@ -14415,13 +14415,13 @@
         <v>2.3</v>
       </c>
       <c r="M77" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
         <v>13</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -14597,13 +14597,13 @@
         <v>4.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
         <v>8.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -15143,13 +15143,13 @@
         <v>3.4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
         <v>8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P81" t="n">
         <v>2.75</v>
@@ -15319,19 +15319,19 @@
         <v>2.75</v>
       </c>
       <c r="K82" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L82" t="n">
         <v>4.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N82" t="n">
         <v>7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P82" t="n">
         <v>2.5</v>
@@ -15507,13 +15507,13 @@
         <v>2.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
         <v>9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -16769,7 +16769,7 @@
         <v>3.5</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J90" t="n">
         <v>2.63</v>
@@ -16778,25 +16778,25 @@
         <v>2.25</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O90" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R90" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
         <v>1.36</v>
@@ -16814,13 +16814,13 @@
         <v>8.5</v>
       </c>
       <c r="X90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA90" t="n">
         <v>15</v>
@@ -16832,7 +16832,7 @@
         <v>12</v>
       </c>
       <c r="AD90" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE90" t="n">
         <v>13</v>
@@ -16856,13 +16856,13 @@
         <v>41</v>
       </c>
       <c r="AL90" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM90" t="n">
         <v>29</v>
       </c>
-      <c r="AM90" t="n">
-        <v>34</v>
-      </c>
       <c r="AN90" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO90" t="n">
         <v>11</v>
@@ -16895,13 +16895,13 @@
         <v>19</v>
       </c>
       <c r="AY90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ90" t="n">
         <v>51</v>
       </c>
       <c r="BA90" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB90" t="n">
         <v>151</v>
@@ -16945,13 +16945,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J91" t="n">
         <v>2.38</v>
@@ -16963,10 +16963,10 @@
         <v>5.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
         <v>1.36</v>
@@ -16996,13 +16996,13 @@
         <v>6</v>
       </c>
       <c r="X91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
       </c>
       <c r="Z91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA91" t="n">
         <v>15</v>
@@ -17032,7 +17032,7 @@
         <v>26</v>
       </c>
       <c r="AJ91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK91" t="n">
         <v>51</v>
@@ -17044,7 +17044,7 @@
         <v>51</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO91" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1311,13 +1311,13 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1493,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
@@ -1675,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
         <v>2.5</v>
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -2039,16 +2039,16 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2221,13 +2221,13 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>3.5</v>
@@ -3701,7 +3701,7 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H29" t="n">
         <v>5.75</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
         <v>1.67</v>
@@ -5724,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -5742,7 +5742,7 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>51</v>
@@ -5757,7 +5757,7 @@
         <v>67</v>
       </c>
       <c r="AM29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN29" t="n">
         <v>3.25</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>26</v>
@@ -5924,10 +5924,10 @@
         <v>67</v>
       </c>
       <c r="AH30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI30" t="n">
         <v>17</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5936,7 +5936,7 @@
         <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
         <v>1.95</v>
@@ -6225,10 +6225,10 @@
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -6237,10 +6237,10 @@
         <v>2.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
         <v>1.53</v>
@@ -6258,13 +6258,13 @@
         <v>5.5</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
@@ -6273,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>7</v>
@@ -6288,7 +6288,7 @@
         <v>201</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
         <v>19</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H34" t="n">
         <v>6</v>
@@ -6613,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W34" t="n">
         <v>9.5</v>
@@ -6759,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J35" t="n">
         <v>6.5</v>
@@ -6795,7 +6795,7 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V35" t="n">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J36" t="n">
         <v>4.33</v>
@@ -6977,7 +6977,7 @@
         <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V36" t="n">
         <v>2.5</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
@@ -7147,10 +7147,10 @@
         <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R37" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7159,10 +7159,10 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H38" t="n">
         <v>3.8</v>
@@ -7341,10 +7341,10 @@
         <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V38" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W38" t="n">
         <v>10</v>
@@ -7481,55 +7481,55 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
         <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
         <v>1.91</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
         <v>41</v>
@@ -7538,7 +7538,7 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA39" t="n">
         <v>51</v>
@@ -7547,37 +7547,37 @@
         <v>51</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
         <v>8.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG39" t="n">
         <v>301</v>
       </c>
       <c r="AH39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL39" t="n">
         <v>12</v>
       </c>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN39" t="n">
         <v>8.5</v>
@@ -7595,22 +7595,22 @@
         <v>151</v>
       </c>
       <c r="AS39" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW39" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AX39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY39" t="n">
         <v>19</v>
@@ -7622,7 +7622,7 @@
         <v>41</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>
@@ -8045,10 +8045,10 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8433,10 +8433,10 @@
         <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
@@ -8615,10 +8615,10 @@
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W45" t="n">
         <v>7</v>
@@ -8779,28 +8779,28 @@
         <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W46" t="n">
         <v>10</v>
@@ -8872,7 +8872,7 @@
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8979,7 +8979,7 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
@@ -10411,10 +10411,10 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.36</v>
@@ -10593,13 +10593,13 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
         <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
         <v>4.33</v>
@@ -10775,13 +10775,13 @@
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -10948,7 +10948,7 @@
         <v>3.25</v>
       </c>
       <c r="J58" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K58" t="n">
         <v>2.5</v>
@@ -10957,13 +10957,13 @@
         <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N58" t="n">
         <v>19</v>
       </c>
       <c r="O58" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P58" t="n">
         <v>6</v>
@@ -11139,13 +11139,13 @@
         <v>3.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
         <v>3.25</v>
@@ -11321,13 +11321,13 @@
         <v>2.1</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N60" t="n">
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="P60" t="n">
         <v>4.5</v>
@@ -12073,7 +12073,7 @@
         <v>3.25</v>
       </c>
       <c r="U64" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V64" t="n">
         <v>2.25</v>
@@ -12255,7 +12255,7 @@
         <v>3.5</v>
       </c>
       <c r="U65" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V65" t="n">
         <v>2.25</v>
@@ -12413,13 +12413,13 @@
         <v>3.1</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -12595,13 +12595,13 @@
         <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
         <v>21</v>
       </c>
       <c r="O67" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P67" t="n">
         <v>6.5</v>
@@ -12777,13 +12777,13 @@
         <v>3.75</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
         <v>17</v>
       </c>
       <c r="O68" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -12959,13 +12959,13 @@
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
         <v>17</v>
       </c>
       <c r="O69" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -13067,7 +13067,7 @@
         <v>41</v>
       </c>
       <c r="AW69" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX69" t="n">
         <v>13</v>
@@ -13141,13 +13141,13 @@
         <v>2.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P70" t="n">
         <v>4.33</v>
@@ -13323,13 +13323,13 @@
         <v>3.1</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -13505,13 +13505,13 @@
         <v>2.88</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
         <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -13687,13 +13687,13 @@
         <v>2.6</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -13896,7 +13896,7 @@
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W74" t="n">
         <v>6.5</v>
@@ -14075,10 +14075,10 @@
         <v>3.25</v>
       </c>
       <c r="U75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W75" t="n">
         <v>7.5</v>
@@ -14260,7 +14260,7 @@
         <v>2.1</v>
       </c>
       <c r="V76" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W76" t="n">
         <v>7.5</v>
@@ -14415,13 +14415,13 @@
         <v>2.3</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
         <v>13</v>
       </c>
       <c r="O77" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -14439,7 +14439,7 @@
         <v>3.25</v>
       </c>
       <c r="U77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V77" t="n">
         <v>2</v>
@@ -15143,13 +15143,13 @@
         <v>3.4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
         <v>8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
         <v>2.75</v>
@@ -15158,7 +15158,7 @@
         <v>2.25</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S81" t="n">
         <v>1.5</v>
@@ -15325,13 +15325,13 @@
         <v>4.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N82" t="n">
         <v>7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
         <v>2.5</v>
@@ -15340,7 +15340,7 @@
         <v>2.6</v>
       </c>
       <c r="R82" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S82" t="n">
         <v>1.57</v>
@@ -15507,13 +15507,13 @@
         <v>2.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
         <v>9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -15531,10 +15531,10 @@
         <v>3.25</v>
       </c>
       <c r="U83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W83" t="n">
         <v>15</v>
@@ -15716,7 +15716,7 @@
         <v>2.1</v>
       </c>
       <c r="V84" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W84" t="n">
         <v>15</v>
@@ -15895,7 +15895,7 @@
         <v>3.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V85" t="n">
         <v>2.1</v>
@@ -16429,7 +16429,7 @@
         <v>11</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R88" t="n">
         <v>4.33</v>
@@ -16793,7 +16793,7 @@
         <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R90" t="n">
         <v>2</v>
@@ -16978,7 +16978,7 @@
         <v>2.15</v>
       </c>
       <c r="R91" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17157,7 +17157,7 @@
         <v>5.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R92" t="n">
         <v>2.4</v>
@@ -17491,79 +17491,79 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H94" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="K94" t="n">
         <v>2.27</v>
       </c>
       <c r="L94" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O94" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P94" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q94" t="n">
         <v>1.57</v>
       </c>
       <c r="R94" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S94" t="n">
         <v>1.31</v>
       </c>
       <c r="T94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U94" t="n">
         <v>1.5</v>
       </c>
       <c r="V94" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W94" t="n">
         <v>10.25</v>
       </c>
       <c r="X94" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z94" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA94" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC94" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD94" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE94" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF94" t="n">
         <v>37</v>
@@ -17572,67 +17572,67 @@
         <v>200</v>
       </c>
       <c r="AH94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL94" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM94" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AO94" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AP94" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR94" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS94" t="n">
         <v>150</v>
       </c>
       <c r="AT94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU94" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV94" t="n">
         <v>45</v>
       </c>
       <c r="AW94" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX94" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AY94" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ94" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB94" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC94" t="n">
         <v>51</v>
@@ -17676,7 +17676,7 @@
         <v>2.42</v>
       </c>
       <c r="H95" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
         <v>2.7</v>
@@ -17697,31 +17697,31 @@
         <v>8.25</v>
       </c>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P95" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R95" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S95" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T95" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U95" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V95" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W95" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X95" t="n">
         <v>14</v>
@@ -17736,16 +17736,16 @@
         <v>18</v>
       </c>
       <c r="AB95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC95" t="n">
         <v>8.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE95" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF95" t="n">
         <v>40</v>
@@ -17754,10 +17754,10 @@
         <v>250</v>
       </c>
       <c r="AH95" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>9.75</v>
@@ -17769,10 +17769,10 @@
         <v>20</v>
       </c>
       <c r="AM95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN95" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO95" t="n">
         <v>12.5</v>
@@ -17787,34 +17787,34 @@
         <v>70</v>
       </c>
       <c r="AS95" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV95" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW95" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AX95" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY95" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA95" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB95" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1311,13 +1311,13 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1493,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
@@ -1675,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>2.5</v>
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -2039,16 +2039,16 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,31 +2203,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>3.5</v>
@@ -2257,13 +2257,13 @@
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2284,10 +2284,10 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -2299,13 +2299,13 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2329,13 +2329,13 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
         <v>5.5</v>
@@ -3677,13 +3677,13 @@
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
         <v>4.5</v>
@@ -3701,7 +3701,7 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3710,13 +3710,13 @@
         <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
         <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA18" t="n">
         <v>41</v>
@@ -3731,7 +3731,7 @@
         <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3859,13 +3859,13 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
         <v>2.75</v>
@@ -4059,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.67</v>
@@ -4071,28 +4071,28 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4104,22 +4104,22 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
       </c>
       <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
         <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>4.33</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.2</v>
@@ -4805,10 +4805,10 @@
         <v>9.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
         <v>23</v>
@@ -4841,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H29" t="n">
         <v>5.75</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>1.67</v>
@@ -5724,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -5742,7 +5742,7 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>51</v>
@@ -5757,7 +5757,7 @@
         <v>67</v>
       </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="n">
         <v>3.25</v>
@@ -5781,7 +5781,7 @@
         <v>3.75</v>
       </c>
       <c r="AU29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
@@ -5802,7 +5802,7 @@
         <v>201</v>
       </c>
       <c r="BB29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -5864,13 +5864,13 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q30" t="n">
         <v>1.44</v>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
         <v>26</v>
@@ -5924,10 +5924,10 @@
         <v>67</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5936,7 +5936,7 @@
         <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
@@ -5945,7 +5945,7 @@
         <v>5</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>17</v>
@@ -5969,7 +5969,7 @@
         <v>34</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -6073,10 +6073,10 @@
         <v>2.5</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
@@ -6085,10 +6085,10 @@
         <v>41</v>
       </c>
       <c r="AA31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
         <v>19</v>
@@ -6118,7 +6118,7 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>19</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>6</v>
@@ -6613,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>9.5</v>
@@ -6759,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J35" t="n">
         <v>6.5</v>
@@ -6795,7 +6795,7 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J36" t="n">
         <v>4.33</v>
@@ -6977,7 +6977,7 @@
         <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V36" t="n">
         <v>2.5</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
@@ -7147,10 +7147,10 @@
         <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7159,10 +7159,10 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
         <v>3.8</v>
@@ -7341,10 +7341,10 @@
         <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
         <v>10</v>
@@ -7687,16 +7687,16 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
         <v>1.44</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
         <v>2.4</v>
@@ -7896,7 +7896,7 @@
         <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
@@ -7911,34 +7911,34 @@
         <v>26</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
         <v>15</v>
       </c>
       <c r="AK41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
@@ -8433,10 +8433,10 @@
         <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V44" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
@@ -8615,10 +8615,10 @@
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W45" t="n">
         <v>7</v>
@@ -8779,28 +8779,28 @@
         <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W46" t="n">
         <v>10</v>
@@ -8872,7 +8872,7 @@
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8979,7 +8979,7 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J54" t="n">
         <v>3</v>
@@ -10226,13 +10226,13 @@
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
@@ -10346,7 +10346,7 @@
         <v>29</v>
       </c>
       <c r="AZ54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA54" t="n">
         <v>81</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>2.6</v>
@@ -10590,7 +10590,7 @@
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10629,10 +10629,10 @@
         <v>11</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA56" t="n">
         <v>15</v>
@@ -10668,7 +10668,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>29</v>
@@ -10677,7 +10677,7 @@
         <v>4.33</v>
       </c>
       <c r="AO56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP56" t="n">
         <v>19</v>
@@ -10948,7 +10948,7 @@
         <v>3.25</v>
       </c>
       <c r="J58" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="n">
         <v>2.5</v>
@@ -11145,16 +11145,16 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R59" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S59" t="n">
         <v>1.44</v>
@@ -11333,10 +11333,10 @@
         <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
         <v>1.3</v>
@@ -11485,46 +11485,46 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H61" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="K61" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L61" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S61" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T61" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="n">
         <v>1.75</v>
@@ -11533,31 +11533,31 @@
         <v>1.85</v>
       </c>
       <c r="W61" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X61" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y61" t="n">
         <v>8.25</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB61" t="n">
         <v>24</v>
       </c>
       <c r="AC61" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF61" t="n">
         <v>70</v>
@@ -11566,61 +11566,61 @@
         <v>500</v>
       </c>
       <c r="AH61" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK61" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AL61" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO61" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AR61" t="n">
         <v>45</v>
       </c>
       <c r="AS61" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV61" t="n">
         <v>65</v>
       </c>
       <c r="AW61" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AX61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AY61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ61" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA61" t="n">
         <v>200</v>
@@ -12073,7 +12073,7 @@
         <v>3.25</v>
       </c>
       <c r="U64" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V64" t="n">
         <v>2.25</v>
@@ -12255,7 +12255,7 @@
         <v>3.5</v>
       </c>
       <c r="U65" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V65" t="n">
         <v>2.25</v>
@@ -12413,13 +12413,13 @@
         <v>3.1</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -12595,13 +12595,13 @@
         <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N67" t="n">
         <v>21</v>
       </c>
       <c r="O67" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P67" t="n">
         <v>6.5</v>
@@ -12777,13 +12777,13 @@
         <v>3.75</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
         <v>17</v>
       </c>
       <c r="O68" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -12941,16 +12941,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
         <v>2.38</v>
@@ -12959,13 +12959,13 @@
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
         <v>17</v>
       </c>
       <c r="O69" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -12989,7 +12989,7 @@
         <v>2.5</v>
       </c>
       <c r="W69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X69" t="n">
         <v>15</v>
@@ -13004,7 +13004,7 @@
         <v>19</v>
       </c>
       <c r="AB69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC69" t="n">
         <v>17</v>
@@ -13034,7 +13034,7 @@
         <v>26</v>
       </c>
       <c r="AL69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM69" t="n">
         <v>21</v>
@@ -13141,13 +13141,13 @@
         <v>2.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P70" t="n">
         <v>4.33</v>
@@ -13323,13 +13323,13 @@
         <v>3.1</v>
       </c>
       <c r="M71" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -13505,13 +13505,13 @@
         <v>2.88</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
         <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -13669,31 +13669,31 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I73" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J73" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O73" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -13711,19 +13711,19 @@
         <v>2.63</v>
       </c>
       <c r="U73" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W73" t="n">
         <v>11</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="n">
         <v>51</v>
@@ -13738,7 +13738,7 @@
         <v>8</v>
       </c>
       <c r="AD73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE73" t="n">
         <v>17</v>
@@ -13750,7 +13750,7 @@
         <v>351</v>
       </c>
       <c r="AH73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI73" t="n">
         <v>8</v>
@@ -13771,7 +13771,7 @@
         <v>6</v>
       </c>
       <c r="AO73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP73" t="n">
         <v>34</v>
@@ -13869,10 +13869,10 @@
         <v>4.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -13896,7 +13896,7 @@
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W74" t="n">
         <v>6.5</v>
@@ -14075,10 +14075,10 @@
         <v>3.25</v>
       </c>
       <c r="U75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W75" t="n">
         <v>7.5</v>
@@ -14260,7 +14260,7 @@
         <v>2.1</v>
       </c>
       <c r="V76" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W76" t="n">
         <v>7.5</v>
@@ -14427,7 +14427,7 @@
         <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R77" t="n">
         <v>2</v>
@@ -14439,7 +14439,7 @@
         <v>3.25</v>
       </c>
       <c r="U77" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V77" t="n">
         <v>2</v>
@@ -14597,13 +14597,13 @@
         <v>4.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
         <v>8.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -14612,7 +14612,7 @@
         <v>2.1</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -15158,7 +15158,7 @@
         <v>2.25</v>
       </c>
       <c r="R81" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
         <v>1.5</v>
@@ -15340,7 +15340,7 @@
         <v>2.6</v>
       </c>
       <c r="R82" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S82" t="n">
         <v>1.57</v>
@@ -15531,10 +15531,10 @@
         <v>3.25</v>
       </c>
       <c r="U83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W83" t="n">
         <v>15</v>
@@ -15716,7 +15716,7 @@
         <v>2.1</v>
       </c>
       <c r="V84" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W84" t="n">
         <v>15</v>
@@ -15895,7 +15895,7 @@
         <v>3.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V85" t="n">
         <v>2.1</v>
@@ -16217,79 +16217,79 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="H87" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I87" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="K87" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O87" t="n">
         <v>1.19</v>
       </c>
       <c r="P87" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S87" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T87" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U87" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V87" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W87" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X87" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y87" t="n">
         <v>8.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA87" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB87" t="n">
         <v>20</v>
       </c>
       <c r="AC87" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF87" t="n">
         <v>45</v>
@@ -16298,64 +16298,64 @@
         <v>250</v>
       </c>
       <c r="AH87" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI87" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL87" t="n">
         <v>28</v>
       </c>
-      <c r="AJ87" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>35</v>
-      </c>
       <c r="AM87" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO87" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AR87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS87" t="n">
         <v>150</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV87" t="n">
         <v>50</v>
       </c>
       <c r="AW87" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AX87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY87" t="n">
         <v>22</v>
       </c>
-      <c r="AY87" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ87" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA87" t="n">
         <v>110</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>120</v>
       </c>
       <c r="BB87" t="n">
         <v>250</v>
@@ -16429,7 +16429,7 @@
         <v>11</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="R88" t="n">
         <v>4.33</v>
@@ -16778,7 +16778,7 @@
         <v>2.25</v>
       </c>
       <c r="L90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
@@ -16787,16 +16787,16 @@
         <v>12</v>
       </c>
       <c r="O90" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S90" t="n">
         <v>1.36</v>
@@ -16814,7 +16814,7 @@
         <v>8.5</v>
       </c>
       <c r="X90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -16859,7 +16859,7 @@
         <v>26</v>
       </c>
       <c r="AM90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN90" t="n">
         <v>4.33</v>
@@ -16895,13 +16895,13 @@
         <v>19</v>
       </c>
       <c r="AY90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ90" t="n">
         <v>51</v>
       </c>
       <c r="BA90" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB90" t="n">
         <v>151</v>
@@ -16978,7 +16978,7 @@
         <v>2.15</v>
       </c>
       <c r="R91" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17157,7 +17157,7 @@
         <v>5.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R92" t="n">
         <v>2.4</v>
@@ -17676,7 +17676,7 @@
         <v>2.42</v>
       </c>
       <c r="H95" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I95" t="n">
         <v>2.7</v>
@@ -17685,46 +17685,46 @@
         <v>2.95</v>
       </c>
       <c r="K95" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L95" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O95" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P95" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R95" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S95" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T95" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="U95" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="V95" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="W95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X95" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y95" t="n">
         <v>9.25</v>
@@ -17736,28 +17736,28 @@
         <v>18</v>
       </c>
       <c r="AB95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC95" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE95" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG95" t="n">
         <v>250</v>
       </c>
       <c r="AH95" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>9.75</v>
@@ -17766,55 +17766,55 @@
         <v>32</v>
       </c>
       <c r="AL95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM95" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN95" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO95" t="n">
         <v>12.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ95" t="n">
         <v>50</v>
       </c>
       <c r="AR95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS95" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT95" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV95" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW95" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY95" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ95" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA95" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB95" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1386,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -2224,7 +2224,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2752,19 +2752,19 @@
         <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
         <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L13" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2791,37 +2791,37 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V13" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="W13" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
         <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2830,40 +2830,40 @@
         <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT13" t="n">
         <v>3.5</v>
@@ -2878,16 +2878,16 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -3671,19 +3671,19 @@
         <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
         <v>4.5</v>
@@ -3695,10 +3695,10 @@
         <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
         <v>1.75</v>
@@ -3776,7 +3776,7 @@
         <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3859,13 +3859,13 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -4032,13 +4032,13 @@
         <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4053,10 +4053,10 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4122,16 +4122,16 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4140,7 +4140,7 @@
         <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
@@ -4760,7 +4760,7 @@
         <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
@@ -4769,10 +4769,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.57</v>
@@ -4850,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
         <v>15</v>
@@ -4862,7 +4862,7 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS24" t="n">
         <v>301</v>
@@ -4883,10 +4883,10 @@
         <v>21</v>
       </c>
       <c r="AY24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA24" t="n">
         <v>126</v>
@@ -5500,7 +5500,7 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H29" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5691,10 +5691,10 @@
         <v>5.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S29" t="n">
         <v>1.25</v>
@@ -5724,13 +5724,13 @@
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5748,13 +5748,13 @@
         <v>51</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
         <v>151</v>
       </c>
       <c r="AL29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="n">
         <v>67</v>
@@ -5790,13 +5790,13 @@
         <v>11</v>
       </c>
       <c r="AX29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY29" t="n">
         <v>41</v>
       </c>
       <c r="AZ29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA29" t="n">
         <v>201</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -5858,7 +5858,7 @@
         <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5873,10 +5873,10 @@
         <v>6.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -5885,10 +5885,10 @@
         <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>26</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5924,22 +5924,22 @@
         <v>67</v>
       </c>
       <c r="AH30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI30" t="n">
         <v>17</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
         <v>19</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>21</v>
       </c>
       <c r="AN30" t="n">
         <v>5</v>
@@ -5987,7 +5987,7 @@
         <v>81</v>
       </c>
       <c r="BC30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -6049,10 +6049,10 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
         <v>1.48</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J35" t="n">
         <v>6.5</v>
@@ -6768,7 +6768,7 @@
         <v>2.63</v>
       </c>
       <c r="L35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
@@ -6822,16 +6822,16 @@
         <v>19</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH35" t="n">
         <v>9.5</v>
@@ -6840,10 +6840,10 @@
         <v>8</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL35" t="n">
         <v>11</v>
@@ -6852,7 +6852,7 @@
         <v>21</v>
       </c>
       <c r="AN35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
         <v>34</v>
@@ -6861,22 +6861,22 @@
         <v>34</v>
       </c>
       <c r="AQ35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
         <v>3.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW35" t="n">
         <v>3.6</v>
@@ -7490,7 +7490,7 @@
         <v>1.4</v>
       </c>
       <c r="J39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
         <v>2.38</v>
@@ -7505,10 +7505,10 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.8</v>
@@ -7517,16 +7517,16 @@
         <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
         <v>19</v>
@@ -7538,7 +7538,7 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="n">
         <v>51</v>
@@ -7559,10 +7559,10 @@
         <v>67</v>
       </c>
       <c r="AG39" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI39" t="n">
         <v>6.5</v>
@@ -7595,22 +7595,22 @@
         <v>151</v>
       </c>
       <c r="AS39" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AX39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY39" t="n">
         <v>19</v>
@@ -7977,7 +7977,7 @@
         <v>23</v>
       </c>
       <c r="AY41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ41" t="n">
         <v>81</v>
@@ -7986,7 +7986,7 @@
         <v>101</v>
       </c>
       <c r="BB41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC41" t="n">
         <v>151</v>
@@ -8045,10 +8045,10 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -9325,10 +9325,10 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
         <v>1.53</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H57" t="n">
         <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
         <v>2</v>
@@ -10781,16 +10781,16 @@
         <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10853,7 +10853,7 @@
         <v>51</v>
       </c>
       <c r="AM57" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="n">
         <v>3.5</v>
@@ -10892,7 +10892,7 @@
         <v>34</v>
       </c>
       <c r="AZ57" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA57" t="n">
         <v>126</v>
@@ -14427,7 +14427,7 @@
         <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R77" t="n">
         <v>2</v>
@@ -14612,7 +14612,7 @@
         <v>2.1</v>
       </c>
       <c r="R78" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -15313,55 +15313,55 @@
         <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K82" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P82" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R82" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U82" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V82" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X82" t="n">
         <v>8</v>
       </c>
       <c r="Y82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z82" t="n">
         <v>17</v>
@@ -15373,10 +15373,10 @@
         <v>41</v>
       </c>
       <c r="AC82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD82" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>6</v>
       </c>
       <c r="AE82" t="n">
         <v>21</v>
@@ -15388,7 +15388,7 @@
         <v>800</v>
       </c>
       <c r="AH82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI82" t="n">
         <v>19</v>
@@ -15397,7 +15397,7 @@
         <v>15</v>
       </c>
       <c r="AK82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL82" t="n">
         <v>41</v>
@@ -15421,19 +15421,19 @@
         <v>81</v>
       </c>
       <c r="AS82" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV82" t="n">
         <v>81</v>
       </c>
       <c r="AW82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX82" t="n">
         <v>26</v>
@@ -15442,7 +15442,7 @@
         <v>41</v>
       </c>
       <c r="AZ82" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA82" t="n">
         <v>151</v>
@@ -16784,7 +16784,7 @@
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
         <v>1.25</v>
@@ -16793,10 +16793,10 @@
         <v>3.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R90" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
         <v>1.36</v>
@@ -16963,10 +16963,10 @@
         <v>5.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O91" t="n">
         <v>1.36</v>
@@ -16975,10 +16975,10 @@
         <v>3</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="H96" t="n">
         <v>4.75</v>
@@ -17876,37 +17876,37 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="O96" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R96" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S96" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T96" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="V96" t="n">
         <v>1.5</v>
       </c>
       <c r="W96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y96" t="n">
         <v>32</v>
@@ -17924,7 +17924,7 @@
         <v>10.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE96" t="n">
         <v>29</v>
@@ -17936,28 +17936,28 @@
         <v>67</v>
       </c>
       <c r="AH96" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI96" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ96" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK96" t="n">
         <v>7.2</v>
       </c>
       <c r="AL96" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN96" t="n">
         <v>9.75</v>
       </c>
       <c r="AO96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP96" t="n">
         <v>65</v>
@@ -17984,10 +17984,10 @@
         <v>2.92</v>
       </c>
       <c r="AX96" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY96" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ96" t="n">
         <v>15</v>
@@ -17996,7 +17996,7 @@
         <v>50</v>
       </c>
       <c r="BB96" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC96" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD97"/>
+  <dimension ref="A1:BD98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -1126,13 +1126,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1213,7 +1213,7 @@
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
@@ -1556,13 +1556,13 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
@@ -1583,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
         <v>101</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H17" t="n">
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -3498,31 +3498,31 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T17" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W17" t="n">
         <v>10.25</v>
@@ -3531,22 +3531,22 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE17" t="n">
         <v>12.5</v>
@@ -3555,10 +3555,10 @@
         <v>50</v>
       </c>
       <c r="AG17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI17" t="n">
         <v>12.5</v>
@@ -3573,10 +3573,10 @@
         <v>18.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3588,13 +3588,13 @@
         <v>60</v>
       </c>
       <c r="AR17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS17" t="n">
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU17" t="n">
         <v>6.8</v>
@@ -4769,10 +4769,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
         <v>1.57</v>
@@ -4808,7 +4808,7 @@
         <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>23</v>
@@ -4841,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -4850,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>15</v>
@@ -4862,7 +4862,7 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
         <v>301</v>
@@ -4886,7 +4886,7 @@
         <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>126</v>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L26" t="n">
         <v>3.6</v>
@@ -5145,10 +5145,10 @@
         <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
         <v>1.57</v>
@@ -5163,10 +5163,10 @@
         <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -5181,7 +5181,7 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5226,7 +5226,7 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS26" t="n">
         <v>301</v>
@@ -5241,13 +5241,13 @@
         <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
         <v>51</v>
@@ -5679,10 +5679,10 @@
         <v>9.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O29" t="n">
         <v>1.14</v>
@@ -6407,22 +6407,22 @@
         <v>2.63</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="n">
         <v>1.4</v>
@@ -6577,16 +6577,16 @@
         <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J34" t="n">
         <v>1.57</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -6622,19 +6622,19 @@
         <v>9.5</v>
       </c>
       <c r="X34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>8</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
@@ -6649,13 +6649,13 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -6682,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="AR34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS34" t="n">
         <v>101</v>
@@ -6709,10 +6709,10 @@
         <v>201</v>
       </c>
       <c r="BA34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC34" t="n">
         <v>501</v>
@@ -7138,7 +7138,7 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>1.33</v>
@@ -9140,7 +9140,7 @@
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O48" t="n">
         <v>1.13</v>
@@ -9683,13 +9683,13 @@
         <v>2.3</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
         <v>3.75</v>
@@ -9865,13 +9865,13 @@
         <v>2.1</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P52" t="n">
         <v>3.5</v>
@@ -10047,13 +10047,13 @@
         <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
         <v>8.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
         <v>3.25</v>
@@ -11820,7 +11820,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>OGvfJSg2</t>
+          <t>QHhQeuDa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11830,179 +11830,179 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P63" t="n">
         <v>3</v>
       </c>
-      <c r="J63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N63" t="n">
-        <v>21</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P63" t="n">
-        <v>6</v>
-      </c>
       <c r="Q63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S63" t="n">
         <v>1.44</v>
       </c>
-      <c r="R63" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.22</v>
-      </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="W63" t="n">
         <v>13</v>
       </c>
       <c r="X63" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL63" t="n">
         <v>15</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AM63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU63" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC63" t="n">
+      <c r="AV63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY63" t="n">
         <v>23</v>
       </c>
-      <c r="AD63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ63" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA63" t="n">
         <v>51</v>
       </c>
       <c r="BB63" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC63" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD63" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ic0B8Bup</t>
+          <t>OGvfJSg2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12022,133 +12022,133 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="H64" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K64" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="L64" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O64" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="P64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="R64" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="S64" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="T64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W64" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y64" t="n">
         <v>9.5</v>
       </c>
       <c r="Z64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA64" t="n">
         <v>15</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AB64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE64" t="n">
         <v>11</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>13</v>
       </c>
       <c r="AF64" t="n">
         <v>29</v>
       </c>
       <c r="AG64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK64" t="n">
         <v>34</v>
       </c>
-      <c r="AJ64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>51</v>
-      </c>
       <c r="AL64" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP64" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ64" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS64" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AT64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU64" t="n">
         <v>7</v>
@@ -12157,16 +12157,16 @@
         <v>34</v>
       </c>
       <c r="AW64" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX64" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA64" t="n">
         <v>51</v>
@@ -12175,7 +12175,7 @@
         <v>81</v>
       </c>
       <c r="BC64" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD64" t="n">
         <v>151</v>
@@ -12184,7 +12184,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4jt6Uh23</t>
+          <t>Ic0B8Bup</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -12204,160 +12204,160 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="I65" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="L65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>34</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R65" t="n">
         <v>3.6</v>
       </c>
-      <c r="M65" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N65" t="n">
+      <c r="S65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>17</v>
+      </c>
+      <c r="X65" t="n">
         <v>13</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W65" t="n">
+      <c r="Y65" t="n">
         <v>9.5</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD65" t="n">
         <v>12</v>
       </c>
-      <c r="Y65" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z65" t="n">
+      <c r="AE65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX65" t="n">
         <v>21</v>
       </c>
-      <c r="AA65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>17</v>
-      </c>
       <c r="AY65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ65" t="n">
         <v>51</v>
       </c>
       <c r="BA65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB65" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC65" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD65" t="n">
         <v>151</v>
@@ -12366,7 +12366,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bDJvEXHM</t>
+          <t>4jt6Uh23</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -12386,55 +12386,55 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K66" t="n">
         <v>2.3</v>
       </c>
-      <c r="K66" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N66" t="n">
+        <v>13</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P66" t="n">
         <v>4.33</v>
       </c>
-      <c r="M66" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N66" t="n">
-        <v>15</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q66" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R66" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S66" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T66" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U66" t="n">
         <v>1.57</v>
@@ -12443,31 +12443,31 @@
         <v>2.25</v>
       </c>
       <c r="W66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA66" t="n">
         <v>15</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AB66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC66" t="n">
         <v>13</v>
       </c>
-      <c r="AB66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>15</v>
-      </c>
       <c r="AD66" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF66" t="n">
         <v>41</v>
@@ -12476,43 +12476,43 @@
         <v>126</v>
       </c>
       <c r="AH66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL66" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>29</v>
       </c>
       <c r="AM66" t="n">
         <v>29</v>
       </c>
       <c r="AN66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO66" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS66" t="n">
         <v>101</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU66" t="n">
         <v>7.5</v>
@@ -12521,16 +12521,16 @@
         <v>41</v>
       </c>
       <c r="AW66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX66" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY66" t="n">
         <v>23</v>
       </c>
       <c r="AZ66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA66" t="n">
         <v>67</v>
@@ -12539,7 +12539,7 @@
         <v>126</v>
       </c>
       <c r="BC66" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD66" t="n">
         <v>151</v>
@@ -12548,7 +12548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CGqESWWF</t>
+          <t>bDJvEXHM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12568,55 +12568,55 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="H67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N67" t="n">
+        <v>17</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T67" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N67" t="n">
-        <v>13</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T67" t="n">
-        <v>3.25</v>
       </c>
       <c r="U67" t="n">
         <v>1.57</v>
@@ -12625,76 +12625,76 @@
         <v>2.25</v>
       </c>
       <c r="W67" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z67" t="n">
         <v>15</v>
       </c>
-      <c r="Y67" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ67" t="n">
         <v>26</v>
       </c>
-      <c r="AA67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>41</v>
-      </c>
       <c r="AR67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS67" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU67" t="n">
         <v>7.5</v>
@@ -12703,19 +12703,19 @@
         <v>41</v>
       </c>
       <c r="AW67" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX67" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ67" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB67" t="n">
         <v>126</v>
@@ -12724,13 +12724,13 @@
         <v>351</v>
       </c>
       <c r="BD67" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Of3J6kAd</t>
+          <t>CGqESWWF</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12750,133 +12750,133 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.63</v>
       </c>
       <c r="H68" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="J68" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L68" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="P68" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U68" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V68" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W68" t="n">
         <v>11</v>
       </c>
       <c r="X68" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE68" t="n">
         <v>12</v>
       </c>
-      <c r="AA68" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC68" t="n">
+      <c r="AF68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP68" t="n">
         <v>21</v>
       </c>
-      <c r="AD68" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ68" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR68" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS68" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT68" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU68" t="n">
         <v>7.5</v>
@@ -12885,34 +12885,34 @@
         <v>41</v>
       </c>
       <c r="AW68" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AX68" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY68" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ68" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA68" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB68" t="n">
         <v>126</v>
       </c>
       <c r="BC68" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD68" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8rwNQA1S</t>
+          <t>Of3J6kAd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -12932,157 +12932,157 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I69" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="K69" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L69" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O69" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="R69" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T69" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W69" t="n">
         <v>11</v>
       </c>
       <c r="X69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z69" t="n">
         <v>12</v>
       </c>
-      <c r="Y69" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>19</v>
-      </c>
       <c r="AA69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE69" t="n">
         <v>15</v>
       </c>
-      <c r="AB69" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>12</v>
-      </c>
       <c r="AF69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="n">
         <v>101</v>
       </c>
       <c r="AH69" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI69" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>21</v>
       </c>
-      <c r="AJ69" t="n">
-        <v>12</v>
-      </c>
       <c r="AK69" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL69" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM69" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO69" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ69" t="n">
         <v>17</v>
       </c>
-      <c r="AQ69" t="n">
-        <v>29</v>
-      </c>
       <c r="AR69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS69" t="n">
         <v>81</v>
       </c>
       <c r="AT69" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV69" t="n">
         <v>41</v>
       </c>
       <c r="AW69" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AX69" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY69" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ69" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA69" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB69" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC69" t="n">
         <v>301</v>
@@ -13094,7 +13094,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4EOhLlPk</t>
+          <t>8rwNQA1S</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -13114,37 +13114,37 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J70" t="n">
         <v>2.5</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O70" t="n">
         <v>1.17</v>
@@ -13171,31 +13171,31 @@
         <v>2.5</v>
       </c>
       <c r="W70" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X70" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA70" t="n">
         <v>15</v>
       </c>
-      <c r="Y70" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA70" t="n">
+      <c r="AB70" t="n">
         <v>19</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>23</v>
       </c>
       <c r="AC70" t="n">
         <v>17</v>
       </c>
       <c r="AD70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
@@ -13204,40 +13204,40 @@
         <v>101</v>
       </c>
       <c r="AH70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>12</v>
       </c>
-      <c r="AI70" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO70" t="n">
         <v>10</v>
       </c>
-      <c r="AK70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL70" t="n">
+      <c r="AP70" t="n">
         <v>17</v>
       </c>
-      <c r="AM70" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ70" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS70" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT70" t="n">
         <v>3.5</v>
@@ -13249,16 +13249,16 @@
         <v>41</v>
       </c>
       <c r="AW70" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX70" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA70" t="n">
         <v>51</v>
@@ -13267,7 +13267,7 @@
         <v>101</v>
       </c>
       <c r="BC70" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD70" t="n">
         <v>151</v>
@@ -13276,7 +13276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>jNWusWo9</t>
+          <t>4EOhLlPk</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -13296,31 +13296,31 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.6</v>
       </c>
-      <c r="H71" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I71" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J71" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -13329,127 +13329,127 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P71" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R71" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S71" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U71" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V71" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W71" t="n">
         <v>13</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z71" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK71" t="n">
         <v>26</v>
       </c>
-      <c r="AB71" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK71" t="n">
+      <c r="AL71" t="n">
         <v>17</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>15</v>
       </c>
       <c r="AM71" t="n">
         <v>21</v>
       </c>
       <c r="AN71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP71" t="n">
         <v>19</v>
       </c>
-      <c r="AP71" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR71" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS71" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV71" t="n">
         <v>41</v>
       </c>
       <c r="AW71" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX71" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY71" t="n">
         <v>19</v>
       </c>
       <c r="AZ71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB71" t="n">
         <v>101</v>
       </c>
       <c r="BC71" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD71" t="n">
         <v>151</v>
@@ -13458,7 +13458,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CxLluAGL</t>
+          <t>jNWusWo9</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -13478,160 +13478,160 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L72" t="n">
         <v>2.5</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.1</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R72" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S72" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T72" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U72" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V72" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W72" t="n">
         <v>13</v>
       </c>
       <c r="X72" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="n">
         <v>26</v>
       </c>
-      <c r="AA72" t="n">
-        <v>17</v>
-      </c>
       <c r="AB72" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD72" t="n">
         <v>7.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH72" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL72" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>19</v>
       </c>
       <c r="AM72" t="n">
         <v>21</v>
       </c>
       <c r="AN72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO72" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP72" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS72" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT72" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV72" t="n">
         <v>41</v>
       </c>
       <c r="AW72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX72" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY72" t="n">
         <v>19</v>
       </c>
       <c r="AZ72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB72" t="n">
         <v>101</v>
       </c>
       <c r="BC72" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD72" t="n">
         <v>151</v>
@@ -13640,7 +13640,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bDLv1dNH</t>
+          <t>CxLluAGL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13655,165 +13655,165 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J73" t="n">
         <v>3</v>
       </c>
-      <c r="I73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4</v>
-      </c>
       <c r="K73" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M73" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="R73" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="S73" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T73" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W73" t="n">
+        <v>13</v>
+      </c>
+      <c r="X73" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y73" t="n">
         <v>10</v>
       </c>
-      <c r="X73" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH73" t="n">
         <v>13</v>
       </c>
-      <c r="Z73" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE73" t="n">
+      <c r="AI73" t="n">
         <v>15</v>
       </c>
-      <c r="AF73" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK73" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL73" t="n">
         <v>19</v>
       </c>
       <c r="AM73" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO73" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP73" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ73" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR73" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS73" t="n">
         <v>101</v>
       </c>
-      <c r="AS73" t="n">
-        <v>251</v>
-      </c>
       <c r="AT73" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU73" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY73" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ73" t="n">
         <v>41</v>
       </c>
       <c r="BA73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB73" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BC73" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD73" t="n">
         <v>151</v>
@@ -13822,7 +13822,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lOLF60gt</t>
+          <t>bDLv1dNH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -13842,31 +13842,31 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="M74" t="n">
         <v>1.08</v>
@@ -13881,10 +13881,10 @@
         <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -13893,25 +13893,25 @@
         <v>2.63</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V74" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X74" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z74" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB74" t="n">
         <v>41</v>
@@ -13920,52 +13920,52 @@
         <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF74" t="n">
         <v>51</v>
       </c>
       <c r="AG74" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI74" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AJ74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM74" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP74" t="n">
         <v>29</v>
       </c>
-      <c r="AN74" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ74" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR74" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS74" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT74" t="n">
         <v>2.63</v>
@@ -13974,22 +13974,22 @@
         <v>8.5</v>
       </c>
       <c r="AV74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX74" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY74" t="n">
         <v>23</v>
       </c>
       <c r="AZ74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB74" t="n">
         <v>201</v>
@@ -14004,7 +14004,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AwAO4vOh</t>
+          <t>lOLF60gt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -14024,37 +14024,37 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.83</v>
+        <v>4.75</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -14081,22 +14081,22 @@
         <v>1.73</v>
       </c>
       <c r="W75" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X75" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z75" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA75" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB75" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC75" t="n">
         <v>8</v>
@@ -14114,40 +14114,40 @@
         <v>351</v>
       </c>
       <c r="AH75" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AJ75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK75" t="n">
         <v>15</v>
       </c>
-      <c r="AK75" t="n">
-        <v>51</v>
-      </c>
       <c r="AL75" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AM75" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AO75" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AP75" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ75" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR75" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS75" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT75" t="n">
         <v>2.63</v>
@@ -14159,22 +14159,22 @@
         <v>67</v>
       </c>
       <c r="AW75" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AX75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY75" t="n">
         <v>23</v>
       </c>
-      <c r="AY75" t="n">
+      <c r="AZ75" t="n">
         <v>34</v>
       </c>
-      <c r="AZ75" t="n">
-        <v>81</v>
-      </c>
       <c r="BA75" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB75" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC75" t="n">
         <v>126</v>
@@ -14186,7 +14186,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vcQ4lJwC</t>
+          <t>AwAO4vOh</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -14206,85 +14206,85 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="H76" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U76" t="n">
         <v>2</v>
       </c>
-      <c r="K76" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L76" t="n">
+      <c r="V76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W76" t="n">
         <v>6.5</v>
       </c>
-      <c r="M76" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N76" t="n">
-        <v>12</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W76" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA76" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD76" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE76" t="n">
         <v>17</v>
@@ -14293,73 +14293,73 @@
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI76" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>34</v>
       </c>
-      <c r="AJ76" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>21</v>
-      </c>
       <c r="AR76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU76" t="n">
         <v>8.5</v>
       </c>
       <c r="AV76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX76" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AY76" t="n">
         <v>34</v>
       </c>
       <c r="AZ76" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA76" t="n">
         <v>126</v>
       </c>
       <c r="BB76" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC76" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD76" t="n">
         <v>151</v>
@@ -14368,7 +14368,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tvYLtiRi</t>
+          <t>vcQ4lJwC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14378,179 +14378,179 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N77" t="n">
+        <v>12</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T77" t="n">
         <v>3.25</v>
       </c>
-      <c r="H77" t="n">
-        <v>3</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U77" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V77" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W77" t="n">
         <v>7.5</v>
       </c>
       <c r="X77" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y77" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI77" t="n">
         <v>34</v>
       </c>
-      <c r="AA77" t="n">
+      <c r="AJ77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX77" t="n">
         <v>34</v>
       </c>
-      <c r="AB77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP77" t="n">
+      <c r="AY77" t="n">
         <v>34</v>
       </c>
-      <c r="AQ77" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ77" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA77" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB77" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC77" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD77" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SfWTvVe4</t>
+          <t>tvYLtiRi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14570,73 +14570,73 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="J78" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L78" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N78" t="n">
+        <v>7</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X78" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y78" t="n">
         <v>13</v>
       </c>
-      <c r="O78" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P78" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V78" t="n">
-        <v>2</v>
-      </c>
-      <c r="W78" t="n">
-        <v>15</v>
-      </c>
-      <c r="X78" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>15</v>
-      </c>
       <c r="Z78" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA78" t="n">
         <v>34</v>
@@ -14645,85 +14645,85 @@
         <v>41</v>
       </c>
       <c r="AC78" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE78" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF78" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG78" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI78" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AJ78" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK78" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AL78" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AM78" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN78" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO78" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ78" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR78" t="n">
         <v>101</v>
       </c>
       <c r="AS78" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT78" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AU78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV78" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW78" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX78" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY78" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ78" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA78" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB78" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC78" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD78" t="n">
         <v>81</v>
@@ -14732,7 +14732,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>thXT2e87</t>
+          <t>SfWTvVe4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14742,170 +14742,170 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="J79" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K79" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L79" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="M79" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N79" t="n">
+        <v>13</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2</v>
+      </c>
+      <c r="W79" t="n">
+        <v>15</v>
+      </c>
+      <c r="X79" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI79" t="n">
         <v>8.5</v>
       </c>
-      <c r="O79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P79" t="n">
+      <c r="AJ79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT79" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q79" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V79" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W79" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X79" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y79" t="n">
+      <c r="AU79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX79" t="n">
         <v>9</v>
       </c>
-      <c r="Z79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB79" t="n">
+      <c r="AY79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>29</v>
       </c>
-      <c r="AC79" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>81</v>
-      </c>
       <c r="BA79" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB79" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC79" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD79" t="n">
         <v>81</v>
@@ -14914,7 +14914,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pCdRBnlU</t>
+          <t>thXT2e87</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14924,179 +14924,179 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
-        <v>4.65</v>
+        <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>1.42</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="K80" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.88</v>
+        <v>4.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="P80" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="R80" t="n">
-        <v>2.42</v>
+        <v>1.7</v>
       </c>
       <c r="S80" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="T80" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U80" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V80" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W80" t="n">
-        <v>22</v>
+        <v>6.5</v>
       </c>
       <c r="X80" t="n">
-        <v>45</v>
+        <v>8.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="Z80" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AA80" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AB80" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG80" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH80" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI80" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AK80" t="n">
-        <v>10.25</v>
+        <v>41</v>
       </c>
       <c r="AL80" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AM80" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="n">
-        <v>7.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AP80" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AQ80" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AR80" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AS80" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV80" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AX80" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AY80" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AZ80" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="BA80" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="BB80" t="n">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="BC80" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD80" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bFM0Qo3N</t>
+          <t>pCdRBnlU</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -15116,157 +15116,157 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.65</v>
+        <v>6.3</v>
       </c>
       <c r="H81" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="I81" t="n">
-        <v>4.05</v>
+        <v>1.42</v>
       </c>
       <c r="J81" t="n">
-        <v>2.12</v>
+        <v>5.6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>4.1</v>
+        <v>1.88</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P81" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R81" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="S81" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="T81" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="V81" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="W81" t="n">
-        <v>11.25</v>
+        <v>22</v>
       </c>
       <c r="X81" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL81" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="n">
+      <c r="AM81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>200</v>
       </c>
-      <c r="AH81" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ81" t="n">
+      <c r="AR81" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY81" t="n">
         <v>14</v>
       </c>
-      <c r="AK81" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR81" t="n">
+      <c r="AZ81" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA81" t="n">
         <v>37</v>
       </c>
-      <c r="AS81" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>100</v>
-      </c>
       <c r="BB81" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC81" t="n">
         <v>51</v>
@@ -15278,7 +15278,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b9XErtfA</t>
+          <t>bFM0Qo3N</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15288,167 +15288,167 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="I82" t="n">
-        <v>2.7</v>
+        <v>4.05</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="L82" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P82" t="n">
-        <v>2.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="S82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.5</v>
       </c>
-      <c r="T82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V82" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="W82" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="X82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE82" t="n">
         <v>13</v>
       </c>
-      <c r="Y82" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z82" t="n">
+      <c r="AF82" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM82" t="n">
         <v>29</v>
       </c>
-      <c r="AA82" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>34</v>
-      </c>
       <c r="AN82" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO82" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AP82" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AR82" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AS82" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV82" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX82" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY82" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ82" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA82" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB82" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC82" t="n">
         <v>51</v>
@@ -15460,7 +15460,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vTvnslz3</t>
+          <t>b9XErtfA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -15480,157 +15480,157 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
+        <v>8</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W83" t="n">
+        <v>8</v>
+      </c>
+      <c r="X83" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD83" t="n">
         <v>6</v>
       </c>
-      <c r="O83" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W83" t="n">
-        <v>5</v>
-      </c>
-      <c r="X83" t="n">
+      <c r="AE83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH83" t="n">
         <v>8</v>
       </c>
-      <c r="Y83" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z83" t="n">
+      <c r="AI83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO83" t="n">
         <v>17</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>12</v>
       </c>
       <c r="AP83" t="n">
         <v>29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR83" t="n">
         <v>81</v>
       </c>
       <c r="AS83" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU83" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV83" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA83" t="n">
         <v>81</v>
       </c>
-      <c r="AW83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>151</v>
-      </c>
       <c r="BB83" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>
@@ -15642,7 +15642,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ddgUIe3L</t>
+          <t>vTvnslz3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15652,179 +15652,179 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I84" t="n">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="J84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L84" t="n">
         <v>5</v>
       </c>
-      <c r="K84" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O84" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P84" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="R84" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="S84" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T84" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U84" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V84" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W84" t="n">
+        <v>5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>15</v>
       </c>
-      <c r="X84" t="n">
+      <c r="AK84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX84" t="n">
         <v>26</v>
       </c>
-      <c r="Y84" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR84" t="n">
+      <c r="AY84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ84" t="n">
         <v>101</v>
       </c>
-      <c r="AS84" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>23</v>
-      </c>
       <c r="BA84" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB84" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BC84" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD84" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A3DZdEt2</t>
+          <t>ddgUIe3L</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15834,7 +15834,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -15844,157 +15844,157 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.08</v>
+        <v>4.75</v>
       </c>
       <c r="H85" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>21</v>
+        <v>1.55</v>
       </c>
       <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S85" t="n">
         <v>1.33</v>
       </c>
-      <c r="K85" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N85" t="n">
-        <v>17</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P85" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R85" t="n">
-        <v>4</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.14</v>
-      </c>
       <c r="T85" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="U85" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W85" t="n">
         <v>15</v>
       </c>
       <c r="X85" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y85" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="n">
         <v>13</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AD85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH85" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA85" t="n">
+      <c r="AI85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK85" t="n">
         <v>12</v>
       </c>
-      <c r="AB85" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE85" t="n">
+      <c r="AL85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP85" t="n">
         <v>34</v>
       </c>
-      <c r="AF85" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI85" t="n">
+      <c r="AQ85" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR85" t="n">
         <v>101</v>
       </c>
-      <c r="AJ85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL85" t="n">
+      <c r="AS85" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB85" t="n">
         <v>126</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>501</v>
       </c>
       <c r="BC85" t="n">
         <v>81</v>
@@ -16006,7 +16006,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>zs5LKHY8</t>
+          <t>A3DZdEt2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -16026,157 +16026,157 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.75</v>
+        <v>1.08</v>
       </c>
       <c r="H86" t="n">
+        <v>10</v>
+      </c>
+      <c r="I86" t="n">
+        <v>21</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L86" t="n">
+        <v>12</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N86" t="n">
+        <v>17</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P86" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R86" t="n">
         <v>4</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N86" t="n">
-        <v>10</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P86" t="n">
+      <c r="S86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W86" t="n">
+        <v>15</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO86" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q86" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V86" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W86" t="n">
+      <c r="AP86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW86" t="n">
         <v>17</v>
       </c>
-      <c r="X86" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="n">
+      <c r="AX86" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ86" t="n">
         <v>151</v>
       </c>
-      <c r="AH86" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>21</v>
-      </c>
       <c r="BA86" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB86" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC86" t="n">
         <v>81</v>
@@ -16188,7 +16188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6329OsCa</t>
+          <t>zs5LKHY8</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16198,179 +16198,179 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.42</v>
+        <v>4.75</v>
       </c>
       <c r="H87" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P87" t="n">
         <v>4.5</v>
       </c>
-      <c r="I87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N87" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P87" t="n">
-        <v>4.05</v>
-      </c>
       <c r="Q87" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="S87" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T87" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="U87" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V87" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W87" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="X87" t="n">
-        <v>7.3</v>
+        <v>29</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="Z87" t="n">
-        <v>9.75</v>
+        <v>51</v>
       </c>
       <c r="AA87" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AB87" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AD87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH87" t="n">
         <v>9</v>
       </c>
-      <c r="AE87" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>19</v>
-      </c>
       <c r="AI87" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AJ87" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AK87" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AL87" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AM87" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="AO87" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="AP87" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="AR87" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AS87" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AU87" t="n">
         <v>8</v>
       </c>
       <c r="AV87" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AW87" t="n">
-        <v>7.9</v>
+        <v>3.75</v>
       </c>
       <c r="AX87" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AY87" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AZ87" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="BA87" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB87" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC87" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD87" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIjIMLtC</t>
+          <t>6329OsCa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -16390,37 +16390,37 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="H88" t="n">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="I88" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="J88" t="n">
-        <v>2.37</v>
+        <v>1.85</v>
       </c>
       <c r="K88" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="L88" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O88" t="n">
         <v>1.19</v>
@@ -16429,118 +16429,118 @@
         <v>4.15</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R88" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S88" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T88" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U88" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="V88" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="W88" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="X88" t="n">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y88" t="n">
         <v>8.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AA88" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB88" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH88" t="n">
         <v>20</v>
       </c>
-      <c r="AC88" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF88" t="n">
+      <c r="AI88" t="n">
         <v>45</v>
       </c>
-      <c r="AG88" t="n">
+      <c r="AJ88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ88" t="n">
         <v>250</v>
       </c>
-      <c r="AH88" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>90</v>
-      </c>
       <c r="BA88" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="BB88" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC88" t="n">
         <v>51</v>
@@ -16552,7 +16552,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>rZUMP5Qr</t>
+          <t>SIjIMLtC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,170 +16562,170 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N89" t="n">
-        <v>34</v>
+        <v>8.75</v>
       </c>
       <c r="O89" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="P89" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R89" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="S89" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="T89" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="U89" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="V89" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="W89" t="n">
-        <v>21</v>
+        <v>9.75</v>
       </c>
       <c r="X89" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>12</v>
       </c>
-      <c r="AB89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>17</v>
-      </c>
       <c r="AK89" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL89" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM89" t="n">
         <v>29</v>
       </c>
-      <c r="AM89" t="n">
-        <v>23</v>
-      </c>
       <c r="AN89" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="AO89" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AR89" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AS89" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="AU89" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AV89" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AW89" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AX89" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY89" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ89" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA89" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB89" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BC89" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD89" t="n">
         <v>51</v>
@@ -16734,7 +16734,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0hUpePj4</t>
+          <t>rZUMP5Qr</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16744,170 +16744,170 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>DPMM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I90" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
         <v>4</v>
       </c>
       <c r="M90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N90" t="n">
+        <v>34</v>
+      </c>
+      <c r="O90" t="n">
         <v>1.05</v>
       </c>
-      <c r="N90" t="n">
+      <c r="P90" t="n">
         <v>11</v>
       </c>
-      <c r="O90" t="n">
+      <c r="Q90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U90" t="n">
         <v>1.29</v>
       </c>
-      <c r="P90" t="n">
+      <c r="V90" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q90" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V90" t="n">
-        <v>2</v>
-      </c>
       <c r="W90" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X90" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y90" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z90" t="n">
         <v>19</v>
       </c>
       <c r="AA90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>17</v>
       </c>
-      <c r="AB90" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>12</v>
-      </c>
       <c r="AK90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL90" t="n">
         <v>29</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP90" t="n">
         <v>11</v>
       </c>
-      <c r="AP90" t="n">
+      <c r="AQ90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX90" t="n">
         <v>21</v>
       </c>
-      <c r="AQ90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>19</v>
-      </c>
       <c r="AY90" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ90" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB90" t="n">
         <v>67</v>
       </c>
-      <c r="BA90" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>201</v>
-      </c>
       <c r="BC90" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD90" t="n">
         <v>51</v>
@@ -16916,7 +16916,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2VF9Et0n</t>
+          <t>0hUpePj4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16936,64 +16936,64 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J91" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
         <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V91" t="n">
         <v>2</v>
       </c>
-      <c r="S91" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T91" t="n">
-        <v>3</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V91" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X91" t="n">
         <v>10</v>
@@ -17005,28 +17005,28 @@
         <v>19</v>
       </c>
       <c r="AA91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
       </c>
       <c r="AF91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI91" t="n">
         <v>19</v>
@@ -17038,34 +17038,34 @@
         <v>41</v>
       </c>
       <c r="AL91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM91" t="n">
         <v>34</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO91" t="n">
         <v>11</v>
       </c>
       <c r="AP91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR91" t="n">
         <v>51</v>
       </c>
       <c r="AS91" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17080,16 +17080,16 @@
         <v>26</v>
       </c>
       <c r="AZ91" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA91" t="n">
         <v>81</v>
       </c>
       <c r="BB91" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC91" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD91" t="n">
         <v>51</v>
@@ -17098,7 +17098,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CAdbpJLa</t>
+          <t>2VF9Et0n</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -17108,179 +17108,179 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J92" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N92" t="n">
+        <v>13</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V92" t="n">
         <v>2.1</v>
       </c>
-      <c r="L92" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P92" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T92" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U92" t="n">
-        <v>2</v>
-      </c>
-      <c r="V92" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W92" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X92" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y92" t="n">
         <v>9</v>
       </c>
       <c r="Z92" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA92" t="n">
         <v>15</v>
       </c>
       <c r="AB92" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC92" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE92" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF92" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG92" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH92" t="n">
         <v>12</v>
       </c>
       <c r="AI92" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL92" t="n">
         <v>26</v>
       </c>
-      <c r="AJ92" t="n">
+      <c r="AM92" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP92" t="n">
         <v>19</v>
       </c>
-      <c r="AK92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR92" t="n">
         <v>51</v>
       </c>
       <c r="AS92" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU92" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV92" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX92" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AY92" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ92" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA92" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB92" t="n">
         <v>151</v>
       </c>
-      <c r="BB92" t="n">
-        <v>351</v>
-      </c>
       <c r="BC92" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD92" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>UNCX0BbC</t>
+          <t>CAdbpJLa</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17290,179 +17290,179 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I93" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K93" t="n">
         <v>2.1</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N93" t="n">
+        <v>9</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T93" t="n">
         <v>2.63</v>
       </c>
-      <c r="M93" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N93" t="n">
-        <v>17</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T93" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U93" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="W93" t="n">
+        <v>6</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA93" t="n">
         <v>15</v>
       </c>
-      <c r="X93" t="n">
+      <c r="AB93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE93" t="n">
         <v>19</v>
       </c>
-      <c r="Y93" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>11</v>
-      </c>
       <c r="AF93" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG93" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AH93" t="n">
         <v>12</v>
       </c>
       <c r="AI93" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO93" t="n">
         <v>9</v>
       </c>
-      <c r="AK93" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>15</v>
-      </c>
       <c r="AP93" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ93" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR93" t="n">
         <v>51</v>
       </c>
       <c r="AS93" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ93" t="n">
         <v>101</v>
       </c>
-      <c r="AT93" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>34</v>
-      </c>
       <c r="BA93" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB93" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC93" t="n">
         <v>81</v>
       </c>
-      <c r="BC93" t="n">
-        <v>301</v>
-      </c>
       <c r="BD93" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AsOnWTM8</t>
+          <t>UNCX0BbC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17472,179 +17472,179 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J94" t="n">
         <v>3.4</v>
       </c>
-      <c r="I94" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K94" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="L94" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="O94" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P94" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R94" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S94" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="T94" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U94" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V94" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="W94" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="X94" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z94" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB94" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="AD94" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF94" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG94" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AH94" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AI94" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ94" t="n">
         <v>9</v>
       </c>
       <c r="AK94" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL94" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO94" t="n">
         <v>15</v>
       </c>
       <c r="AP94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ94" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AR94" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS94" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT94" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU94" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV94" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW94" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX94" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AY94" t="n">
         <v>17</v>
       </c>
       <c r="AZ94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BA94" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BB94" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BC94" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD94" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Op6LF8xS</t>
+          <t>AsOnWTM8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17664,154 +17664,154 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="H95" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="K95" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L95" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="M95" t="n">
         <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O95" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R95" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S95" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="T95" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U95" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V95" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="W95" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y95" t="n">
         <v>10.25</v>
       </c>
-      <c r="X95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA95" t="n">
         <v>22</v>
       </c>
-      <c r="AA95" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AB95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP95" t="n">
         <v>20</v>
       </c>
-      <c r="AC95" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG95" t="n">
+      <c r="AQ95" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS95" t="n">
         <v>200</v>
       </c>
-      <c r="AH95" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>150</v>
-      </c>
       <c r="AT95" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV95" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ95" t="n">
         <v>45</v>
       </c>
-      <c r="AW95" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ95" t="n">
+      <c r="BA95" t="n">
         <v>65</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>75</v>
       </c>
       <c r="BB95" t="n">
         <v>175</v>
@@ -17826,7 +17826,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8IshAn0k</t>
+          <t>Op6LF8xS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -17846,157 +17846,157 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V96" t="n">
         <v>2.42</v>
       </c>
-      <c r="H96" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N96" t="n">
-        <v>8</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P96" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R96" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T96" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V96" t="n">
-        <v>2.27</v>
-      </c>
       <c r="W96" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH96" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y96" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB96" t="n">
+      <c r="AI96" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM96" t="n">
         <v>23</v>
       </c>
-      <c r="AC96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF96" t="n">
+      <c r="AN96" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV96" t="n">
         <v>45</v>
       </c>
-      <c r="AG96" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP96" t="n">
+      <c r="AW96" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY96" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ96" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR96" t="n">
+      <c r="AZ96" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA96" t="n">
         <v>75</v>
       </c>
-      <c r="AS96" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>90</v>
-      </c>
       <c r="BB96" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC96" t="n">
         <v>51</v>
@@ -18008,182 +18008,364 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>8IshAn0k</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>8</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W97" t="n">
+        <v>10</v>
+      </c>
+      <c r="X97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>WdfySwEF</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Shakhtar Donetsk</t>
         </is>
       </c>
-      <c r="G97" t="n">
+      <c r="G98" t="n">
         <v>10</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H98" t="n">
         <v>4.8</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I98" t="n">
         <v>1.28</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J98" t="n">
         <v>8.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K98" t="n">
         <v>2.35</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L98" t="n">
         <v>1.72</v>
       </c>
-      <c r="M97" t="n">
+      <c r="M98" t="n">
         <v>1.01</v>
       </c>
-      <c r="N97" t="n">
+      <c r="N98" t="n">
         <v>12.5</v>
       </c>
-      <c r="O97" t="n">
+      <c r="O98" t="n">
         <v>1.25</v>
       </c>
-      <c r="P97" t="n">
+      <c r="P98" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q98" t="n">
         <v>1.8</v>
       </c>
-      <c r="R97" t="n">
+      <c r="R98" t="n">
         <v>1.91</v>
       </c>
-      <c r="S97" t="n">
+      <c r="S98" t="n">
         <v>1.35</v>
       </c>
-      <c r="T97" t="n">
+      <c r="T98" t="n">
         <v>3.02</v>
       </c>
-      <c r="U97" t="n">
+      <c r="U98" t="n">
         <v>2.27</v>
       </c>
-      <c r="V97" t="n">
+      <c r="V98" t="n">
         <v>1.5</v>
       </c>
-      <c r="W97" t="n">
+      <c r="W98" t="n">
         <v>21</v>
       </c>
-      <c r="X97" t="n">
+      <c r="X98" t="n">
         <v>70</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="Y98" t="n">
         <v>35</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="Z98" t="n">
         <v>350</v>
       </c>
-      <c r="AA97" t="n">
+      <c r="AA98" t="n">
         <v>175</v>
       </c>
-      <c r="AB97" t="n">
+      <c r="AB98" t="n">
         <v>150</v>
       </c>
-      <c r="AC97" t="n">
+      <c r="AC98" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD97" t="n">
+      <c r="AD98" t="n">
         <v>10</v>
       </c>
-      <c r="AE97" t="n">
+      <c r="AE98" t="n">
         <v>30</v>
       </c>
-      <c r="AF97" t="n">
+      <c r="AF98" t="n">
         <v>175</v>
       </c>
-      <c r="AG97" t="n">
+      <c r="AG98" t="n">
         <v>67</v>
       </c>
-      <c r="AH97" t="n">
+      <c r="AH98" t="n">
         <v>5.9</v>
       </c>
-      <c r="AI97" t="n">
+      <c r="AI98" t="n">
         <v>5.4</v>
       </c>
-      <c r="AJ97" t="n">
+      <c r="AJ98" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK97" t="n">
+      <c r="AK98" t="n">
         <v>7.1</v>
       </c>
-      <c r="AL97" t="n">
+      <c r="AL98" t="n">
         <v>12</v>
       </c>
-      <c r="AM97" t="n">
+      <c r="AM98" t="n">
         <v>40</v>
       </c>
-      <c r="AN97" t="n">
+      <c r="AN98" t="n">
         <v>10</v>
       </c>
-      <c r="AO97" t="n">
+      <c r="AO98" t="n">
         <v>65</v>
       </c>
-      <c r="AP97" t="n">
+      <c r="AP98" t="n">
         <v>65</v>
       </c>
-      <c r="AQ97" t="n">
+      <c r="AQ98" t="n">
         <v>500</v>
       </c>
-      <c r="AR97" t="n">
+      <c r="AR98" t="n">
         <v>500</v>
       </c>
-      <c r="AS97" t="n">
+      <c r="AS98" t="n">
         <v>67</v>
       </c>
-      <c r="AT97" t="n">
+      <c r="AT98" t="n">
         <v>2.65</v>
       </c>
-      <c r="AU97" t="n">
+      <c r="AU98" t="n">
         <v>10</v>
       </c>
-      <c r="AV97" t="n">
+      <c r="AV98" t="n">
         <v>120</v>
       </c>
-      <c r="AW97" t="n">
+      <c r="AW98" t="n">
         <v>2.9</v>
       </c>
-      <c r="AX97" t="n">
+      <c r="AX98" t="n">
         <v>5.5</v>
       </c>
-      <c r="AY97" t="n">
+      <c r="AY98" t="n">
         <v>19</v>
       </c>
-      <c r="AZ97" t="n">
+      <c r="AZ98" t="n">
         <v>15</v>
       </c>
-      <c r="BA97" t="n">
+      <c r="BA98" t="n">
         <v>50</v>
       </c>
-      <c r="BB97" t="n">
+      <c r="BB98" t="n">
         <v>350</v>
       </c>
-      <c r="BC97" t="n">
+      <c r="BC98" t="n">
         <v>81</v>
       </c>
-      <c r="BD97" t="n">
+      <c r="BD98" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD98"/>
+  <dimension ref="A1:BD99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1854,13 +1854,13 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1902,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -1923,7 +1923,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1947,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2758,13 +2758,13 @@
         <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.35</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2782,7 +2782,7 @@
         <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S13" t="n">
         <v>1.26</v>
@@ -2797,10 +2797,10 @@
         <v>2.85</v>
       </c>
       <c r="W13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2812,7 +2812,7 @@
         <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
@@ -2830,37 +2830,37 @@
         <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN13" t="n">
         <v>5.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>120</v>
@@ -2878,16 +2878,16 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -3477,52 +3477,52 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.18</v>
       </c>
       <c r="L17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.95</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.87</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
         <v>10.25</v>
@@ -3531,37 +3531,37 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="n">
         <v>300</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.25</v>
@@ -3570,16 +3570,16 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP17" t="n">
         <v>20</v>
@@ -3594,31 +3594,31 @@
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW17" t="n">
         <v>4.45</v>
       </c>
       <c r="AX17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -4656,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
@@ -4692,7 +4692,7 @@
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>5.5</v>
@@ -5843,16 +5843,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.5</v>
@@ -5900,7 +5900,7 @@
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5930,7 +5930,7 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
         <v>26</v>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
@@ -8224,13 +8224,13 @@
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -8257,7 +8257,7 @@
         <v>1.8</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>15</v>
@@ -8293,13 +8293,13 @@
         <v>7</v>
       </c>
       <c r="AI43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
         <v>19</v>
@@ -8323,7 +8323,7 @@
         <v>81</v>
       </c>
       <c r="AS43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT43" t="n">
         <v>2.63</v>
@@ -8335,10 +8335,10 @@
         <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY43" t="n">
         <v>23</v>
@@ -8776,25 +8776,25 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U46" t="n">
         <v>1.83</v>
@@ -8872,7 +8872,7 @@
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -10393,40 +10393,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55" t="n">
         <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10435,31 +10435,31 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
       </c>
       <c r="AC55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD55" t="n">
         <v>6</v>
@@ -10495,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="AO55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -10507,7 +10507,7 @@
         <v>67</v>
       </c>
       <c r="AS55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT55" t="n">
         <v>2.63</v>
@@ -11509,16 +11509,16 @@
         <v>15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S61" t="n">
         <v>1.3</v>
@@ -11667,19 +11667,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I62" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J62" t="n">
         <v>1.98</v>
       </c>
       <c r="K62" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L62" t="n">
         <v>5.4</v>
@@ -11688,7 +11688,7 @@
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="O62" t="n">
         <v>1.2</v>
@@ -11700,7 +11700,7 @@
         <v>1.62</v>
       </c>
       <c r="R62" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S62" t="n">
         <v>1.31</v>
@@ -11709,31 +11709,31 @@
         <v>3.26</v>
       </c>
       <c r="U62" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V62" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W62" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X62" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Y62" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z62" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA62" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD62" t="n">
         <v>8.25</v>
@@ -11748,10 +11748,10 @@
         <v>500</v>
       </c>
       <c r="AH62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ62" t="n">
         <v>18</v>
@@ -11763,31 +11763,31 @@
         <v>55</v>
       </c>
       <c r="AM62" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP62" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ62" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR62" t="n">
         <v>45</v>
       </c>
       <c r="AS62" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV62" t="n">
         <v>65</v>
@@ -11796,13 +11796,13 @@
         <v>7.2</v>
       </c>
       <c r="AX62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY62" t="n">
         <v>32</v>
       </c>
       <c r="AZ62" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA62" t="n">
         <v>200</v>
@@ -13869,10 +13869,10 @@
         <v>2.88</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -13881,10 +13881,10 @@
         <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R74" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J76" t="n">
         <v>2.5</v>
@@ -14230,13 +14230,13 @@
         <v>2.1</v>
       </c>
       <c r="L76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -14263,22 +14263,22 @@
         <v>1.73</v>
       </c>
       <c r="W76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
       </c>
       <c r="Z76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA76" t="n">
         <v>15</v>
       </c>
-      <c r="AA76" t="n">
-        <v>17</v>
-      </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC76" t="n">
         <v>8</v>
@@ -14290,7 +14290,7 @@
         <v>17</v>
       </c>
       <c r="AF76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG76" t="n">
         <v>351</v>
@@ -14299,10 +14299,10 @@
         <v>11</v>
       </c>
       <c r="AI76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK76" t="n">
         <v>51</v>
@@ -14314,10 +14314,10 @@
         <v>41</v>
       </c>
       <c r="AN76" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP76" t="n">
         <v>23</v>
@@ -14335,7 +14335,7 @@
         <v>2.63</v>
       </c>
       <c r="AU76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV76" t="n">
         <v>67</v>
@@ -14344,13 +14344,13 @@
         <v>6</v>
       </c>
       <c r="AX76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY76" t="n">
         <v>34</v>
       </c>
       <c r="AZ76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA76" t="n">
         <v>126</v>
@@ -14761,28 +14761,28 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J79" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L79" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
@@ -14797,10 +14797,10 @@
         <v>2.03</v>
       </c>
       <c r="S79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79" t="n">
         <v>1.75</v>
@@ -14809,7 +14809,7 @@
         <v>2</v>
       </c>
       <c r="W79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X79" t="n">
         <v>23</v>
@@ -14845,13 +14845,13 @@
         <v>8</v>
       </c>
       <c r="AI79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ79" t="n">
         <v>8.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL79" t="n">
         <v>13</v>
@@ -14860,7 +14860,7 @@
         <v>23</v>
       </c>
       <c r="AN79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO79" t="n">
         <v>23</v>
@@ -14872,13 +14872,13 @@
         <v>81</v>
       </c>
       <c r="AR79" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS79" t="n">
         <v>201</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU79" t="n">
         <v>8</v>
@@ -14890,7 +14890,7 @@
         <v>3.75</v>
       </c>
       <c r="AX79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY79" t="n">
         <v>19</v>
@@ -15096,7 +15096,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>pCdRBnlU</t>
+          <t>x0zD6w9r</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15106,140 +15106,140 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.3</v>
+        <v>1.91</v>
       </c>
       <c r="H81" t="n">
-        <v>4.65</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="J81" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L81" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P81" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
         <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V81" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W81" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="X81" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Y81" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="Z81" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AA81" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD81" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG81" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AH81" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AI81" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AJ81" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK81" t="n">
-        <v>10.25</v>
+        <v>41</v>
       </c>
       <c r="AL81" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AM81" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN81" t="n">
-        <v>7.9</v>
+        <v>4.33</v>
       </c>
       <c r="AO81" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AP81" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AR81" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AT81" t="n">
         <v>3.4</v>
@@ -15248,37 +15248,37 @@
         <v>7.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW81" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AX81" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AY81" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ81" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA81" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="BB81" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BC81" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD81" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bFM0Qo3N</t>
+          <t>pCdRBnlU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -15298,157 +15298,157 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="I82" t="n">
-        <v>4.05</v>
+        <v>1.42</v>
       </c>
       <c r="J82" t="n">
-        <v>2.12</v>
+        <v>5.6</v>
       </c>
       <c r="K82" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>4.1</v>
+        <v>1.88</v>
       </c>
       <c r="M82" t="n">
         <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P82" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R82" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="S82" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="T82" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="U82" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="V82" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="W82" t="n">
-        <v>11.25</v>
+        <v>22</v>
       </c>
       <c r="X82" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL82" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y82" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="n">
+      <c r="AM82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ82" t="n">
         <v>200</v>
       </c>
-      <c r="AH82" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ82" t="n">
+      <c r="AR82" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY82" t="n">
         <v>14</v>
       </c>
-      <c r="AK82" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR82" t="n">
+      <c r="AZ82" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA82" t="n">
         <v>37</v>
       </c>
-      <c r="AS82" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>100</v>
-      </c>
       <c r="BB82" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC82" t="n">
         <v>51</v>
@@ -15460,7 +15460,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>b9XErtfA</t>
+          <t>bFM0Qo3N</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15470,167 +15470,167 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="I83" t="n">
-        <v>2.7</v>
+        <v>4.05</v>
       </c>
       <c r="J83" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="L83" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="O83" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P83" t="n">
-        <v>2.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="S83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U83" t="n">
         <v>1.5</v>
       </c>
-      <c r="T83" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U83" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V83" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="W83" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="X83" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE83" t="n">
         <v>13</v>
       </c>
-      <c r="Y83" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z83" t="n">
+      <c r="AF83" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM83" t="n">
         <v>29</v>
       </c>
-      <c r="AA83" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>34</v>
-      </c>
       <c r="AN83" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO83" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AR83" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AS83" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU83" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV83" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX83" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY83" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ83" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA83" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB83" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC83" t="n">
         <v>51</v>
@@ -15642,7 +15642,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>vTvnslz3</t>
+          <t>b9XErtfA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15662,157 +15662,157 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K84" t="n">
         <v>2</v>
       </c>
-      <c r="H84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L84" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M84" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N84" t="n">
+        <v>8</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W84" t="n">
+        <v>8</v>
+      </c>
+      <c r="X84" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD84" t="n">
         <v>6</v>
       </c>
-      <c r="O84" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U84" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W84" t="n">
-        <v>5</v>
-      </c>
-      <c r="X84" t="n">
+      <c r="AE84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH84" t="n">
         <v>8</v>
       </c>
-      <c r="Y84" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z84" t="n">
+      <c r="AI84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO84" t="n">
         <v>17</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>12</v>
       </c>
       <c r="AP84" t="n">
         <v>29</v>
       </c>
       <c r="AQ84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR84" t="n">
         <v>81</v>
       </c>
       <c r="AS84" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU84" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA84" t="n">
         <v>81</v>
       </c>
-      <c r="AW84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>151</v>
-      </c>
       <c r="BB84" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC84" t="n">
         <v>51</v>
@@ -15824,7 +15824,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ddgUIe3L</t>
+          <t>vTvnslz3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15834,179 +15834,179 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="J85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L85" t="n">
         <v>5</v>
       </c>
-      <c r="K85" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O85" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P85" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="R85" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="S85" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T85" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V85" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W85" t="n">
+        <v>5</v>
+      </c>
+      <c r="X85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>15</v>
       </c>
-      <c r="X85" t="n">
+      <c r="AK85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX85" t="n">
         <v>26</v>
       </c>
-      <c r="Y85" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR85" t="n">
+      <c r="AY85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ85" t="n">
         <v>101</v>
       </c>
-      <c r="AS85" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>23</v>
-      </c>
       <c r="BA85" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB85" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BC85" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD85" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A3DZdEt2</t>
+          <t>ddgUIe3L</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -16026,157 +16026,157 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.08</v>
+        <v>4.75</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I86" t="n">
-        <v>21</v>
+        <v>1.55</v>
       </c>
       <c r="J86" t="n">
+        <v>5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S86" t="n">
         <v>1.33</v>
       </c>
-      <c r="K86" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N86" t="n">
-        <v>17</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P86" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R86" t="n">
-        <v>4</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.14</v>
-      </c>
       <c r="T86" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="U86" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V86" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W86" t="n">
         <v>15</v>
       </c>
       <c r="X86" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y86" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC86" t="n">
         <v>13</v>
       </c>
-      <c r="Z86" t="n">
+      <c r="AD86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH86" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA86" t="n">
+      <c r="AI86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK86" t="n">
         <v>12</v>
       </c>
-      <c r="AB86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE86" t="n">
+      <c r="AL86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP86" t="n">
         <v>34</v>
       </c>
-      <c r="AF86" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI86" t="n">
+      <c r="AQ86" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR86" t="n">
         <v>101</v>
       </c>
-      <c r="AJ86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL86" t="n">
+      <c r="AS86" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB86" t="n">
         <v>126</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>501</v>
       </c>
       <c r="BC86" t="n">
         <v>81</v>
@@ -16188,7 +16188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>zs5LKHY8</t>
+          <t>A3DZdEt2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -16208,157 +16208,157 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.75</v>
+        <v>1.08</v>
       </c>
       <c r="H87" t="n">
+        <v>10</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L87" t="n">
+        <v>12</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N87" t="n">
+        <v>17</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P87" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R87" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J87" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N87" t="n">
-        <v>10</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P87" t="n">
+      <c r="S87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T87" t="n">
+        <v>5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W87" t="n">
+        <v>15</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO87" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q87" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R87" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T87" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U87" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V87" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W87" t="n">
+      <c r="AP87" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW87" t="n">
         <v>17</v>
       </c>
-      <c r="X87" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="n">
+      <c r="AX87" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ87" t="n">
         <v>151</v>
       </c>
-      <c r="AH87" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>21</v>
-      </c>
       <c r="BA87" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB87" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC87" t="n">
         <v>81</v>
@@ -16370,7 +16370,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6329OsCa</t>
+          <t>zs5LKHY8</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,179 +16380,179 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.39</v>
+        <v>4.75</v>
       </c>
       <c r="H88" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>6.9</v>
+        <v>1.57</v>
       </c>
       <c r="J88" t="n">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="K88" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="L88" t="n">
-        <v>6.1</v>
+        <v>2.05</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
+        <v>10</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W88" t="n">
+        <v>17</v>
+      </c>
+      <c r="X88" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH88" t="n">
         <v>9</v>
       </c>
-      <c r="O88" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P88" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R88" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T88" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V88" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W88" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X88" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC88" t="n">
+      <c r="AI88" t="n">
         <v>9</v>
       </c>
-      <c r="AD88" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM88" t="n">
         <v>21</v>
       </c>
-      <c r="AK88" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>60</v>
-      </c>
       <c r="AN88" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="AO88" t="n">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="AP88" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ88" t="n">
-        <v>16.5</v>
+        <v>81</v>
       </c>
       <c r="AR88" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AS88" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT88" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU88" t="n">
         <v>8</v>
       </c>
       <c r="AV88" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AW88" t="n">
-        <v>8.25</v>
+        <v>3.75</v>
       </c>
       <c r="AX88" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AY88" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AZ88" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="BA88" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB88" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC88" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD88" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SIjIMLtC</t>
+          <t>6329OsCa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16572,157 +16572,157 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="H89" t="n">
-        <v>3.7</v>
+        <v>4.65</v>
       </c>
       <c r="I89" t="n">
-        <v>3.55</v>
+        <v>6.9</v>
       </c>
       <c r="J89" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="K89" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="L89" t="n">
-        <v>3.85</v>
+        <v>6.1</v>
       </c>
       <c r="M89" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P89" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S89" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T89" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U89" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="V89" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="W89" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="X89" t="n">
-        <v>10.75</v>
+        <v>7.1</v>
       </c>
       <c r="Y89" t="n">
         <v>8.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>17.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA89" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB89" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH89" t="n">
         <v>20</v>
       </c>
-      <c r="AC89" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF89" t="n">
+      <c r="AI89" t="n">
         <v>45</v>
       </c>
-      <c r="AG89" t="n">
+      <c r="AJ89" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>250</v>
       </c>
-      <c r="AH89" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>90</v>
-      </c>
       <c r="BA89" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BB89" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC89" t="n">
         <v>51</v>
@@ -16734,7 +16734,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>rZUMP5Qr</t>
+          <t>SIjIMLtC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16744,170 +16744,170 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>34</v>
+        <v>8.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="P90" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="S90" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="T90" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="U90" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="V90" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="W90" t="n">
-        <v>21</v>
+        <v>9.75</v>
       </c>
       <c r="X90" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="Y90" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="Z90" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>12</v>
       </c>
-      <c r="AB90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>17</v>
-      </c>
       <c r="AK90" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL90" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM90" t="n">
         <v>29</v>
       </c>
-      <c r="AM90" t="n">
-        <v>23</v>
-      </c>
       <c r="AN90" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="AO90" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AR90" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AS90" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AT90" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="AU90" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AV90" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AW90" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AX90" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY90" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ90" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA90" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB90" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BC90" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD90" t="n">
         <v>51</v>
@@ -16916,7 +16916,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0hUpePj4</t>
+          <t>rZUMP5Qr</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16926,170 +16926,170 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>DPMM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
         <v>4</v>
       </c>
       <c r="M91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N91" t="n">
+        <v>34</v>
+      </c>
+      <c r="O91" t="n">
         <v>1.05</v>
       </c>
-      <c r="N91" t="n">
+      <c r="P91" t="n">
         <v>11</v>
       </c>
-      <c r="O91" t="n">
+      <c r="Q91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U91" t="n">
         <v>1.29</v>
       </c>
-      <c r="P91" t="n">
+      <c r="V91" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q91" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R91" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T91" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V91" t="n">
-        <v>2</v>
-      </c>
       <c r="W91" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X91" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y91" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z91" t="n">
         <v>19</v>
       </c>
       <c r="AA91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ91" t="n">
         <v>17</v>
       </c>
-      <c r="AB91" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>12</v>
-      </c>
       <c r="AK91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL91" t="n">
         <v>29</v>
       </c>
       <c r="AM91" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP91" t="n">
         <v>11</v>
       </c>
-      <c r="AP91" t="n">
+      <c r="AQ91" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX91" t="n">
         <v>21</v>
       </c>
-      <c r="AQ91" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>19</v>
-      </c>
       <c r="AY91" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ91" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB91" t="n">
         <v>67</v>
       </c>
-      <c r="BA91" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB91" t="n">
-        <v>201</v>
-      </c>
       <c r="BC91" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD91" t="n">
         <v>51</v>
@@ -17098,7 +17098,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2VF9Et0n</t>
+          <t>0hUpePj4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -17118,64 +17118,64 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K92" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L92" t="n">
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O92" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P92" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V92" t="n">
         <v>2</v>
       </c>
-      <c r="S92" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T92" t="n">
-        <v>3</v>
-      </c>
-      <c r="U92" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V92" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W92" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X92" t="n">
         <v>10</v>
@@ -17187,28 +17187,28 @@
         <v>19</v>
       </c>
       <c r="AA92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC92" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE92" t="n">
         <v>13</v>
       </c>
       <c r="AF92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG92" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI92" t="n">
         <v>19</v>
@@ -17220,34 +17220,34 @@
         <v>41</v>
       </c>
       <c r="AL92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM92" t="n">
         <v>34</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO92" t="n">
         <v>11</v>
       </c>
       <c r="AP92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ92" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR92" t="n">
         <v>51</v>
       </c>
       <c r="AS92" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT92" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV92" t="n">
         <v>51</v>
@@ -17262,16 +17262,16 @@
         <v>26</v>
       </c>
       <c r="AZ92" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA92" t="n">
         <v>81</v>
       </c>
       <c r="BB92" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC92" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD92" t="n">
         <v>51</v>
@@ -17280,7 +17280,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CAdbpJLa</t>
+          <t>2VF9Et0n</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17290,179 +17290,179 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J93" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N93" t="n">
+        <v>13</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V93" t="n">
         <v>2.1</v>
       </c>
-      <c r="L93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T93" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U93" t="n">
-        <v>2</v>
-      </c>
-      <c r="V93" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W93" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y93" t="n">
         <v>9</v>
       </c>
       <c r="Z93" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA93" t="n">
         <v>15</v>
       </c>
       <c r="AB93" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC93" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE93" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF93" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG93" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH93" t="n">
         <v>12</v>
       </c>
       <c r="AI93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL93" t="n">
         <v>26</v>
       </c>
-      <c r="AJ93" t="n">
+      <c r="AM93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP93" t="n">
         <v>19</v>
       </c>
-      <c r="AK93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR93" t="n">
         <v>51</v>
       </c>
       <c r="AS93" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU93" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV93" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX93" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AY93" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ93" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA93" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB93" t="n">
         <v>151</v>
       </c>
-      <c r="BB93" t="n">
-        <v>351</v>
-      </c>
       <c r="BC93" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD93" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>UNCX0BbC</t>
+          <t>CAdbpJLa</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17472,179 +17472,179 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="H94" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I94" t="n">
+        <v>6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K94" t="n">
         <v>2.1</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T94" t="n">
         <v>2.63</v>
       </c>
-      <c r="M94" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N94" t="n">
-        <v>17</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P94" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S94" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T94" t="n">
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W94" t="n">
+        <v>6</v>
+      </c>
+      <c r="X94" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN94" t="n">
         <v>3.5</v>
       </c>
-      <c r="U94" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V94" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W94" t="n">
-        <v>15</v>
-      </c>
-      <c r="X94" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA94" t="n">
+      <c r="AO94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP94" t="n">
         <v>21</v>
       </c>
-      <c r="AB94" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG94" t="n">
+      <c r="AQ94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ94" t="n">
         <v>101</v>
       </c>
-      <c r="AH94" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>34</v>
-      </c>
       <c r="BA94" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB94" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC94" t="n">
         <v>81</v>
       </c>
-      <c r="BC94" t="n">
-        <v>301</v>
-      </c>
       <c r="BD94" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AsOnWTM8</t>
+          <t>UNCX0BbC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17654,179 +17654,179 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J95" t="n">
         <v>3.4</v>
       </c>
-      <c r="I95" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K95" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="L95" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P95" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R95" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S95" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="T95" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U95" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V95" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="W95" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="X95" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y95" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z95" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB95" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC95" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF95" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG95" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AH95" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AI95" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ95" t="n">
         <v>9</v>
       </c>
       <c r="AK95" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL95" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN95" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO95" t="n">
         <v>15</v>
       </c>
       <c r="AP95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ95" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AR95" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS95" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT95" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV95" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW95" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX95" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AY95" t="n">
         <v>17</v>
       </c>
       <c r="AZ95" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BA95" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BB95" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BC95" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD95" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Op6LF8xS</t>
+          <t>AsOnWTM8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17846,154 +17846,154 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="H96" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="K96" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L96" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="M96" t="n">
         <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P96" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R96" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S96" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="T96" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V96" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="W96" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y96" t="n">
         <v>10.25</v>
       </c>
-      <c r="X96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z96" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA96" t="n">
         <v>22</v>
       </c>
-      <c r="AA96" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AB96" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP96" t="n">
         <v>20</v>
       </c>
-      <c r="AC96" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG96" t="n">
+      <c r="AQ96" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS96" t="n">
         <v>200</v>
       </c>
-      <c r="AH96" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>150</v>
-      </c>
       <c r="AT96" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU96" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV96" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ96" t="n">
         <v>45</v>
       </c>
-      <c r="AW96" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ96" t="n">
+      <c r="BA96" t="n">
         <v>65</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>75</v>
       </c>
       <c r="BB96" t="n">
         <v>175</v>
@@ -18008,7 +18008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8IshAn0k</t>
+          <t>Op6LF8xS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -18028,151 +18028,151 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N97" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V97" t="n">
         <v>2.42</v>
       </c>
-      <c r="H97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>8</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P97" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S97" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T97" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U97" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V97" t="n">
-        <v>2.27</v>
-      </c>
       <c r="W97" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH97" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y97" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB97" t="n">
+      <c r="AI97" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL97" t="n">
         <v>23</v>
       </c>
-      <c r="AC97" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF97" t="n">
+      <c r="AM97" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV97" t="n">
         <v>45</v>
       </c>
-      <c r="AG97" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>50</v>
-      </c>
       <c r="AW97" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="AX97" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AY97" t="n">
         <v>19.5</v>
       </c>
       <c r="AZ97" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA97" t="n">
         <v>90</v>
@@ -18190,182 +18190,364 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>8IshAn0k</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>8</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W98" t="n">
+        <v>10</v>
+      </c>
+      <c r="X98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>WdfySwEF</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Shakhtar Donetsk</t>
         </is>
       </c>
-      <c r="G98" t="n">
-        <v>10</v>
-      </c>
-      <c r="H98" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M98" t="n">
+      <c r="G99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M99" t="n">
         <v>1.01</v>
       </c>
-      <c r="N98" t="n">
+      <c r="N99" t="n">
+        <v>13</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W99" t="n">
+        <v>32</v>
+      </c>
+      <c r="X99" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>700</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN99" t="n">
         <v>12.5</v>
       </c>
-      <c r="O98" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P98" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T98" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="U98" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W98" t="n">
-        <v>21</v>
-      </c>
-      <c r="X98" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z98" t="n">
+      <c r="AO99" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>500</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB99" t="n">
         <v>350</v>
       </c>
-      <c r="AA98" t="n">
-        <v>175</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>500</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>500</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC98" t="n">
+      <c r="BC99" t="n">
         <v>81</v>
       </c>
-      <c r="BD98" t="n">
+      <c r="BD99" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -870,28 +870,28 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1499,16 +1499,16 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
@@ -1884,10 +1884,10 @@
         <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1899,13 +1899,13 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
         <v>5.5</v>
@@ -1920,19 +1920,19 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
@@ -1941,7 +1941,7 @@
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1950,7 +1950,7 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
         <v>401</v>
@@ -1965,7 +1965,7 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
@@ -2066,7 +2066,7 @@
         <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2245,7 +2245,7 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
@@ -2385,55 +2385,55 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W11" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X11" t="n">
         <v>18.5</v>
@@ -2445,28 +2445,28 @@
         <v>50</v>
       </c>
       <c r="AA11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH11" t="n">
         <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.7</v>
       </c>
       <c r="AI11" t="n">
         <v>8.75</v>
@@ -2478,22 +2478,22 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR11" t="n">
         <v>150</v>
@@ -2502,13 +2502,13 @@
         <v>350</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
         <v>3.8</v>
@@ -2517,13 +2517,13 @@
         <v>9.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2603,10 +2603,10 @@
         <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T12" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="U12" t="n">
         <v>1.65</v>
@@ -2618,25 +2618,25 @@
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2651,58 +2651,58 @@
         <v>10.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>40</v>
       </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>37</v>
-      </c>
       <c r="AR12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS12" t="n">
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU12" t="n">
         <v>7.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY12" t="n">
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA12" t="n">
         <v>110</v>
@@ -2755,16 +2755,16 @@
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K13" t="n">
         <v>2.35</v>
       </c>
       <c r="L13" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2773,16 +2773,16 @@
         <v>9.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="S13" t="n">
         <v>1.26</v>
@@ -2791,16 +2791,16 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V13" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="W13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2812,7 +2812,7 @@
         <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
@@ -2830,37 +2830,37 @@
         <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN13" t="n">
         <v>5.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS13" t="n">
         <v>120</v>
@@ -2875,19 +2875,19 @@
         <v>35</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
         <v>120</v>
@@ -2940,49 +2940,49 @@
         <v>1.88</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L14" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.26</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="U14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V14" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
@@ -2991,52 +2991,52 @@
         <v>45</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI14" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>70</v>
@@ -3048,16 +3048,16 @@
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV14" t="n">
         <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3683,16 +3683,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
         <v>1.3</v>
@@ -3731,16 +3731,16 @@
         <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>8</v>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
         <v>7.5</v>
@@ -5133,22 +5133,22 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>1.57</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -5891,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -5903,10 +5903,10 @@
         <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
@@ -5942,7 +5942,7 @@
         <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -5972,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H34" t="n">
         <v>6</v>
@@ -6583,10 +6583,10 @@
         <v>1.57</v>
       </c>
       <c r="K34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -6607,34 +6607,34 @@
         <v>2.88</v>
       </c>
       <c r="S34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y34" t="n">
         <v>9.5</v>
       </c>
-      <c r="X34" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="n">
         <v>10</v>
       </c>
-      <c r="Z34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>11</v>
-      </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
@@ -6649,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -6667,7 +6667,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
         <v>3.4</v>
@@ -6682,13 +6682,13 @@
         <v>12</v>
       </c>
       <c r="AR34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU34" t="n">
         <v>9.5</v>
@@ -6709,10 +6709,10 @@
         <v>201</v>
       </c>
       <c r="BA34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC34" t="n">
         <v>501</v>
@@ -7147,10 +7147,10 @@
         <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7499,10 +7499,10 @@
         <v>1.91</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
@@ -7863,10 +7863,10 @@
         <v>4.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -7875,10 +7875,10 @@
         <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -8030,37 +8030,37 @@
         <v>2.1</v>
       </c>
       <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.1</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8069,13 +8069,13 @@
         <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X42" t="n">
         <v>9.5</v>
@@ -8084,16 +8084,16 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA42" t="n">
         <v>19</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>21</v>
       </c>
       <c r="AB42" t="n">
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD42" t="n">
         <v>6.5</v>
@@ -8102,7 +8102,7 @@
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
         <v>351</v>
@@ -8114,10 +8114,10 @@
         <v>15</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
         <v>29</v>
@@ -8132,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -8150,16 +8150,16 @@
         <v>8.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ42" t="n">
         <v>67</v>
@@ -8227,22 +8227,22 @@
         <v>2.88</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8940,7 +8940,7 @@
         <v>2.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
         <v>2.3</v>
@@ -8949,7 +8949,7 @@
         <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
         <v>3.1</v>
@@ -8961,16 +8961,16 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -9003,16 +9003,16 @@
         <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
         <v>6.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
         <v>201</v>
@@ -9036,7 +9036,7 @@
         <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO47" t="n">
         <v>15</v>
@@ -9057,7 +9057,7 @@
         <v>2.75</v>
       </c>
       <c r="AU47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>51</v>
@@ -9069,13 +9069,13 @@
         <v>13</v>
       </c>
       <c r="AY47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB47" t="n">
         <v>151</v>
@@ -9677,40 +9677,40 @@
         <v>4.75</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L51" t="n">
         <v>2.3</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
         <v>12</v>
@@ -9782,7 +9782,7 @@
         <v>201</v>
       </c>
       <c r="AT51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU51" t="n">
         <v>8</v>
@@ -9865,13 +9865,13 @@
         <v>2.1</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
         <v>3.5</v>
@@ -10032,10 +10032,10 @@
         <v>1.75</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J53" t="n">
         <v>2.5</v>
@@ -10044,43 +10044,43 @@
         <v>2.1</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V53" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W53" t="n">
         <v>6.5</v>
       </c>
       <c r="X53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y53" t="n">
         <v>8.5</v>
@@ -10095,7 +10095,7 @@
         <v>29</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
         <v>6.5</v>
@@ -10107,7 +10107,7 @@
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH53" t="n">
         <v>11</v>
@@ -10122,7 +10122,7 @@
         <v>51</v>
       </c>
       <c r="AL53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
@@ -10146,19 +10146,19 @@
         <v>151</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU53" t="n">
         <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW53" t="n">
         <v>6</v>
       </c>
       <c r="AX53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY53" t="n">
         <v>34</v>
@@ -10167,7 +10167,7 @@
         <v>81</v>
       </c>
       <c r="BA53" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB53" t="n">
         <v>251</v>
@@ -10229,13 +10229,13 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
         <v>8.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -10393,40 +10393,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55" t="n">
         <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10435,31 +10435,31 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V55" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD55" t="n">
         <v>6</v>
@@ -10495,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="AO55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -10507,7 +10507,7 @@
         <v>67</v>
       </c>
       <c r="AS55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT55" t="n">
         <v>2.63</v>
@@ -11303,19 +11303,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L60" t="n">
         <v>3.75</v>
@@ -11327,10 +11327,10 @@
         <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q60" t="n">
         <v>2.15</v>
@@ -11354,7 +11354,7 @@
         <v>7.5</v>
       </c>
       <c r="X60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
@@ -11369,10 +11369,10 @@
         <v>29</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
@@ -11384,16 +11384,16 @@
         <v>251</v>
       </c>
       <c r="AH60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI60" t="n">
         <v>17</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL60" t="n">
         <v>29</v>
@@ -11405,7 +11405,7 @@
         <v>4.33</v>
       </c>
       <c r="AO60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP60" t="n">
         <v>23</v>
@@ -11417,7 +11417,7 @@
         <v>67</v>
       </c>
       <c r="AS60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT60" t="n">
         <v>2.63</v>
@@ -11667,22 +11667,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="K62" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L62" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="M62" t="n">
         <v>1.03</v>
@@ -11691,22 +11691,22 @@
         <v>11.9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R62" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U62" t="n">
         <v>1.72</v>
@@ -11715,19 +11715,19 @@
         <v>1.9</v>
       </c>
       <c r="W62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X62" t="n">
         <v>7.8</v>
       </c>
-      <c r="X62" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Y62" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z62" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB62" t="n">
         <v>23</v>
@@ -11736,79 +11736,79 @@
         <v>13</v>
       </c>
       <c r="AD62" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE62" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG62" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH62" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ62" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK62" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL62" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AN62" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO62" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AP62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ62" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR62" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS62" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA62" t="n">
         <v>175</v>
       </c>
-      <c r="AT62" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>200</v>
-      </c>
       <c r="BB62" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC62" t="n">
         <v>51</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K74" t="n">
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
@@ -13935,19 +13935,19 @@
         <v>7</v>
       </c>
       <c r="AI74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN74" t="n">
         <v>5.5</v>
@@ -13980,7 +13980,7 @@
         <v>4</v>
       </c>
       <c r="AX74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY74" t="n">
         <v>23</v>
@@ -14051,10 +14051,10 @@
         <v>2.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -14063,10 +14063,10 @@
         <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="n">
         <v>1.44</v>
@@ -14215,28 +14215,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K76" t="n">
         <v>2.1</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -14245,10 +14245,10 @@
         <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S76" t="n">
         <v>1.44</v>
@@ -14266,28 +14266,28 @@
         <v>6</v>
       </c>
       <c r="X76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA76" t="n">
         <v>15</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF76" t="n">
         <v>67</v>
@@ -14296,10 +14296,10 @@
         <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ76" t="n">
         <v>17</v>
@@ -14311,25 +14311,25 @@
         <v>41</v>
       </c>
       <c r="AM76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN76" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR76" t="n">
         <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT76" t="n">
         <v>2.63</v>
@@ -14341,19 +14341,19 @@
         <v>67</v>
       </c>
       <c r="AW76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ76" t="n">
         <v>101</v>
       </c>
       <c r="BA76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB76" t="n">
         <v>301</v>
@@ -14782,7 +14782,7 @@
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
@@ -15871,10 +15871,10 @@
         <v>5</v>
       </c>
       <c r="M85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O85" t="n">
         <v>1.53</v>
@@ -16581,22 +16581,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H89" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="I89" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K89" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L89" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -16605,61 +16605,61 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P89" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R89" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S89" t="n">
         <v>1.3</v>
       </c>
       <c r="T89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V89" t="n">
         <v>1.83</v>
       </c>
-      <c r="V89" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W89" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X89" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y89" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA89" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC89" t="n">
         <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH89" t="n">
         <v>20</v>
@@ -16668,25 +16668,25 @@
         <v>45</v>
       </c>
       <c r="AJ89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK89" t="n">
         <v>150</v>
       </c>
       <c r="AL89" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN89" t="n">
         <v>3.3</v>
       </c>
       <c r="AO89" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AP89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>16.5</v>
@@ -16695,25 +16695,25 @@
         <v>40</v>
       </c>
       <c r="AS89" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU89" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV89" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW89" t="n">
         <v>8.25</v>
       </c>
       <c r="AX89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ89" t="n">
         <v>250</v>
@@ -16722,7 +16722,7 @@
         <v>250</v>
       </c>
       <c r="BB89" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC89" t="n">
         <v>51</v>
@@ -16766,25 +16766,25 @@
         <v>1.9</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J90" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K90" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L90" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.2</v>
@@ -16811,16 +16811,16 @@
         <v>2.3</v>
       </c>
       <c r="W90" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X90" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y90" t="n">
         <v>8.25</v>
       </c>
       <c r="Z90" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA90" t="n">
         <v>13.5</v>
@@ -16829,52 +16829,52 @@
         <v>20</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG90" t="n">
         <v>250</v>
       </c>
       <c r="AH90" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ90" t="n">
         <v>12</v>
       </c>
       <c r="AK90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL90" t="n">
         <v>28</v>
       </c>
       <c r="AM90" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN90" t="n">
         <v>4.05</v>
       </c>
       <c r="AO90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP90" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS90" t="n">
         <v>150</v>
@@ -16883,19 +16883,19 @@
         <v>3.15</v>
       </c>
       <c r="AU90" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV90" t="n">
         <v>45</v>
       </c>
       <c r="AW90" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX90" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ90" t="n">
         <v>90</v>
@@ -16904,7 +16904,7 @@
         <v>100</v>
       </c>
       <c r="BB90" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC90" t="n">
         <v>51</v>
@@ -17312,52 +17312,52 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L93" t="n">
         <v>4</v>
       </c>
       <c r="M93" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O93" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P93" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V93" t="n">
         <v>2</v>
       </c>
-      <c r="S93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T93" t="n">
-        <v>3</v>
-      </c>
-      <c r="U93" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V93" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X93" t="n">
         <v>10</v>
@@ -17369,16 +17369,16 @@
         <v>19</v>
       </c>
       <c r="AA93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC93" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD93" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE93" t="n">
         <v>13</v>
@@ -17387,10 +17387,10 @@
         <v>41</v>
       </c>
       <c r="AG93" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI93" t="n">
         <v>19</v>
@@ -17402,34 +17402,34 @@
         <v>41</v>
       </c>
       <c r="AL93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO93" t="n">
         <v>11</v>
       </c>
       <c r="AP93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR93" t="n">
         <v>51</v>
       </c>
       <c r="AS93" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT93" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV93" t="n">
         <v>51</v>
@@ -17444,13 +17444,13 @@
         <v>26</v>
       </c>
       <c r="AZ93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA93" t="n">
         <v>81</v>
       </c>
       <c r="BB93" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC93" t="n">
         <v>501</v>
@@ -17509,22 +17509,22 @@
         <v>5.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P94" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R94" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S94" t="n">
         <v>1.44</v>
@@ -18401,22 +18401,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="H99" t="n">
         <v>5.3</v>
       </c>
       <c r="I99" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J99" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="K99" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L99" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M99" t="n">
         <v>1.01</v>
@@ -18425,40 +18425,40 @@
         <v>13</v>
       </c>
       <c r="O99" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P99" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S99" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T99" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="U99" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="V99" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W99" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="X99" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y99" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z99" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA99" t="n">
         <v>250</v>
@@ -18467,46 +18467,46 @@
         <v>200</v>
       </c>
       <c r="AC99" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD99" t="n">
         <v>11.75</v>
       </c>
       <c r="AE99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF99" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG99" t="n">
         <v>67</v>
       </c>
       <c r="AH99" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AI99" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AJ99" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK99" t="n">
         <v>6.3</v>
       </c>
       <c r="AL99" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM99" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN99" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO99" t="n">
         <v>90</v>
       </c>
       <c r="AP99" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AQ99" t="n">
         <v>500</v>
@@ -18518,31 +18518,31 @@
         <v>67</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU99" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AV99" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW99" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AX99" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AY99" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ99" t="n">
         <v>13</v>
       </c>
       <c r="BA99" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB99" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC99" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -959,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -1511,10 +1511,10 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2764,7 +2764,7 @@
         <v>2.32</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2791,16 +2791,16 @@
         <v>3.35</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="W13" t="n">
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>9.75</v>
@@ -2818,34 +2818,34 @@
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>4.9</v>
@@ -2854,13 +2854,13 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
@@ -2875,19 +2875,19 @@
         <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
         <v>150</v>
@@ -3483,7 +3483,7 @@
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -3507,16 +3507,16 @@
         <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T17" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -3525,7 +3525,7 @@
         <v>2.15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -3561,7 +3561,7 @@
         <v>9.75</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.5</v>
@@ -3588,22 +3588,22 @@
         <v>55</v>
       </c>
       <c r="AR17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS17" t="n">
         <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV17" t="n">
         <v>55</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX17" t="n">
         <v>13.5</v>
@@ -3615,7 +3615,7 @@
         <v>55</v>
       </c>
       <c r="BA17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB17" t="n">
         <v>250</v>
@@ -3689,10 +3689,10 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.3</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -4438,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -4489,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4516,7 +4516,7 @@
         <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -4951,22 +4951,22 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
         <v>1.62</v>
@@ -5139,10 +5139,10 @@
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
         <v>3.1</v>
@@ -5497,22 +5497,22 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
         <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5521,13 +5521,13 @@
         <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X28" t="n">
         <v>15</v>
@@ -5554,13 +5554,13 @@
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
@@ -5590,10 +5590,10 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
         <v>2.63</v>
@@ -5861,10 +5861,10 @@
         <v>9.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.14</v>
@@ -5885,10 +5885,10 @@
         <v>3.75</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.5</v>
@@ -6392,10 +6392,10 @@
         <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
@@ -6407,22 +6407,22 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>1.53</v>
@@ -6431,10 +6431,10 @@
         <v>2.38</v>
       </c>
       <c r="U33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
         <v>5.5</v>
@@ -6455,13 +6455,13 @@
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
         <v>81</v>
@@ -6470,7 +6470,7 @@
         <v>201</v>
       </c>
       <c r="AH33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI33" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         <v>9.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW33" t="n">
         <v>6</v>
@@ -6530,7 +6530,7 @@
         <v>151</v>
       </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC33" t="n">
         <v>126</v>
@@ -6774,13 +6774,13 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="n">
         <v>1.4</v>
@@ -7317,10 +7317,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -7329,10 +7329,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -8171,7 +8171,7 @@
         <v>201</v>
       </c>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8421,10 +8421,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
         <v>1.44</v>
@@ -9143,16 +9143,16 @@
         <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R48" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="n">
         <v>1.4</v>
@@ -9507,10 +9507,10 @@
         <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q50" t="n">
         <v>1.53</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K51" t="n">
         <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -9722,7 +9722,7 @@
         <v>9.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA51" t="n">
         <v>17</v>
@@ -9761,13 +9761,13 @@
         <v>21</v>
       </c>
       <c r="AM51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>4.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP51" t="n">
         <v>21</v>
@@ -9797,7 +9797,7 @@
         <v>15</v>
       </c>
       <c r="AY51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ51" t="n">
         <v>51</v>
@@ -9806,7 +9806,7 @@
         <v>67</v>
       </c>
       <c r="BB51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC51" t="n">
         <v>81</v>
@@ -9868,19 +9868,19 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S52" t="n">
         <v>1.33</v>
@@ -10229,22 +10229,22 @@
         <v>4.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10960,19 +10960,19 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>1.33</v>
@@ -11121,22 +11121,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
         <v>2.5</v>
       </c>
       <c r="L59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -11172,7 +11172,7 @@
         <v>13</v>
       </c>
       <c r="X59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y59" t="n">
         <v>9.5</v>
@@ -11208,28 +11208,28 @@
         <v>21</v>
       </c>
       <c r="AJ59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM59" t="n">
         <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP59" t="n">
         <v>15</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR59" t="n">
         <v>41</v>
@@ -11256,13 +11256,13 @@
         <v>19</v>
       </c>
       <c r="AZ59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA59" t="n">
         <v>51</v>
       </c>
       <c r="BB59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC59" t="n">
         <v>251</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I60" t="n">
         <v>1.55</v>
       </c>
       <c r="J60" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -11354,7 +11354,7 @@
         <v>13</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y60" t="n">
         <v>13</v>
@@ -11372,7 +11372,7 @@
         <v>13.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -11402,7 +11402,7 @@
         <v>17</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO60" t="n">
         <v>27</v>
@@ -11509,16 +11509,16 @@
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11849,22 +11849,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H63" t="n">
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K63" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11876,13 +11876,13 @@
         <v>1.21</v>
       </c>
       <c r="P63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
         <v>1.32</v>
@@ -11891,10 +11891,10 @@
         <v>3.2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V63" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W63" t="n">
         <v>7.6</v>
@@ -11906,19 +11906,19 @@
         <v>8</v>
       </c>
       <c r="Z63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB63" t="n">
         <v>23</v>
       </c>
       <c r="AC63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE63" t="n">
         <v>15.5</v>
@@ -11930,16 +11930,16 @@
         <v>450</v>
       </c>
       <c r="AH63" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI63" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>17</v>
-      </c>
       <c r="AK63" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL63" t="n">
         <v>50</v>
@@ -11951,7 +11951,7 @@
         <v>3.45</v>
       </c>
       <c r="AO63" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP63" t="n">
         <v>15.5</v>
@@ -11975,16 +11975,16 @@
         <v>60</v>
       </c>
       <c r="AW63" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AX63" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY63" t="n">
         <v>30</v>
       </c>
       <c r="AZ63" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA63" t="n">
         <v>175</v>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>3.7</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J72" t="n">
         <v>3.1</v>
@@ -13675,7 +13675,7 @@
         <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
@@ -13851,13 +13851,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>3.6</v>
       </c>
       <c r="I74" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
@@ -14579,7 +14579,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H78" t="n">
         <v>4.1</v>
@@ -14594,7 +14594,7 @@
         <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14657,10 +14657,10 @@
         <v>51</v>
       </c>
       <c r="AG78" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
         <v>34</v>
@@ -15856,7 +15856,7 @@
         <v>2.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I85" t="n">
         <v>2.7</v>
@@ -15871,22 +15871,22 @@
         <v>3.4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P85" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R85" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S85" t="n">
         <v>1.5</v>
@@ -15895,13 +15895,13 @@
         <v>2.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X85" t="n">
         <v>13</v>
@@ -15913,16 +15913,16 @@
         <v>29</v>
       </c>
       <c r="AA85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD85" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -15934,7 +15934,7 @@
         <v>301</v>
       </c>
       <c r="AH85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI85" t="n">
         <v>12</v>
@@ -15949,7 +15949,7 @@
         <v>23</v>
       </c>
       <c r="AM85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN85" t="n">
         <v>4.75</v>
@@ -15967,7 +15967,7 @@
         <v>81</v>
       </c>
       <c r="AS85" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT85" t="n">
         <v>2.5</v>
@@ -15976,7 +15976,7 @@
         <v>8.5</v>
       </c>
       <c r="AV85" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW85" t="n">
         <v>4.5</v>
@@ -15985,7 +15985,7 @@
         <v>15</v>
       </c>
       <c r="AY85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ85" t="n">
         <v>51</v>
@@ -15994,7 +15994,7 @@
         <v>81</v>
       </c>
       <c r="BB85" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC85" t="n">
         <v>51</v>
@@ -16059,16 +16059,16 @@
         <v>6.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R86" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S86" t="n">
         <v>1.62</v>
@@ -16945,10 +16945,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H91" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I91" t="n">
         <v>3.65</v>
@@ -16957,43 +16957,43 @@
         <v>2.45</v>
       </c>
       <c r="K91" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L91" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M91" t="n">
         <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O91" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P91" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R91" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S91" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T91" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U91" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V91" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="W91" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X91" t="n">
         <v>10.5</v>
@@ -17002,34 +17002,34 @@
         <v>8.25</v>
       </c>
       <c r="Z91" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD91" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE91" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH91" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AI91" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ91" t="n">
         <v>12</v>
@@ -17038,13 +17038,13 @@
         <v>55</v>
       </c>
       <c r="AL91" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM91" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO91" t="n">
         <v>9.5</v>
@@ -17059,34 +17059,34 @@
         <v>55</v>
       </c>
       <c r="AS91" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU91" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV91" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW91" t="n">
         <v>5.8</v>
       </c>
       <c r="AX91" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ91" t="n">
         <v>90</v>
       </c>
       <c r="BA91" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB91" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC91" t="n">
         <v>51</v>
@@ -17673,16 +17673,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H95" t="n">
         <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J95" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K95" t="n">
         <v>2.1</v>
@@ -17715,10 +17715,10 @@
         <v>2.63</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V95" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W95" t="n">
         <v>6</v>
@@ -17757,16 +17757,16 @@
         <v>13</v>
       </c>
       <c r="AI95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ95" t="n">
         <v>19</v>
       </c>
       <c r="AK95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM95" t="n">
         <v>51</v>
@@ -17799,7 +17799,7 @@
         <v>67</v>
       </c>
       <c r="AW95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX95" t="n">
         <v>29</v>
@@ -18037,58 +18037,58 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H97" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I97" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J97" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K97" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L97" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M97" t="n">
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O97" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R97" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S97" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="T97" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="U97" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V97" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W97" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="X97" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y97" t="n">
         <v>10.25</v>
@@ -18097,88 +18097,88 @@
         <v>35</v>
       </c>
       <c r="AA97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB97" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD97" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE97" t="n">
         <v>11.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG97" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH97" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI97" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ97" t="n">
         <v>9</v>
       </c>
       <c r="AK97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL97" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN97" t="n">
         <v>5</v>
       </c>
       <c r="AO97" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ97" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR97" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS97" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="AU97" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW97" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX97" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY97" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA97" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB97" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC97" t="n">
         <v>51</v>
@@ -18219,22 +18219,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H98" t="n">
         <v>3.6</v>
       </c>
       <c r="I98" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J98" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K98" t="n">
         <v>2.27</v>
       </c>
       <c r="L98" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -18243,40 +18243,40 @@
         <v>9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P98" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R98" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S98" t="n">
         <v>1.3</v>
       </c>
       <c r="T98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U98" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V98" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W98" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X98" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y98" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA98" t="n">
         <v>14.5</v>
@@ -18288,46 +18288,46 @@
         <v>9</v>
       </c>
       <c r="AD98" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE98" t="n">
         <v>11.25</v>
       </c>
       <c r="AF98" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG98" t="n">
         <v>200</v>
       </c>
       <c r="AH98" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI98" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ98" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM98" t="n">
         <v>24</v>
       </c>
       <c r="AN98" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO98" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP98" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR98" t="n">
         <v>55</v>
@@ -18336,22 +18336,22 @@
         <v>150</v>
       </c>
       <c r="AT98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU98" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW98" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY98" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ98" t="n">
         <v>70</v>
@@ -18360,7 +18360,7 @@
         <v>80</v>
       </c>
       <c r="BB98" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC98" t="n">
         <v>51</v>
@@ -18401,22 +18401,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J99" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="K99" t="n">
         <v>2.15</v>
       </c>
       <c r="L99" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="M99" t="n">
         <v>1.05</v>
@@ -18428,7 +18428,7 @@
         <v>1.24</v>
       </c>
       <c r="P99" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q99" t="n">
         <v>1.72</v>
@@ -18446,103 +18446,103 @@
         <v>1.57</v>
       </c>
       <c r="V99" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W99" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X99" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA99" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC99" t="n">
         <v>7.9</v>
       </c>
       <c r="AD99" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE99" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF99" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG99" t="n">
         <v>250</v>
       </c>
       <c r="AH99" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI99" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ99" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK99" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AL99" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AM99" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN99" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AO99" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ99" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR99" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS99" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT99" t="n">
         <v>2.9</v>
       </c>
       <c r="AU99" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV99" t="n">
         <v>50</v>
       </c>
       <c r="AW99" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AX99" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AY99" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ99" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BA99" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB99" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC99" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD100"/>
+  <dimension ref="A1:BD101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1517,13 +1517,13 @@
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1535,22 +1535,22 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
@@ -1577,37 +1577,37 @@
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
       </c>
       <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
         <v>101</v>
       </c>
-      <c r="AS6" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -3689,10 +3689,10 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
         <v>1.3</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -5885,10 +5885,10 @@
         <v>3.75</v>
       </c>
       <c r="U30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W30" t="n">
         <v>8.5</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I35" t="n">
         <v>13</v>
@@ -6801,13 +6801,13 @@
         <v>1.91</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X35" t="n">
         <v>7.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
         <v>8</v>
@@ -6816,10 +6816,10 @@
         <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
         <v>12</v>
@@ -6846,7 +6846,7 @@
         <v>151</v>
       </c>
       <c r="AL35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM35" t="n">
         <v>51</v>
@@ -7511,10 +7511,10 @@
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -8057,10 +8057,10 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8171,7 +8171,7 @@
         <v>201</v>
       </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8212,16 +8212,16 @@
         <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
         <v>4</v>
@@ -8233,49 +8233,49 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W43" t="n">
         <v>7</v>
       </c>
       <c r="X43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>9.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="n">
         <v>19</v>
       </c>
       <c r="AB43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8287,10 +8287,10 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -8305,13 +8305,13 @@
         <v>29</v>
       </c>
       <c r="AM43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP43" t="n">
         <v>23</v>
@@ -8323,13 +8323,13 @@
         <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8347,10 +8347,10 @@
         <v>67</v>
       </c>
       <c r="BA43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC43" t="n">
         <v>81</v>
@@ -8394,16 +8394,16 @@
         <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
         <v>2.88</v>
@@ -8415,16 +8415,16 @@
         <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
         <v>1.44</v>
@@ -8433,16 +8433,16 @@
         <v>2.63</v>
       </c>
       <c r="U44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -8451,34 +8451,34 @@
         <v>34</v>
       </c>
       <c r="AA44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK44" t="n">
         <v>19</v>
@@ -8487,7 +8487,7 @@
         <v>19</v>
       </c>
       <c r="AM44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>5</v>
@@ -8499,25 +8499,25 @@
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
       </c>
       <c r="AS44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT44" t="n">
         <v>2.63</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX44" t="n">
         <v>12</v>
@@ -8529,10 +8529,10 @@
         <v>41</v>
       </c>
       <c r="BA44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8958,7 +8958,7 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
         <v>1.33</v>
@@ -9128,13 +9128,13 @@
         <v>2.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -9143,16 +9143,16 @@
         <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S48" t="n">
         <v>1.4</v>
@@ -9215,7 +9215,7 @@
         <v>19</v>
       </c>
       <c r="AM48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN48" t="n">
         <v>5</v>
@@ -9310,7 +9310,7 @@
         <v>1.73</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9379,7 +9379,7 @@
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH49" t="n">
         <v>12</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
       </c>
       <c r="L56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -10626,10 +10626,10 @@
         <v>7</v>
       </c>
       <c r="X56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y56" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9</v>
       </c>
       <c r="Z56" t="n">
         <v>19</v>
@@ -10659,7 +10659,7 @@
         <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -10668,7 +10668,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I59" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.4</v>
       </c>
       <c r="J59" t="n">
         <v>2.5</v>
@@ -11175,13 +11175,13 @@
         <v>13</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB59" t="n">
         <v>19</v>
@@ -11202,10 +11202,10 @@
         <v>81</v>
       </c>
       <c r="AH59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ59" t="n">
         <v>13</v>
@@ -11247,10 +11247,10 @@
         <v>41</v>
       </c>
       <c r="AW59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY59" t="n">
         <v>19</v>
@@ -11306,13 +11306,13 @@
         <v>4.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I60" t="n">
         <v>1.55</v>
       </c>
       <c r="J60" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -11345,16 +11345,16 @@
         <v>3.4</v>
       </c>
       <c r="U60" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V60" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="W60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
         <v>13</v>
@@ -11372,7 +11372,7 @@
         <v>13.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -11384,7 +11384,7 @@
         <v>250</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI60" t="n">
         <v>7.2</v>
@@ -11429,7 +11429,7 @@
         <v>55</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX60" t="n">
         <v>7.3</v>
@@ -14004,7 +14004,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bDLv1dNH</t>
+          <t>bPgWcyhT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -14014,179 +14014,179 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W75" t="n">
+        <v>6</v>
+      </c>
+      <c r="X75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN75" t="n">
         <v>4</v>
       </c>
-      <c r="H75" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N75" t="n">
+      <c r="AO75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU75" t="n">
         <v>9</v>
       </c>
-      <c r="O75" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P75" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W75" t="n">
-        <v>10</v>
-      </c>
-      <c r="X75" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA75" t="n">
+      <c r="AV75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY75" t="n">
         <v>34</v>
       </c>
-      <c r="AB75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG75" t="n">
+      <c r="AZ75" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB75" t="n">
         <v>301</v>
       </c>
-      <c r="AH75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>201</v>
-      </c>
       <c r="BC75" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD75" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lOLF60gt</t>
+          <t>bDLv1dNH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -14206,31 +14206,31 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K76" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L76" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M76" t="n">
         <v>1.07</v>
@@ -14245,10 +14245,10 @@
         <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S76" t="n">
         <v>1.44</v>
@@ -14257,25 +14257,25 @@
         <v>2.63</v>
       </c>
       <c r="U76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V76" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X76" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y76" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB76" t="n">
         <v>41</v>
@@ -14284,28 +14284,28 @@
         <v>8</v>
       </c>
       <c r="AD76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF76" t="n">
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ76" t="n">
         <v>9</v>
       </c>
       <c r="AK76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL76" t="n">
         <v>17</v>
@@ -14314,22 +14314,22 @@
         <v>29</v>
       </c>
       <c r="AN76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ76" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR76" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT76" t="n">
         <v>2.63</v>
@@ -14338,22 +14338,22 @@
         <v>8.5</v>
       </c>
       <c r="AV76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY76" t="n">
         <v>23</v>
       </c>
       <c r="AZ76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB76" t="n">
         <v>201</v>
@@ -14368,7 +14368,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AwAO4vOh</t>
+          <t>lOLF60gt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -14388,31 +14388,31 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.67</v>
+        <v>4.75</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="J77" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.07</v>
@@ -14427,10 +14427,10 @@
         <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="n">
         <v>1.44</v>
@@ -14445,100 +14445,100 @@
         <v>1.73</v>
       </c>
       <c r="W77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X77" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z77" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AA77" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB77" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG77" t="n">
         <v>351</v>
       </c>
       <c r="AH77" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO77" t="n">
         <v>26</v>
       </c>
-      <c r="AJ77" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>9</v>
-      </c>
       <c r="AP77" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ77" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR77" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS77" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT77" t="n">
         <v>2.63</v>
       </c>
       <c r="AU77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV77" t="n">
         <v>67</v>
       </c>
       <c r="AW77" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX77" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AY77" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ77" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="BA77" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB77" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC77" t="n">
         <v>126</v>
@@ -14550,7 +14550,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vcQ4lJwC</t>
+          <t>AwAO4vOh</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14570,64 +14570,64 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I78" t="n">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="J78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U78" t="n">
         <v>2</v>
       </c>
-      <c r="K78" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L78" t="n">
+      <c r="V78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W78" t="n">
         <v>6</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N78" t="n">
-        <v>12</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P78" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W78" t="n">
-        <v>7.5</v>
       </c>
       <c r="X78" t="n">
         <v>7</v>
@@ -14636,43 +14636,43 @@
         <v>8.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH78" t="n">
         <v>12</v>
       </c>
-      <c r="AB78" t="n">
+      <c r="AI78" t="n">
         <v>26</v>
       </c>
-      <c r="AC78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE78" t="n">
+      <c r="AJ78" t="n">
         <v>17</v>
       </c>
-      <c r="AF78" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>21</v>
-      </c>
       <c r="AK78" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM78" t="n">
         <v>51</v>
@@ -14681,49 +14681,49 @@
         <v>3.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS78" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC78" t="n">
         <v>126</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>151</v>
       </c>
       <c r="BD78" t="n">
         <v>151</v>
@@ -14732,7 +14732,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>tvYLtiRi</t>
+          <t>vcQ4lJwC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14742,179 +14742,179 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N79" t="n">
+        <v>12</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T79" t="n">
         <v>3.25</v>
       </c>
-      <c r="H79" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U79" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V79" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W79" t="n">
         <v>7.5</v>
       </c>
       <c r="X79" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y79" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI79" t="n">
         <v>34</v>
       </c>
-      <c r="AA79" t="n">
+      <c r="AJ79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX79" t="n">
         <v>34</v>
       </c>
-      <c r="AB79" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP79" t="n">
+      <c r="AY79" t="n">
         <v>34</v>
       </c>
-      <c r="AQ79" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ79" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA79" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB79" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC79" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD79" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SfWTvVe4</t>
+          <t>tvYLtiRi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -14934,73 +14934,73 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="J80" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T80" t="n">
         <v>2.25</v>
       </c>
-      <c r="L80" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N80" t="n">
+      <c r="U80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y80" t="n">
         <v>13</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2</v>
-      </c>
-      <c r="W80" t="n">
-        <v>13</v>
-      </c>
-      <c r="X80" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>15</v>
-      </c>
       <c r="Z80" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA80" t="n">
         <v>34</v>
@@ -15009,85 +15009,85 @@
         <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX80" t="n">
         <v>15</v>
       </c>
-      <c r="AF80" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP80" t="n">
+      <c r="AY80" t="n">
         <v>29</v>
       </c>
-      <c r="AQ80" t="n">
+      <c r="AZ80" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA80" t="n">
         <v>81</v>
       </c>
-      <c r="AR80" t="n">
+      <c r="BB80" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC80" t="n">
         <v>81</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>501</v>
       </c>
       <c r="BD80" t="n">
         <v>81</v>
@@ -15096,7 +15096,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>thXT2e87</t>
+          <t>SfWTvVe4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15106,170 +15106,170 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="J81" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
+        <v>13</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+      <c r="W81" t="n">
+        <v>13</v>
+      </c>
+      <c r="X81" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ81" t="n">
         <v>8.5</v>
       </c>
-      <c r="O81" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P81" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W81" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z81" t="n">
+      <c r="AK81" t="n">
         <v>15</v>
       </c>
-      <c r="AA81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB81" t="n">
+      <c r="AL81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP81" t="n">
         <v>29</v>
       </c>
-      <c r="AC81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="n">
+      <c r="AQ81" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW81" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO81" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>6</v>
-      </c>
       <c r="AX81" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ81" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="BA81" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB81" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC81" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD81" t="n">
         <v>81</v>
@@ -15278,7 +15278,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>x0zD6w9r</t>
+          <t>thXT2e87</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -15298,157 +15298,157 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.91</v>
       </c>
-      <c r="H82" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N82" t="n">
-        <v>15</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P82" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R82" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T82" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V82" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W82" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X82" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y82" t="n">
         <v>9</v>
       </c>
       <c r="Z82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA82" t="n">
         <v>17</v>
       </c>
-      <c r="AA82" t="n">
-        <v>15</v>
-      </c>
       <c r="AB82" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC82" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH82" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI82" t="n">
         <v>21</v>
       </c>
       <c r="AJ82" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK82" t="n">
         <v>41</v>
       </c>
       <c r="AL82" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM82" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO82" t="n">
         <v>10</v>
       </c>
       <c r="AP82" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS82" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT82" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW82" t="n">
         <v>6</v>
       </c>
       <c r="AX82" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY82" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ82" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA82" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB82" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC82" t="n">
         <v>81</v>
@@ -15460,7 +15460,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>pCdRBnlU</t>
+          <t>x0zD6w9r</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15470,179 +15470,179 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.7</v>
+        <v>1.91</v>
       </c>
       <c r="H83" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>1.39</v>
+        <v>3.5</v>
       </c>
       <c r="J83" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="K83" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="L83" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R83" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="S83" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
         <v>3.4</v>
       </c>
       <c r="U83" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V83" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W83" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Y83" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z83" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="AA83" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AB83" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD83" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF83" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AH83" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI83" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AJ83" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK83" t="n">
-        <v>9.75</v>
+        <v>41</v>
       </c>
       <c r="AL83" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AM83" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN83" t="n">
-        <v>8.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO83" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AP83" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AR83" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AS83" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AT83" t="n">
         <v>3.4</v>
       </c>
       <c r="AU83" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV83" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW83" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="AX83" t="n">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="AY83" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ83" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="BA83" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="BB83" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BC83" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD83" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bFM0Qo3N</t>
+          <t>pCdRBnlU</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15662,157 +15662,157 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.65</v>
+        <v>6.7</v>
       </c>
       <c r="H84" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="I84" t="n">
-        <v>4.05</v>
+        <v>1.39</v>
       </c>
       <c r="J84" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="K84" t="n">
         <v>2.52</v>
       </c>
       <c r="L84" t="n">
-        <v>4.1</v>
+        <v>1.85</v>
       </c>
       <c r="M84" t="n">
         <v>1.03</v>
       </c>
       <c r="N84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W84" t="n">
+        <v>23</v>
+      </c>
+      <c r="X84" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK84" t="n">
         <v>9.75</v>
       </c>
-      <c r="O84" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P84" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R84" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T84" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V84" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W84" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X84" t="n">
+      <c r="AL84" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG84" t="n">
+      <c r="AM84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ84" t="n">
         <v>200</v>
       </c>
-      <c r="AH84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ84" t="n">
+      <c r="AR84" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY84" t="n">
         <v>14</v>
       </c>
-      <c r="AK84" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR84" t="n">
+      <c r="AZ84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA84" t="n">
         <v>37</v>
       </c>
-      <c r="AS84" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>100</v>
-      </c>
       <c r="BB84" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC84" t="n">
         <v>51</v>
@@ -15824,7 +15824,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b9XErtfA</t>
+          <t>bFM0Qo3N</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15834,167 +15834,167 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="H85" t="n">
-        <v>2.9</v>
+        <v>4.35</v>
       </c>
       <c r="I85" t="n">
-        <v>2.7</v>
+        <v>4.05</v>
       </c>
       <c r="J85" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="L85" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M85" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="O85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q85" t="n">
         <v>1.44</v>
       </c>
-      <c r="P85" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R85" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="S85" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U85" t="n">
         <v>1.5</v>
       </c>
-      <c r="T85" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V85" t="n">
-        <v>1.8</v>
+        <v>2.42</v>
       </c>
       <c r="W85" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="X85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE85" t="n">
         <v>13</v>
       </c>
-      <c r="Y85" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z85" t="n">
+      <c r="AF85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM85" t="n">
         <v>29</v>
       </c>
-      <c r="AA85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>41</v>
-      </c>
       <c r="AN85" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO85" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AR85" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AS85" t="n">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU85" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV85" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AW85" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX85" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY85" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ85" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA85" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB85" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="BC85" t="n">
         <v>51</v>
@@ -16006,7 +16006,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>vTvnslz3</t>
+          <t>b9XErtfA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -16026,157 +16026,157 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U86" t="n">
         <v>1.91</v>
       </c>
-      <c r="L86" t="n">
-        <v>5</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N86" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V86" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W86" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X86" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO86" t="n">
         <v>17</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>12</v>
       </c>
       <c r="AP86" t="n">
         <v>29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR86" t="n">
         <v>81</v>
       </c>
       <c r="AS86" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU86" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV86" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA86" t="n">
         <v>81</v>
       </c>
-      <c r="AW86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>151</v>
-      </c>
       <c r="BB86" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC86" t="n">
         <v>51</v>
@@ -16188,7 +16188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ddgUIe3L</t>
+          <t>vTvnslz3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16198,179 +16198,179 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="H87" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I87" t="n">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="J87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L87" t="n">
         <v>5</v>
       </c>
-      <c r="K87" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M87" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH87" t="n">
         <v>9</v>
       </c>
-      <c r="O87" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P87" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R87" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T87" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U87" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W87" t="n">
+      <c r="AI87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="n">
         <v>15</v>
       </c>
-      <c r="X87" t="n">
+      <c r="AK87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX87" t="n">
         <v>26</v>
       </c>
-      <c r="Y87" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR87" t="n">
+      <c r="AY87" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ87" t="n">
         <v>101</v>
       </c>
-      <c r="AS87" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>23</v>
-      </c>
       <c r="BA87" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB87" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BC87" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD87" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A3DZdEt2</t>
+          <t>ddgUIe3L</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -16390,157 +16390,157 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.08</v>
+        <v>4.75</v>
       </c>
       <c r="H88" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I88" t="n">
-        <v>21</v>
+        <v>1.55</v>
       </c>
       <c r="J88" t="n">
+        <v>5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N88" t="n">
+        <v>9</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S88" t="n">
         <v>1.33</v>
       </c>
-      <c r="K88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N88" t="n">
-        <v>17</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P88" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R88" t="n">
-        <v>4</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.14</v>
-      </c>
       <c r="T88" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="U88" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V88" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W88" t="n">
         <v>15</v>
       </c>
       <c r="X88" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y88" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="n">
         <v>13</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="AD88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH88" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA88" t="n">
+      <c r="AI88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK88" t="n">
         <v>12</v>
       </c>
-      <c r="AB88" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE88" t="n">
+      <c r="AL88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP88" t="n">
         <v>34</v>
       </c>
-      <c r="AF88" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI88" t="n">
+      <c r="AQ88" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR88" t="n">
         <v>101</v>
       </c>
-      <c r="AJ88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL88" t="n">
+      <c r="AS88" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB88" t="n">
         <v>126</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA88" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB88" t="n">
-        <v>501</v>
       </c>
       <c r="BC88" t="n">
         <v>81</v>
@@ -16552,7 +16552,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>zs5LKHY8</t>
+          <t>A3DZdEt2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16572,157 +16572,157 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.75</v>
+        <v>1.08</v>
       </c>
       <c r="H89" t="n">
+        <v>10</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L89" t="n">
+        <v>12</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N89" t="n">
+        <v>17</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P89" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R89" t="n">
         <v>4</v>
       </c>
-      <c r="I89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J89" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N89" t="n">
-        <v>10</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P89" t="n">
+      <c r="S89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W89" t="n">
+        <v>15</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO89" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q89" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R89" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U89" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V89" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W89" t="n">
+      <c r="AP89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW89" t="n">
         <v>17</v>
       </c>
-      <c r="X89" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="n">
+      <c r="AX89" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>151</v>
       </c>
-      <c r="AH89" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>21</v>
-      </c>
       <c r="BA89" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB89" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC89" t="n">
         <v>81</v>
@@ -16734,7 +16734,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6329OsCa</t>
+          <t>zs5LKHY8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16744,179 +16744,179 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.37</v>
+        <v>4.75</v>
       </c>
       <c r="H90" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J90" t="n">
         <v>4.75</v>
       </c>
-      <c r="I90" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.82</v>
-      </c>
       <c r="K90" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L90" t="n">
-        <v>6.3</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
+        <v>10</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W90" t="n">
+        <v>17</v>
+      </c>
+      <c r="X90" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH90" t="n">
         <v>9</v>
       </c>
-      <c r="O90" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R90" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T90" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V90" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W90" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X90" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Y90" t="n">
+      <c r="AI90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>22</v>
-      </c>
       <c r="AK90" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AL90" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AM90" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.1</v>
+        <v>23</v>
       </c>
       <c r="AP90" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AQ90" t="n">
-        <v>16.5</v>
+        <v>81</v>
       </c>
       <c r="AR90" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AS90" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT90" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU90" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV90" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AW90" t="n">
-        <v>8.25</v>
+        <v>3.75</v>
       </c>
       <c r="AX90" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AY90" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AZ90" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="BA90" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB90" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC90" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD90" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SIjIMLtC</t>
+          <t>6329OsCa</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -16936,157 +16936,157 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
       <c r="H91" t="n">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="I91" t="n">
-        <v>3.65</v>
+        <v>7.1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="K91" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L91" t="n">
-        <v>3.95</v>
+        <v>6.3</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P91" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R91" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S91" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T91" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="U91" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="V91" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W91" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X91" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z91" t="n">
         <v>9</v>
       </c>
-      <c r="X91" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB91" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC91" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AD91" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF91" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI91" t="n">
         <v>45</v>
       </c>
-      <c r="AG91" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI91" t="n">
+      <c r="AJ91" t="n">
         <v>22</v>
       </c>
-      <c r="AJ91" t="n">
-        <v>12</v>
-      </c>
       <c r="AK91" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AL91" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AM91" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AN91" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AO91" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="AP91" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AR91" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AS91" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU91" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV91" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AW91" t="n">
-        <v>5.8</v>
+        <v>8.25</v>
       </c>
       <c r="AX91" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AY91" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AZ91" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="BA91" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="BB91" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC91" t="n">
         <v>51</v>
@@ -17098,7 +17098,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>rZUMP5Qr</t>
+          <t>SIjIMLtC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -17108,170 +17108,170 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="H92" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L92" t="n">
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>34</v>
+        <v>8.25</v>
       </c>
       <c r="O92" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="P92" t="n">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="R92" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="S92" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="T92" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="U92" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="V92" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="W92" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X92" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z92" t="n">
         <v>17</v>
       </c>
-      <c r="Y92" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>19</v>
-      </c>
       <c r="AA92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ92" t="n">
         <v>12</v>
       </c>
-      <c r="AB92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>17</v>
-      </c>
       <c r="AK92" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AL92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM92" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY92" t="n">
         <v>23</v>
       </c>
-      <c r="AN92" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ92" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA92" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BB92" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BC92" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD92" t="n">
         <v>51</v>
@@ -17280,7 +17280,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0hUpePj4</t>
+          <t>rZUMP5Qr</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17290,170 +17290,170 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>DPMM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="H93" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I93" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
         <v>4</v>
       </c>
       <c r="M93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N93" t="n">
+        <v>34</v>
+      </c>
+      <c r="O93" t="n">
         <v>1.05</v>
       </c>
-      <c r="N93" t="n">
+      <c r="P93" t="n">
         <v>11</v>
       </c>
-      <c r="O93" t="n">
+      <c r="Q93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U93" t="n">
         <v>1.29</v>
       </c>
-      <c r="P93" t="n">
+      <c r="V93" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q93" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T93" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U93" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V93" t="n">
-        <v>2</v>
-      </c>
       <c r="W93" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X93" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y93" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z93" t="n">
         <v>19</v>
       </c>
       <c r="AA93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ93" t="n">
         <v>17</v>
       </c>
-      <c r="AB93" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>12</v>
-      </c>
       <c r="AK93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL93" t="n">
         <v>29</v>
       </c>
       <c r="AM93" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP93" t="n">
         <v>11</v>
       </c>
-      <c r="AP93" t="n">
+      <c r="AQ93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX93" t="n">
         <v>21</v>
       </c>
-      <c r="AQ93" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>19</v>
-      </c>
       <c r="AY93" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ93" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB93" t="n">
         <v>67</v>
       </c>
-      <c r="BA93" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>201</v>
-      </c>
       <c r="BC93" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD93" t="n">
         <v>51</v>
@@ -17462,7 +17462,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2VF9Et0n</t>
+          <t>0hUpePj4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17482,22 +17482,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J94" t="n">
         <v>2.75</v>
@@ -17509,10 +17509,10 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O94" t="n">
         <v>1.29</v>
@@ -17521,10 +17521,10 @@
         <v>3.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R94" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="n">
         <v>1.4</v>
@@ -17566,7 +17566,7 @@
         <v>13</v>
       </c>
       <c r="AF94" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG94" t="n">
         <v>201</v>
@@ -17635,7 +17635,7 @@
         <v>201</v>
       </c>
       <c r="BC94" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD94" t="n">
         <v>51</v>
@@ -17644,7 +17644,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CAdbpJLa</t>
+          <t>2VF9Et0n</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17654,179 +17654,179 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="J95" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K95" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L95" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O95" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P95" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R95" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T95" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U95" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V95" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X95" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y95" t="n">
         <v>9</v>
       </c>
       <c r="Z95" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA95" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB95" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC95" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD95" t="n">
         <v>6.5</v>
       </c>
       <c r="AE95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI95" t="n">
         <v>19</v>
       </c>
-      <c r="AF95" t="n">
+      <c r="AJ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ95" t="n">
         <v>67</v>
       </c>
-      <c r="AG95" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS95" t="n">
+      <c r="BA95" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB95" t="n">
         <v>201</v>
       </c>
-      <c r="AT95" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB95" t="n">
-        <v>351</v>
-      </c>
       <c r="BC95" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD95" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UNCX0BbC</t>
+          <t>CAdbpJLa</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17836,179 +17836,179 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P96" t="n">
         <v>3</v>
       </c>
-      <c r="H96" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="Q96" t="n">
         <v>2.15</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N96" t="n">
+      <c r="R96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W96" t="n">
+        <v>6</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE96" t="n">
         <v>19</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P96" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R96" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T96" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V96" t="n">
+      <c r="AF96" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT96" t="n">
         <v>2.63</v>
       </c>
-      <c r="W96" t="n">
-        <v>15</v>
-      </c>
-      <c r="X96" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG96" t="n">
+      <c r="AU96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ96" t="n">
         <v>101</v>
       </c>
-      <c r="AH96" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>34</v>
-      </c>
       <c r="BA96" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB96" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC96" t="n">
         <v>81</v>
       </c>
-      <c r="BC96" t="n">
-        <v>301</v>
-      </c>
       <c r="BD96" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AsOnWTM8</t>
+          <t>UNCX0BbC</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -18018,125 +18018,125 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I97" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="J97" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K97" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L97" t="n">
         <v>2.75</v>
       </c>
       <c r="M97" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N97" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="O97" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P97" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R97" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S97" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="T97" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="U97" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V97" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="W97" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="X97" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y97" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z97" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA97" t="n">
         <v>21</v>
       </c>
       <c r="AB97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AD97" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF97" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AG97" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AH97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI97" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK97" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL97" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM97" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN97" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO97" t="n">
         <v>15</v>
@@ -18145,52 +18145,52 @@
         <v>19</v>
       </c>
       <c r="AQ97" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR97" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS97" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT97" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="AU97" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AV97" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW97" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX97" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ97" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BA97" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BB97" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BC97" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD97" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Op6LF8xS</t>
+          <t>AsOnWTM8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18210,157 +18210,157 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="H98" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I98" t="n">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
       <c r="J98" t="n">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="K98" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="M98" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O98" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P98" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R98" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T98" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U98" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V98" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W98" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z98" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AA98" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AB98" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AC98" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD98" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE98" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF98" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG98" t="n">
         <v>200</v>
       </c>
       <c r="AH98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO98" t="n">
         <v>15</v>
       </c>
-      <c r="AI98" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK98" t="n">
+      <c r="AP98" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV98" t="n">
         <v>45</v>
       </c>
-      <c r="AL98" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS98" t="n">
+      <c r="AW98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB98" t="n">
         <v>150</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>175</v>
       </c>
       <c r="BC98" t="n">
         <v>51</v>
@@ -18372,7 +18372,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8IshAn0k</t>
+          <t>Op6LF8xS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -18392,157 +18392,157 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="H99" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I99" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="K99" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="L99" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="M99" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N99" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="O99" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P99" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="R99" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="S99" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T99" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="U99" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="V99" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W99" t="n">
         <v>10.5</v>
       </c>
       <c r="X99" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH99" t="n">
         <v>15</v>
       </c>
-      <c r="Y99" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB99" t="n">
+      <c r="AI99" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL99" t="n">
         <v>24</v>
       </c>
-      <c r="AC99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AM99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN99" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AO99" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP99" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY99" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ99" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AZ99" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA99" t="n">
         <v>80</v>
       </c>
       <c r="BB99" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC99" t="n">
         <v>51</v>
@@ -18554,182 +18554,364 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>8IshAn0k</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W100" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X100" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>WdfySwEF</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Shakhtar Donetsk</t>
         </is>
       </c>
-      <c r="G100" t="n">
+      <c r="G101" t="n">
         <v>13</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H101" t="n">
         <v>5.3</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I101" t="n">
         <v>1.21</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J101" t="n">
         <v>10.25</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K101" t="n">
         <v>2.42</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L101" t="n">
         <v>1.65</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M101" t="n">
         <v>1.01</v>
       </c>
-      <c r="N100" t="n">
+      <c r="N101" t="n">
         <v>13</v>
       </c>
-      <c r="O100" t="n">
+      <c r="O101" t="n">
         <v>1.23</v>
       </c>
-      <c r="P100" t="n">
+      <c r="P101" t="n">
         <v>3.35</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q101" t="n">
         <v>1.7</v>
       </c>
-      <c r="R100" t="n">
+      <c r="R101" t="n">
         <v>1.93</v>
       </c>
-      <c r="S100" t="n">
+      <c r="S101" t="n">
         <v>1.35</v>
       </c>
-      <c r="T100" t="n">
+      <c r="T101" t="n">
         <v>3.07</v>
       </c>
-      <c r="U100" t="n">
+      <c r="U101" t="n">
         <v>2.47</v>
       </c>
-      <c r="V100" t="n">
+      <c r="V101" t="n">
         <v>1.42</v>
       </c>
-      <c r="W100" t="n">
+      <c r="W101" t="n">
         <v>28</v>
       </c>
-      <c r="X100" t="n">
+      <c r="X101" t="n">
         <v>110</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="Y101" t="n">
         <v>45</v>
       </c>
-      <c r="Z100" t="n">
+      <c r="Z101" t="n">
         <v>600</v>
       </c>
-      <c r="AA100" t="n">
+      <c r="AA101" t="n">
         <v>250</v>
       </c>
-      <c r="AB100" t="n">
+      <c r="AB101" t="n">
         <v>200</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AC101" t="n">
         <v>11</v>
       </c>
-      <c r="AD100" t="n">
+      <c r="AD101" t="n">
         <v>11.75</v>
       </c>
-      <c r="AE100" t="n">
+      <c r="AE101" t="n">
         <v>37</v>
       </c>
-      <c r="AF100" t="n">
+      <c r="AF101" t="n">
         <v>250</v>
       </c>
-      <c r="AG100" t="n">
+      <c r="AG101" t="n">
         <v>67</v>
       </c>
-      <c r="AH100" t="n">
+      <c r="AH101" t="n">
         <v>5.9</v>
       </c>
-      <c r="AI100" t="n">
+      <c r="AI101" t="n">
         <v>5.1</v>
       </c>
-      <c r="AJ100" t="n">
+      <c r="AJ101" t="n">
         <v>10</v>
       </c>
-      <c r="AK100" t="n">
+      <c r="AK101" t="n">
         <v>6.3</v>
       </c>
-      <c r="AL100" t="n">
+      <c r="AL101" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM100" t="n">
+      <c r="AM101" t="n">
         <v>45</v>
       </c>
-      <c r="AN100" t="n">
+      <c r="AN101" t="n">
         <v>11.75</v>
       </c>
-      <c r="AO100" t="n">
+      <c r="AO101" t="n">
         <v>90</v>
       </c>
-      <c r="AP100" t="n">
+      <c r="AP101" t="n">
         <v>80</v>
       </c>
-      <c r="AQ100" t="n">
+      <c r="AQ101" t="n">
         <v>500</v>
       </c>
-      <c r="AR100" t="n">
+      <c r="AR101" t="n">
         <v>500</v>
       </c>
-      <c r="AS100" t="n">
+      <c r="AS101" t="n">
         <v>67</v>
       </c>
-      <c r="AT100" t="n">
+      <c r="AT101" t="n">
         <v>2.67</v>
       </c>
-      <c r="AU100" t="n">
+      <c r="AU101" t="n">
         <v>11</v>
       </c>
-      <c r="AV100" t="n">
+      <c r="AV101" t="n">
         <v>150</v>
       </c>
-      <c r="AW100" t="n">
+      <c r="AW101" t="n">
         <v>2.8</v>
       </c>
-      <c r="AX100" t="n">
+      <c r="AX101" t="n">
         <v>5.1</v>
       </c>
-      <c r="AY100" t="n">
+      <c r="AY101" t="n">
         <v>20</v>
       </c>
-      <c r="AZ100" t="n">
+      <c r="AZ101" t="n">
         <v>13</v>
       </c>
-      <c r="BA100" t="n">
+      <c r="BA101" t="n">
         <v>50</v>
       </c>
-      <c r="BB100" t="n">
+      <c r="BB101" t="n">
         <v>400</v>
       </c>
-      <c r="BC100" t="n">
+      <c r="BC101" t="n">
         <v>81</v>
       </c>
-      <c r="BD100" t="n">
+      <c r="BD101" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -971,13 +971,13 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -1016,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1025,10 +1025,10 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1311,16 +1311,16 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1493,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P6" t="n">
         <v>2.1</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>2.37</v>
@@ -2979,13 +2979,13 @@
         <v>2.42</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z14" t="n">
         <v>45</v>
@@ -3012,7 +3012,7 @@
         <v>200</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>11.5</v>
@@ -3024,16 +3024,16 @@
         <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM14" t="n">
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>20</v>
@@ -3066,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA14" t="n">
         <v>50</v>
@@ -3683,10 +3683,10 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.7</v>
@@ -4205,64 +4205,64 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.8</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -4271,49 +4271,49 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4322,31 +4322,31 @@
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -5509,10 +5509,10 @@
         <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -6407,16 +6407,16 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
         <v>2.5</v>
@@ -6783,10 +6783,10 @@
         <v>7</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R35" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.2</v>
@@ -7672,7 +7672,7 @@
         <v>1.38</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K40" t="n">
         <v>2.38</v>
@@ -7681,10 +7681,10 @@
         <v>1.91</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -7699,16 +7699,16 @@
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W40" t="n">
         <v>19</v>
@@ -7720,7 +7720,7 @@
         <v>23</v>
       </c>
       <c r="Z40" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA40" t="n">
         <v>51</v>
@@ -7777,22 +7777,22 @@
         <v>151</v>
       </c>
       <c r="AS40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW40" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AX40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY40" t="n">
         <v>19</v>
@@ -7863,10 +7863,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -7902,13 +7902,13 @@
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
@@ -7920,7 +7920,7 @@
         <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
         <v>351</v>
@@ -7950,7 +7950,7 @@
         <v>9</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ41" t="n">
         <v>29</v>
@@ -7959,7 +7959,7 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT41" t="n">
         <v>2.63</v>
@@ -7983,10 +7983,10 @@
         <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC41" t="n">
         <v>51</v>
@@ -8051,16 +8051,16 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.9</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8227,10 +8227,10 @@
         <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -8597,16 +8597,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="n">
         <v>1.36</v>
@@ -8773,10 +8773,10 @@
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -8785,10 +8785,10 @@
         <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J47" t="n">
         <v>4.33</v>
@@ -8958,25 +8958,25 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
         <v>2.05</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U47" t="n">
         <v>1.83</v>
@@ -8985,7 +8985,7 @@
         <v>1.83</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -8997,7 +8997,7 @@
         <v>41</v>
       </c>
       <c r="AA47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9054,7 +9054,7 @@
         <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU47" t="n">
         <v>8</v>
@@ -9072,7 +9072,7 @@
         <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA47" t="n">
         <v>51</v>
@@ -10414,7 +10414,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
         <v>1.36</v>
@@ -10423,10 +10423,10 @@
         <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>2.88</v>
@@ -10593,22 +10593,22 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S56" t="n">
         <v>1.44</v>
@@ -10626,10 +10626,10 @@
         <v>7</v>
       </c>
       <c r="X56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
         <v>19</v>
@@ -10668,7 +10668,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -11124,10 +11124,10 @@
         <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J59" t="n">
         <v>2.5</v>
@@ -11509,10 +11509,10 @@
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q61" t="n">
         <v>2.08</v>
@@ -12416,7 +12416,7 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O66" t="n">
         <v>1.07</v>
@@ -12759,16 +12759,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K68" t="n">
         <v>2.4</v>
@@ -12867,7 +12867,7 @@
         <v>17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR68" t="n">
         <v>41</v>
@@ -15489,13 +15489,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I83" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -15537,7 +15537,7 @@
         <v>2.25</v>
       </c>
       <c r="W83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X83" t="n">
         <v>11</v>
@@ -15591,7 +15591,7 @@
         <v>4.33</v>
       </c>
       <c r="AO83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP83" t="n">
         <v>17</v>
@@ -16065,10 +16065,10 @@
         <v>2.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R86" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S86" t="n">
         <v>1.5</v>
@@ -16217,13 +16217,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J87" t="n">
         <v>2.75</v>
@@ -16235,10 +16235,10 @@
         <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O87" t="n">
         <v>1.5</v>
@@ -16268,16 +16268,16 @@
         <v>5.5</v>
       </c>
       <c r="X87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y87" t="n">
         <v>9.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB87" t="n">
         <v>41</v>
@@ -16301,13 +16301,13 @@
         <v>9</v>
       </c>
       <c r="AI87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ87" t="n">
         <v>15</v>
       </c>
       <c r="AK87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL87" t="n">
         <v>41</v>
@@ -16319,16 +16319,16 @@
         <v>3.75</v>
       </c>
       <c r="AO87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ87" t="n">
         <v>41</v>
       </c>
       <c r="AR87" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS87" t="n">
         <v>251</v>
@@ -16945,76 +16945,76 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H91" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="I91" t="n">
         <v>7.1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K91" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="L91" t="n">
         <v>6.3</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O91" t="n">
         <v>1.2</v>
       </c>
       <c r="P91" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q91" t="n">
         <v>1.62</v>
       </c>
       <c r="R91" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S91" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W91" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X91" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y91" t="n">
         <v>8.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA91" t="n">
         <v>11</v>
       </c>
       <c r="AB91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD91" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE91" t="n">
         <v>19.5</v>
@@ -17023,10 +17023,10 @@
         <v>90</v>
       </c>
       <c r="AG91" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH91" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI91" t="n">
         <v>45</v>
@@ -17044,31 +17044,31 @@
         <v>65</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO91" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR91" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS91" t="n">
         <v>200</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU91" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW91" t="n">
         <v>8.25</v>
@@ -17083,7 +17083,7 @@
         <v>250</v>
       </c>
       <c r="BA91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB91" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -935,22 +935,22 @@
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1010,10 +1010,10 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="AP3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1255,10 +1255,10 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,16 +1311,16 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
@@ -1377,7 +1377,7 @@
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>4.5</v>
@@ -1493,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
         <v>2.1</v>
@@ -1514,7 +1514,7 @@
         <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -3671,7 +3671,7 @@
         <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
         <v>2.05</v>
@@ -3695,19 +3695,19 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
         <v>29</v>
@@ -3725,7 +3725,7 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>8.5</v>
@@ -3737,13 +3737,13 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
@@ -3764,19 +3764,19 @@
         <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
         <v>101</v>
       </c>
       <c r="AR18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS18" t="n">
         <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3794,13 +3794,13 @@
         <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
         <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -4838,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>41</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
         <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5691,16 +5691,16 @@
         <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
         <v>1.53</v>
@@ -5709,10 +5709,10 @@
         <v>2.38</v>
       </c>
       <c r="W29" t="n">
+        <v>10</v>
+      </c>
+      <c r="X29" t="n">
         <v>11</v>
-      </c>
-      <c r="X29" t="n">
-        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
@@ -5727,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>7.5</v>
@@ -5736,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
         <v>126</v>
@@ -5751,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5763,7 +5763,7 @@
         <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>17</v>
@@ -5778,7 +5778,7 @@
         <v>101</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5799,7 +5799,7 @@
         <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
         <v>126</v>
@@ -5861,16 +5861,16 @@
         <v>9.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
         <v>1.48</v>
@@ -6046,19 +6046,19 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
         <v>1.22</v>
@@ -6231,10 +6231,10 @@
         <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.48</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H40" t="n">
         <v>4.33</v>
@@ -7675,49 +7675,49 @@
         <v>7.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.91</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V40" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X40" t="n">
         <v>41</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
         <v>101</v>
@@ -7780,7 +7780,7 @@
         <v>351</v>
       </c>
       <c r="AT40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU40" t="n">
         <v>9.5</v>
@@ -7863,10 +7863,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -7875,10 +7875,10 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
         <v>1.44</v>
@@ -8030,7 +8030,7 @@
         <v>1.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -8057,16 +8057,16 @@
         <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>1.83</v>
@@ -8093,10 +8093,10 @@
         <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
         <v>17</v>
@@ -8105,16 +8105,16 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
         <v>41</v>
@@ -8135,7 +8135,7 @@
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
@@ -8144,7 +8144,7 @@
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
         <v>8</v>
@@ -8233,16 +8233,16 @@
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8394,25 +8394,25 @@
         <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L44" t="n">
         <v>2.88</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8421,10 +8421,10 @@
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
         <v>1.44</v>
@@ -8433,16 +8433,16 @@
         <v>2.63</v>
       </c>
       <c r="U44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -8451,43 +8451,43 @@
         <v>34</v>
       </c>
       <c r="AA44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI44" t="n">
         <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL44" t="n">
         <v>19</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
         <v>5</v>
@@ -8499,25 +8499,25 @@
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
       </c>
       <c r="AS44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT44" t="n">
         <v>2.63</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX44" t="n">
         <v>12</v>
@@ -8529,10 +8529,10 @@
         <v>41</v>
       </c>
       <c r="BA44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8755,13 +8755,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
         <v>2.88</v>
@@ -8773,10 +8773,10 @@
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -8785,10 +8785,10 @@
         <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8806,13 +8806,13 @@
         <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
         <v>9.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
         <v>19</v>
@@ -8824,10 +8824,10 @@
         <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
         <v>51</v>
@@ -8842,10 +8842,10 @@
         <v>17</v>
       </c>
       <c r="AJ46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="n">
         <v>29</v>
@@ -8857,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP46" t="n">
         <v>23</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J47" t="n">
         <v>4.33</v>
@@ -8985,7 +8985,7 @@
         <v>1.83</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -8997,7 +8997,7 @@
         <v>41</v>
       </c>
       <c r="AA47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9072,7 +9072,7 @@
         <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA47" t="n">
         <v>51</v>
@@ -9128,7 +9128,7 @@
         <v>2.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -9209,7 +9209,7 @@
         <v>9.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL48" t="n">
         <v>19</v>
@@ -9689,16 +9689,16 @@
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>1.33</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
         <v>1.7</v>
       </c>
       <c r="J52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -9865,16 +9865,16 @@
         <v>2.3</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -9889,10 +9889,10 @@
         <v>3.25</v>
       </c>
       <c r="U52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W52" t="n">
         <v>12</v>
@@ -9952,46 +9952,46 @@
         <v>23</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR52" t="n">
         <v>81</v>
       </c>
-      <c r="AR52" t="n">
-        <v>101</v>
-      </c>
       <c r="AS52" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT52" t="n">
         <v>3.25</v>
       </c>
       <c r="AU52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV52" t="n">
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX52" t="n">
         <v>9</v>
       </c>
       <c r="AY52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ52" t="n">
         <v>29</v>
       </c>
       <c r="BA52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC52" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD52" t="n">
         <v>81</v>
@@ -10211,19 +10211,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H54" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
         <v>4.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L54" t="n">
         <v>4.75</v>
@@ -10241,10 +10241,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10253,13 +10253,13 @@
         <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X54" t="n">
         <v>8.5</v>
@@ -10274,25 +10274,25 @@
         <v>15</v>
       </c>
       <c r="AB54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI54" t="n">
         <v>21</v>
@@ -10313,7 +10313,7 @@
         <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
@@ -10331,7 +10331,7 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV54" t="n">
         <v>51</v>
@@ -10343,7 +10343,7 @@
         <v>23</v>
       </c>
       <c r="AY54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ54" t="n">
         <v>81</v>
@@ -10352,7 +10352,7 @@
         <v>101</v>
       </c>
       <c r="BB54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC54" t="n">
         <v>81</v>
@@ -10575,40 +10575,40 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S56" t="n">
         <v>1.44</v>
@@ -10659,7 +10659,7 @@
         <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -12607,10 +12607,10 @@
         <v>4.33</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R67" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S67" t="n">
         <v>1.33</v>
@@ -12783,16 +12783,16 @@
         <v>17</v>
       </c>
       <c r="O68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R68" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S68" t="n">
         <v>1.29</v>
@@ -12947,16 +12947,16 @@
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J69" t="n">
         <v>3.2</v>
       </c>
       <c r="K69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -13004,7 +13004,7 @@
         <v>19</v>
       </c>
       <c r="AB69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC69" t="n">
         <v>13</v>
@@ -13019,7 +13019,7 @@
         <v>41</v>
       </c>
       <c r="AG69" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH69" t="n">
         <v>11</v>
@@ -13031,7 +13031,7 @@
         <v>10</v>
       </c>
       <c r="AK69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL69" t="n">
         <v>19</v>
@@ -13040,10 +13040,10 @@
         <v>23</v>
       </c>
       <c r="AN69" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP69" t="n">
         <v>21</v>
@@ -13061,7 +13061,7 @@
         <v>3.25</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV69" t="n">
         <v>41</v>
@@ -13141,10 +13141,10 @@
         <v>5.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O70" t="n">
         <v>1.1</v>
@@ -13323,10 +13323,10 @@
         <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O71" t="n">
         <v>1.14</v>
@@ -13335,10 +13335,10 @@
         <v>5.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S71" t="n">
         <v>1.25</v>
@@ -13687,10 +13687,10 @@
         <v>2.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O73" t="n">
         <v>1.2</v>
@@ -13699,10 +13699,10 @@
         <v>4.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R73" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
         <v>1.33</v>
@@ -14397,28 +14397,28 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J77" t="n">
         <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L77" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N77" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.36</v>
@@ -14427,16 +14427,16 @@
         <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S77" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T77" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U77" t="n">
         <v>2</v>
@@ -14448,10 +14448,10 @@
         <v>11</v>
       </c>
       <c r="X77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z77" t="n">
         <v>51</v>
@@ -14463,7 +14463,7 @@
         <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD77" t="n">
         <v>6.5</v>
@@ -14472,7 +14472,7 @@
         <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG77" t="n">
         <v>351</v>
@@ -14493,7 +14493,7 @@
         <v>17</v>
       </c>
       <c r="AM77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN77" t="n">
         <v>6</v>
@@ -14943,13 +14943,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J80" t="n">
         <v>4</v>
@@ -14967,16 +14967,16 @@
         <v>6</v>
       </c>
       <c r="O80" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P80" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R80" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S80" t="n">
         <v>1.57</v>
@@ -15018,7 +15018,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG80" t="n">
         <v>501</v>
@@ -15045,7 +15045,7 @@
         <v>5</v>
       </c>
       <c r="AO80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP80" t="n">
         <v>34</v>
@@ -15143,10 +15143,10 @@
         <v>2.38</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O81" t="n">
         <v>1.25</v>
@@ -15155,10 +15155,10 @@
         <v>3.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S81" t="n">
         <v>1.36</v>
@@ -16429,10 +16429,10 @@
         <v>4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R88" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S88" t="n">
         <v>1.33</v>
@@ -16581,13 +16581,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J89" t="n">
         <v>1.33</v>
@@ -16602,13 +16602,13 @@
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O89" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P89" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.22</v>
@@ -16623,10 +16623,10 @@
         <v>5</v>
       </c>
       <c r="U89" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W89" t="n">
         <v>15</v>
@@ -16653,7 +16653,7 @@
         <v>21</v>
       </c>
       <c r="AE89" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF89" t="n">
         <v>67</v>
@@ -16668,19 +16668,19 @@
         <v>101</v>
       </c>
       <c r="AJ89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK89" t="n">
         <v>201</v>
       </c>
       <c r="AL89" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM89" t="n">
         <v>81</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO89" t="n">
         <v>4.5</v>
@@ -16692,7 +16692,7 @@
         <v>8</v>
       </c>
       <c r="AR89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS89" t="n">
         <v>81</v>
@@ -16701,7 +16701,7 @@
         <v>5</v>
       </c>
       <c r="AU89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV89" t="n">
         <v>51</v>
@@ -16710,7 +16710,7 @@
         <v>17</v>
       </c>
       <c r="AX89" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY89" t="n">
         <v>51</v>
@@ -17521,10 +17521,10 @@
         <v>3.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S94" t="n">
         <v>1.4</v>
@@ -17855,16 +17855,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K96" t="n">
         <v>2.1</v>
@@ -17873,10 +17873,10 @@
         <v>5.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O96" t="n">
         <v>1.36</v>
@@ -17897,10 +17897,10 @@
         <v>2.63</v>
       </c>
       <c r="U96" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W96" t="n">
         <v>6</v>
@@ -17939,16 +17939,16 @@
         <v>13</v>
       </c>
       <c r="AI96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ96" t="n">
         <v>19</v>
       </c>
       <c r="AK96" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL96" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM96" t="n">
         <v>51</v>
@@ -17981,7 +17981,7 @@
         <v>67</v>
       </c>
       <c r="AW96" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX96" t="n">
         <v>29</v>
@@ -18037,13 +18037,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I97" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J97" t="n">
         <v>3.4</v>
@@ -18052,7 +18052,7 @@
         <v>2.4</v>
       </c>
       <c r="L97" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M97" t="n">
         <v>1.02</v>
@@ -18067,10 +18067,10 @@
         <v>5.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R97" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S97" t="n">
         <v>1.25</v>
@@ -18079,10 +18079,10 @@
         <v>3.75</v>
       </c>
       <c r="U97" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V97" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W97" t="n">
         <v>15</v>
@@ -18106,7 +18106,7 @@
         <v>19</v>
       </c>
       <c r="AD97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE97" t="n">
         <v>11</v>
@@ -18124,7 +18124,7 @@
         <v>13</v>
       </c>
       <c r="AJ97" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK97" t="n">
         <v>21</v>
@@ -18145,7 +18145,7 @@
         <v>19</v>
       </c>
       <c r="AQ97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR97" t="n">
         <v>51</v>
@@ -18163,7 +18163,7 @@
         <v>41</v>
       </c>
       <c r="AW97" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX97" t="n">
         <v>11</v>
@@ -18401,22 +18401,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I99" t="n">
         <v>3.25</v>
       </c>
       <c r="J99" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K99" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L99" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M99" t="n">
         <v>1.03</v>
@@ -18428,19 +18428,19 @@
         <v>1.17</v>
       </c>
       <c r="P99" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R99" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S99" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T99" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U99" t="n">
         <v>1.47</v>
@@ -18449,28 +18449,28 @@
         <v>2.5</v>
       </c>
       <c r="W99" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="X99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y99" t="n">
         <v>8.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA99" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB99" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC99" t="n">
         <v>9</v>
       </c>
       <c r="AD99" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE99" t="n">
         <v>11.25</v>
@@ -18482,10 +18482,10 @@
         <v>200</v>
       </c>
       <c r="AH99" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI99" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ99" t="n">
         <v>11.25</v>
@@ -18494,31 +18494,31 @@
         <v>45</v>
       </c>
       <c r="AL99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN99" t="n">
         <v>4.3</v>
       </c>
       <c r="AO99" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP99" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ99" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR99" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS99" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT99" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU99" t="n">
         <v>6.3</v>
@@ -18527,22 +18527,22 @@
         <v>40</v>
       </c>
       <c r="AW99" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX99" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY99" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AZ99" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA99" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB99" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC99" t="n">
         <v>51</v>
@@ -18765,19 +18765,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H101" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I101" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J101" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="K101" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L101" t="n">
         <v>1.65</v>
@@ -18789,16 +18789,16 @@
         <v>13</v>
       </c>
       <c r="O101" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P101" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q101" t="n">
         <v>1.7</v>
       </c>
       <c r="R101" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S101" t="n">
         <v>1.35</v>
@@ -18807,16 +18807,16 @@
         <v>3.07</v>
       </c>
       <c r="U101" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="V101" t="n">
         <v>1.42</v>
       </c>
       <c r="W101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X101" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y101" t="n">
         <v>45</v>
@@ -18831,10 +18831,10 @@
         <v>200</v>
       </c>
       <c r="AC101" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD101" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE101" t="n">
         <v>37</v>
@@ -18852,10 +18852,10 @@
         <v>5.1</v>
       </c>
       <c r="AJ101" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK101" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AL101" t="n">
         <v>12.5</v>
@@ -18864,13 +18864,13 @@
         <v>45</v>
       </c>
       <c r="AN101" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO101" t="n">
         <v>90</v>
       </c>
       <c r="AP101" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AQ101" t="n">
         <v>500</v>
@@ -18882,7 +18882,7 @@
         <v>67</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU101" t="n">
         <v>11</v>
@@ -18900,10 +18900,10 @@
         <v>20</v>
       </c>
       <c r="AZ101" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA101" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB101" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -938,10 +938,10 @@
         <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>7</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -971,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -1010,7 +1010,7 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1159,7 +1159,7 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>7</v>
@@ -1192,10 +1192,10 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1213,10 +1213,10 @@
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1514,7 +1514,7 @@
         <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -2239,10 +2239,10 @@
         <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.75</v>
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2776,7 +2776,7 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
@@ -2785,10 +2785,10 @@
         <v>2.42</v>
       </c>
       <c r="S13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.75</v>
@@ -2818,7 +2818,7 @@
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE13" t="n">
         <v>10.75</v>
@@ -2830,7 +2830,7 @@
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>16.5</v>
@@ -2854,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>50</v>
@@ -2866,7 +2866,7 @@
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU13" t="n">
         <v>6.2</v>
@@ -2878,16 +2878,16 @@
         <v>4.85</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
         <v>150</v>
@@ -5300,10 +5300,10 @@
         <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -5312,13 +5312,13 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -5348,13 +5348,13 @@
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>26</v>
@@ -5390,7 +5390,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5423,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX27" t="n">
         <v>17</v>
@@ -6225,10 +6225,10 @@
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -6237,10 +6237,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S32" t="n">
         <v>1.25</v>
@@ -6956,19 +6956,19 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.25</v>
@@ -7347,7 +7347,7 @@
         <v>1.83</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -7365,7 +7365,7 @@
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7377,10 +7377,10 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -7431,7 +7431,7 @@
         <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ38" t="n">
         <v>51</v>
@@ -8171,7 +8171,7 @@
         <v>201</v>
       </c>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8937,28 +8937,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J47" t="n">
         <v>4.33</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -8967,10 +8967,10 @@
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8979,13 +8979,13 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -8997,16 +8997,16 @@
         <v>41</v>
       </c>
       <c r="AA47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE47" t="n">
         <v>15</v>
@@ -9015,10 +9015,10 @@
         <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI47" t="n">
         <v>9</v>
@@ -9030,10 +9030,10 @@
         <v>17</v>
       </c>
       <c r="AL47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN47" t="n">
         <v>5.5</v>
@@ -9048,7 +9048,7 @@
         <v>67</v>
       </c>
       <c r="AR47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS47" t="n">
         <v>201</v>
@@ -9066,13 +9066,13 @@
         <v>4</v>
       </c>
       <c r="AX47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY47" t="n">
         <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA47" t="n">
         <v>51</v>
@@ -9128,7 +9128,7 @@
         <v>2.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -9209,7 +9209,7 @@
         <v>9.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL48" t="n">
         <v>19</v>
@@ -9492,7 +9492,7 @@
         <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
@@ -9543,7 +9543,7 @@
         <v>15</v>
       </c>
       <c r="AA50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB50" t="n">
         <v>19</v>
@@ -9585,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="AO50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP50" t="n">
         <v>15</v>
@@ -9603,7 +9603,7 @@
         <v>3.75</v>
       </c>
       <c r="AU50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV50" t="n">
         <v>41</v>
@@ -10029,13 +10029,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -10089,7 +10089,7 @@
         <v>67</v>
       </c>
       <c r="AA53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB53" t="n">
         <v>51</v>
@@ -10098,7 +10098,7 @@
         <v>10</v>
       </c>
       <c r="AD53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE53" t="n">
         <v>19</v>
@@ -10149,13 +10149,13 @@
         <v>2.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX53" t="n">
         <v>8</v>
@@ -10164,7 +10164,7 @@
         <v>21</v>
       </c>
       <c r="AZ53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA53" t="n">
         <v>51</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H59" t="n">
         <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J59" t="n">
         <v>2.5</v>
@@ -11142,7 +11142,7 @@
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O59" t="n">
         <v>1.13</v>
@@ -11178,43 +11178,43 @@
         <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB59" t="n">
         <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG59" t="n">
         <v>81</v>
       </c>
       <c r="AH59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM59" t="n">
         <v>23</v>
@@ -11247,10 +11247,10 @@
         <v>41</v>
       </c>
       <c r="AW59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY59" t="n">
         <v>19</v>
@@ -12619,7 +12619,7 @@
         <v>3.25</v>
       </c>
       <c r="U67" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V67" t="n">
         <v>2.25</v>
@@ -12765,7 +12765,7 @@
         <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J68" t="n">
         <v>2.38</v>
@@ -12774,7 +12774,7 @@
         <v>2.4</v>
       </c>
       <c r="L68" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -12801,13 +12801,13 @@
         <v>3.5</v>
       </c>
       <c r="U68" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V68" t="n">
         <v>2.25</v>
       </c>
       <c r="W68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X68" t="n">
         <v>10</v>
@@ -12861,7 +12861,7 @@
         <v>4</v>
       </c>
       <c r="AO68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP68" t="n">
         <v>17</v>
@@ -12888,13 +12888,13 @@
         <v>6</v>
       </c>
       <c r="AX68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY68" t="n">
         <v>23</v>
       </c>
       <c r="AZ68" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA68" t="n">
         <v>67</v>
@@ -12983,7 +12983,7 @@
         <v>3.25</v>
       </c>
       <c r="U69" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V69" t="n">
         <v>2.25</v>
@@ -13165,7 +13165,7 @@
         <v>4.33</v>
       </c>
       <c r="U70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V70" t="n">
         <v>2.5</v>
@@ -13699,10 +13699,10 @@
         <v>4.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S73" t="n">
         <v>1.33</v>
@@ -14403,22 +14403,22 @@
         <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K77" t="n">
         <v>2.05</v>
       </c>
       <c r="L77" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M77" t="n">
         <v>1.08</v>
       </c>
       <c r="N77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O77" t="n">
         <v>1.36</v>
@@ -14466,13 +14466,13 @@
         <v>7.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE77" t="n">
         <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG77" t="n">
         <v>351</v>
@@ -14499,7 +14499,7 @@
         <v>6</v>
       </c>
       <c r="AO77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP77" t="n">
         <v>34</v>
@@ -14514,7 +14514,7 @@
         <v>301</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14526,16 +14526,16 @@
         <v>3.75</v>
       </c>
       <c r="AX77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY77" t="n">
         <v>23</v>
       </c>
       <c r="AZ77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB77" t="n">
         <v>201</v>
@@ -14943,13 +14943,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J80" t="n">
         <v>4</v>
@@ -15030,7 +15030,7 @@
         <v>10</v>
       </c>
       <c r="AJ80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK80" t="n">
         <v>23</v>
@@ -15045,7 +15045,7 @@
         <v>5</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP80" t="n">
         <v>34</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J81" t="n">
         <v>4.5</v>
@@ -15140,7 +15140,7 @@
         <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M81" t="n">
         <v>1.05</v>
@@ -15182,7 +15182,7 @@
         <v>15</v>
       </c>
       <c r="Z81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA81" t="n">
         <v>34</v>
@@ -15191,10 +15191,10 @@
         <v>41</v>
       </c>
       <c r="AC81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15206,7 +15206,7 @@
         <v>201</v>
       </c>
       <c r="AH81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI81" t="n">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>15</v>
       </c>
       <c r="AL81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM81" t="n">
         <v>23</v>
@@ -15260,7 +15260,7 @@
         <v>19</v>
       </c>
       <c r="AZ81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA81" t="n">
         <v>51</v>
@@ -16065,10 +16065,10 @@
         <v>2.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R86" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S86" t="n">
         <v>1.5</v>
@@ -16602,7 +16602,7 @@
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O89" t="n">
         <v>1.05</v>
@@ -18055,10 +18055,10 @@
         <v>2.63</v>
       </c>
       <c r="M97" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O97" t="n">
         <v>1.14</v>
@@ -18765,19 +18765,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="H101" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I101" t="n">
         <v>1.22</v>
       </c>
       <c r="J101" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="K101" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L101" t="n">
         <v>1.65</v>
@@ -18789,10 +18789,10 @@
         <v>13</v>
       </c>
       <c r="O101" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P101" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q101" t="n">
         <v>1.7</v>
@@ -18807,37 +18807,37 @@
         <v>3.07</v>
       </c>
       <c r="U101" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="V101" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W101" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X101" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y101" t="n">
         <v>45</v>
       </c>
       <c r="Z101" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AB101" t="n">
         <v>200</v>
       </c>
       <c r="AC101" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD101" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE101" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF101" t="n">
         <v>250</v>
@@ -18855,16 +18855,16 @@
         <v>9.75</v>
       </c>
       <c r="AK101" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM101" t="n">
         <v>45</v>
       </c>
       <c r="AN101" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO101" t="n">
         <v>90</v>
@@ -18882,10 +18882,10 @@
         <v>67</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU101" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AV101" t="n">
         <v>150</v>
@@ -18894,7 +18894,7 @@
         <v>2.8</v>
       </c>
       <c r="AX101" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY101" t="n">
         <v>20</v>
@@ -18903,10 +18903,10 @@
         <v>13.5</v>
       </c>
       <c r="BA101" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB101" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC101" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1302,7 +1302,7 @@
         <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
@@ -1377,7 +1377,7 @@
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>4.5</v>
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.67</v>
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1559,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1589,19 +1589,19 @@
         <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>101</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
@@ -1681,16 +1681,16 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1738,7 +1738,7 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1857,10 +1857,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1887,7 +1887,7 @@
         <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1899,13 +1899,13 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
         <v>5.5</v>
@@ -2033,7 +2033,7 @@
         <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2042,7 +2042,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2063,16 +2063,16 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
@@ -2081,10 +2081,10 @@
         <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>7.5</v>
@@ -2132,10 +2132,10 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.38</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>2.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
@@ -2785,46 +2785,46 @@
         <v>2.42</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
         <v>150</v>
@@ -2839,25 +2839,25 @@
         <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR13" t="n">
         <v>65</v>
@@ -2866,13 +2866,13 @@
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW13" t="n">
         <v>4.85</v>
@@ -2881,7 +2881,7 @@
         <v>12.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
@@ -2893,7 +2893,7 @@
         <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -5315,10 +5315,10 @@
         <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -5348,13 +5348,13 @@
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>26</v>
@@ -5390,7 +5390,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5423,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX27" t="n">
         <v>17</v>
@@ -5503,16 +5503,16 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -6959,10 +6959,10 @@
         <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" t="n">
         <v>1.44</v>
@@ -8051,16 +8051,16 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S42" t="n">
         <v>1.36</v>
@@ -8937,28 +8937,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J47" t="n">
         <v>4.33</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -8967,10 +8967,10 @@
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8979,10 +8979,10 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W47" t="n">
         <v>11</v>
@@ -8997,7 +8997,7 @@
         <v>41</v>
       </c>
       <c r="AA47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9006,7 +9006,7 @@
         <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE47" t="n">
         <v>15</v>
@@ -9018,7 +9018,7 @@
         <v>251</v>
       </c>
       <c r="AH47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI47" t="n">
         <v>9</v>
@@ -9030,10 +9030,10 @@
         <v>17</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
         <v>5.5</v>
@@ -9066,13 +9066,13 @@
         <v>4</v>
       </c>
       <c r="AX47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY47" t="n">
         <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA47" t="n">
         <v>51</v>
@@ -9689,16 +9689,16 @@
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S51" t="n">
         <v>1.33</v>
@@ -10265,7 +10265,7 @@
         <v>8.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Z54" t="n">
         <v>15</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10617,25 +10617,25 @@
         <v>2.63</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V56" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB56" t="n">
         <v>29</v>
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP56" t="n">
         <v>23</v>
@@ -10969,10 +10969,10 @@
         <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S58" t="n">
         <v>1.33</v>
@@ -11127,22 +11127,22 @@
         <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
         <v>2.5</v>
       </c>
       <c r="L59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O59" t="n">
         <v>1.13</v>
@@ -11157,10 +11157,10 @@
         <v>2.7</v>
       </c>
       <c r="S59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
         <v>1.4</v>
@@ -11172,10 +11172,10 @@
         <v>13</v>
       </c>
       <c r="X59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z59" t="n">
         <v>21</v>
@@ -11184,7 +11184,7 @@
         <v>15</v>
       </c>
       <c r="AB59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
         <v>21</v>
@@ -11220,16 +11220,16 @@
         <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP59" t="n">
         <v>15</v>
       </c>
       <c r="AQ59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR59" t="n">
         <v>41</v>
@@ -11238,10 +11238,10 @@
         <v>81</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV59" t="n">
         <v>41</v>
@@ -11256,13 +11256,13 @@
         <v>19</v>
       </c>
       <c r="AZ59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA59" t="n">
         <v>51</v>
       </c>
       <c r="BB59" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC59" t="n">
         <v>251</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="H60" t="n">
         <v>3.9</v>
@@ -11351,7 +11351,7 @@
         <v>2.13</v>
       </c>
       <c r="W60" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X60" t="n">
         <v>25</v>
@@ -11384,7 +11384,7 @@
         <v>250</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI60" t="n">
         <v>7.2</v>
@@ -11402,7 +11402,7 @@
         <v>17</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AO60" t="n">
         <v>27</v>
@@ -11429,7 +11429,7 @@
         <v>55</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX60" t="n">
         <v>7.3</v>
@@ -11485,19 +11485,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
         <v>3.75</v>
@@ -11506,7 +11506,7 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -11536,7 +11536,7 @@
         <v>7.5</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="n">
         <v>9.5</v>
@@ -11551,10 +11551,10 @@
         <v>29</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE61" t="n">
         <v>13</v>
@@ -11566,16 +11566,16 @@
         <v>251</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
       </c>
       <c r="AJ61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="n">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>4.33</v>
       </c>
       <c r="AO61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP61" t="n">
         <v>23</v>
@@ -11599,7 +11599,7 @@
         <v>67</v>
       </c>
       <c r="AS61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT61" t="n">
         <v>2.63</v>
@@ -11852,16 +11852,16 @@
         <v>1.55</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I63" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K63" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
@@ -11873,34 +11873,34 @@
         <v>11.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S63" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T63" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U63" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V63" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W63" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X63" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -11909,16 +11909,16 @@
         <v>11.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB63" t="n">
         <v>23</v>
       </c>
       <c r="AC63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE63" t="n">
         <v>15.5</v>
@@ -11936,13 +11936,13 @@
         <v>32</v>
       </c>
       <c r="AJ63" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK63" t="n">
         <v>90</v>
       </c>
       <c r="AL63" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="n">
         <v>45</v>
@@ -11951,7 +11951,7 @@
         <v>3.45</v>
       </c>
       <c r="AO63" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP63" t="n">
         <v>15.5</v>
@@ -11960,13 +11960,13 @@
         <v>22</v>
       </c>
       <c r="AR63" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS63" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU63" t="n">
         <v>7.4</v>
@@ -12619,7 +12619,7 @@
         <v>3.25</v>
       </c>
       <c r="U67" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V67" t="n">
         <v>2.25</v>
@@ -12801,7 +12801,7 @@
         <v>3.5</v>
       </c>
       <c r="U68" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V68" t="n">
         <v>2.25</v>
@@ -12983,7 +12983,7 @@
         <v>3.25</v>
       </c>
       <c r="U69" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V69" t="n">
         <v>2.25</v>
@@ -13165,7 +13165,7 @@
         <v>4.33</v>
       </c>
       <c r="U70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V70" t="n">
         <v>2.5</v>
@@ -14579,40 +14579,40 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14621,10 +14621,10 @@
         <v>2.63</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W78" t="n">
         <v>6</v>
@@ -14660,13 +14660,13 @@
         <v>351</v>
       </c>
       <c r="AH78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI78" t="n">
         <v>26</v>
       </c>
       <c r="AJ78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK78" t="n">
         <v>51</v>
@@ -14681,7 +14681,7 @@
         <v>3.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP78" t="n">
         <v>21</v>
@@ -14705,7 +14705,7 @@
         <v>67</v>
       </c>
       <c r="AW78" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX78" t="n">
         <v>29</v>
@@ -14714,13 +14714,13 @@
         <v>41</v>
       </c>
       <c r="AZ78" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA78" t="n">
         <v>151</v>
       </c>
       <c r="BB78" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC78" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -953,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -1499,10 +1499,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1511,10 +1511,10 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -2752,25 +2752,25 @@
         <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
@@ -2785,16 +2785,16 @@
         <v>2.42</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W13" t="n">
         <v>13.5</v>
@@ -2803,10 +2803,10 @@
         <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
@@ -2815,13 +2815,13 @@
         <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2833,25 +2833,25 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM13" t="n">
         <v>18.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2866,19 +2866,19 @@
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV13" t="n">
         <v>37</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>15.5</v>
@@ -2893,7 +2893,7 @@
         <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
         <v>3.45</v>
@@ -3486,10 +3486,10 @@
         <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L17" t="n">
         <v>3.1</v>
@@ -3498,64 +3498,64 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V17" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>6.7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH17" t="n">
         <v>9.75</v>
@@ -3573,37 +3573,37 @@
         <v>19.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>55</v>
       </c>
       <c r="AR17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX17" t="n">
         <v>13.5</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
@@ -6210,10 +6210,10 @@
         <v>4.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6225,10 +6225,10 @@
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -6237,10 +6237,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S32" t="n">
         <v>1.25</v>
@@ -6261,7 +6261,7 @@
         <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
         <v>41</v>
@@ -6270,16 +6270,16 @@
         <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -6288,7 +6288,7 @@
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI32" t="n">
         <v>11</v>
@@ -6300,13 +6300,13 @@
         <v>17</v>
       </c>
       <c r="AL32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
         <v>19</v>
       </c>
       <c r="AN32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO32" t="n">
         <v>19</v>
@@ -7693,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7875,10 +7875,10 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="n">
         <v>1.44</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I60" t="n">
         <v>1.55</v>
       </c>
       <c r="J60" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -11345,16 +11345,16 @@
         <v>3.4</v>
       </c>
       <c r="U60" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V60" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="W60" t="n">
         <v>13</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y60" t="n">
         <v>13</v>
@@ -11372,7 +11372,7 @@
         <v>13.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE60" t="n">
         <v>12</v>
@@ -11402,7 +11402,7 @@
         <v>17</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO60" t="n">
         <v>27</v>
@@ -12959,10 +12959,10 @@
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
         <v>1.2</v>
@@ -12971,10 +12971,10 @@
         <v>4.33</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R69" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S69" t="n">
         <v>1.33</v>
@@ -14054,7 +14054,7 @@
         <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O75" t="n">
         <v>1.4</v>
@@ -14063,10 +14063,10 @@
         <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14782,19 +14782,19 @@
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R79" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -15307,22 +15307,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K82" t="n">
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -15331,10 +15331,10 @@
         <v>8.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
         <v>2.1</v>
@@ -15364,7 +15364,7 @@
         <v>9</v>
       </c>
       <c r="Z82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA82" t="n">
         <v>17</v>
@@ -15391,10 +15391,10 @@
         <v>10</v>
       </c>
       <c r="AI82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK82" t="n">
         <v>41</v>
@@ -15409,13 +15409,13 @@
         <v>3.75</v>
       </c>
       <c r="AO82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP82" t="n">
         <v>23</v>
       </c>
       <c r="AQ82" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR82" t="n">
         <v>51</v>
@@ -16217,13 +16217,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H87" t="n">
         <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J87" t="n">
         <v>2.75</v>
@@ -16259,25 +16259,25 @@
         <v>2.25</v>
       </c>
       <c r="U87" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V87" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W87" t="n">
         <v>5.5</v>
       </c>
       <c r="X87" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y87" t="n">
         <v>9.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB87" t="n">
         <v>41</v>
@@ -16298,16 +16298,16 @@
         <v>800</v>
       </c>
       <c r="AH87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ87" t="n">
         <v>15</v>
       </c>
       <c r="AK87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL87" t="n">
         <v>41</v>
@@ -16319,7 +16319,7 @@
         <v>3.75</v>
       </c>
       <c r="AO87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP87" t="n">
         <v>26</v>
@@ -18768,16 +18768,16 @@
         <v>13.5</v>
       </c>
       <c r="H101" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I101" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J101" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="K101" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L101" t="n">
         <v>1.65</v>
@@ -18786,25 +18786,25 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="O101" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P101" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R101" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S101" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T101" t="n">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="U101" t="n">
         <v>2.42</v>
@@ -18813,40 +18813,40 @@
         <v>1.44</v>
       </c>
       <c r="W101" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X101" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y101" t="n">
         <v>45</v>
       </c>
       <c r="Z101" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA101" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AB101" t="n">
         <v>200</v>
       </c>
       <c r="AC101" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD101" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE101" t="n">
         <v>35</v>
       </c>
       <c r="AF101" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG101" t="n">
         <v>67</v>
       </c>
       <c r="AH101" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI101" t="n">
         <v>5.1</v>
@@ -18855,7 +18855,7 @@
         <v>9.75</v>
       </c>
       <c r="AK101" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AL101" t="n">
         <v>12</v>
@@ -18864,13 +18864,13 @@
         <v>45</v>
       </c>
       <c r="AN101" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO101" t="n">
         <v>90</v>
       </c>
       <c r="AP101" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ101" t="n">
         <v>500</v>
@@ -18882,7 +18882,7 @@
         <v>67</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU101" t="n">
         <v>10.75</v>
@@ -18894,13 +18894,13 @@
         <v>2.8</v>
       </c>
       <c r="AX101" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AY101" t="n">
         <v>20</v>
       </c>
       <c r="AZ101" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BA101" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1493,16 +1493,16 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1511,10 +1511,10 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2570,10 +2570,10 @@
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>2.67</v>
@@ -2585,22 +2585,22 @@
         <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2612,10 +2612,10 @@
         <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X12" t="n">
         <v>10.75</v>
@@ -2627,16 +2627,16 @@
         <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2645,10 +2645,10 @@
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI12" t="n">
         <v>16.5</v>
@@ -3871,10 +3871,10 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4047,16 +4047,16 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4071,16 +4071,16 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
@@ -4119,13 +4119,13 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>19</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -4808,7 +4808,7 @@
         <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>19</v>
@@ -4877,7 +4877,7 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>21</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -5315,22 +5315,22 @@
         <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>1.57</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -5503,16 +5503,16 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
@@ -5843,16 +5843,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K30" t="n">
         <v>2.88</v>
@@ -5861,10 +5861,10 @@
         <v>9.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5879,10 +5879,10 @@
         <v>2.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -5906,7 +5906,7 @@
         <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
         <v>17</v>
@@ -5924,16 +5924,16 @@
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="n">
         <v>34</v>
       </c>
       <c r="AK30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="n">
         <v>81</v>
@@ -5951,7 +5951,7 @@
         <v>17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>34</v>
@@ -5960,7 +5960,7 @@
         <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
@@ -5969,7 +5969,7 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX30" t="n">
         <v>51</v>
@@ -6225,10 +6225,10 @@
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -6237,10 +6237,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S32" t="n">
         <v>1.25</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
         <v>4.33</v>
@@ -6592,7 +6592,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -6706,7 +6706,7 @@
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -7511,10 +7511,10 @@
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -8057,16 +8057,16 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42" t="n">
         <v>1.83</v>
@@ -8096,10 +8096,10 @@
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>51</v>
@@ -8114,7 +8114,7 @@
         <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK42" t="n">
         <v>41</v>
@@ -8135,7 +8135,7 @@
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
@@ -8144,7 +8144,7 @@
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU42" t="n">
         <v>8</v>
@@ -9695,10 +9695,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="n">
         <v>1.33</v>
@@ -10241,10 +10241,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10581,7 +10581,7 @@
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10611,10 +10611,10 @@
         <v>1.67</v>
       </c>
       <c r="S56" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T56" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U56" t="n">
         <v>1.95</v>
@@ -10653,7 +10653,7 @@
         <v>51</v>
       </c>
       <c r="AG56" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH56" t="n">
         <v>10</v>
@@ -10775,10 +10775,10 @@
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
         <v>1.2</v>
@@ -10787,13 +10787,13 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T57" t="n">
         <v>3.25</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>4.1</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
@@ -10975,10 +10975,10 @@
         <v>2.15</v>
       </c>
       <c r="S58" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U58" t="n">
         <v>1.8</v>
@@ -10987,7 +10987,7 @@
         <v>1.95</v>
       </c>
       <c r="W58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X58" t="n">
         <v>7.5</v>
@@ -10996,7 +10996,7 @@
         <v>8.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
         <v>12</v>
@@ -11005,19 +11005,19 @@
         <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
         <v>8</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH58" t="n">
         <v>19</v>
@@ -11026,19 +11026,19 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="n">
         <v>67</v>
       </c>
       <c r="AL58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO58" t="n">
         <v>7.5</v>
@@ -11053,10 +11053,10 @@
         <v>41</v>
       </c>
       <c r="AS58" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU58" t="n">
         <v>8.5</v>
@@ -11068,19 +11068,19 @@
         <v>7.5</v>
       </c>
       <c r="AX58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY58" t="n">
         <v>34</v>
       </c>
       <c r="AZ58" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA58" t="n">
         <v>126</v>
       </c>
       <c r="BB58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC58" t="n">
         <v>81</v>
@@ -11157,7 +11157,7 @@
         <v>2.7</v>
       </c>
       <c r="S59" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T59" t="n">
         <v>4</v>
@@ -13851,13 +13851,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H74" t="n">
         <v>3.6</v>
       </c>
       <c r="I74" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
@@ -13866,7 +13866,7 @@
         <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -13899,7 +13899,7 @@
         <v>2.5</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X74" t="n">
         <v>15</v>
@@ -13911,7 +13911,7 @@
         <v>26</v>
       </c>
       <c r="AA74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB74" t="n">
         <v>21</v>
@@ -14582,7 +14582,7 @@
         <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
         <v>5.5</v>
@@ -14594,7 +14594,7 @@
         <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -14603,31 +14603,31 @@
         <v>10</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
         <v>1.73</v>
       </c>
-      <c r="S78" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T78" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X78" t="n">
         <v>7</v>
@@ -14645,7 +14645,7 @@
         <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD78" t="n">
         <v>7</v>
@@ -14654,7 +14654,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG78" t="n">
         <v>351</v>
@@ -14666,7 +14666,7 @@
         <v>26</v>
       </c>
       <c r="AJ78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK78" t="n">
         <v>51</v>
@@ -14696,7 +14696,7 @@
         <v>151</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU78" t="n">
         <v>9</v>
@@ -14714,13 +14714,13 @@
         <v>41</v>
       </c>
       <c r="AZ78" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA78" t="n">
         <v>126</v>
       </c>
-      <c r="BA78" t="n">
-        <v>151</v>
-      </c>
       <c r="BB78" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC78" t="n">
         <v>126</v>
@@ -14785,16 +14785,16 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R79" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.05</v>
@@ -15155,10 +15155,10 @@
         <v>3.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S81" t="n">
         <v>1.36</v>
@@ -15173,13 +15173,13 @@
         <v>2</v>
       </c>
       <c r="W81" t="n">
+        <v>12</v>
+      </c>
+      <c r="X81" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y81" t="n">
         <v>13</v>
-      </c>
-      <c r="X81" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>15</v>
       </c>
       <c r="Z81" t="n">
         <v>41</v>
@@ -15227,13 +15227,13 @@
         <v>6</v>
       </c>
       <c r="AO81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP81" t="n">
         <v>29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR81" t="n">
         <v>81</v>
@@ -15251,10 +15251,10 @@
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY81" t="n">
         <v>19</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J82" t="n">
         <v>2.63</v>
@@ -15322,13 +15322,13 @@
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -15358,7 +15358,7 @@
         <v>6.5</v>
       </c>
       <c r="X82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y82" t="n">
         <v>9</v>
@@ -15388,7 +15388,7 @@
         <v>351</v>
       </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI82" t="n">
         <v>19</v>
@@ -15406,7 +15406,7 @@
         <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO82" t="n">
         <v>11</v>
@@ -15433,16 +15433,16 @@
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA82" t="n">
         <v>101</v>
@@ -15489,13 +15489,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H83" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -15537,7 +15537,7 @@
         <v>2.25</v>
       </c>
       <c r="W83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
         <v>11</v>
@@ -15591,7 +15591,7 @@
         <v>4.33</v>
       </c>
       <c r="AO83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP83" t="n">
         <v>17</v>
@@ -17309,22 +17309,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H93" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K93" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.01</v>
@@ -17333,43 +17333,43 @@
         <v>34</v>
       </c>
       <c r="O93" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P93" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R93" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S93" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="T93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U93" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W93" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X93" t="n">
         <v>17</v>
       </c>
       <c r="Y93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB93" t="n">
         <v>15</v>
@@ -17378,82 +17378,82 @@
         <v>34</v>
       </c>
       <c r="AD93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ93" t="n">
         <v>13</v>
       </c>
-      <c r="AE93" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF93" t="n">
+      <c r="AK93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL93" t="n">
         <v>21</v>
       </c>
-      <c r="AG93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>29</v>
-      </c>
       <c r="AM93" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN93" t="n">
         <v>5</v>
       </c>
       <c r="AO93" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ93" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR93" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AS93" t="n">
         <v>51</v>
       </c>
       <c r="AT93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU93" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW93" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AX93" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY93" t="n">
         <v>17</v>
       </c>
       <c r="AZ93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB93" t="n">
         <v>67</v>
       </c>
       <c r="BC93" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD93" t="n">
         <v>51</v>
@@ -18583,16 +18583,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H100" t="n">
         <v>3.3</v>
       </c>
       <c r="I100" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J100" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K100" t="n">
         <v>2.15</v>
@@ -18604,10 +18604,10 @@
         <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O100" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P100" t="n">
         <v>3.7</v>
@@ -18619,16 +18619,16 @@
         <v>2.05</v>
       </c>
       <c r="S100" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T100" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U100" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V100" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W100" t="n">
         <v>10.5</v>
@@ -18649,13 +18649,13 @@
         <v>24</v>
       </c>
       <c r="AC100" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD100" t="n">
         <v>6.6</v>
       </c>
       <c r="AE100" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF100" t="n">
         <v>45</v>
@@ -18664,7 +18664,7 @@
         <v>250</v>
       </c>
       <c r="AH100" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI100" t="n">
         <v>14</v>
@@ -18679,7 +18679,7 @@
         <v>19.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN100" t="n">
         <v>4.7</v>
@@ -18688,19 +18688,19 @@
         <v>13.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ100" t="n">
         <v>55</v>
       </c>
       <c r="AR100" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS100" t="n">
         <v>200</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU100" t="n">
         <v>6.5</v>
@@ -18718,7 +18718,7 @@
         <v>19.5</v>
       </c>
       <c r="AZ100" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA100" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -953,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1493,16 +1493,16 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1511,10 +1511,10 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1857,10 +1857,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2758,13 +2758,13 @@
         <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2794,25 +2794,25 @@
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.25</v>
@@ -2830,37 +2830,37 @@
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO13" t="n">
         <v>13.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
@@ -2878,10 +2878,10 @@
         <v>4.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>45</v>
@@ -2943,7 +2943,7 @@
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>2.4</v>
@@ -2955,22 +2955,22 @@
         <v>9.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2979,10 +2979,10 @@
         <v>2.42</v>
       </c>
       <c r="W14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>11.75</v>
@@ -3000,13 +3000,13 @@
         <v>9.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="n">
         <v>200</v>
@@ -3015,22 +3015,22 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -3045,10 +3045,10 @@
         <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>6.6</v>
@@ -3057,19 +3057,19 @@
         <v>45</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX14" t="n">
         <v>9.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB14" t="n">
         <v>150</v>
@@ -3683,16 +3683,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
@@ -3871,10 +3871,10 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3895,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
         <v>29</v>
@@ -3922,19 +3922,19 @@
         <v>126</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
@@ -4047,16 +4047,16 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4223,22 +4223,22 @@
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4963,10 +4963,10 @@
         <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>1.62</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -5312,13 +5312,13 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
@@ -5333,10 +5333,10 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
@@ -5354,22 +5354,22 @@
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB27" t="n">
         <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
         <v>81</v>
@@ -5384,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
@@ -5411,13 +5411,13 @@
         <v>101</v>
       </c>
       <c r="AS27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
@@ -5432,13 +5432,13 @@
         <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA27" t="n">
         <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5497,22 +5497,22 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5861,10 +5861,10 @@
         <v>9.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5873,10 +5873,10 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6222,13 +6222,13 @@
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -6261,7 +6261,7 @@
         <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
         <v>41</v>
@@ -6273,7 +6273,7 @@
         <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="n">
         <v>7.5</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
         <v>4.33</v>
@@ -6592,25 +6592,25 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q34" t="n">
         <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U34" t="n">
         <v>1.83</v>
@@ -6619,7 +6619,7 @@
         <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>19</v>
@@ -6637,7 +6637,7 @@
         <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
@@ -6649,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH34" t="n">
         <v>7</v>
@@ -6688,7 +6688,7 @@
         <v>201</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU34" t="n">
         <v>8</v>
@@ -6706,7 +6706,7 @@
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6777,16 +6777,16 @@
         <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R35" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S35" t="n">
         <v>1.2</v>
@@ -6816,13 +6816,13 @@
         <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE35" t="n">
         <v>21</v>
@@ -6834,10 +6834,10 @@
         <v>251</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -6846,13 +6846,13 @@
         <v>151</v>
       </c>
       <c r="AL35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="n">
         <v>67</v>
       </c>
-      <c r="AM35" t="n">
-        <v>51</v>
-      </c>
       <c r="AN35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO35" t="n">
         <v>5.5</v>
@@ -6879,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX35" t="n">
         <v>41</v>
@@ -8057,10 +8057,10 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8099,22 +8099,22 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
         <v>41</v>
@@ -9483,16 +9483,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H50" t="n">
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
@@ -9534,7 +9534,7 @@
         <v>10</v>
       </c>
       <c r="X50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
@@ -9543,7 +9543,7 @@
         <v>15</v>
       </c>
       <c r="AA50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB50" t="n">
         <v>19</v>
@@ -9567,10 +9567,10 @@
         <v>17</v>
       </c>
       <c r="AI50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK50" t="n">
         <v>41</v>
@@ -9585,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="AO50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP50" t="n">
         <v>15</v>
@@ -9603,7 +9603,7 @@
         <v>3.75</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV50" t="n">
         <v>41</v>
@@ -9618,7 +9618,7 @@
         <v>23</v>
       </c>
       <c r="AZ50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA50" t="n">
         <v>67</v>
@@ -10241,10 +10241,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
@@ -10423,10 +10423,10 @@
         <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10435,10 +10435,10 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10492,10 +10492,10 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -10513,7 +10513,7 @@
         <v>2.63</v>
       </c>
       <c r="AU55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10531,10 +10531,10 @@
         <v>67</v>
       </c>
       <c r="BA55" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC55" t="n">
         <v>81</v>
@@ -10611,10 +10611,10 @@
         <v>1.67</v>
       </c>
       <c r="S56" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T56" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U56" t="n">
         <v>1.95</v>
@@ -10793,7 +10793,7 @@
         <v>2.15</v>
       </c>
       <c r="S57" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T57" t="n">
         <v>3.25</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H58" t="n">
         <v>4.1</v>
       </c>
       <c r="I58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
@@ -10960,7 +10960,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O58" t="n">
         <v>1.2</v>
@@ -10969,16 +10969,16 @@
         <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="T58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="n">
         <v>1.8</v>
@@ -10987,7 +10987,7 @@
         <v>1.95</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X58" t="n">
         <v>7.5</v>
@@ -10996,7 +10996,7 @@
         <v>8.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
         <v>12</v>
@@ -11005,19 +11005,19 @@
         <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD58" t="n">
         <v>8</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH58" t="n">
         <v>19</v>
@@ -11026,19 +11026,19 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK58" t="n">
         <v>67</v>
       </c>
       <c r="AL58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM58" t="n">
         <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO58" t="n">
         <v>7.5</v>
@@ -11053,10 +11053,10 @@
         <v>41</v>
       </c>
       <c r="AS58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU58" t="n">
         <v>8.5</v>
@@ -11157,7 +11157,7 @@
         <v>2.7</v>
       </c>
       <c r="S59" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T59" t="n">
         <v>4</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H60" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I60" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J60" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="K60" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L60" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
@@ -11330,7 +11330,7 @@
         <v>1.14</v>
       </c>
       <c r="P60" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q60" t="n">
         <v>1.57</v>
@@ -11345,19 +11345,19 @@
         <v>3.4</v>
       </c>
       <c r="U60" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V60" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="W60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z60" t="n">
         <v>65</v>
@@ -11366,16 +11366,16 @@
         <v>35</v>
       </c>
       <c r="AB60" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC60" t="n">
         <v>13.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE60" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF60" t="n">
         <v>45</v>
@@ -11384,31 +11384,31 @@
         <v>250</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI60" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AJ60" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL60" t="n">
         <v>9.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AO60" t="n">
         <v>27</v>
       </c>
       <c r="AP60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ60" t="n">
         <v>150</v>
@@ -11420,19 +11420,19 @@
         <v>350</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX60" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AY60" t="n">
         <v>15</v>
@@ -11444,7 +11444,7 @@
         <v>45</v>
       </c>
       <c r="BB60" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC60" t="n">
         <v>51</v>
@@ -11506,7 +11506,7 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -11515,10 +11515,10 @@
         <v>3.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11873,10 +11873,10 @@
         <v>11.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P63" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q63" t="n">
         <v>1.62</v>
@@ -11894,13 +11894,13 @@
         <v>1.7</v>
       </c>
       <c r="V63" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W63" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X63" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -11930,10 +11930,10 @@
         <v>450</v>
       </c>
       <c r="AH63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ63" t="n">
         <v>16</v>
@@ -11948,7 +11948,7 @@
         <v>45</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO63" t="n">
         <v>7.2</v>
@@ -11957,7 +11957,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR63" t="n">
         <v>45</v>
@@ -13147,16 +13147,16 @@
         <v>21</v>
       </c>
       <c r="O70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R70" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S70" t="n">
         <v>1.2</v>
@@ -13329,10 +13329,10 @@
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P71" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
         <v>1.53</v>
@@ -13517,10 +13517,10 @@
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R72" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S72" t="n">
         <v>1.29</v>
@@ -14063,10 +14063,10 @@
         <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14415,10 +14415,10 @@
         <v>2.63</v>
       </c>
       <c r="M77" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
         <v>1.36</v>
@@ -14427,10 +14427,10 @@
         <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R77" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
         <v>1.5</v>
@@ -14761,13 +14761,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H79" t="n">
         <v>4.1</v>
       </c>
       <c r="I79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
         <v>2</v>
@@ -14776,7 +14776,7 @@
         <v>2.38</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
@@ -14791,10 +14791,10 @@
         <v>4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R79" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -14803,13 +14803,13 @@
         <v>3.25</v>
       </c>
       <c r="U79" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
         <v>7</v>
@@ -14833,13 +14833,13 @@
         <v>8</v>
       </c>
       <c r="AE79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF79" t="n">
         <v>51</v>
       </c>
       <c r="AG79" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH79" t="n">
         <v>17</v>
@@ -14854,16 +14854,16 @@
         <v>67</v>
       </c>
       <c r="AL79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP79" t="n">
         <v>19</v>
@@ -14881,25 +14881,25 @@
         <v>3.25</v>
       </c>
       <c r="AU79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV79" t="n">
         <v>51</v>
       </c>
       <c r="AW79" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX79" t="n">
         <v>34</v>
       </c>
       <c r="AY79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ79" t="n">
         <v>126</v>
       </c>
       <c r="BA79" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB79" t="n">
         <v>251</v>
@@ -16059,10 +16059,10 @@
         <v>8</v>
       </c>
       <c r="O86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
         <v>2.25</v>
@@ -16229,7 +16229,7 @@
         <v>2.75</v>
       </c>
       <c r="K87" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L87" t="n">
         <v>5</v>
@@ -16590,7 +16590,7 @@
         <v>19</v>
       </c>
       <c r="J89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -16945,22 +16945,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H91" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I91" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="J91" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K91" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="L91" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="M91" t="n">
         <v>1.04</v>
@@ -16972,52 +16972,52 @@
         <v>1.2</v>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q91" t="n">
         <v>1.62</v>
       </c>
       <c r="R91" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S91" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U91" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W91" t="n">
         <v>7.5</v>
       </c>
       <c r="X91" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y91" t="n">
         <v>8.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB91" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC91" t="n">
         <v>8.75</v>
       </c>
       <c r="AD91" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE91" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF91" t="n">
         <v>90</v>
@@ -17026,43 +17026,43 @@
         <v>700</v>
       </c>
       <c r="AH91" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI91" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ91" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK91" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AL91" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM91" t="n">
         <v>75</v>
       </c>
-      <c r="AM91" t="n">
-        <v>65</v>
-      </c>
       <c r="AN91" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO91" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AP91" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AR91" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS91" t="n">
         <v>200</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU91" t="n">
         <v>8.5</v>
@@ -17071,16 +17071,16 @@
         <v>80</v>
       </c>
       <c r="AW91" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AX91" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY91" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA91" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1311,22 +1311,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -3116,16 +3116,16 @@
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L15" t="n">
         <v>3.55</v>
@@ -3137,73 +3137,73 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB15" t="n">
         <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
         <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH15" t="n">
         <v>13.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>11.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3212,34 +3212,34 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS15" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV15" t="n">
         <v>45</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
         <v>16.5</v>
@@ -3295,46 +3295,46 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
@@ -3343,16 +3343,16 @@
         <v>2.27</v>
       </c>
       <c r="W16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
         <v>18.5</v>
@@ -3361,13 +3361,13 @@
         <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF16" t="n">
         <v>45</v>
@@ -3376,7 +3376,7 @@
         <v>300</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI16" t="n">
         <v>14</v>
@@ -3388,10 +3388,10 @@
         <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
         <v>4.65</v>
@@ -3412,7 +3412,7 @@
         <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU16" t="n">
         <v>6.7</v>
@@ -3421,19 +3421,19 @@
         <v>50</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
         <v>200</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
         <v>2.4</v>
@@ -4220,7 +4220,7 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -4229,16 +4229,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4247,19 +4247,19 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>7.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -4268,19 +4268,19 @@
         <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
@@ -4310,10 +4310,10 @@
         <v>9.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4325,10 +4325,10 @@
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>6.5</v>
@@ -4346,7 +4346,7 @@
         <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4572,10 +4572,10 @@
         <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>1.91</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4617,7 +4617,7 @@
         <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>6.5</v>
@@ -4647,13 +4647,13 @@
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH23" t="n">
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -4689,10 +4689,10 @@
         <v>3.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
         <v>8.5</v>
@@ -4710,7 +4710,7 @@
         <v>151</v>
       </c>
       <c r="BB23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
         <v>126</v>
@@ -4781,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4939,7 +4939,7 @@
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -4951,10 +4951,10 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
@@ -5023,7 +5023,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -5133,10 +5133,10 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.67</v>
@@ -5157,10 +5157,10 @@
         <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
         <v>5</v>
@@ -5169,7 +5169,7 @@
         <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>19</v>
@@ -5181,16 +5181,16 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="n">
         <v>201</v>
@@ -5214,19 +5214,19 @@
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS26" t="n">
         <v>351</v>
@@ -5238,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW26" t="n">
         <v>5.5</v>
@@ -5309,7 +5309,7 @@
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L27" t="n">
         <v>3.75</v>
@@ -5321,10 +5321,10 @@
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
@@ -5339,13 +5339,13 @@
         <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -5426,7 +5426,7 @@
         <v>4.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5497,10 +5497,10 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -6407,10 +6407,10 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -6461,7 +6461,7 @@
         <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
         <v>81</v>
@@ -6473,13 +6473,13 @@
         <v>9</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="n">
         <v>41</v>
@@ -6512,7 +6512,7 @@
         <v>9.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW33" t="n">
         <v>6</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -6586,13 +6586,13 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H36" t="n">
         <v>5.25</v>
       </c>
       <c r="I36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J36" t="n">
         <v>6.5</v>
@@ -6956,7 +6956,7 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
         <v>1.14</v>
@@ -6965,10 +6965,10 @@
         <v>5.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S36" t="n">
         <v>1.25</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
         <v>41</v>
@@ -7001,19 +7001,19 @@
         <v>41</v>
       </c>
       <c r="AC36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD36" t="n">
         <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH36" t="n">
         <v>9.5</v>
@@ -7022,10 +7022,10 @@
         <v>8</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL36" t="n">
         <v>11</v>
@@ -7034,7 +7034,7 @@
         <v>21</v>
       </c>
       <c r="AN36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO36" t="n">
         <v>34</v>
@@ -7043,22 +7043,22 @@
         <v>34</v>
       </c>
       <c r="AQ36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
         <v>3.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW36" t="n">
         <v>3.6</v>
@@ -7126,7 +7126,7 @@
         <v>1.67</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K37" t="n">
         <v>2.5</v>
@@ -7180,7 +7180,7 @@
         <v>34</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>19</v>
@@ -7201,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="AI37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="AX37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY37" t="n">
         <v>15</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
@@ -7320,7 +7320,7 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -7377,16 +7377,16 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
         <v>34</v>
@@ -7431,7 +7431,7 @@
         <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ38" t="n">
         <v>51</v>
@@ -7496,7 +7496,7 @@
         <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7532,7 +7532,7 @@
         <v>10</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
@@ -7553,10 +7553,10 @@
         <v>8</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
         <v>126</v>
@@ -7607,7 +7607,7 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX39" t="n">
         <v>21</v>
@@ -7693,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -8597,16 +8597,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S45" t="n">
         <v>1.36</v>
@@ -9134,7 +9134,7 @@
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -9179,7 +9179,7 @@
         <v>29</v>
       </c>
       <c r="AA48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB48" t="n">
         <v>29</v>
@@ -9301,16 +9301,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9322,7 +9322,7 @@
         <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O49" t="n">
         <v>1.13</v>
@@ -9364,7 +9364,7 @@
         <v>29</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
         <v>21</v>
@@ -9379,7 +9379,7 @@
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="n">
         <v>12</v>
@@ -9391,7 +9391,7 @@
         <v>9</v>
       </c>
       <c r="AK49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL49" t="n">
         <v>12</v>
@@ -9403,7 +9403,7 @@
         <v>6.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
@@ -9412,7 +9412,7 @@
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
         <v>101</v>
@@ -9430,13 +9430,13 @@
         <v>4.33</v>
       </c>
       <c r="AX49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY49" t="n">
         <v>15</v>
       </c>
       <c r="AZ49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA49" t="n">
         <v>41</v>
@@ -9695,10 +9695,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S51" t="n">
         <v>1.33</v>
@@ -10402,7 +10402,7 @@
         <v>3.25</v>
       </c>
       <c r="J55" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10707,10 +10707,10 @@
         <v>21</v>
       </c>
       <c r="AY56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA56" t="n">
         <v>101</v>
@@ -10939,16 +10939,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>4.1</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K58" t="n">
         <v>2.4</v>
@@ -10960,7 +10960,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.2</v>
@@ -10996,7 +10996,7 @@
         <v>8.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
         <v>12</v>
@@ -11005,19 +11005,19 @@
         <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
         <v>8</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH58" t="n">
         <v>19</v>
@@ -11032,7 +11032,7 @@
         <v>67</v>
       </c>
       <c r="AL58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="n">
         <v>41</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H60" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J60" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K60" t="n">
         <v>2.32</v>
       </c>
       <c r="L60" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
@@ -11336,7 +11336,7 @@
         <v>1.57</v>
       </c>
       <c r="R60" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
         <v>1.29</v>
@@ -11354,16 +11354,16 @@
         <v>13.5</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z60" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA60" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AB60" t="n">
         <v>35</v>
@@ -11375,7 +11375,7 @@
         <v>7.1</v>
       </c>
       <c r="AE60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF60" t="n">
         <v>45</v>
@@ -11384,16 +11384,16 @@
         <v>250</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AI60" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK60" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL60" t="n">
         <v>9.5</v>
@@ -11402,19 +11402,19 @@
         <v>17.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AO60" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ60" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR60" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS60" t="n">
         <v>350</v>
@@ -11429,22 +11429,22 @@
         <v>60</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX60" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AY60" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA60" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB60" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC60" t="n">
         <v>51</v>
@@ -13872,7 +13872,7 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O74" t="n">
         <v>1.17</v>
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J76" t="n">
         <v>4.33</v>
@@ -14233,10 +14233,10 @@
         <v>2.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -14245,16 +14245,16 @@
         <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U76" t="n">
         <v>1.83</v>
@@ -14281,7 +14281,7 @@
         <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD76" t="n">
         <v>6</v>
@@ -14299,19 +14299,19 @@
         <v>7</v>
       </c>
       <c r="AI76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN76" t="n">
         <v>5.5</v>
@@ -14332,19 +14332,19 @@
         <v>251</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU76" t="n">
         <v>8.5</v>
       </c>
       <c r="AV76" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW76" t="n">
         <v>4</v>
       </c>
       <c r="AX76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY76" t="n">
         <v>23</v>
@@ -14785,16 +14785,16 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R79" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -15155,10 +15155,10 @@
         <v>3.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S81" t="n">
         <v>1.36</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J82" t="n">
         <v>2.63</v>
@@ -15322,13 +15322,13 @@
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -15358,7 +15358,7 @@
         <v>6.5</v>
       </c>
       <c r="X82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y82" t="n">
         <v>9</v>
@@ -15388,7 +15388,7 @@
         <v>351</v>
       </c>
       <c r="AH82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI82" t="n">
         <v>19</v>
@@ -15406,7 +15406,7 @@
         <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO82" t="n">
         <v>11</v>
@@ -15433,16 +15433,16 @@
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ82" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA82" t="n">
         <v>101</v>
@@ -16229,7 +16229,7 @@
         <v>2.75</v>
       </c>
       <c r="K87" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L87" t="n">
         <v>5</v>
@@ -16590,7 +16590,7 @@
         <v>19</v>
       </c>
       <c r="J89" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -17521,10 +17521,10 @@
         <v>3.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R94" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="n">
         <v>1.4</v>
@@ -18055,10 +18055,10 @@
         <v>2.63</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O97" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -765,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
         <v>3.25</v>
@@ -965,7 +965,7 @@
         <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
         <v>3.75</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1308,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,16 +1335,16 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>401</v>
@@ -1377,19 +1377,19 @@
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1490,7 +1490,7 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1505,25 +1505,25 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>29</v>
@@ -1541,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1559,19 +1559,19 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
@@ -1592,7 +1592,7 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1613,16 +1613,16 @@
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1690,7 +1690,7 @@
         <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -1699,10 +1699,10 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>4.75</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1863,16 +1863,16 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
         <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>1.67</v>
@@ -1881,22 +1881,22 @@
         <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
@@ -1905,29 +1905,29 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1953,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT8" t="n">
         <v>2.1</v>
@@ -1965,10 +1965,10 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1977,10 +1977,10 @@
         <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2788,64 +2788,64 @@
         <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U13" t="n">
         <v>1.42</v>
       </c>
       <c r="V13" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN13" t="n">
         <v>5.1</v>
@@ -2854,22 +2854,22 @@
         <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>55</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV13" t="n">
         <v>37</v>
@@ -2878,19 +2878,19 @@
         <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
         <v>2.45</v>
       </c>
       <c r="L14" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2958,31 +2958,31 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="S14" t="n">
         <v>1.26</v>
       </c>
       <c r="T14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
         <v>12.5</v>
@@ -3030,10 +3030,10 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>20</v>
@@ -3048,16 +3048,16 @@
         <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
         <v>6.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AX14" t="n">
         <v>8.75</v>
@@ -3066,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>45</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
         <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J18" t="n">
         <v>5.5</v>
@@ -3695,7 +3695,7 @@
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
         <v>3.5</v>
@@ -3716,7 +3716,7 @@
         <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA18" t="n">
         <v>41</v>
@@ -3788,7 +3788,7 @@
         <v>3.75</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4226,31 +4226,31 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4271,28 +4271,28 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
@@ -4307,7 +4307,7 @@
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
@@ -4322,7 +4322,7 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
@@ -4334,7 +4334,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
         <v>3.6</v>
@@ -4411,16 +4411,16 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4435,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
         <v>9.5</v>
@@ -4450,16 +4450,16 @@
         <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4766,7 +4766,7 @@
         <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4939,7 +4939,7 @@
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.63</v>
@@ -4951,10 +4951,10 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4963,28 +4963,28 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
@@ -5026,7 +5026,7 @@
         <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
@@ -5050,7 +5050,7 @@
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5071,7 +5071,7 @@
         <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
         <v>201</v>
@@ -5115,52 +5115,52 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
@@ -5169,19 +5169,19 @@
         <v>9.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5190,7 +5190,7 @@
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="n">
         <v>201</v>
@@ -5208,7 +5208,7 @@
         <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>51</v>
@@ -5220,22 +5220,22 @@
         <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>81</v>
@@ -5253,7 +5253,7 @@
         <v>81</v>
       </c>
       <c r="BA26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB26" t="n">
         <v>351</v>
@@ -5333,7 +5333,7 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
@@ -5497,10 +5497,10 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.57</v>
@@ -5509,13 +5509,13 @@
         <v>2.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T28" t="n">
         <v>2.1</v>
@@ -5679,16 +5679,16 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
         <v>2.5</v>
@@ -5697,10 +5697,10 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L30" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5867,16 +5867,16 @@
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
         <v>1.29</v>
@@ -5894,25 +5894,25 @@
         <v>11</v>
       </c>
       <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="n">
         <v>13</v>
       </c>
-      <c r="Y30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>17</v>
-      </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
         <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5924,40 +5924,40 @@
         <v>126</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP30" t="n">
         <v>17</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="AQ30" t="n">
         <v>29</v>
       </c>
-      <c r="AL30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT30" t="n">
         <v>3.5</v>
@@ -5969,16 +5969,16 @@
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA30" t="n">
         <v>51</v>
@@ -6049,16 +6049,16 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
         <v>1.25</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
         <v>1.11</v>
@@ -6237,10 +6237,10 @@
         <v>6.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R32" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S32" t="n">
         <v>1.22</v>
@@ -6249,73 +6249,73 @@
         <v>4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB32" t="n">
         <v>17</v>
       </c>
-      <c r="Y32" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>19</v>
-      </c>
       <c r="AC32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD32" t="n">
         <v>8</v>
       </c>
       <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO32" t="n">
         <v>10</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>15</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
         <v>41</v>
@@ -6333,25 +6333,25 @@
         <v>34</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
         <v>81</v>
       </c>
       <c r="BC32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6419,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6431,25 +6431,25 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W33" t="n">
         <v>15</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
         <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
         <v>23</v>
@@ -6476,28 +6476,28 @@
         <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM33" t="n">
         <v>21</v>
       </c>
-      <c r="AL33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>19</v>
-      </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO33" t="n">
         <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR33" t="n">
         <v>51</v>
@@ -6515,22 +6515,22 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
         <v>17</v>
       </c>
       <c r="AZ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC33" t="n">
         <v>301</v>
@@ -6571,16 +6571,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -6613,31 +6613,31 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
         <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
@@ -6652,10 +6652,10 @@
         <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
         <v>17</v>
@@ -6679,7 +6679,7 @@
         <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
@@ -6697,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX34" t="n">
         <v>29</v>
@@ -6706,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="AZ34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA34" t="n">
         <v>151</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
@@ -6783,16 +6783,16 @@
         <v>2.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -6801,13 +6801,13 @@
         <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
         <v>41</v>
@@ -6834,43 +6834,43 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
         <v>34</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP35" t="n">
         <v>34</v>
       </c>
       <c r="AQ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS35" t="n">
         <v>301</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
         <v>9</v>
@@ -6882,7 +6882,7 @@
         <v>4</v>
       </c>
       <c r="AX35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY35" t="n">
         <v>26</v>
@@ -6894,7 +6894,7 @@
         <v>67</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC35" t="n">
         <v>81</v>
@@ -6956,7 +6956,7 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
         <v>1.11</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>5.25</v>
       </c>
       <c r="I37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K37" t="n">
         <v>2.63</v>
       </c>
       <c r="L37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7141,16 +7141,16 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S37" t="n">
         <v>1.25</v>
@@ -7165,19 +7165,19 @@
         <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X37" t="n">
         <v>41</v>
       </c>
       <c r="Y37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z37" t="n">
         <v>81</v>
       </c>
       <c r="AA37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
@@ -7195,7 +7195,7 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
         <v>8.5</v>
@@ -7207,7 +7207,7 @@
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL37" t="n">
         <v>11</v>
@@ -7216,7 +7216,7 @@
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO37" t="n">
         <v>34</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J38" t="n">
         <v>4.33</v>
@@ -7347,19 +7347,19 @@
         <v>2.5</v>
       </c>
       <c r="W38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB38" t="n">
         <v>29</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
@@ -7496,7 +7496,7 @@
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -7535,10 +7535,10 @@
         <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="n">
         <v>19</v>
@@ -7562,25 +7562,25 @@
         <v>301</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO39" t="n">
         <v>12</v>
@@ -7616,7 +7616,7 @@
         <v>29</v>
       </c>
       <c r="AZ39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA39" t="n">
         <v>81</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>3.75</v>
@@ -7747,7 +7747,7 @@
         <v>17</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
@@ -8353,7 +8353,7 @@
         <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -8409,10 +8409,10 @@
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -8442,13 +8442,13 @@
         <v>6</v>
       </c>
       <c r="X44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y44" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y44" t="n">
-        <v>10</v>
-      </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8460,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="AD44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE44" t="n">
         <v>19</v>
@@ -8496,7 +8496,7 @@
         <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -8517,7 +8517,7 @@
         <v>67</v>
       </c>
       <c r="AW44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX44" t="n">
         <v>21</v>
@@ -9483,13 +9483,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
         <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J50" t="n">
         <v>4</v>
@@ -9507,10 +9507,10 @@
         <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q50" t="n">
         <v>1.48</v>
@@ -9519,31 +9519,31 @@
         <v>2.6</v>
       </c>
       <c r="S50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T50" t="n">
         <v>3.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z50" t="n">
         <v>41</v>
       </c>
       <c r="AA50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="n">
         <v>26</v>
@@ -9552,7 +9552,7 @@
         <v>19</v>
       </c>
       <c r="AD50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE50" t="n">
         <v>12</v>
@@ -9564,7 +9564,7 @@
         <v>101</v>
       </c>
       <c r="AH50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI50" t="n">
         <v>11</v>
@@ -9576,13 +9576,13 @@
         <v>17</v>
       </c>
       <c r="AL50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM50" t="n">
         <v>19</v>
       </c>
       <c r="AN50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO50" t="n">
         <v>19</v>
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J51" t="n">
         <v>2.4</v>
@@ -9701,7 +9701,7 @@
         <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T51" t="n">
         <v>3.75</v>
@@ -9731,13 +9731,13 @@
         <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
         <v>34</v>
@@ -9767,7 +9767,7 @@
         <v>4.33</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
         <v>15</v>
@@ -9794,7 +9794,7 @@
         <v>6</v>
       </c>
       <c r="AX51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9883,7 +9883,7 @@
         <v>2.08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T52" t="n">
         <v>3.25</v>
@@ -10059,10 +10059,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R53" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
@@ -10229,22 +10229,22 @@
         <v>2.25</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10253,10 +10253,10 @@
         <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W54" t="n">
         <v>13</v>
@@ -10274,10 +10274,10 @@
         <v>41</v>
       </c>
       <c r="AB54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD54" t="n">
         <v>7.5</v>
@@ -10286,16 +10286,16 @@
         <v>19</v>
       </c>
       <c r="AF54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG54" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ54" t="n">
         <v>8.5</v>
@@ -10316,13 +10316,13 @@
         <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ54" t="n">
         <v>101</v>
       </c>
       <c r="AR54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS54" t="n">
         <v>301</v>
@@ -10331,10 +10331,10 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW54" t="n">
         <v>3.5</v>
@@ -10346,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="AZ54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA54" t="n">
         <v>51</v>
@@ -10411,13 +10411,13 @@
         <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
         <v>2.75</v>
@@ -10593,13 +10593,13 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
         <v>3.25</v>
@@ -10775,13 +10775,13 @@
         <v>4.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
         <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -11494,25 +11494,25 @@
         <v>1.5</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K61" t="n">
         <v>2.32</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P61" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q61" t="n">
         <v>1.57</v>
@@ -11521,40 +11521,40 @@
         <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T61" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U61" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V61" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="W61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y61" t="n">
         <v>14</v>
       </c>
-      <c r="X61" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="n">
         <v>35</v>
       </c>
       <c r="AC61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE61" t="n">
         <v>12.5</v>
@@ -11566,10 +11566,10 @@
         <v>250</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI61" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AJ61" t="n">
         <v>6.9</v>
@@ -11584,16 +11584,16 @@
         <v>17.5</v>
       </c>
       <c r="AN61" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AO61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ61" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR61" t="n">
         <v>175</v>
@@ -11608,13 +11608,13 @@
         <v>7.3</v>
       </c>
       <c r="AV61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX61" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AY61" t="n">
         <v>15</v>
@@ -12213,40 +12213,40 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K65" t="n">
         <v>2.1</v>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O65" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P65" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R65" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S65" t="n">
         <v>1.44</v>
@@ -12261,16 +12261,16 @@
         <v>1.67</v>
       </c>
       <c r="W65" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X65" t="n">
         <v>7</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
         <v>15</v>
@@ -12279,13 +12279,13 @@
         <v>34</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
         <v>7</v>
       </c>
       <c r="AE65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="n">
         <v>67</v>
@@ -12294,31 +12294,31 @@
         <v>101</v>
       </c>
       <c r="AH65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM65" t="n">
         <v>51</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ65" t="n">
         <v>29</v>
@@ -12339,10 +12339,10 @@
         <v>67</v>
       </c>
       <c r="AW65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY65" t="n">
         <v>41</v>
@@ -12941,13 +12941,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J69" t="n">
         <v>2.75</v>
@@ -12956,7 +12956,7 @@
         <v>2.25</v>
       </c>
       <c r="L69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
@@ -12977,10 +12977,10 @@
         <v>2.08</v>
       </c>
       <c r="S69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69" t="n">
         <v>1.62</v>
@@ -12989,10 +12989,10 @@
         <v>2.2</v>
       </c>
       <c r="W69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y69" t="n">
         <v>9</v>
@@ -13007,7 +13007,7 @@
         <v>23</v>
       </c>
       <c r="AC69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD69" t="n">
         <v>6.5</v>
@@ -13046,7 +13046,7 @@
         <v>12</v>
       </c>
       <c r="AP69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -13058,13 +13058,13 @@
         <v>126</v>
       </c>
       <c r="AT69" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU69" t="n">
         <v>7.5</v>
       </c>
       <c r="AV69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW69" t="n">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>67</v>
       </c>
       <c r="BB69" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC69" t="n">
         <v>126</v>
@@ -13529,10 +13529,10 @@
         <v>4</v>
       </c>
       <c r="U72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V72" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W72" t="n">
         <v>11</v>
@@ -13544,7 +13544,7 @@
         <v>9</v>
       </c>
       <c r="Z72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA72" t="n">
         <v>11</v>
@@ -13565,7 +13565,7 @@
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH72" t="n">
         <v>23</v>
@@ -13583,10 +13583,10 @@
         <v>41</v>
       </c>
       <c r="AM72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN72" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO72" t="n">
         <v>7</v>
@@ -13616,7 +13616,7 @@
         <v>8</v>
       </c>
       <c r="AX72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY72" t="n">
         <v>26</v>
@@ -13705,7 +13705,7 @@
         <v>2.5</v>
       </c>
       <c r="S73" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T73" t="n">
         <v>3.75</v>
@@ -13887,7 +13887,7 @@
         <v>2.3</v>
       </c>
       <c r="S74" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T74" t="n">
         <v>3.5</v>
@@ -14069,7 +14069,7 @@
         <v>2.15</v>
       </c>
       <c r="S75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T75" t="n">
         <v>3.25</v>
@@ -14215,22 +14215,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14251,7 +14251,7 @@
         <v>2.7</v>
       </c>
       <c r="S76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T76" t="n">
         <v>3.75</v>
@@ -14266,7 +14266,7 @@
         <v>17</v>
       </c>
       <c r="X76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y76" t="n">
         <v>12</v>
@@ -14278,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>21</v>
@@ -14299,7 +14299,7 @@
         <v>13</v>
       </c>
       <c r="AI76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ76" t="n">
         <v>9.5</v>
@@ -14329,7 +14329,7 @@
         <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT76" t="n">
         <v>3.75</v>
@@ -14347,7 +14347,7 @@
         <v>11</v>
       </c>
       <c r="AY76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ76" t="n">
         <v>34</v>
@@ -14397,13 +14397,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J77" t="n">
         <v>3.4</v>
@@ -14448,13 +14448,13 @@
         <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA77" t="n">
         <v>23</v>
@@ -14463,7 +14463,7 @@
         <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD77" t="n">
         <v>6</v>
@@ -14475,7 +14475,7 @@
         <v>67</v>
       </c>
       <c r="AG77" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH77" t="n">
         <v>7.5</v>
@@ -14761,28 +14761,28 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J79" t="n">
         <v>5.5</v>
       </c>
       <c r="K79" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.44</v>
@@ -14803,25 +14803,25 @@
         <v>2.38</v>
       </c>
       <c r="U79" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X79" t="n">
         <v>23</v>
       </c>
       <c r="Y79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z79" t="n">
         <v>51</v>
       </c>
       <c r="AA79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB79" t="n">
         <v>51</v>
@@ -14830,10 +14830,10 @@
         <v>6.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF79" t="n">
         <v>81</v>
@@ -14845,13 +14845,13 @@
         <v>5.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL79" t="n">
         <v>19</v>
@@ -14860,7 +14860,7 @@
         <v>41</v>
       </c>
       <c r="AN79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO79" t="n">
         <v>29</v>
@@ -14869,7 +14869,7 @@
         <v>41</v>
       </c>
       <c r="AQ79" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR79" t="n">
         <v>151</v>
@@ -14890,13 +14890,13 @@
         <v>3.6</v>
       </c>
       <c r="AX79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY79" t="n">
         <v>26</v>
       </c>
       <c r="AZ79" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA79" t="n">
         <v>67</v>
@@ -14943,22 +14943,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K80" t="n">
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
@@ -14979,7 +14979,7 @@
         <v>1.53</v>
       </c>
       <c r="S80" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T80" t="n">
         <v>2.5</v>
@@ -14991,7 +14991,7 @@
         <v>1.57</v>
       </c>
       <c r="W80" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X80" t="n">
         <v>6.5</v>
@@ -15030,7 +15030,7 @@
         <v>29</v>
       </c>
       <c r="AJ80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK80" t="n">
         <v>67</v>
@@ -15051,7 +15051,7 @@
         <v>26</v>
       </c>
       <c r="AQ80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR80" t="n">
         <v>67</v>
@@ -15078,7 +15078,7 @@
         <v>41</v>
       </c>
       <c r="AZ80" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA80" t="n">
         <v>201</v>
@@ -15134,37 +15134,37 @@
         <v>7.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L81" t="n">
         <v>6.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P81" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S81" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
         <v>1.83</v>
@@ -15173,10 +15173,10 @@
         <v>1.83</v>
       </c>
       <c r="W81" t="n">
+        <v>8</v>
+      </c>
+      <c r="X81" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X81" t="n">
-        <v>7</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15188,10 +15188,10 @@
         <v>12</v>
       </c>
       <c r="AB81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD81" t="n">
         <v>8.5</v>
@@ -15224,7 +15224,7 @@
         <v>51</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO81" t="n">
         <v>7</v>
@@ -15239,10 +15239,10 @@
         <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU81" t="n">
         <v>8.5</v>
@@ -15257,13 +15257,13 @@
         <v>34</v>
       </c>
       <c r="AY81" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ81" t="n">
         <v>126</v>
       </c>
       <c r="BA81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB81" t="n">
         <v>251</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H82" t="n">
         <v>2.9</v>
       </c>
       <c r="I82" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J82" t="n">
         <v>4</v>
@@ -15343,7 +15343,7 @@
         <v>1.48</v>
       </c>
       <c r="S82" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T82" t="n">
         <v>2.25</v>
@@ -15373,7 +15373,7 @@
         <v>41</v>
       </c>
       <c r="AC82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD82" t="n">
         <v>6</v>
@@ -15382,7 +15382,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG82" t="n">
         <v>501</v>
@@ -15394,7 +15394,7 @@
         <v>10</v>
       </c>
       <c r="AJ82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK82" t="n">
         <v>23</v>
@@ -15409,7 +15409,7 @@
         <v>5</v>
       </c>
       <c r="AO82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP82" t="n">
         <v>34</v>
@@ -15525,7 +15525,7 @@
         <v>2.1</v>
       </c>
       <c r="S83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
         <v>3.25</v>
@@ -15677,10 +15677,10 @@
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K84" t="n">
         <v>2.1</v>
@@ -15728,10 +15728,10 @@
         <v>9</v>
       </c>
       <c r="Z84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA84" t="n">
         <v>15</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>17</v>
       </c>
       <c r="AB84" t="n">
         <v>29</v>
@@ -15755,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="AI84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ84" t="n">
         <v>15</v>
@@ -15770,7 +15770,7 @@
         <v>41</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO84" t="n">
         <v>9.5</v>
@@ -15797,7 +15797,7 @@
         <v>67</v>
       </c>
       <c r="AW84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX84" t="n">
         <v>26</v>
@@ -15806,7 +15806,7 @@
         <v>34</v>
       </c>
       <c r="AZ84" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA84" t="n">
         <v>126</v>
@@ -16047,43 +16047,43 @@
         <v>5.3</v>
       </c>
       <c r="K86" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L86" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.16</v>
       </c>
       <c r="P86" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q86" t="n">
         <v>1.5</v>
       </c>
       <c r="R86" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S86" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U86" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X86" t="n">
         <v>40</v>
@@ -16101,16 +16101,16 @@
         <v>45</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE86" t="n">
         <v>16</v>
       </c>
       <c r="AF86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG86" t="n">
         <v>350</v>
@@ -16131,16 +16131,16 @@
         <v>10.75</v>
       </c>
       <c r="AM86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN86" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO86" t="n">
         <v>30</v>
       </c>
       <c r="AP86" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ86" t="n">
         <v>175</v>
@@ -16149,19 +16149,19 @@
         <v>175</v>
       </c>
       <c r="AS86" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV86" t="n">
         <v>55</v>
       </c>
       <c r="AW86" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX86" t="n">
         <v>6.6</v>
@@ -16170,10 +16170,10 @@
         <v>14</v>
       </c>
       <c r="AZ86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB86" t="n">
         <v>150</v>
@@ -16605,22 +16605,22 @@
         <v>5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P89" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S89" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T89" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U89" t="n">
         <v>2.63</v>
@@ -16763,7 +16763,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H90" t="n">
         <v>4.33</v>
@@ -16772,22 +16772,22 @@
         <v>1.53</v>
       </c>
       <c r="J90" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K90" t="n">
         <v>2.4</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O90" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P90" t="n">
         <v>4.5</v>
@@ -16817,16 +16817,16 @@
         <v>29</v>
       </c>
       <c r="Y90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z90" t="n">
         <v>51</v>
       </c>
       <c r="AA90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC90" t="n">
         <v>17</v>
@@ -16847,7 +16847,7 @@
         <v>9</v>
       </c>
       <c r="AI90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ90" t="n">
         <v>8.5</v>
@@ -16945,31 +16945,31 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J91" t="n">
         <v>1.36</v>
       </c>
       <c r="K91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L91" t="n">
         <v>11</v>
       </c>
       <c r="M91" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="O91" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P91" t="n">
         <v>8.5</v>
@@ -16987,10 +16987,10 @@
         <v>5</v>
       </c>
       <c r="U91" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V91" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W91" t="n">
         <v>15</v>
@@ -17002,7 +17002,7 @@
         <v>13</v>
       </c>
       <c r="Z91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
         <v>11</v>
@@ -17014,13 +17014,13 @@
         <v>34</v>
       </c>
       <c r="AD91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE91" t="n">
         <v>29</v>
       </c>
       <c r="AF91" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG91" t="n">
         <v>800</v>
@@ -17029,7 +17029,7 @@
         <v>51</v>
       </c>
       <c r="AI91" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ91" t="n">
         <v>41</v>
@@ -17041,7 +17041,7 @@
         <v>101</v>
       </c>
       <c r="AM91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN91" t="n">
         <v>3.75</v>
@@ -17050,7 +17050,7 @@
         <v>4.75</v>
       </c>
       <c r="AP91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ91" t="n">
         <v>8.5</v>
@@ -17071,7 +17071,7 @@
         <v>51</v>
       </c>
       <c r="AW91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX91" t="n">
         <v>51</v>
@@ -17083,7 +17083,7 @@
         <v>151</v>
       </c>
       <c r="BA91" t="n">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="BB91" t="n">
         <v>501</v>
@@ -17145,13 +17145,13 @@
         <v>2.05</v>
       </c>
       <c r="M92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
         <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P92" t="n">
         <v>4.5</v>
@@ -17309,19 +17309,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H93" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I93" t="n">
         <v>7.9</v>
       </c>
       <c r="J93" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K93" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L93" t="n">
         <v>6.9</v>
@@ -17330,37 +17330,37 @@
         <v>1.04</v>
       </c>
       <c r="N93" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P93" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R93" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S93" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T93" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="U93" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V93" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W93" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X93" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y93" t="n">
         <v>8.5</v>
@@ -17369,34 +17369,34 @@
         <v>8.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB93" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE93" t="n">
         <v>21</v>
       </c>
       <c r="AF93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG93" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH93" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI93" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK93" t="n">
         <v>200</v>
@@ -17405,31 +17405,31 @@
         <v>90</v>
       </c>
       <c r="AM93" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO93" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AP93" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR93" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS93" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT93" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AU93" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV93" t="n">
         <v>80</v>
@@ -17444,10 +17444,10 @@
         <v>45</v>
       </c>
       <c r="AZ93" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA93" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB93" t="n">
         <v>500</v>
@@ -17673,19 +17673,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H95" t="n">
         <v>4.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J95" t="n">
         <v>2.2</v>
       </c>
       <c r="K95" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L95" t="n">
         <v>3.75</v>
@@ -17709,7 +17709,7 @@
         <v>4</v>
       </c>
       <c r="S95" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="T95" t="n">
         <v>5</v>
@@ -18219,7 +18219,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H98" t="n">
         <v>3.7</v>
@@ -18231,19 +18231,19 @@
         <v>2.2</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
         <v>6</v>
       </c>
       <c r="M98" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
         <v>3.5</v>
@@ -18255,7 +18255,7 @@
         <v>1.88</v>
       </c>
       <c r="S98" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T98" t="n">
         <v>2.75</v>
@@ -18357,7 +18357,7 @@
         <v>101</v>
       </c>
       <c r="BA98" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB98" t="n">
         <v>301</v>
@@ -18401,31 +18401,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I99" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K99" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L99" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M99" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N99" t="n">
         <v>19</v>
       </c>
       <c r="O99" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P99" t="n">
         <v>5.5</v>
@@ -18437,7 +18437,7 @@
         <v>2.5</v>
       </c>
       <c r="S99" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T99" t="n">
         <v>3.75</v>
@@ -18452,7 +18452,7 @@
         <v>15</v>
       </c>
       <c r="X99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y99" t="n">
         <v>12</v>
@@ -18461,7 +18461,7 @@
         <v>34</v>
       </c>
       <c r="AA99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB99" t="n">
         <v>23</v>
@@ -18491,7 +18491,7 @@
         <v>9</v>
       </c>
       <c r="AK99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL99" t="n">
         <v>15</v>
@@ -18530,7 +18530,7 @@
         <v>4.5</v>
       </c>
       <c r="AX99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY99" t="n">
         <v>17</v>
@@ -18610,7 +18610,7 @@
         <v>1.22</v>
       </c>
       <c r="P100" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q100" t="n">
         <v>1.7</v>
@@ -18679,7 +18679,7 @@
         <v>17</v>
       </c>
       <c r="AM100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN100" t="n">
         <v>5</v>
@@ -18765,46 +18765,46 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="H101" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I101" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="J101" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="K101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N101" t="n">
+        <v>9</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R101" t="n">
         <v>2.27</v>
       </c>
-      <c r="L101" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N101" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P101" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R101" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S101" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T101" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U101" t="n">
         <v>1.5</v>
@@ -18813,31 +18813,31 @@
         <v>2.4</v>
       </c>
       <c r="W101" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y101" t="n">
         <v>8.75</v>
       </c>
       <c r="Z101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA101" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC101" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD101" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE101" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF101" t="n">
         <v>40</v>
@@ -18846,67 +18846,67 @@
         <v>200</v>
       </c>
       <c r="AH101" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ101" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK101" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM101" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AO101" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ101" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR101" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS101" t="n">
         <v>150</v>
       </c>
       <c r="AT101" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU101" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV101" t="n">
         <v>45</v>
       </c>
       <c r="AW101" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY101" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ101" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA101" t="n">
         <v>80</v>
       </c>
       <c r="BB101" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC101" t="n">
         <v>500</v>
@@ -19129,19 +19129,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H103" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I103" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J103" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="K103" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L103" t="n">
         <v>1.65</v>
@@ -19153,22 +19153,22 @@
         <v>11</v>
       </c>
       <c r="O103" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P103" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R103" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S103" t="n">
         <v>1.38</v>
       </c>
       <c r="T103" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U103" t="n">
         <v>2.62</v>
@@ -19177,7 +19177,7 @@
         <v>1.37</v>
       </c>
       <c r="W103" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X103" t="n">
         <v>120</v>
@@ -19189,13 +19189,13 @@
         <v>800</v>
       </c>
       <c r="AA103" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AB103" t="n">
         <v>250</v>
       </c>
       <c r="AC103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD103" t="n">
         <v>11</v>
@@ -19219,7 +19219,7 @@
         <v>10</v>
       </c>
       <c r="AK103" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AL103" t="n">
         <v>13</v>
@@ -19231,10 +19231,10 @@
         <v>12.5</v>
       </c>
       <c r="AO103" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP103" t="n">
         <v>100</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>90</v>
       </c>
       <c r="AQ103" t="n">
         <v>500</v>
@@ -19246,31 +19246,31 @@
         <v>67</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU103" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AV103" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AW103" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AX103" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA103" t="n">
         <v>55</v>
       </c>
       <c r="BB103" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC103" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -783,7 +783,7 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
         <v>3.25</v>
@@ -932,10 +932,10 @@
         <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -944,7 +944,7 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -977,13 +977,13 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1147,10 +1147,10 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,13 +1323,13 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
         <v>2.5</v>
@@ -1475,55 +1475,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.67</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1535,28 +1535,28 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
@@ -1568,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,13 +1589,13 @@
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1613,10 +1613,10 @@
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1693,7 +1693,7 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T7" t="n">
         <v>2.1</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>
@@ -1863,10 +1863,10 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>3.1</v>
@@ -1875,7 +1875,7 @@
         <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T8" t="n">
         <v>2.1</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
@@ -2057,10 +2057,10 @@
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U9" t="n">
         <v>2.05</v>
@@ -2072,7 +2072,7 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2147,13 +2147,13 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2758,13 +2758,13 @@
         <v>2.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2776,7 +2776,7 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
@@ -2797,70 +2797,70 @@
         <v>2.65</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE13" t="n">
         <v>10.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>5.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
@@ -2875,22 +2875,22 @@
         <v>37</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX13" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2934,16 +2934,16 @@
         <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L14" t="n">
         <v>2.27</v>
@@ -2952,19 +2952,19 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S14" t="n">
         <v>1.26</v>
@@ -2997,10 +2997,10 @@
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
@@ -3012,7 +3012,7 @@
         <v>200</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI14" t="n">
         <v>11.25</v>
@@ -3021,7 +3021,7 @@
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>12.5</v>
@@ -3045,22 +3045,22 @@
         <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT14" t="n">
         <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW14" t="n">
         <v>4.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.5</v>
@@ -3128,7 +3128,7 @@
         <v>2.32</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3152,7 +3152,7 @@
         <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -3161,16 +3161,16 @@
         <v>2.42</v>
       </c>
       <c r="W15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>14</v>
@@ -3194,16 +3194,16 @@
         <v>200</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3230,7 +3230,7 @@
         <v>150</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU15" t="n">
         <v>6.5</v>
@@ -3242,13 +3242,13 @@
         <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY15" t="n">
         <v>20</v>
       </c>
       <c r="AZ15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA15" t="n">
         <v>90</v>
@@ -3477,88 +3477,88 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="S17" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="T17" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="U17" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="W17" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -3567,58 +3567,58 @@
         <v>9.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS17" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="AU17" t="n">
         <v>6.6</v>
       </c>
       <c r="AV17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>50</v>
       </c>
-      <c r="AW17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>55</v>
-      </c>
       <c r="BA17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3683,10 +3683,10 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.53</v>
@@ -3695,7 +3695,7 @@
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
         <v>3.5</v>
@@ -4041,10 +4041,10 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4247,22 +4247,22 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -4280,31 +4280,31 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
         <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO21" t="n">
         <v>8.5</v>
@@ -4963,10 +4963,10 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -5118,19 +5118,19 @@
         <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.4</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
@@ -5145,28 +5145,28 @@
         <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -5175,19 +5175,19 @@
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
         <v>101</v>
@@ -5196,13 +5196,13 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
@@ -5232,19 +5232,19 @@
         <v>351</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>41</v>
@@ -5333,7 +5333,7 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
         <v>3.75</v>
@@ -5497,10 +5497,10 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.57</v>
@@ -5509,28 +5509,28 @@
         <v>2.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>12</v>
@@ -5545,7 +5545,7 @@
         <v>41</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
@@ -5560,7 +5560,7 @@
         <v>1250</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
@@ -5575,7 +5575,7 @@
         <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
         <v>4.5</v>
@@ -5587,7 +5587,7 @@
         <v>34</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
         <v>101</v>
@@ -5596,7 +5596,7 @@
         <v>351</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU28" t="n">
         <v>9.5</v>
@@ -5605,19 +5605,19 @@
         <v>81</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
         <v>351</v>
@@ -5697,10 +5697,10 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -6389,16 +6389,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
@@ -6464,7 +6464,7 @@
         <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG33" t="n">
         <v>101</v>
@@ -6479,16 +6479,16 @@
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM33" t="n">
         <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO33" t="n">
         <v>15</v>
@@ -6527,7 +6527,7 @@
         <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB33" t="n">
         <v>101</v>
@@ -6935,10 +6935,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
@@ -6965,10 +6965,10 @@
         <v>6.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R36" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S36" t="n">
         <v>1.2</v>
@@ -6977,10 +6977,10 @@
         <v>4.33</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W36" t="n">
         <v>10</v>
@@ -7013,19 +7013,19 @@
         <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
         <v>67</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL36" t="n">
         <v>81</v>
@@ -7061,7 +7061,7 @@
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
@@ -7120,52 +7120,52 @@
         <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J37" t="n">
         <v>7</v>
       </c>
       <c r="K37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.8</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="W37" t="n">
         <v>19</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W37" t="n">
-        <v>21</v>
       </c>
       <c r="X37" t="n">
         <v>41</v>
@@ -7180,28 +7180,28 @@
         <v>51</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF37" t="n">
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
@@ -7213,49 +7213,49 @@
         <v>11</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN37" t="n">
         <v>9</v>
       </c>
       <c r="AO37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX37" t="n">
         <v>6.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ37" t="n">
         <v>17</v>
       </c>
       <c r="BA37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB37" t="n">
         <v>101</v>
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -7484,7 +7484,7 @@
         <v>2.15</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
         <v>3.25</v>
@@ -7493,28 +7493,28 @@
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7523,49 +7523,49 @@
         <v>2.63</v>
       </c>
       <c r="U39" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X39" t="n">
         <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD39" t="n">
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI39" t="n">
         <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>17</v>
       </c>
       <c r="AJ39" t="n">
         <v>12</v>
@@ -7577,13 +7577,13 @@
         <v>29</v>
       </c>
       <c r="AM39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP39" t="n">
         <v>23</v>
@@ -7595,13 +7595,13 @@
         <v>67</v>
       </c>
       <c r="AS39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT39" t="n">
         <v>2.63</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
@@ -7619,10 +7619,10 @@
         <v>67</v>
       </c>
       <c r="BA39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J40" t="n">
         <v>2.3</v>
@@ -7678,7 +7678,7 @@
         <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7747,7 +7747,7 @@
         <v>17</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
@@ -7762,7 +7762,7 @@
         <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
         <v>9</v>
@@ -7789,10 +7789,10 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY40" t="n">
         <v>23</v>
@@ -8233,16 +8233,16 @@
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8353,7 +8353,7 @@
         <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8427,10 +8427,10 @@
         <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T44" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
@@ -8609,7 +8609,7 @@
         <v>1.65</v>
       </c>
       <c r="S45" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T45" t="n">
         <v>2.5</v>
@@ -8785,13 +8785,13 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T46" t="n">
         <v>2.75</v>
@@ -8973,7 +8973,7 @@
         <v>1.62</v>
       </c>
       <c r="S47" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T47" t="n">
         <v>2.5</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -9155,25 +9155,25 @@
         <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T48" t="n">
         <v>2.75</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
         <v>41</v>
@@ -9182,7 +9182,7 @@
         <v>29</v>
       </c>
       <c r="AB48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="n">
         <v>10</v>
@@ -9200,10 +9200,10 @@
         <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ48" t="n">
         <v>9</v>
@@ -9301,58 +9301,58 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L49" t="n">
         <v>3.25</v>
       </c>
-      <c r="K49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
@@ -9364,64 +9364,64 @@
         <v>21</v>
       </c>
       <c r="AB49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
         <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK49" t="n">
         <v>26</v>
       </c>
       <c r="AL49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO49" t="n">
         <v>15</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="n">
         <v>67</v>
       </c>
       <c r="AS49" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV49" t="n">
         <v>51</v>
@@ -9433,7 +9433,7 @@
         <v>15</v>
       </c>
       <c r="AY49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ49" t="n">
         <v>51</v>
@@ -9442,7 +9442,7 @@
         <v>67</v>
       </c>
       <c r="BB49" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC49" t="n">
         <v>81</v>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
         <v>3.9</v>
@@ -9492,46 +9492,46 @@
         <v>1.75</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T50" t="n">
         <v>3.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V50" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X50" t="n">
         <v>26</v>
@@ -9546,13 +9546,13 @@
         <v>29</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
         <v>19</v>
       </c>
       <c r="AD50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE50" t="n">
         <v>12</v>
@@ -9564,16 +9564,16 @@
         <v>101</v>
       </c>
       <c r="AH50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
         <v>11</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL50" t="n">
         <v>12</v>
@@ -9585,10 +9585,10 @@
         <v>6.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ50" t="n">
         <v>51</v>
@@ -9683,10 +9683,10 @@
         <v>3.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
@@ -9695,13 +9695,13 @@
         <v>5.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T51" t="n">
         <v>3.75</v>
@@ -9883,7 +9883,7 @@
         <v>2.08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T52" t="n">
         <v>3.25</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
@@ -10229,10 +10229,10 @@
         <v>2.25</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -10241,10 +10241,10 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10259,7 +10259,7 @@
         <v>1.75</v>
       </c>
       <c r="W54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -10274,7 +10274,7 @@
         <v>41</v>
       </c>
       <c r="AB54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="n">
         <v>9.5</v>
@@ -10292,10 +10292,10 @@
         <v>401</v>
       </c>
       <c r="AH54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ54" t="n">
         <v>8.5</v>
@@ -10316,13 +10316,13 @@
         <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ54" t="n">
         <v>101</v>
       </c>
       <c r="AR54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS54" t="n">
         <v>301</v>
@@ -10331,10 +10331,10 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW54" t="n">
         <v>3.5</v>
@@ -10346,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="AZ54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA54" t="n">
         <v>51</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -10617,10 +10617,10 @@
         <v>2.63</v>
       </c>
       <c r="U56" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W56" t="n">
         <v>7</v>
@@ -10713,7 +10713,7 @@
         <v>67</v>
       </c>
       <c r="BA56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB56" t="n">
         <v>201</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -11494,10 +11494,10 @@
         <v>1.5</v>
       </c>
       <c r="J61" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L61" t="n">
         <v>1.98</v>
@@ -11509,49 +11509,49 @@
         <v>12.8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P61" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T61" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="U61" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="V61" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W61" t="n">
         <v>14.5</v>
       </c>
       <c r="X61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB61" t="n">
         <v>35</v>
       </c>
       <c r="AC61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD61" t="n">
         <v>7.1</v>
@@ -11566,31 +11566,31 @@
         <v>250</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AI61" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AJ61" t="n">
         <v>6.9</v>
       </c>
       <c r="AK61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL61" t="n">
         <v>9.25</v>
       </c>
-      <c r="AL61" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN61" t="n">
         <v>7.1</v>
       </c>
       <c r="AO61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP61" t="n">
         <v>29</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>30</v>
       </c>
       <c r="AQ61" t="n">
         <v>175</v>
@@ -11602,31 +11602,31 @@
         <v>350</v>
       </c>
       <c r="AT61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AY61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ61" t="n">
         <v>20</v>
       </c>
       <c r="BA61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB61" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC61" t="n">
         <v>51</v>
@@ -11691,10 +11691,10 @@
         <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
         <v>2.25</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12055,22 +12055,22 @@
         <v>11.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P64" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R64" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T64" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U64" t="n">
         <v>1.7</v>
@@ -12079,7 +12079,7 @@
         <v>1.93</v>
       </c>
       <c r="W64" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X64" t="n">
         <v>8</v>
@@ -12088,10 +12088,10 @@
         <v>8</v>
       </c>
       <c r="Z64" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB64" t="n">
         <v>23</v>
@@ -12100,13 +12100,13 @@
         <v>13</v>
       </c>
       <c r="AD64" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG64" t="n">
         <v>450</v>
@@ -12118,7 +12118,7 @@
         <v>30</v>
       </c>
       <c r="AJ64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK64" t="n">
         <v>90</v>
@@ -12133,37 +12133,37 @@
         <v>3.5</v>
       </c>
       <c r="AO64" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU64" t="n">
         <v>7.3</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>7.4</v>
       </c>
       <c r="AV64" t="n">
         <v>60</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AX64" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY64" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ64" t="n">
         <v>150</v>
@@ -12780,7 +12780,7 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O68" t="n">
         <v>1.06</v>
@@ -12795,10 +12795,10 @@
         <v>4</v>
       </c>
       <c r="S68" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="T68" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U68" t="n">
         <v>1.4</v>
@@ -12813,7 +12813,7 @@
         <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z68" t="n">
         <v>13</v>
@@ -12822,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC68" t="n">
         <v>34</v>
@@ -12840,13 +12840,13 @@
         <v>81</v>
       </c>
       <c r="AH68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI68" t="n">
         <v>41</v>
       </c>
       <c r="AJ68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK68" t="n">
         <v>67</v>
@@ -12870,13 +12870,13 @@
         <v>15</v>
       </c>
       <c r="AR68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS68" t="n">
         <v>51</v>
       </c>
       <c r="AT68" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU68" t="n">
         <v>7.5</v>
@@ -12885,7 +12885,7 @@
         <v>34</v>
       </c>
       <c r="AW68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX68" t="n">
         <v>26</v>
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
         <v>3.75</v>
@@ -13147,31 +13147,31 @@
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P70" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R70" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V70" t="n">
         <v>2.1</v>
       </c>
-      <c r="S70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T70" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V70" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W70" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X70" t="n">
         <v>10</v>
@@ -13186,13 +13186,13 @@
         <v>15</v>
       </c>
       <c r="AB70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE70" t="n">
         <v>13</v>
@@ -13216,10 +13216,10 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN70" t="n">
         <v>4</v>
@@ -13228,40 +13228,40 @@
         <v>10</v>
       </c>
       <c r="AP70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS70" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU70" t="n">
         <v>7.5</v>
       </c>
       <c r="AV70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX70" t="n">
         <v>19</v>
       </c>
       <c r="AY70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ70" t="n">
         <v>51</v>
       </c>
       <c r="BA70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB70" t="n">
         <v>151</v>
@@ -13270,7 +13270,7 @@
         <v>351</v>
       </c>
       <c r="BD70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -13508,19 +13508,19 @@
         <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O72" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R72" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S72" t="n">
         <v>1.22</v>
@@ -13699,13 +13699,13 @@
         <v>5.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R73" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S73" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T73" t="n">
         <v>3.75</v>
@@ -13887,7 +13887,7 @@
         <v>2.3</v>
       </c>
       <c r="S74" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T74" t="n">
         <v>3.5</v>
@@ -14069,7 +14069,7 @@
         <v>2.15</v>
       </c>
       <c r="S75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T75" t="n">
         <v>3.25</v>
@@ -14221,10 +14221,10 @@
         <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
@@ -14236,7 +14236,7 @@
         <v>1.02</v>
       </c>
       <c r="N76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O76" t="n">
         <v>1.13</v>
@@ -14251,7 +14251,7 @@
         <v>2.7</v>
       </c>
       <c r="S76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T76" t="n">
         <v>3.75</v>
@@ -14266,7 +14266,7 @@
         <v>17</v>
       </c>
       <c r="X76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y76" t="n">
         <v>12</v>
@@ -14278,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC76" t="n">
         <v>21</v>
@@ -14347,7 +14347,7 @@
         <v>11</v>
       </c>
       <c r="AY76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ76" t="n">
         <v>34</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H77" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K77" t="n">
         <v>1.95</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.08</v>
@@ -14427,10 +14427,10 @@
         <v>2.63</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S77" t="n">
         <v>1.53</v>
@@ -14448,22 +14448,22 @@
         <v>7</v>
       </c>
       <c r="X77" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y77" t="n">
         <v>11</v>
       </c>
-      <c r="Y77" t="n">
-        <v>10</v>
-      </c>
       <c r="Z77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB77" t="n">
         <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD77" t="n">
         <v>6</v>
@@ -14478,10 +14478,10 @@
         <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ77" t="n">
         <v>11</v>
@@ -14499,7 +14499,7 @@
         <v>4.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP77" t="n">
         <v>29</v>
@@ -14523,7 +14523,7 @@
         <v>67</v>
       </c>
       <c r="AW77" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX77" t="n">
         <v>17</v>
@@ -14761,13 +14761,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J79" t="n">
         <v>5.5</v>
@@ -14806,13 +14806,13 @@
         <v>2.25</v>
       </c>
       <c r="V79" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W79" t="n">
         <v>11</v>
       </c>
       <c r="X79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y79" t="n">
         <v>19</v>
@@ -14854,7 +14854,7 @@
         <v>13</v>
       </c>
       <c r="AL79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM79" t="n">
         <v>41</v>
@@ -14887,7 +14887,7 @@
         <v>81</v>
       </c>
       <c r="AW79" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX79" t="n">
         <v>10</v>
@@ -14979,7 +14979,7 @@
         <v>1.53</v>
       </c>
       <c r="S80" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T80" t="n">
         <v>2.5</v>
@@ -14988,7 +14988,7 @@
         <v>2.25</v>
       </c>
       <c r="V80" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W80" t="n">
         <v>5</v>
@@ -15161,16 +15161,16 @@
         <v>2.2</v>
       </c>
       <c r="S81" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
         <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15343,7 +15343,7 @@
         <v>1.48</v>
       </c>
       <c r="S82" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T82" t="n">
         <v>2.25</v>
@@ -15352,7 +15352,7 @@
         <v>2.1</v>
       </c>
       <c r="V82" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W82" t="n">
         <v>7.5</v>
@@ -15489,22 +15489,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H83" t="n">
         <v>3.7</v>
       </c>
       <c r="I83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K83" t="n">
         <v>2.3</v>
       </c>
       <c r="L83" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -15513,10 +15513,10 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q83" t="n">
         <v>1.7</v>
@@ -15525,7 +15525,7 @@
         <v>2.1</v>
       </c>
       <c r="S83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T83" t="n">
         <v>3.25</v>
@@ -15543,13 +15543,13 @@
         <v>23</v>
       </c>
       <c r="Y83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z83" t="n">
         <v>41</v>
       </c>
       <c r="AA83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB83" t="n">
         <v>34</v>
@@ -15612,13 +15612,13 @@
         <v>7.5</v>
       </c>
       <c r="AV83" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW83" t="n">
         <v>4</v>
       </c>
       <c r="AX83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY83" t="n">
         <v>17</v>
@@ -15633,7 +15633,7 @@
         <v>101</v>
       </c>
       <c r="BC83" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD83" t="n">
         <v>81</v>
@@ -15677,7 +15677,7 @@
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J84" t="n">
         <v>2.4</v>
@@ -15689,10 +15689,10 @@
         <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -15740,7 +15740,7 @@
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE84" t="n">
         <v>17</v>
@@ -15755,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="AI84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ84" t="n">
         <v>15</v>
@@ -16035,22 +16035,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H86" t="n">
         <v>4.6</v>
       </c>
       <c r="I86" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J86" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K86" t="n">
         <v>2.52</v>
       </c>
       <c r="L86" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
@@ -16059,16 +16059,16 @@
         <v>9.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P86" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R86" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S86" t="n">
         <v>1.27</v>
@@ -16083,19 +16083,19 @@
         <v>2.1</v>
       </c>
       <c r="W86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z86" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA86" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB86" t="n">
         <v>45</v>
@@ -16107,16 +16107,16 @@
         <v>9.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF86" t="n">
         <v>55</v>
       </c>
       <c r="AG86" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI86" t="n">
         <v>8.25</v>
@@ -16128,13 +16128,13 @@
         <v>10.5</v>
       </c>
       <c r="AL86" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM86" t="n">
         <v>20</v>
       </c>
       <c r="AN86" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO86" t="n">
         <v>30</v>
@@ -16164,10 +16164,10 @@
         <v>3.55</v>
       </c>
       <c r="AX86" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ86" t="n">
         <v>17.5</v>
@@ -16417,10 +16417,10 @@
         <v>3.4</v>
       </c>
       <c r="M88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O88" t="n">
         <v>1.36</v>
@@ -16581,16 +16581,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H89" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J89" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K89" t="n">
         <v>1.8</v>
@@ -16611,10 +16611,10 @@
         <v>2</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R89" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S89" t="n">
         <v>1.75</v>
@@ -16632,7 +16632,7 @@
         <v>5</v>
       </c>
       <c r="X89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -16641,13 +16641,13 @@
         <v>21</v>
       </c>
       <c r="AA89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB89" t="n">
         <v>51</v>
       </c>
       <c r="AC89" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD89" t="n">
         <v>6</v>
@@ -16656,7 +16656,7 @@
         <v>23</v>
       </c>
       <c r="AF89" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG89" t="n">
         <v>800</v>
@@ -16677,7 +16677,7 @@
         <v>41</v>
       </c>
       <c r="AM89" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN89" t="n">
         <v>4</v>
@@ -16781,10 +16781,10 @@
         <v>2.05</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.17</v>
@@ -16945,34 +16945,34 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M91" t="n">
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q91" t="n">
         <v>1.22</v>
@@ -16987,19 +16987,19 @@
         <v>5</v>
       </c>
       <c r="U91" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W91" t="n">
         <v>15</v>
       </c>
       <c r="X91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z91" t="n">
         <v>8</v>
@@ -17008,7 +17008,7 @@
         <v>11</v>
       </c>
       <c r="AB91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
         <v>34</v>
@@ -17017,16 +17017,16 @@
         <v>19</v>
       </c>
       <c r="AE91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF91" t="n">
         <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>800</v>
+        <v>151</v>
       </c>
       <c r="AH91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI91" t="n">
         <v>81</v>
@@ -17035,10 +17035,10 @@
         <v>41</v>
       </c>
       <c r="AK91" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL91" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM91" t="n">
         <v>67</v>
@@ -17047,13 +17047,13 @@
         <v>3.75</v>
       </c>
       <c r="AO91" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP91" t="n">
         <v>13</v>
       </c>
       <c r="AQ91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AR91" t="n">
         <v>23</v>
@@ -17065,7 +17065,7 @@
         <v>5</v>
       </c>
       <c r="AU91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17083,10 +17083,10 @@
         <v>151</v>
       </c>
       <c r="BA91" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="BB91" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="BC91" t="n">
         <v>81</v>
@@ -17190,7 +17190,7 @@
         <v>34</v>
       </c>
       <c r="AB92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC92" t="n">
         <v>15</v>
@@ -17709,7 +17709,7 @@
         <v>4</v>
       </c>
       <c r="S95" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="T95" t="n">
         <v>5</v>
@@ -18237,10 +18237,10 @@
         <v>6</v>
       </c>
       <c r="M98" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O98" t="n">
         <v>1.29</v>
@@ -18255,7 +18255,7 @@
         <v>1.88</v>
       </c>
       <c r="S98" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T98" t="n">
         <v>2.75</v>
@@ -18401,28 +18401,28 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>3.9</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J99" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K99" t="n">
         <v>2.5</v>
       </c>
       <c r="L99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M99" t="n">
         <v>1.02</v>
       </c>
       <c r="N99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O99" t="n">
         <v>1.14</v>
@@ -18431,25 +18431,25 @@
         <v>5.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T99" t="n">
         <v>3.75</v>
       </c>
       <c r="U99" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V99" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X99" t="n">
         <v>21</v>
@@ -18461,25 +18461,25 @@
         <v>34</v>
       </c>
       <c r="AA99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB99" t="n">
         <v>23</v>
       </c>
       <c r="AC99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD99" t="n">
         <v>8</v>
       </c>
       <c r="AE99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF99" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG99" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="n">
         <v>12</v>
@@ -18491,7 +18491,7 @@
         <v>9</v>
       </c>
       <c r="AK99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL99" t="n">
         <v>15</v>
@@ -18506,7 +18506,7 @@
         <v>17</v>
       </c>
       <c r="AP99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ99" t="n">
         <v>51</v>
@@ -18533,7 +18533,7 @@
         <v>10</v>
       </c>
       <c r="AY99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ99" t="n">
         <v>34</v>
@@ -18545,7 +18545,7 @@
         <v>81</v>
       </c>
       <c r="BC99" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD99" t="n">
         <v>151</v>
@@ -18765,22 +18765,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H101" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I101" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K101" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L101" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M101" t="n">
         <v>1.03</v>
@@ -18789,28 +18789,28 @@
         <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P101" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q101" t="n">
         <v>1.57</v>
       </c>
       <c r="R101" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S101" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T101" t="n">
         <v>3.25</v>
       </c>
       <c r="U101" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V101" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W101" t="n">
         <v>10.75</v>
@@ -18825,16 +18825,16 @@
         <v>21</v>
       </c>
       <c r="AA101" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB101" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC101" t="n">
         <v>9</v>
       </c>
       <c r="AD101" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE101" t="n">
         <v>11.75</v>
@@ -18846,16 +18846,16 @@
         <v>200</v>
       </c>
       <c r="AH101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ101" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK101" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL101" t="n">
         <v>23</v>
@@ -18864,10 +18864,10 @@
         <v>25</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO101" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP101" t="n">
         <v>15.5</v>
@@ -18876,7 +18876,7 @@
         <v>35</v>
       </c>
       <c r="AR101" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS101" t="n">
         <v>150</v>
@@ -18885,7 +18885,7 @@
         <v>3.25</v>
       </c>
       <c r="AU101" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV101" t="n">
         <v>45</v>
@@ -18894,19 +18894,19 @@
         <v>5.3</v>
       </c>
       <c r="AX101" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY101" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ101" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA101" t="n">
         <v>80</v>
       </c>
       <c r="BB101" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC101" t="n">
         <v>500</v>
@@ -18947,19 +18947,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H102" t="n">
         <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J102" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K102" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L102" t="n">
         <v>3.05</v>
@@ -18980,34 +18980,34 @@
         <v>1.88</v>
       </c>
       <c r="R102" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S102" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T102" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U102" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V102" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W102" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X102" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z102" t="n">
         <v>32</v>
       </c>
       <c r="AA102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB102" t="n">
         <v>29</v>
@@ -19016,10 +19016,10 @@
         <v>7.3</v>
       </c>
       <c r="AD102" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE102" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF102" t="n">
         <v>55</v>
@@ -19028,16 +19028,16 @@
         <v>400</v>
       </c>
       <c r="AH102" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI102" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ102" t="n">
         <v>9.25</v>
       </c>
       <c r="AK102" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL102" t="n">
         <v>19.5</v>
@@ -19052,40 +19052,40 @@
         <v>15</v>
       </c>
       <c r="AP102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ102" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR102" t="n">
         <v>100</v>
       </c>
       <c r="AS102" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU102" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV102" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW102" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX102" t="n">
         <v>13</v>
       </c>
       <c r="AY102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ102" t="n">
         <v>55</v>
       </c>
       <c r="BA102" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB102" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -783,19 +783,19 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -819,16 +819,16 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -938,13 +938,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -953,10 +953,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.5</v>
@@ -965,7 +965,7 @@
         <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
         <v>3.75</v>
@@ -977,13 +977,13 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1007,16 +1007,16 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1117,22 +1117,22 @@
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1147,16 +1147,16 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1195,22 +1195,22 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>3.25</v>
@@ -1314,34 +1314,34 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1353,28 +1353,28 @@
         <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1386,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1398,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,16 +1407,16 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>4.5</v>
@@ -1431,13 +1431,13 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1490,7 +1490,7 @@
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1499,19 +1499,19 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>2.25</v>
@@ -1523,7 +1523,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1532,16 +1532,16 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>301</v>
@@ -1693,7 +1693,7 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>2.1</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
         <v>4.5</v>
@@ -1875,7 +1875,7 @@
         <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>2.1</v>
@@ -1887,7 +1887,7 @@
         <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
@@ -1905,16 +1905,16 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
@@ -1953,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
         <v>2.1</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2057,10 +2057,10 @@
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>2.05</v>
@@ -2072,7 +2072,7 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2147,13 +2147,13 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2764,7 +2764,7 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2773,37 +2773,37 @@
         <v>9.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="W13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z13" t="n">
         <v>35</v>
@@ -2812,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>9.25</v>
@@ -2821,16 +2821,16 @@
         <v>7.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2839,7 +2839,7 @@
         <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>16.5</v>
@@ -2848,13 +2848,13 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO13" t="n">
         <v>13.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>50</v>
@@ -2863,19 +2863,19 @@
         <v>60</v>
       </c>
       <c r="AS13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
         <v>37</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>
@@ -2893,7 +2893,7 @@
         <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3137,37 +3137,37 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V15" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -3176,25 +3176,25 @@
         <v>14</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>19.5</v>
@@ -3209,19 +3209,19 @@
         <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>4.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR15" t="n">
         <v>50</v>
@@ -3230,7 +3230,7 @@
         <v>150</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU15" t="n">
         <v>6.5</v>
@@ -3239,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX15" t="n">
         <v>16.5</v>
@@ -3248,7 +3248,7 @@
         <v>20</v>
       </c>
       <c r="AZ15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA15" t="n">
         <v>90</v>
@@ -3477,148 +3477,148 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="H17" t="n">
         <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W17" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF17" t="n">
         <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP17" t="n">
         <v>18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS17" t="n">
         <v>175</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV17" t="n">
         <v>45</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AX17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB17" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3689,7 +3689,7 @@
         <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
         <v>2.4</v>
@@ -3806,7 +3806,7 @@
         <v>451</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3895,10 +3895,10 @@
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
         <v>21</v>
@@ -3928,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3940,7 +3940,7 @@
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4238,7 +4238,7 @@
         <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4572,13 +4572,13 @@
         <v>2.05</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
@@ -4620,13 +4620,13 @@
         <v>5.5</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
@@ -4650,13 +4650,13 @@
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
@@ -4665,10 +4665,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
@@ -4701,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="AY23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ23" t="n">
         <v>81</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4951,10 +4951,10 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
@@ -5154,13 +5154,13 @@
         <v>1.73</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
         <v>5</v>
@@ -5172,10 +5172,10 @@
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>51</v>
@@ -5196,7 +5196,7 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5241,7 +5241,7 @@
         <v>101</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX26" t="n">
         <v>23</v>
@@ -5250,7 +5250,7 @@
         <v>41</v>
       </c>
       <c r="AZ26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA26" t="n">
         <v>151</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
         <v>1.83</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.13</v>
@@ -5527,16 +5527,16 @@
         <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
         <v>29</v>
@@ -5563,13 +5563,13 @@
         <v>6.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5605,16 +5605,16 @@
         <v>81</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
         <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -6589,16 +6589,16 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P34" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q34" t="n">
         <v>2.4</v>
@@ -6771,16 +6771,16 @@
         <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q35" t="n">
         <v>2.35</v>
@@ -6801,7 +6801,7 @@
         <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -6819,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="AC35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD35" t="n">
         <v>6</v>
@@ -6947,28 +6947,28 @@
         <v>1.53</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L36" t="n">
         <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
         <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P36" t="n">
         <v>6.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R36" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S36" t="n">
         <v>1.2</v>
@@ -6977,10 +6977,10 @@
         <v>4.33</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
         <v>10</v>
@@ -7001,7 +7001,7 @@
         <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD36" t="n">
         <v>13</v>
@@ -7013,7 +7013,7 @@
         <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
@@ -7028,7 +7028,7 @@
         <v>201</v>
       </c>
       <c r="AL36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM36" t="n">
         <v>67</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J37" t="n">
         <v>7</v>
@@ -7132,25 +7132,25 @@
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
         <v>1.3</v>
@@ -7165,10 +7165,10 @@
         <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="n">
         <v>21</v>
@@ -7180,13 +7180,13 @@
         <v>51</v>
       </c>
       <c r="AB37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="n">
         <v>15</v>
       </c>
       <c r="AD37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE37" t="n">
         <v>21</v>
@@ -7216,10 +7216,10 @@
         <v>26</v>
       </c>
       <c r="AN37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP37" t="n">
         <v>41</v>
@@ -7252,13 +7252,13 @@
         <v>17</v>
       </c>
       <c r="AZ37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA37" t="n">
         <v>41</v>
       </c>
       <c r="BB37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC37" t="n">
         <v>126</v>
@@ -7317,13 +7317,13 @@
         <v>2.2</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
         <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P38" t="n">
         <v>5.5</v>
@@ -7499,22 +7499,22 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7681,13 +7681,13 @@
         <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
         <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P40" t="n">
         <v>5.5</v>
@@ -7863,13 +7863,13 @@
         <v>1.8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -7893,7 +7893,7 @@
         <v>1.67</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
         <v>41</v>
@@ -7914,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE41" t="n">
         <v>23</v>
@@ -8045,16 +8045,16 @@
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q42" t="n">
         <v>2.4</v>
@@ -8239,10 +8239,10 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8353,7 +8353,7 @@
         <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8427,10 +8427,10 @@
         <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T44" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
@@ -8597,10 +8597,10 @@
         <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q45" t="n">
         <v>2.2</v>
@@ -8609,7 +8609,7 @@
         <v>1.65</v>
       </c>
       <c r="S45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T45" t="n">
         <v>2.5</v>
@@ -8785,13 +8785,13 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
         <v>2.75</v>
@@ -8973,7 +8973,7 @@
         <v>1.62</v>
       </c>
       <c r="S47" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T47" t="n">
         <v>2.5</v>
@@ -9137,10 +9137,10 @@
         <v>2.63</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -9155,7 +9155,7 @@
         <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T48" t="n">
         <v>2.75</v>
@@ -9301,16 +9301,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
@@ -9331,22 +9331,22 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W49" t="n">
         <v>9</v>
@@ -9358,13 +9358,13 @@
         <v>10</v>
       </c>
       <c r="Z49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB49" t="n">
         <v>26</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>29</v>
       </c>
       <c r="AC49" t="n">
         <v>11</v>
@@ -9385,13 +9385,13 @@
         <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ49" t="n">
         <v>10</v>
       </c>
       <c r="AK49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL49" t="n">
         <v>21</v>
@@ -9400,25 +9400,25 @@
         <v>29</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ49" t="n">
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU49" t="n">
         <v>7.5</v>
@@ -9501,10 +9501,10 @@
         <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O50" t="n">
         <v>1.14</v>
@@ -9683,10 +9683,10 @@
         <v>3.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
@@ -9695,10 +9695,10 @@
         <v>5.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S51" t="n">
         <v>1.25</v>
@@ -10059,10 +10059,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10211,28 +10211,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -10259,7 +10259,7 @@
         <v>1.75</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -10274,10 +10274,10 @@
         <v>41</v>
       </c>
       <c r="AB54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
         <v>7.5</v>
@@ -10292,19 +10292,19 @@
         <v>401</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ54" t="n">
         <v>8.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM54" t="n">
         <v>29</v>
@@ -10316,13 +10316,13 @@
         <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ54" t="n">
         <v>101</v>
       </c>
       <c r="AR54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS54" t="n">
         <v>301</v>
@@ -10331,10 +10331,10 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW54" t="n">
         <v>3.5</v>
@@ -10346,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="AZ54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA54" t="n">
         <v>51</v>
@@ -10393,19 +10393,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55" t="n">
         <v>5.5</v>
@@ -10495,7 +10495,7 @@
         <v>3.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP55" t="n">
         <v>23</v>
@@ -10528,7 +10528,7 @@
         <v>41</v>
       </c>
       <c r="AZ55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA55" t="n">
         <v>151</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -10683,7 +10683,7 @@
         <v>21</v>
       </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR56" t="n">
         <v>51</v>
@@ -10710,7 +10710,7 @@
         <v>29</v>
       </c>
       <c r="AZ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA56" t="n">
         <v>101</v>
@@ -10760,10 +10760,10 @@
         <v>1.85</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
         <v>2.6</v>
@@ -10775,10 +10775,10 @@
         <v>4.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -11688,7 +11688,7 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -11772,7 +11772,7 @@
         <v>13</v>
       </c>
       <c r="AP62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ62" t="n">
         <v>41</v>
@@ -11790,7 +11790,7 @@
         <v>8.5</v>
       </c>
       <c r="AV62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW62" t="n">
         <v>5</v>
@@ -11867,10 +11867,10 @@
         <v>2.2</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O63" t="n">
         <v>1.2</v>
@@ -11900,7 +11900,7 @@
         <v>17</v>
       </c>
       <c r="X63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y63" t="n">
         <v>15</v>
@@ -11912,10 +11912,10 @@
         <v>34</v>
       </c>
       <c r="AB63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
         <v>7.5</v>
@@ -11930,7 +11930,7 @@
         <v>151</v>
       </c>
       <c r="AH63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI63" t="n">
         <v>9</v>
@@ -11954,7 +11954,7 @@
         <v>23</v>
       </c>
       <c r="AP63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ63" t="n">
         <v>81</v>
@@ -11972,7 +11972,7 @@
         <v>7.5</v>
       </c>
       <c r="AV63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW63" t="n">
         <v>3.75</v>
@@ -11993,7 +11993,7 @@
         <v>101</v>
       </c>
       <c r="BC63" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD63" t="n">
         <v>151</v>
@@ -12231,22 +12231,22 @@
         <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R65" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
         <v>1.44</v>
@@ -12416,7 +12416,7 @@
         <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
         <v>1.4</v>
@@ -12577,28 +12577,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="n">
         <v>2.5</v>
       </c>
       <c r="L67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O67" t="n">
         <v>1.13</v>
@@ -12628,7 +12628,7 @@
         <v>13</v>
       </c>
       <c r="X67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
         <v>9.5</v>
@@ -12640,10 +12640,10 @@
         <v>15</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD67" t="n">
         <v>8.5</v>
@@ -12661,10 +12661,10 @@
         <v>17</v>
       </c>
       <c r="AI67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK67" t="n">
         <v>34</v>
@@ -12679,13 +12679,13 @@
         <v>4.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP67" t="n">
         <v>15</v>
       </c>
       <c r="AQ67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR67" t="n">
         <v>41</v>
@@ -12780,7 +12780,7 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O68" t="n">
         <v>1.06</v>
@@ -13126,10 +13126,10 @@
         <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I70" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
         <v>2.5</v>
@@ -13141,40 +13141,40 @@
         <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="S70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V70" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W70" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y70" t="n">
         <v>8.5</v>
@@ -13186,13 +13186,13 @@
         <v>15</v>
       </c>
       <c r="AB70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE70" t="n">
         <v>13</v>
@@ -13216,52 +13216,52 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM70" t="n">
         <v>29</v>
       </c>
-      <c r="AM70" t="n">
-        <v>34</v>
-      </c>
       <c r="AN70" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO70" t="n">
         <v>10</v>
       </c>
       <c r="AP70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ70" t="n">
         <v>34</v>
       </c>
       <c r="AR70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS70" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU70" t="n">
         <v>7.5</v>
       </c>
       <c r="AV70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX70" t="n">
         <v>19</v>
       </c>
       <c r="AY70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ70" t="n">
         <v>51</v>
       </c>
       <c r="BA70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB70" t="n">
         <v>151</v>
@@ -13270,7 +13270,7 @@
         <v>351</v>
       </c>
       <c r="BD70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -13672,7 +13672,7 @@
         <v>1.95</v>
       </c>
       <c r="H73" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I73" t="n">
         <v>3.4</v>
@@ -13681,28 +13681,28 @@
         <v>2.5</v>
       </c>
       <c r="K73" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L73" t="n">
         <v>3.6</v>
       </c>
       <c r="M73" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R73" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S73" t="n">
         <v>1.25</v>
@@ -13711,13 +13711,13 @@
         <v>3.75</v>
       </c>
       <c r="U73" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X73" t="n">
         <v>12</v>
@@ -13738,25 +13738,25 @@
         <v>19</v>
       </c>
       <c r="AD73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE73" t="n">
         <v>11</v>
       </c>
       <c r="AF73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG73" t="n">
         <v>101</v>
       </c>
       <c r="AH73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI73" t="n">
         <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK73" t="n">
         <v>41</v>
@@ -13774,7 +13774,7 @@
         <v>10</v>
       </c>
       <c r="AP73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ73" t="n">
         <v>29</v>
@@ -13795,7 +13795,7 @@
         <v>41</v>
       </c>
       <c r="AW73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX73" t="n">
         <v>17</v>
@@ -13857,16 +13857,16 @@
         <v>3.6</v>
       </c>
       <c r="I74" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K74" t="n">
         <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -13887,10 +13887,10 @@
         <v>2.3</v>
       </c>
       <c r="S74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U74" t="n">
         <v>1.5</v>
@@ -13899,13 +13899,13 @@
         <v>2.5</v>
       </c>
       <c r="W74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z74" t="n">
         <v>29</v>
@@ -13917,7 +13917,7 @@
         <v>23</v>
       </c>
       <c r="AC74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD74" t="n">
         <v>7</v>
@@ -13968,7 +13968,7 @@
         <v>101</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU74" t="n">
         <v>7</v>
@@ -13995,7 +13995,7 @@
         <v>101</v>
       </c>
       <c r="BC74" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD74" t="n">
         <v>151</v>
@@ -14397,28 +14397,28 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
         <v>1.95</v>
       </c>
       <c r="L77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O77" t="n">
         <v>1.44</v>
@@ -14448,7 +14448,7 @@
         <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -14457,7 +14457,7 @@
         <v>26</v>
       </c>
       <c r="AA77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB77" t="n">
         <v>41</v>
@@ -14478,10 +14478,10 @@
         <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ77" t="n">
         <v>11</v>
@@ -14499,7 +14499,7 @@
         <v>4.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP77" t="n">
         <v>29</v>
@@ -14523,7 +14523,7 @@
         <v>67</v>
       </c>
       <c r="AW77" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX77" t="n">
         <v>17</v>
@@ -14761,16 +14761,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>2</v>
@@ -14806,7 +14806,7 @@
         <v>2.25</v>
       </c>
       <c r="V79" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W79" t="n">
         <v>11</v>
@@ -14818,7 +14818,7 @@
         <v>19</v>
       </c>
       <c r="Z79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA79" t="n">
         <v>51</v>
@@ -14842,7 +14842,7 @@
         <v>351</v>
       </c>
       <c r="AH79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI79" t="n">
         <v>7</v>
@@ -14863,7 +14863,7 @@
         <v>6.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
@@ -14881,7 +14881,7 @@
         <v>2.38</v>
       </c>
       <c r="AU79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV79" t="n">
         <v>81</v>
@@ -14890,7 +14890,7 @@
         <v>3.5</v>
       </c>
       <c r="AX79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY79" t="n">
         <v>26</v>
@@ -14908,7 +14908,7 @@
         <v>126</v>
       </c>
       <c r="BD79" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -14943,13 +14943,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J80" t="n">
         <v>2.3</v>
@@ -14961,10 +14961,10 @@
         <v>6.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N80" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14979,16 +14979,16 @@
         <v>1.53</v>
       </c>
       <c r="S80" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T80" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U80" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V80" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W80" t="n">
         <v>5</v>
@@ -15009,7 +15009,7 @@
         <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD80" t="n">
         <v>7</v>
@@ -15039,7 +15039,7 @@
         <v>51</v>
       </c>
       <c r="AM80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN80" t="n">
         <v>3.4</v>
@@ -15060,7 +15060,7 @@
         <v>251</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU80" t="n">
         <v>10</v>
@@ -15167,10 +15167,10 @@
         <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>2.9</v>
       </c>
       <c r="I82" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J82" t="n">
         <v>4</v>
@@ -15325,22 +15325,22 @@
         <v>3.25</v>
       </c>
       <c r="M82" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P82" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R82" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S82" t="n">
         <v>1.57</v>
@@ -15352,7 +15352,7 @@
         <v>2.1</v>
       </c>
       <c r="V82" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W82" t="n">
         <v>7.5</v>
@@ -15373,7 +15373,7 @@
         <v>41</v>
       </c>
       <c r="AC82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD82" t="n">
         <v>6</v>
@@ -15382,7 +15382,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG82" t="n">
         <v>501</v>
@@ -15394,7 +15394,7 @@
         <v>10</v>
       </c>
       <c r="AJ82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK82" t="n">
         <v>23</v>
@@ -15409,7 +15409,7 @@
         <v>5</v>
       </c>
       <c r="AO82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP82" t="n">
         <v>34</v>
@@ -15513,16 +15513,16 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R83" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S83" t="n">
         <v>1.33</v>
@@ -16429,10 +16429,10 @@
         <v>3</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R88" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S88" t="n">
         <v>1.5</v>
@@ -16948,19 +16948,19 @@
         <v>1.13</v>
       </c>
       <c r="H91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I91" t="n">
         <v>15</v>
       </c>
       <c r="J91" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K91" t="n">
         <v>3.4</v>
       </c>
       <c r="L91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M91" t="n">
         <v>1.01</v>
@@ -16987,10 +16987,10 @@
         <v>5</v>
       </c>
       <c r="U91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V91" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W91" t="n">
         <v>15</v>
@@ -17002,22 +17002,22 @@
         <v>12</v>
       </c>
       <c r="Z91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA91" t="n">
         <v>11</v>
       </c>
       <c r="AB91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC91" t="n">
         <v>34</v>
       </c>
       <c r="AD91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF91" t="n">
         <v>51</v>
@@ -17041,7 +17041,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN91" t="n">
         <v>3.75</v>
@@ -17053,13 +17053,13 @@
         <v>13</v>
       </c>
       <c r="AQ91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AR91" t="n">
         <v>23</v>
       </c>
       <c r="AS91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT91" t="n">
         <v>5</v>
@@ -17071,7 +17071,7 @@
         <v>51</v>
       </c>
       <c r="AW91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX91" t="n">
         <v>51</v>
@@ -18947,13 +18947,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="H102" t="n">
         <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J102" t="n">
         <v>3.35</v>
@@ -18974,13 +18974,13 @@
         <v>1.29</v>
       </c>
       <c r="P102" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q102" t="n">
         <v>1.88</v>
       </c>
       <c r="R102" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S102" t="n">
         <v>1.42</v>
@@ -18995,10 +18995,10 @@
         <v>2.05</v>
       </c>
       <c r="W102" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X102" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y102" t="n">
         <v>10</v>
@@ -19028,31 +19028,31 @@
         <v>400</v>
       </c>
       <c r="AH102" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI102" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ102" t="n">
         <v>9.25</v>
       </c>
       <c r="AK102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL102" t="n">
         <v>19.5</v>
       </c>
       <c r="AM102" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN102" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO102" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ102" t="n">
         <v>70</v>
@@ -19061,7 +19061,7 @@
         <v>100</v>
       </c>
       <c r="AS102" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT102" t="n">
         <v>2.67</v>
@@ -19073,7 +19073,7 @@
         <v>60</v>
       </c>
       <c r="AW102" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AX102" t="n">
         <v>13</v>
@@ -19147,10 +19147,10 @@
         <v>1.65</v>
       </c>
       <c r="M103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O103" t="n">
         <v>1.28</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -789,10 +789,10 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -807,25 +807,25 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -849,13 +849,13 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>67</v>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
@@ -986,13 +986,13 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1013,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1049,7 +1049,7 @@
         <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>151</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1132,19 +1132,19 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1526,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1556,19 +1556,19 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1601,10 +1601,10 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -1842,25 +1842,25 @@
         <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1887,7 +1887,7 @@
         <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
@@ -1899,13 +1899,13 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1914,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
@@ -3662,10 +3662,10 @@
         <v>5.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J18" t="n">
         <v>5.5</v>
@@ -3683,28 +3683,28 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
         <v>19</v>
@@ -3740,7 +3740,7 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
         <v>8.5</v>
@@ -3767,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR18" t="n">
         <v>101</v>
@@ -3776,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3800,10 +3800,10 @@
         <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD18" t="n">
         <v>176</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4238,7 +4238,7 @@
         <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4405,10 +4405,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I24" t="n">
         <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
         <v>7.5</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4793,10 +4793,10 @@
         <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
         <v>7</v>
@@ -4808,7 +4808,7 @@
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>12</v>
@@ -4823,13 +4823,13 @@
         <v>9.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
@@ -4871,13 +4871,13 @@
         <v>3.25</v>
       </c>
       <c r="AU24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
         <v>9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>8.5</v>
       </c>
       <c r="AX24" t="n">
         <v>41</v>
@@ -4892,7 +4892,7 @@
         <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
         <v>2.63</v>
@@ -5139,10 +5139,10 @@
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
         <v>3.4</v>
@@ -5151,10 +5151,10 @@
         <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U26" t="n">
         <v>2.63</v>
@@ -5315,10 +5315,10 @@
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
@@ -6589,16 +6589,16 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q34" t="n">
         <v>2.4</v>
@@ -6771,13 +6771,13 @@
         <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
         <v>7.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
         <v>2.75</v>
@@ -6953,22 +6953,22 @@
         <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P36" t="n">
         <v>6.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R36" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S36" t="n">
         <v>1.2</v>
@@ -6977,10 +6977,10 @@
         <v>4.33</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W36" t="n">
         <v>10</v>
@@ -7031,7 +7031,7 @@
         <v>101</v>
       </c>
       <c r="AM36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -7117,31 +7117,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
         <v>4.33</v>
@@ -7159,16 +7159,16 @@
         <v>3.4</v>
       </c>
       <c r="U37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="n">
         <v>21</v>
@@ -7180,10 +7180,10 @@
         <v>51</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
         <v>9.5</v>
@@ -7192,34 +7192,34 @@
         <v>21</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH37" t="n">
         <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK37" t="n">
         <v>9</v>
       </c>
       <c r="AL37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM37" t="n">
         <v>26</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP37" t="n">
         <v>41</v>
@@ -7231,7 +7231,7 @@
         <v>151</v>
       </c>
       <c r="AS37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT37" t="n">
         <v>3.4</v>
@@ -7252,7 +7252,7 @@
         <v>17</v>
       </c>
       <c r="AZ37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA37" t="n">
         <v>41</v>
@@ -7317,13 +7317,13 @@
         <v>2.2</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
         <v>5.5</v>
@@ -7499,13 +7499,13 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
         <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
         <v>2.75</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
         <v>3.8</v>
@@ -7681,13 +7681,13 @@
         <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
         <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P40" t="n">
         <v>5.5</v>
@@ -7732,7 +7732,7 @@
         <v>17</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
@@ -7863,13 +7863,13 @@
         <v>1.8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -8045,22 +8045,22 @@
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8239,16 +8239,16 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T43" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U43" t="n">
         <v>1.83</v>
@@ -8257,7 +8257,7 @@
         <v>1.83</v>
       </c>
       <c r="W43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X43" t="n">
         <v>8.5</v>
@@ -8266,7 +8266,7 @@
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA43" t="n">
         <v>17</v>
@@ -8275,10 +8275,10 @@
         <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE43" t="n">
         <v>17</v>
@@ -8308,7 +8308,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO43" t="n">
         <v>10</v>
@@ -8326,10 +8326,10 @@
         <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8338,7 +8338,7 @@
         <v>6</v>
       </c>
       <c r="AX43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY43" t="n">
         <v>29</v>
@@ -8350,7 +8350,7 @@
         <v>101</v>
       </c>
       <c r="BB43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC43" t="n">
         <v>126</v>
@@ -8409,22 +8409,22 @@
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
         <v>1.53</v>
@@ -8779,16 +8779,16 @@
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -9301,28 +9301,28 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O49" t="n">
         <v>1.25</v>
@@ -9331,10 +9331,10 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9349,13 +9349,13 @@
         <v>2.1</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z49" t="n">
         <v>23</v>
@@ -9367,10 +9367,10 @@
         <v>26</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -9379,16 +9379,16 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI49" t="n">
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>29</v>
@@ -9415,7 +9415,7 @@
         <v>51</v>
       </c>
       <c r="AS49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT49" t="n">
         <v>3</v>
@@ -9427,7 +9427,7 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
         <v>15</v>
@@ -10292,7 +10292,7 @@
         <v>401</v>
       </c>
       <c r="AH54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI54" t="n">
         <v>7</v>
@@ -10319,7 +10319,7 @@
         <v>41</v>
       </c>
       <c r="AQ54" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR54" t="n">
         <v>151</v>
@@ -10340,7 +10340,7 @@
         <v>3.5</v>
       </c>
       <c r="AX54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY54" t="n">
         <v>21</v>
@@ -10417,16 +10417,16 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S55" t="n">
         <v>1.5</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
         <v>2.6</v>
@@ -10611,10 +10611,10 @@
         <v>1.75</v>
       </c>
       <c r="S56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U56" t="n">
         <v>1.91</v>
@@ -10674,10 +10674,10 @@
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP56" t="n">
         <v>21</v>
@@ -10692,7 +10692,7 @@
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU56" t="n">
         <v>8</v>
@@ -10701,10 +10701,10 @@
         <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY56" t="n">
         <v>29</v>
@@ -10716,7 +10716,7 @@
         <v>101</v>
       </c>
       <c r="BB56" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC56" t="n">
         <v>81</v>
@@ -10757,19 +10757,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
         <v>2.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
         <v>4.75</v>
@@ -12231,10 +12231,10 @@
         <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
@@ -12330,7 +12330,7 @@
         <v>201</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU65" t="n">
         <v>9</v>
@@ -12595,22 +12595,22 @@
         <v>3.25</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O67" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R67" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="n">
         <v>1.22</v>
@@ -12834,7 +12834,7 @@
         <v>15</v>
       </c>
       <c r="AF68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
         <v>81</v>
@@ -12855,7 +12855,7 @@
         <v>41</v>
       </c>
       <c r="AM68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN68" t="n">
         <v>4.33</v>
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I70" t="n">
         <v>3.7</v>
@@ -13135,7 +13135,7 @@
         <v>2.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L70" t="n">
         <v>4</v>
@@ -13165,10 +13165,10 @@
         <v>3.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W70" t="n">
         <v>9.5</v>
@@ -13183,7 +13183,7 @@
         <v>17</v>
       </c>
       <c r="AA70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB70" t="n">
         <v>21</v>
@@ -13201,10 +13201,10 @@
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI70" t="n">
         <v>21</v>
@@ -13231,7 +13231,7 @@
         <v>17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR70" t="n">
         <v>41</v>
@@ -13264,7 +13264,7 @@
         <v>67</v>
       </c>
       <c r="BB70" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC70" t="n">
         <v>351</v>
@@ -13305,28 +13305,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J71" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.25</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
       </c>
       <c r="L71" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O71" t="n">
         <v>1.22</v>
@@ -13341,10 +13341,10 @@
         <v>2.05</v>
       </c>
       <c r="S71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71" t="n">
         <v>1.62</v>
@@ -13353,13 +13353,13 @@
         <v>2.2</v>
       </c>
       <c r="W71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X71" t="n">
         <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z71" t="n">
         <v>29</v>
@@ -13392,7 +13392,7 @@
         <v>13</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK71" t="n">
         <v>23</v>
@@ -13401,10 +13401,10 @@
         <v>19</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO71" t="n">
         <v>15</v>
@@ -13413,16 +13413,16 @@
         <v>21</v>
       </c>
       <c r="AQ71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR71" t="n">
         <v>67</v>
       </c>
       <c r="AS71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU71" t="n">
         <v>7.5</v>
@@ -13431,7 +13431,7 @@
         <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX71" t="n">
         <v>13</v>
@@ -13693,10 +13693,10 @@
         <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q73" t="n">
         <v>1.53</v>
@@ -14221,10 +14221,10 @@
         <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
@@ -14278,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>21</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K77" t="n">
         <v>1.95</v>
@@ -14448,7 +14448,7 @@
         <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -14457,7 +14457,7 @@
         <v>26</v>
       </c>
       <c r="AA77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB77" t="n">
         <v>41</v>
@@ -14478,10 +14478,10 @@
         <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ77" t="n">
         <v>11</v>
@@ -14499,7 +14499,7 @@
         <v>4.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP77" t="n">
         <v>29</v>
@@ -14514,7 +14514,7 @@
         <v>251</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14696,7 +14696,7 @@
         <v>251</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU78" t="n">
         <v>8.5</v>
@@ -14761,34 +14761,34 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L79" t="n">
         <v>2.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P79" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q79" t="n">
         <v>2.5</v>
@@ -14818,7 +14818,7 @@
         <v>19</v>
       </c>
       <c r="Z79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA79" t="n">
         <v>51</v>
@@ -14842,7 +14842,7 @@
         <v>351</v>
       </c>
       <c r="AH79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI79" t="n">
         <v>7</v>
@@ -14854,7 +14854,7 @@
         <v>13</v>
       </c>
       <c r="AL79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM79" t="n">
         <v>41</v>
@@ -14863,7 +14863,7 @@
         <v>6.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
@@ -14878,10 +14878,10 @@
         <v>351</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV79" t="n">
         <v>81</v>
@@ -14890,7 +14890,7 @@
         <v>3.5</v>
       </c>
       <c r="AX79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY79" t="n">
         <v>26</v>
@@ -14961,10 +14961,10 @@
         <v>6.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14973,10 +14973,10 @@
         <v>2.63</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="n">
         <v>1.53</v>
@@ -15143,10 +15143,10 @@
         <v>6.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
         <v>1.18</v>
@@ -15307,28 +15307,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>2.9</v>
       </c>
       <c r="I82" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K82" t="n">
         <v>1.91</v>
       </c>
       <c r="L82" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.53</v>
@@ -15343,31 +15343,31 @@
         <v>1.44</v>
       </c>
       <c r="S82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z82" t="n">
         <v>34</v>
       </c>
       <c r="AA82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB82" t="n">
         <v>41</v>
@@ -15388,25 +15388,25 @@
         <v>501</v>
       </c>
       <c r="AH82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ82" t="n">
         <v>11</v>
       </c>
       <c r="AK82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM82" t="n">
         <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO82" t="n">
         <v>19</v>
@@ -15424,7 +15424,7 @@
         <v>351</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU82" t="n">
         <v>9</v>
@@ -15433,19 +15433,19 @@
         <v>81</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ82" t="n">
         <v>51</v>
       </c>
       <c r="BA82" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB82" t="n">
         <v>301</v>
@@ -15677,7 +15677,7 @@
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J84" t="n">
         <v>2.4</v>
@@ -15689,10 +15689,10 @@
         <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -15740,7 +15740,7 @@
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE84" t="n">
         <v>17</v>
@@ -15755,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="AI84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ84" t="n">
         <v>15</v>
@@ -16217,22 +16217,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="H87" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I87" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J87" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K87" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
@@ -16241,52 +16241,52 @@
         <v>9.75</v>
       </c>
       <c r="O87" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P87" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R87" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="S87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T87" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="U87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V87" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W87" t="n">
         <v>11.5</v>
       </c>
       <c r="X87" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z87" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC87" t="n">
         <v>9.75</v>
       </c>
       <c r="AD87" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE87" t="n">
         <v>12.5</v>
@@ -16298,70 +16298,70 @@
         <v>200</v>
       </c>
       <c r="AH87" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL87" t="n">
         <v>26</v>
       </c>
-      <c r="AJ87" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>29</v>
-      </c>
       <c r="AM87" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN87" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AO87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR87" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS87" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV87" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AW87" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX87" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY87" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ87" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BA87" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB87" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC87" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BD87" t="n">
         <v>51</v>
@@ -16399,16 +16399,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J88" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K88" t="n">
         <v>2.05</v>
@@ -16429,16 +16429,16 @@
         <v>3</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S88" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T88" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U88" t="n">
         <v>1.83</v>
@@ -16456,7 +16456,7 @@
         <v>11</v>
       </c>
       <c r="Z88" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA88" t="n">
         <v>23</v>
@@ -16483,7 +16483,7 @@
         <v>8</v>
       </c>
       <c r="AI88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ88" t="n">
         <v>11</v>
@@ -16498,7 +16498,7 @@
         <v>34</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO88" t="n">
         <v>15</v>
@@ -16516,10 +16516,10 @@
         <v>201</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV88" t="n">
         <v>51</v>
@@ -16617,7 +16617,7 @@
         <v>1.33</v>
       </c>
       <c r="S89" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T89" t="n">
         <v>2.05</v>
@@ -16945,19 +16945,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J91" t="n">
         <v>1.44</v>
       </c>
       <c r="K91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L91" t="n">
         <v>9</v>
@@ -17011,7 +17011,7 @@
         <v>23</v>
       </c>
       <c r="AC91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD91" t="n">
         <v>17</v>
@@ -17029,16 +17029,16 @@
         <v>41</v>
       </c>
       <c r="AI91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK91" t="n">
         <v>151</v>
       </c>
       <c r="AL91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM91" t="n">
         <v>51</v>
@@ -17065,7 +17065,7 @@
         <v>5</v>
       </c>
       <c r="AU91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17074,7 +17074,7 @@
         <v>13</v>
       </c>
       <c r="AX91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY91" t="n">
         <v>41</v>
@@ -17491,46 +17491,46 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H94" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J94" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K94" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L94" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P94" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R94" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T94" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U94" t="n">
         <v>1.57</v>
@@ -17539,16 +17539,16 @@
         <v>2.25</v>
       </c>
       <c r="W94" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X94" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y94" t="n">
         <v>8.25</v>
       </c>
       <c r="Z94" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA94" t="n">
         <v>13.5</v>
@@ -17557,49 +17557,49 @@
         <v>20</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF94" t="n">
         <v>45</v>
       </c>
       <c r="AG94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH94" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK94" t="n">
         <v>55</v>
       </c>
       <c r="AL94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM94" t="n">
         <v>30</v>
       </c>
       <c r="AN94" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO94" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP94" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR94" t="n">
         <v>50</v>
@@ -17608,10 +17608,10 @@
         <v>175</v>
       </c>
       <c r="AT94" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU94" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV94" t="n">
         <v>50</v>
@@ -18243,16 +18243,16 @@
         <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P98" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S98" t="n">
         <v>1.4</v>
@@ -18586,85 +18586,85 @@
         <v>2.82</v>
       </c>
       <c r="H100" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I100" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J100" t="n">
         <v>3.3</v>
       </c>
       <c r="K100" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L100" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M100" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O100" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P100" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R100" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S100" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="T100" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="U100" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V100" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="W100" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X100" t="n">
         <v>16.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z100" t="n">
         <v>35</v>
       </c>
       <c r="AA100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB100" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC100" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AD100" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE100" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF100" t="n">
         <v>45</v>
       </c>
       <c r="AG100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH100" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI100" t="n">
         <v>12.5</v>
@@ -18676,34 +18676,34 @@
         <v>24</v>
       </c>
       <c r="AL100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN100" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO100" t="n">
         <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ100" t="n">
         <v>65</v>
       </c>
       <c r="AR100" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS100" t="n">
         <v>200</v>
       </c>
       <c r="AT100" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU100" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV100" t="n">
         <v>50</v>
@@ -18712,16 +18712,16 @@
         <v>4.4</v>
       </c>
       <c r="AX100" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ100" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA100" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB100" t="n">
         <v>200</v>
@@ -18780,7 +18780,7 @@
         <v>2.3</v>
       </c>
       <c r="L101" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M101" t="n">
         <v>1.03</v>
@@ -18789,16 +18789,16 @@
         <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P101" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S101" t="n">
         <v>1.3</v>
@@ -18807,16 +18807,16 @@
         <v>3.25</v>
       </c>
       <c r="U101" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="W101" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X101" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y101" t="n">
         <v>8.75</v>
@@ -18828,25 +18828,25 @@
         <v>15</v>
       </c>
       <c r="AB101" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC101" t="n">
         <v>9</v>
       </c>
       <c r="AD101" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE101" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG101" t="n">
         <v>200</v>
       </c>
       <c r="AH101" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI101" t="n">
         <v>18.5</v>
@@ -18897,7 +18897,7 @@
         <v>15.5</v>
       </c>
       <c r="AY101" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ101" t="n">
         <v>65</v>
@@ -18906,7 +18906,7 @@
         <v>80</v>
       </c>
       <c r="BB101" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC101" t="n">
         <v>500</v>
@@ -18947,19 +18947,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H102" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I102" t="n">
         <v>2.4</v>
       </c>
       <c r="J102" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K102" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L102" t="n">
         <v>3.05</v>
@@ -18968,25 +18968,25 @@
         <v>1.06</v>
       </c>
       <c r="N102" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O102" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P102" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R102" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S102" t="n">
         <v>1.42</v>
       </c>
       <c r="T102" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U102" t="n">
         <v>1.7</v>
@@ -18995,16 +18995,16 @@
         <v>2.05</v>
       </c>
       <c r="W102" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X102" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y102" t="n">
         <v>10</v>
       </c>
       <c r="Z102" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA102" t="n">
         <v>23</v>
@@ -19013,10 +19013,10 @@
         <v>29</v>
       </c>
       <c r="AC102" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD102" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE102" t="n">
         <v>13</v>
@@ -19028,10 +19028,10 @@
         <v>400</v>
       </c>
       <c r="AH102" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI102" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ102" t="n">
         <v>9.25</v>
@@ -19061,10 +19061,10 @@
         <v>100</v>
       </c>
       <c r="AS102" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU102" t="n">
         <v>6.9</v>
@@ -19088,7 +19088,7 @@
         <v>90</v>
       </c>
       <c r="BB102" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC102" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD103"/>
+  <dimension ref="A1:BD104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -971,19 +971,19 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -998,10 +998,10 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1013,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -1114,7 +1114,7 @@
         <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>5.75</v>
@@ -1135,22 +1135,22 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1317,22 +1317,22 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1437,7 +1437,7 @@
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1499,19 +1499,19 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T6" t="n">
         <v>2.25</v>
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1857,10 +1857,10 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1890,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2039,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2069,7 +2069,7 @@
         <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
@@ -2078,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2105,7 +2105,7 @@
         <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2385,58 +2385,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J11" t="n">
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T11" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2448,25 +2448,25 @@
         <v>30</v>
       </c>
       <c r="AB11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI11" t="n">
         <v>9.25</v>
@@ -2478,55 +2478,55 @@
         <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>100</v>
       </c>
       <c r="AR11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AV11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BB11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="H12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2615,19 +2615,19 @@
         <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB12" t="n">
         <v>24</v>
@@ -2636,43 +2636,43 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
         <v>350</v>
       </c>
       <c r="AH12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AI12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
         <v>40</v>
@@ -2681,34 +2681,34 @@
         <v>70</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
         <v>2.87</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2749,151 +2749,151 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.55</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="S13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH13" t="n">
         <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>19</v>
       </c>
-      <c r="AN13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AS13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB13" t="n">
         <v>120</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>150</v>
-      </c>
       <c r="BC13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,22 +2955,22 @@
         <v>9.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U14" t="n">
         <v>1.47</v>
@@ -2979,19 +2979,19 @@
         <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -3024,13 +3024,13 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -3039,22 +3039,22 @@
         <v>20</v>
       </c>
       <c r="AQ14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR14" t="n">
         <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU14" t="n">
         <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW14" t="n">
         <v>4.1</v>
@@ -3063,13 +3063,13 @@
         <v>8.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB14" t="n">
         <v>120</v>
@@ -3113,79 +3113,79 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L15" t="n">
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W15" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
         <v>40</v>
@@ -3194,43 +3194,43 @@
         <v>250</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>11.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>35</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS15" t="n">
         <v>150</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU15" t="n">
         <v>6.5</v>
@@ -3239,10 +3239,10 @@
         <v>45</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>20</v>
@@ -3295,58 +3295,58 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="W16" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
@@ -3355,31 +3355,31 @@
         <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.5</v>
@@ -3388,55 +3388,55 @@
         <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AS16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3483,10 +3483,10 @@
         <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
@@ -3501,16 +3501,16 @@
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q17" t="n">
         <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3525,10 +3525,10 @@
         <v>2.42</v>
       </c>
       <c r="W17" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3546,13 +3546,13 @@
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="n">
         <v>200</v>
@@ -4235,10 +4235,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4247,13 +4247,13 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>6.5</v>
@@ -4280,13 +4280,13 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>29</v>
@@ -4310,10 +4310,10 @@
         <v>8.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4605,10 +4605,10 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
@@ -4769,10 +4769,10 @@
         <v>7.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -4787,7 +4787,7 @@
         <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
         <v>3.25</v>
@@ -4820,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -4892,7 +4892,7 @@
         <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4969,10 +4969,10 @@
         <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -5333,7 +5333,7 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
@@ -5661,28 +5661,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -5691,16 +5691,16 @@
         <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.5</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -5709,16 +5709,16 @@
         <v>1.73</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>26</v>
@@ -5742,16 +5742,16 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>12</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>11</v>
-      </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
         <v>26</v>
@@ -5760,10 +5760,10 @@
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5772,10 +5772,10 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT29" t="n">
         <v>2.38</v>
@@ -5787,7 +5787,7 @@
         <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX29" t="n">
         <v>17</v>
@@ -5799,7 +5799,7 @@
         <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB29" t="n">
         <v>251</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -6619,7 +6619,7 @@
         <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
         <v>7</v>
@@ -6640,7 +6640,7 @@
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -6658,22 +6658,22 @@
         <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="n">
         <v>51</v>
       </c>
       <c r="AL34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM34" t="n">
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6700,7 +6700,7 @@
         <v>6.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY34" t="n">
         <v>41</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J35" t="n">
         <v>4.5</v>
@@ -6774,7 +6774,7 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
         <v>1.4</v>
@@ -6783,10 +6783,10 @@
         <v>2.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S35" t="n">
         <v>1.5</v>
@@ -6882,7 +6882,7 @@
         <v>4</v>
       </c>
       <c r="AX35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
         <v>26</v>
@@ -6935,55 +6935,55 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="I36" t="n">
         <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>7</v>
@@ -7001,10 +7001,10 @@
         <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE36" t="n">
         <v>23</v>
@@ -7016,22 +7016,22 @@
         <v>301</v>
       </c>
       <c r="AH36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
         <v>67</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK36" t="n">
         <v>201</v>
       </c>
       <c r="AL36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -7043,16 +7043,16 @@
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS36" t="n">
         <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU36" t="n">
         <v>10</v>
@@ -7061,7 +7061,7 @@
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J37" t="n">
         <v>7.5</v>
@@ -7132,7 +7132,7 @@
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -7171,10 +7171,10 @@
         <v>41</v>
       </c>
       <c r="Y37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA37" t="n">
         <v>51</v>
@@ -7186,10 +7186,10 @@
         <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF37" t="n">
         <v>67</v>
@@ -7198,7 +7198,7 @@
         <v>351</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI37" t="n">
         <v>6.5</v>
@@ -7207,13 +7207,13 @@
         <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL37" t="n">
         <v>12</v>
       </c>
       <c r="AM37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN37" t="n">
         <v>9</v>
@@ -7243,7 +7243,7 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX37" t="n">
         <v>6.5</v>
@@ -7481,28 +7481,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -7511,34 +7511,34 @@
         <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y39" t="n">
         <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="n">
         <v>19</v>
@@ -7547,34 +7547,34 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG39" t="n">
         <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
         <v>34</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>29</v>
       </c>
       <c r="AM39" t="n">
         <v>41</v>
@@ -7583,10 +7583,10 @@
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
@@ -7598,31 +7598,31 @@
         <v>201</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU39" t="n">
         <v>8.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA39" t="n">
         <v>101</v>
       </c>
       <c r="BB39" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -7663,16 +7663,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="n">
         <v>2.5</v>
@@ -7699,22 +7699,22 @@
         <v>2.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T40" t="n">
         <v>3.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -7723,7 +7723,7 @@
         <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB40" t="n">
         <v>19</v>
@@ -7735,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
@@ -7744,7 +7744,7 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>26</v>
@@ -7753,7 +7753,7 @@
         <v>15</v>
       </c>
       <c r="AK40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL40" t="n">
         <v>29</v>
@@ -7765,13 +7765,13 @@
         <v>4</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR40" t="n">
         <v>41</v>
@@ -7783,7 +7783,7 @@
         <v>3.75</v>
       </c>
       <c r="AU40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV40" t="n">
         <v>41</v>
@@ -7798,7 +7798,7 @@
         <v>23</v>
       </c>
       <c r="AZ40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA40" t="n">
         <v>67</v>
@@ -7881,7 +7881,7 @@
         <v>2.08</v>
       </c>
       <c r="S41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
         <v>3.25</v>
@@ -8063,7 +8063,7 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T42" t="n">
         <v>2.5</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -8239,13 +8239,13 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T43" t="n">
         <v>2.75</v>
@@ -8266,10 +8266,10 @@
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB43" t="n">
         <v>29</v>
@@ -8290,10 +8290,10 @@
         <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ43" t="n">
         <v>13</v>
@@ -8308,7 +8308,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
         <v>10</v>
@@ -8338,7 +8338,7 @@
         <v>6</v>
       </c>
       <c r="AX43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY43" t="n">
         <v>29</v>
@@ -8350,10 +8350,10 @@
         <v>101</v>
       </c>
       <c r="BB43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8394,10 +8394,10 @@
         <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>9</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8460,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE44" t="n">
         <v>19</v>
@@ -8496,7 +8496,7 @@
         <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -8526,13 +8526,13 @@
         <v>34</v>
       </c>
       <c r="AZ44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K45" t="n">
         <v>2.05</v>
@@ -8597,10 +8597,10 @@
         <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>2.2</v>
@@ -8615,10 +8615,10 @@
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
         <v>9</v>
@@ -8627,19 +8627,19 @@
         <v>17</v>
       </c>
       <c r="Y45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
         <v>41</v>
       </c>
       <c r="AA45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="n">
         <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
         <v>6.5</v>
@@ -8648,7 +8648,7 @@
         <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
         <v>351</v>
@@ -8657,7 +8657,7 @@
         <v>6.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ45" t="n">
         <v>9.5</v>
@@ -8678,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="AP45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ45" t="n">
         <v>67</v>
@@ -8696,7 +8696,7 @@
         <v>8.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
         <v>4</v>
@@ -8785,10 +8785,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -9149,10 +9149,10 @@
         <v>3.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="n">
         <v>1.4</v>
@@ -9304,52 +9304,52 @@
         <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R49" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -9364,13 +9364,13 @@
         <v>19</v>
       </c>
       <c r="AB49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -9379,10 +9379,10 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
         <v>15</v>
@@ -9394,7 +9394,7 @@
         <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM49" t="n">
         <v>29</v>
@@ -9415,10 +9415,10 @@
         <v>51</v>
       </c>
       <c r="AS49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU49" t="n">
         <v>7.5</v>
@@ -9483,22 +9483,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="J50" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M50" t="n">
         <v>1.02</v>
@@ -9513,10 +9513,10 @@
         <v>5.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S50" t="n">
         <v>1.25</v>
@@ -9525,28 +9525,28 @@
         <v>3.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W50" t="n">
         <v>17</v>
       </c>
       <c r="X50" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="n">
         <v>26</v>
       </c>
-      <c r="Y50" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>29</v>
-      </c>
       <c r="AB50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC50" t="n">
         <v>19</v>
@@ -9555,46 +9555,46 @@
         <v>8</v>
       </c>
       <c r="AE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="n">
         <v>12</v>
       </c>
-      <c r="AF50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>11</v>
-      </c>
       <c r="AI50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM50" t="n">
         <v>19</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP50" t="n">
         <v>21</v>
       </c>
-      <c r="AP50" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ50" t="n">
         <v>51</v>
       </c>
       <c r="AR50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS50" t="n">
         <v>101</v>
@@ -9612,13 +9612,13 @@
         <v>4.33</v>
       </c>
       <c r="AX50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY50" t="n">
         <v>15</v>
       </c>
       <c r="AZ50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA50" t="n">
         <v>41</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
         <v>2.4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -9689,10 +9689,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>1.53</v>
@@ -9701,10 +9701,10 @@
         <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T51" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51" t="n">
         <v>1.5</v>
@@ -9716,7 +9716,7 @@
         <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y51" t="n">
         <v>9</v>
@@ -9737,7 +9737,7 @@
         <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
         <v>34</v>
@@ -9761,16 +9761,16 @@
         <v>26</v>
       </c>
       <c r="AM51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>4.33</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ51" t="n">
         <v>29</v>
@@ -9782,7 +9782,7 @@
         <v>81</v>
       </c>
       <c r="AT51" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU51" t="n">
         <v>7</v>
@@ -9794,7 +9794,7 @@
         <v>6</v>
       </c>
       <c r="AX51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9803,13 +9803,13 @@
         <v>51</v>
       </c>
       <c r="BA51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD51" t="n">
         <v>81</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
@@ -10259,7 +10259,7 @@
         <v>1.75</v>
       </c>
       <c r="W54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -10274,7 +10274,7 @@
         <v>41</v>
       </c>
       <c r="AB54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="n">
         <v>10</v>
@@ -10301,7 +10301,7 @@
         <v>8.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL54" t="n">
         <v>13</v>
@@ -10316,13 +10316,13 @@
         <v>29</v>
       </c>
       <c r="AP54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ54" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR54" t="n">
         <v>126</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>151</v>
       </c>
       <c r="AS54" t="n">
         <v>301</v>
@@ -10331,16 +10331,16 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW54" t="n">
         <v>3.5</v>
       </c>
       <c r="AX54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY54" t="n">
         <v>21</v>
@@ -10396,10 +10396,10 @@
         <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
         <v>2.38</v>
@@ -10423,22 +10423,22 @@
         <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10492,25 +10492,25 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO55" t="n">
         <v>9</v>
       </c>
       <c r="AP55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
       </c>
       <c r="AS55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU55" t="n">
         <v>9</v>
@@ -10528,13 +10528,13 @@
         <v>41</v>
       </c>
       <c r="AZ55" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA55" t="n">
         <v>151</v>
       </c>
       <c r="BB55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC55" t="n">
         <v>81</v>
@@ -10763,13 +10763,13 @@
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
         <v>2.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>4.75</v>
@@ -12213,28 +12213,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L65" t="n">
         <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
@@ -12249,10 +12249,10 @@
         <v>1.62</v>
       </c>
       <c r="S65" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U65" t="n">
         <v>2.1</v>
@@ -12264,16 +12264,16 @@
         <v>5.5</v>
       </c>
       <c r="X65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
       </c>
       <c r="Z65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB65" t="n">
         <v>34</v>
@@ -12291,13 +12291,13 @@
         <v>67</v>
       </c>
       <c r="AG65" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
         <v>17</v>
@@ -12312,16 +12312,16 @@
         <v>51</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP65" t="n">
         <v>23</v>
       </c>
       <c r="AQ65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR65" t="n">
         <v>51</v>
@@ -12330,7 +12330,7 @@
         <v>201</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU65" t="n">
         <v>9</v>
@@ -12348,7 +12348,7 @@
         <v>41</v>
       </c>
       <c r="AZ65" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA65" t="n">
         <v>151</v>
@@ -13311,7 +13311,7 @@
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J71" t="n">
         <v>3.4</v>
@@ -13386,7 +13386,7 @@
         <v>151</v>
       </c>
       <c r="AH71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI71" t="n">
         <v>13</v>
@@ -13693,10 +13693,10 @@
         <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
         <v>1.53</v>
@@ -14033,13 +14033,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>3.8</v>
       </c>
       <c r="I75" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J75" t="n">
         <v>4</v>
@@ -14069,10 +14069,10 @@
         <v>2.15</v>
       </c>
       <c r="S75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U75" t="n">
         <v>1.62</v>
@@ -14087,19 +14087,19 @@
         <v>21</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
       </c>
       <c r="AA75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB75" t="n">
         <v>29</v>
       </c>
       <c r="AC75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD75" t="n">
         <v>7.5</v>
@@ -14114,10 +14114,10 @@
         <v>151</v>
       </c>
       <c r="AH75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ75" t="n">
         <v>8.5</v>
@@ -14126,7 +14126,7 @@
         <v>17</v>
       </c>
       <c r="AL75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM75" t="n">
         <v>21</v>
@@ -14135,13 +14135,13 @@
         <v>6</v>
       </c>
       <c r="AO75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP75" t="n">
         <v>23</v>
       </c>
       <c r="AQ75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR75" t="n">
         <v>67</v>
@@ -14150,7 +14150,7 @@
         <v>151</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU75" t="n">
         <v>7.5</v>
@@ -14159,16 +14159,16 @@
         <v>41</v>
       </c>
       <c r="AW75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY75" t="n">
         <v>17</v>
       </c>
       <c r="AZ75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA75" t="n">
         <v>41</v>
@@ -14514,7 +14514,7 @@
         <v>251</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14696,7 +14696,7 @@
         <v>251</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU78" t="n">
         <v>8.5</v>
@@ -14761,16 +14761,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>1.95</v>
@@ -14779,10 +14779,10 @@
         <v>2.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.5</v>
@@ -14797,10 +14797,10 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U79" t="n">
         <v>2.25</v>
@@ -14842,7 +14842,7 @@
         <v>351</v>
       </c>
       <c r="AH79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI79" t="n">
         <v>7</v>
@@ -14878,10 +14878,10 @@
         <v>351</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AU79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV79" t="n">
         <v>81</v>
@@ -14958,7 +14958,7 @@
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
@@ -14967,31 +14967,31 @@
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V80" t="n">
         <v>1.57</v>
       </c>
-      <c r="S80" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X80" t="n">
         <v>6.5</v>
@@ -15009,7 +15009,7 @@
         <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD80" t="n">
         <v>7</v>
@@ -15039,7 +15039,7 @@
         <v>51</v>
       </c>
       <c r="AM80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN80" t="n">
         <v>3.4</v>
@@ -15048,19 +15048,19 @@
         <v>9</v>
       </c>
       <c r="AP80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
       </c>
       <c r="AR80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS80" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU80" t="n">
         <v>10</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H81" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
         <v>1.91</v>
@@ -15155,10 +15155,10 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
         <v>1.3</v>
@@ -15173,10 +15173,10 @@
         <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15185,7 +15185,7 @@
         <v>9.5</v>
       </c>
       <c r="AA81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB81" t="n">
         <v>23</v>
@@ -15194,10 +15194,10 @@
         <v>13</v>
       </c>
       <c r="AD81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
@@ -15212,7 +15212,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK81" t="n">
         <v>81</v>
@@ -15224,10 +15224,10 @@
         <v>51</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP81" t="n">
         <v>17</v>
@@ -15239,7 +15239,7 @@
         <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT81" t="n">
         <v>3.4</v>
@@ -15251,19 +15251,19 @@
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX81" t="n">
         <v>34</v>
       </c>
       <c r="AY81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ81" t="n">
         <v>126</v>
       </c>
       <c r="BA81" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB81" t="n">
         <v>251</v>
@@ -15307,58 +15307,58 @@
         </is>
       </c>
       <c r="G82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>3</v>
       </c>
-      <c r="H82" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I82" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J82" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
         <v>1.91</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O82" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S82" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U82" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V82" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y82" t="n">
         <v>12</v>
@@ -15373,16 +15373,16 @@
         <v>41</v>
       </c>
       <c r="AC82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD82" t="n">
         <v>6</v>
       </c>
       <c r="AE82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG82" t="n">
         <v>501</v>
@@ -15391,22 +15391,22 @@
         <v>6.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM82" t="n">
         <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO82" t="n">
         <v>19</v>
@@ -15421,34 +15421,34 @@
         <v>101</v>
       </c>
       <c r="AS82" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU82" t="n">
         <v>9</v>
       </c>
       <c r="AV82" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA82" t="n">
         <v>81</v>
       </c>
-      <c r="AW82" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>101</v>
-      </c>
       <c r="BB82" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC82" t="n">
         <v>81</v>
@@ -16217,22 +16217,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H87" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I87" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K87" t="n">
         <v>2.57</v>
       </c>
       <c r="L87" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
@@ -16247,10 +16247,10 @@
         <v>4.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R87" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S87" t="n">
         <v>1.22</v>
@@ -16259,22 +16259,22 @@
         <v>3.8</v>
       </c>
       <c r="U87" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V87" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W87" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X87" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA87" t="n">
         <v>12.5</v>
@@ -16301,7 +16301,7 @@
         <v>16.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ87" t="n">
         <v>12.5</v>
@@ -16310,22 +16310,22 @@
         <v>50</v>
       </c>
       <c r="AL87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM87" t="n">
         <v>26</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP87" t="n">
         <v>13</v>
       </c>
       <c r="AQ87" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR87" t="n">
         <v>37</v>
@@ -16343,19 +16343,19 @@
         <v>37</v>
       </c>
       <c r="AW87" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AX87" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY87" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ87" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA87" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB87" t="n">
         <v>150</v>
@@ -16370,7 +16370,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b9XErtfA</t>
+          <t>djQqUT3b</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,170 +16380,170 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Al-Shahaniya</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="J88" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="K88" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="L88" t="n">
-        <v>3.4</v>
+        <v>8.25</v>
       </c>
       <c r="M88" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O88" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="R88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U88" t="n">
         <v>1.65</v>
       </c>
-      <c r="S88" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T88" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V88" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W88" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="X88" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="Y88" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="Z88" t="n">
-        <v>26</v>
+        <v>8.75</v>
       </c>
       <c r="AA88" t="n">
-        <v>23</v>
+        <v>9.75</v>
       </c>
       <c r="AB88" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AD88" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG88" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="AH88" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AI88" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AJ88" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="AK88" t="n">
-        <v>26</v>
+        <v>450</v>
       </c>
       <c r="AL88" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AM88" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="AO88" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="AP88" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>51</v>
+        <v>9.75</v>
       </c>
       <c r="AR88" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AS88" t="n">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.63</v>
+        <v>4.8</v>
       </c>
       <c r="AU88" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV88" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AW88" t="n">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AY88" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AZ88" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BA88" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BB88" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC88" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BD88" t="n">
         <v>51</v>
@@ -16552,7 +16552,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vTvnslz3</t>
+          <t>b9XErtfA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16572,157 +16572,157 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="H89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I89" t="n">
         <v>2.75</v>
       </c>
-      <c r="I89" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="S89" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="T89" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="U89" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="V89" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="W89" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X89" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
       </c>
       <c r="Z89" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA89" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB89" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC89" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AD89" t="n">
         <v>6</v>
       </c>
       <c r="AE89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL89" t="n">
         <v>23</v>
       </c>
-      <c r="AF89" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>41</v>
-      </c>
       <c r="AM89" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AN89" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO89" t="n">
         <v>15</v>
       </c>
       <c r="AP89" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ89" t="n">
         <v>51</v>
       </c>
       <c r="AR89" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS89" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AU89" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV89" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW89" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY89" t="n">
         <v>26</v>
       </c>
-      <c r="AY89" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ89" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA89" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB89" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC89" t="n">
         <v>51</v>
@@ -16734,7 +16734,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ddgUIe3L</t>
+          <t>vTvnslz3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16744,179 +16744,179 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="I90" t="n">
-        <v>1.53</v>
+        <v>3.8</v>
       </c>
       <c r="J90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L90" t="n">
         <v>4.75</v>
       </c>
-      <c r="K90" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T90" t="n">
         <v>2.05</v>
       </c>
-      <c r="M90" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N90" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R90" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T90" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U90" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="V90" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="W90" t="n">
+        <v>5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI90" t="n">
         <v>17</v>
       </c>
-      <c r="X90" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y90" t="n">
+      <c r="AJ90" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO90" t="n">
         <v>15</v>
       </c>
-      <c r="Z90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA90" t="n">
+      <c r="AP90" t="n">
         <v>34</v>
       </c>
-      <c r="AB90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="n">
+      <c r="AQ90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA90" t="n">
         <v>151</v>
       </c>
-      <c r="AH90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>41</v>
-      </c>
       <c r="BB90" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BC90" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD90" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A3DZdEt2</t>
+          <t>ddgUIe3L</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -16936,157 +16936,157 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.14</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="I91" t="n">
-        <v>13</v>
+        <v>1.53</v>
       </c>
       <c r="J91" t="n">
-        <v>1.44</v>
+        <v>4.75</v>
       </c>
       <c r="K91" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N91" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W91" t="n">
+        <v>17</v>
+      </c>
+      <c r="X91" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD91" t="n">
         <v>9</v>
       </c>
-      <c r="M91" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N91" t="n">
-        <v>17</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P91" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R91" t="n">
-        <v>4</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T91" t="n">
-        <v>5</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V91" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W91" t="n">
+      <c r="AE91" t="n">
         <v>15</v>
       </c>
-      <c r="X91" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>23</v>
-      </c>
       <c r="AF91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG91" t="n">
         <v>151</v>
       </c>
       <c r="AH91" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AI91" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="AJ91" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="AK91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS91" t="n">
         <v>151</v>
       </c>
-      <c r="AL91" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN91" t="n">
+      <c r="AT91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW91" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO91" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>13</v>
-      </c>
       <c r="AX91" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="AY91" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ91" t="n">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="BA91" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BB91" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC91" t="n">
         <v>81</v>
@@ -17098,7 +17098,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zs5LKHY8</t>
+          <t>A3DZdEt2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -17118,157 +17118,157 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.75</v>
+        <v>1.14</v>
       </c>
       <c r="H92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N92" t="n">
+        <v>17</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P92" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R92" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N92" t="n">
-        <v>10</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R92" t="n">
-        <v>2.35</v>
-      </c>
       <c r="S92" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="T92" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="U92" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V92" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W92" t="n">
+        <v>15</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD92" t="n">
         <v>17</v>
       </c>
-      <c r="X92" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE92" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG92" t="n">
         <v>151</v>
       </c>
       <c r="AH92" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AI92" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="AJ92" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AK92" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="AL92" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AM92" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN92" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AO92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR92" t="n">
         <v>23</v>
       </c>
-      <c r="AP92" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>81</v>
-      </c>
       <c r="AS92" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ92" t="n">
         <v>151</v>
       </c>
-      <c r="AT92" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>21</v>
-      </c>
       <c r="BA92" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB92" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BC92" t="n">
         <v>81</v>
@@ -17280,7 +17280,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6329OsCa</t>
+          <t>zs5LKHY8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17290,179 +17290,179 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.35</v>
+        <v>4.75</v>
       </c>
       <c r="H93" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J93" t="n">
         <v>4.75</v>
       </c>
-      <c r="I93" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.8</v>
-      </c>
       <c r="K93" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L93" t="n">
-        <v>6.9</v>
+        <v>2.05</v>
       </c>
       <c r="M93" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
+        <v>10</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W93" t="n">
+        <v>17</v>
+      </c>
+      <c r="X93" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD93" t="n">
         <v>8.5</v>
       </c>
-      <c r="O93" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T93" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U93" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V93" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W93" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X93" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y93" t="n">
+      <c r="AE93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ93" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z93" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE93" t="n">
+      <c r="AK93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM93" t="n">
         <v>21</v>
       </c>
-      <c r="AF93" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>80</v>
-      </c>
       <c r="AN93" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="AO93" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AP93" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="AR93" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AS93" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT93" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AU93" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV93" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AW93" t="n">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="AX93" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AY93" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="AZ93" t="n">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="BA93" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BB93" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC93" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD93" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SIjIMLtC</t>
+          <t>6329OsCa</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -17482,157 +17482,157 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K94" t="n">
         <v>2.37</v>
       </c>
-      <c r="K94" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P94" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R94" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="S94" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="T94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U94" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V94" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="W94" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="X94" t="n">
-        <v>10.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y94" t="n">
         <v>8.25</v>
       </c>
       <c r="Z94" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA94" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC94" t="n">
+      <c r="AR94" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU94" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD94" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR94" t="n">
+      <c r="AV94" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX94" t="n">
         <v>50</v>
       </c>
-      <c r="AS94" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV94" t="n">
+      <c r="AY94" t="n">
         <v>50</v>
       </c>
-      <c r="AW94" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ94" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="BA94" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="BB94" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC94" t="n">
         <v>51</v>
@@ -17644,7 +17644,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>rZUMP5Qr</t>
+          <t>SIjIMLtC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17654,170 +17654,170 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P95" t="n">
         <v>4.2</v>
       </c>
-      <c r="I95" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="Q95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V95" t="n">
         <v>2.2</v>
       </c>
-      <c r="K95" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N95" t="n">
-        <v>34</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P95" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R95" t="n">
-        <v>4</v>
-      </c>
-      <c r="S95" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T95" t="n">
-        <v>5</v>
-      </c>
-      <c r="U95" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V95" t="n">
-        <v>3.4</v>
-      </c>
       <c r="W95" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X95" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y95" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z95" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AA95" t="n">
         <v>12</v>
       </c>
       <c r="AB95" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP95" t="n">
         <v>15</v>
       </c>
-      <c r="AC95" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF95" t="n">
+      <c r="AQ95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX95" t="n">
         <v>23</v>
       </c>
-      <c r="AG95" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>17</v>
-      </c>
       <c r="AY95" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ95" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BA95" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB95" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BC95" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD95" t="n">
         <v>51</v>
@@ -17826,7 +17826,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0hUpePj4</t>
+          <t>rZUMP5Qr</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17836,170 +17836,170 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>DPMM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I96" t="n">
         <v>3.4</v>
       </c>
-      <c r="I96" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K96" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L96" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M96" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N96" t="n">
+        <v>34</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P96" t="n">
         <v>10</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T96" t="n">
+        <v>5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V96" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q96" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T96" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V96" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W96" t="n">
+        <v>19</v>
+      </c>
+      <c r="X96" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW96" t="n">
         <v>7</v>
       </c>
-      <c r="X96" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z96" t="n">
+      <c r="AX96" t="n">
         <v>17</v>
       </c>
-      <c r="AA96" t="n">
+      <c r="AY96" t="n">
         <v>17</v>
       </c>
-      <c r="AB96" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS96" t="n">
+      <c r="AZ96" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC96" t="n">
         <v>151</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC96" t="n">
-        <v>51</v>
       </c>
       <c r="BD96" t="n">
         <v>51</v>
@@ -18008,7 +18008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2VF9Et0n</t>
+          <t>0hUpePj4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -18028,112 +18028,112 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H97" t="n">
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J97" t="n">
         <v>2.63</v>
       </c>
       <c r="K97" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O97" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P97" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R97" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S97" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T97" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U97" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V97" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC97" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD97" t="n">
         <v>6.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF97" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG97" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI97" t="n">
         <v>19</v>
       </c>
       <c r="AJ97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK97" t="n">
         <v>41</v>
       </c>
       <c r="AL97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="n">
         <v>4</v>
@@ -18151,13 +18151,13 @@
         <v>51</v>
       </c>
       <c r="AS97" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT97" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV97" t="n">
         <v>51</v>
@@ -18166,22 +18166,22 @@
         <v>5.5</v>
       </c>
       <c r="AX97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY97" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ97" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA97" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB97" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC97" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD97" t="n">
         <v>51</v>
@@ -18190,7 +18190,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CAdbpJLa</t>
+          <t>2VF9Et0n</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18200,179 +18200,179 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>6.25</v>
+        <v>3.6</v>
       </c>
       <c r="J98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K98" t="n">
         <v>2.2</v>
       </c>
-      <c r="K98" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N98" t="n">
         <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P98" t="n">
         <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R98" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S98" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T98" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V98" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W98" t="n">
+        <v>8</v>
+      </c>
+      <c r="X98" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD98" t="n">
         <v>6.5</v>
       </c>
-      <c r="X98" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z98" t="n">
+      <c r="AE98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO98" t="n">
         <v>11</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>8</v>
       </c>
       <c r="AP98" t="n">
         <v>21</v>
       </c>
       <c r="AQ98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY98" t="n">
         <v>26</v>
       </c>
-      <c r="AR98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS98" t="n">
+      <c r="AZ98" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB98" t="n">
         <v>151</v>
       </c>
-      <c r="AT98" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>301</v>
-      </c>
       <c r="BC98" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD98" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>UNCX0BbC</t>
+          <t>CAdbpJLa</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18382,179 +18382,179 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.57</v>
       </c>
       <c r="H99" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I99" t="n">
-        <v>2.05</v>
+        <v>6.25</v>
       </c>
       <c r="J99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N99" t="n">
+        <v>11</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN99" t="n">
         <v>3.5</v>
       </c>
-      <c r="K99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N99" t="n">
+      <c r="AO99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP99" t="n">
         <v>21</v>
       </c>
-      <c r="O99" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P99" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R99" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S99" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T99" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U99" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V99" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W99" t="n">
-        <v>17</v>
-      </c>
-      <c r="X99" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF99" t="n">
+      <c r="AQ99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX99" t="n">
         <v>29</v>
       </c>
-      <c r="AG99" t="n">
+      <c r="AY99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC99" t="n">
         <v>81</v>
       </c>
-      <c r="AH99" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ99" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB99" t="n">
+      <c r="BD99" t="n">
         <v>81</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD99" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AsOnWTM8</t>
+          <t>UNCX0BbC</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -18564,179 +18564,179 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I100" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="J100" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K100" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L100" t="n">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="M100" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N100" t="n">
-        <v>7.9</v>
+        <v>19</v>
       </c>
       <c r="O100" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P100" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="R100" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="S100" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="T100" t="n">
-        <v>2.87</v>
+        <v>3.75</v>
       </c>
       <c r="U100" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="V100" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="W100" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="X100" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z100" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA100" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB100" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC100" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="AD100" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AE100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF100" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AG100" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AI100" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK100" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM100" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AN100" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO100" t="n">
         <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ100" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR100" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS100" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.87</v>
+        <v>3.75</v>
       </c>
       <c r="AU100" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV100" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW100" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="AX100" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AY100" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ100" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BA100" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BB100" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BC100" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD100" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Op6LF8xS</t>
+          <t>AsOnWTM8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -18756,160 +18756,160 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P101" t="n">
         <v>3.65</v>
       </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P101" t="n">
-        <v>4.25</v>
-      </c>
       <c r="Q101" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="R101" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="S101" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T101" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="U101" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V101" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="W101" t="n">
         <v>11</v>
       </c>
       <c r="X101" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AK101" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP101" t="n">
         <v>21</v>
       </c>
-      <c r="AA101" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO101" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ101" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AR101" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AS101" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AT101" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AU101" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AV101" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ101" t="n">
         <v>45</v>
       </c>
-      <c r="AW101" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX101" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY101" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>65</v>
-      </c>
       <c r="BA101" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB101" t="n">
         <v>200</v>
       </c>
       <c r="BC101" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD101" t="n">
         <v>51</v>
@@ -18918,7 +18918,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8IshAn0k</t>
+          <t>Op6LF8xS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -18938,160 +18938,160 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="H102" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I102" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K102" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L102" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="M102" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N102" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="O102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S102" t="n">
         <v>1.3</v>
       </c>
-      <c r="P102" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R102" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S102" t="n">
-        <v>1.42</v>
-      </c>
       <c r="T102" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="U102" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V102" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="W102" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X102" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP102" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y102" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z102" t="n">
+      <c r="AQ102" t="n">
         <v>35</v>
       </c>
-      <c r="AA102" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF102" t="n">
+      <c r="AR102" t="n">
         <v>55</v>
       </c>
-      <c r="AG102" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL102" t="n">
+      <c r="AS102" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY102" t="n">
         <v>19.5</v>
       </c>
-      <c r="AM102" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO102" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP102" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR102" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT102" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU102" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW102" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ102" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BA102" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB102" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC102" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD102" t="n">
         <v>51</v>
@@ -19100,182 +19100,364 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>8IshAn0k</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N103" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W103" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X103" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>WdfySwEF</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Kolos Kovalivka</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Shakhtar Donetsk</t>
         </is>
       </c>
-      <c r="G103" t="n">
+      <c r="G104" t="n">
         <v>14</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H104" t="n">
         <v>4.85</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I104" t="n">
         <v>1.23</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J104" t="n">
         <v>11.5</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K104" t="n">
         <v>2.32</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L104" t="n">
         <v>1.65</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M104" t="n">
         <v>1.01</v>
       </c>
-      <c r="N103" t="n">
+      <c r="N104" t="n">
         <v>12</v>
       </c>
-      <c r="O103" t="n">
+      <c r="O104" t="n">
         <v>1.28</v>
       </c>
-      <c r="P103" t="n">
+      <c r="P104" t="n">
         <v>3</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q104" t="n">
         <v>1.88</v>
       </c>
-      <c r="R103" t="n">
+      <c r="R104" t="n">
         <v>1.82</v>
       </c>
-      <c r="S103" t="n">
+      <c r="S104" t="n">
         <v>1.38</v>
       </c>
-      <c r="T103" t="n">
+      <c r="T104" t="n">
         <v>2.57</v>
       </c>
-      <c r="U103" t="n">
+      <c r="U104" t="n">
         <v>2.62</v>
       </c>
-      <c r="V103" t="n">
+      <c r="V104" t="n">
         <v>1.37</v>
       </c>
-      <c r="W103" t="n">
+      <c r="W104" t="n">
         <v>26</v>
       </c>
-      <c r="X103" t="n">
+      <c r="X104" t="n">
         <v>120</v>
       </c>
-      <c r="Y103" t="n">
+      <c r="Y104" t="n">
         <v>50</v>
       </c>
-      <c r="Z103" t="n">
+      <c r="Z104" t="n">
         <v>800</v>
       </c>
-      <c r="AA103" t="n">
+      <c r="AA104" t="n">
         <v>350</v>
       </c>
-      <c r="AB103" t="n">
+      <c r="AB104" t="n">
         <v>250</v>
       </c>
-      <c r="AC103" t="n">
+      <c r="AC104" t="n">
         <v>9</v>
       </c>
-      <c r="AD103" t="n">
+      <c r="AD104" t="n">
         <v>11</v>
       </c>
-      <c r="AE103" t="n">
+      <c r="AE104" t="n">
         <v>40</v>
       </c>
-      <c r="AF103" t="n">
+      <c r="AF104" t="n">
         <v>300</v>
       </c>
-      <c r="AG103" t="n">
+      <c r="AG104" t="n">
         <v>67</v>
       </c>
-      <c r="AH103" t="n">
+      <c r="AH104" t="n">
         <v>5.2</v>
       </c>
-      <c r="AI103" t="n">
+      <c r="AI104" t="n">
         <v>4.8</v>
       </c>
-      <c r="AJ103" t="n">
+      <c r="AJ104" t="n">
         <v>10</v>
       </c>
-      <c r="AK103" t="n">
+      <c r="AK104" t="n">
         <v>6.4</v>
       </c>
-      <c r="AL103" t="n">
+      <c r="AL104" t="n">
         <v>13</v>
       </c>
-      <c r="AM103" t="n">
+      <c r="AM104" t="n">
         <v>50</v>
       </c>
-      <c r="AN103" t="n">
+      <c r="AN104" t="n">
         <v>12.5</v>
       </c>
-      <c r="AO103" t="n">
+      <c r="AO104" t="n">
         <v>110</v>
       </c>
-      <c r="AP103" t="n">
+      <c r="AP104" t="n">
         <v>100</v>
       </c>
-      <c r="AQ103" t="n">
+      <c r="AQ104" t="n">
         <v>500</v>
       </c>
-      <c r="AR103" t="n">
+      <c r="AR104" t="n">
         <v>500</v>
       </c>
-      <c r="AS103" t="n">
+      <c r="AS104" t="n">
         <v>67</v>
       </c>
-      <c r="AT103" t="n">
+      <c r="AT104" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU103" t="n">
+      <c r="AU104" t="n">
         <v>11.5</v>
       </c>
-      <c r="AV103" t="n">
+      <c r="AV104" t="n">
         <v>175</v>
       </c>
-      <c r="AW103" t="n">
+      <c r="AW104" t="n">
         <v>2.75</v>
       </c>
-      <c r="AX103" t="n">
+      <c r="AX104" t="n">
         <v>5.2</v>
       </c>
-      <c r="AY103" t="n">
+      <c r="AY104" t="n">
         <v>21</v>
       </c>
-      <c r="AZ103" t="n">
+      <c r="AZ104" t="n">
         <v>14</v>
       </c>
-      <c r="BA103" t="n">
+      <c r="BA104" t="n">
         <v>55</v>
       </c>
-      <c r="BB103" t="n">
+      <c r="BB104" t="n">
         <v>450</v>
       </c>
-      <c r="BC103" t="n">
+      <c r="BC104" t="n">
         <v>81</v>
       </c>
-      <c r="BD103" t="n">
+      <c r="BD104" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -941,10 +941,10 @@
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -959,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -986,19 +986,19 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,22 +1007,22 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>15</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1114,10 +1114,10 @@
         <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
@@ -1147,10 +1147,10 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,46 +1317,46 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
         <v>29</v>
       </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>8.5</v>
@@ -1365,70 +1365,70 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
@@ -1475,52 +1475,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1529,34 +1529,34 @@
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1571,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
@@ -1580,22 +1580,22 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1613,16 +1613,16 @@
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -2039,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2102,7 +2102,7 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2111,19 +2111,19 @@
         <v>12</v>
       </c>
       <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -3659,40 +3659,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J18" t="n">
         <v>5.5</v>
       </c>
       <c r="K18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.25</v>
@@ -3701,10 +3701,10 @@
         <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
         <v>19</v>
@@ -3713,7 +3713,7 @@
         <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
         <v>67</v>
@@ -3731,7 +3731,7 @@
         <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3758,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3767,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR18" t="n">
         <v>101</v>
@@ -3794,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
         <v>41</v>
@@ -3803,10 +3803,10 @@
         <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
@@ -4217,16 +4217,16 @@
         <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
         <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -4247,13 +4247,13 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X21" t="n">
         <v>6.5</v>
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>7.5</v>
@@ -4280,7 +4280,7 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
@@ -4307,7 +4307,7 @@
         <v>3.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4605,10 +4605,10 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
@@ -4787,7 +4787,7 @@
         <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T24" t="n">
         <v>3.25</v>
@@ -4951,10 +4951,10 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4963,16 +4963,16 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -5118,10 +5118,10 @@
         <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
@@ -5133,10 +5133,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -5145,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
         <v>1.75</v>
@@ -5166,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -5175,31 +5175,31 @@
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
         <v>51</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="n">
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5244,7 +5244,7 @@
         <v>5.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>41</v>
@@ -5333,7 +5333,7 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
@@ -5679,10 +5679,10 @@
         <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -5697,10 +5697,10 @@
         <v>1.53</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -5718,7 +5718,7 @@
         <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
         <v>26</v>
@@ -5742,13 +5742,13 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
@@ -5763,7 +5763,7 @@
         <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5787,7 +5787,7 @@
         <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX29" t="n">
         <v>17</v>
@@ -5799,7 +5799,7 @@
         <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
         <v>251</v>
@@ -6935,61 +6935,61 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H36" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L36" t="n">
         <v>9.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y36" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>7.5</v>
@@ -6998,13 +6998,13 @@
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
         <v>23</v>
@@ -7013,19 +7013,19 @@
         <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH36" t="n">
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="n">
         <v>81</v>
@@ -7034,25 +7034,25 @@
         <v>67</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
       </c>
       <c r="AS36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU36" t="n">
         <v>10</v>
@@ -7061,7 +7061,7 @@
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
@@ -7076,7 +7076,7 @@
         <v>201</v>
       </c>
       <c r="BB36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC36" t="n">
         <v>501</v>
@@ -7132,13 +7132,13 @@
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O37" t="n">
         <v>1.2</v>
@@ -7147,10 +7147,10 @@
         <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
         <v>1.3</v>
@@ -7341,10 +7341,10 @@
         <v>3.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
         <v>19</v>
@@ -7383,7 +7383,7 @@
         <v>11</v>
       </c>
       <c r="AI38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
@@ -7481,28 +7481,28 @@
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.05</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
       <c r="L39" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -7523,25 +7523,25 @@
         <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y39" t="n">
         <v>9</v>
       </c>
-      <c r="Y39" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
         <v>34</v>
@@ -7550,10 +7550,10 @@
         <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
         <v>67</v>
@@ -7562,37 +7562,37 @@
         <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>34</v>
       </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>41</v>
-      </c>
       <c r="AR39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS39" t="n">
         <v>201</v>
@@ -7601,28 +7601,28 @@
         <v>2.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV39" t="n">
         <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA39" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB39" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K40" t="n">
         <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7699,28 +7699,28 @@
         <v>2.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T40" t="n">
         <v>3.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W40" t="n">
         <v>10</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
         <v>12</v>
@@ -7738,34 +7738,34 @@
         <v>13</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH40" t="n">
         <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="n">
         <v>51</v>
       </c>
       <c r="AL40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN40" t="n">
         <v>4</v>
       </c>
       <c r="AO40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
@@ -7789,19 +7789,19 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ40" t="n">
         <v>67</v>
       </c>
       <c r="BA40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB40" t="n">
         <v>126</v>
@@ -7881,7 +7881,7 @@
         <v>2.08</v>
       </c>
       <c r="S41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T41" t="n">
         <v>3.25</v>
@@ -8030,19 +8030,19 @@
         <v>1.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -8051,10 +8051,10 @@
         <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q42" t="n">
         <v>2.5</v>
@@ -8063,25 +8063,25 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
         <v>12</v>
@@ -8093,13 +8093,13 @@
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD42" t="n">
         <v>6.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>81</v>
@@ -8114,7 +8114,7 @@
         <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
         <v>67</v>
@@ -8123,31 +8123,31 @@
         <v>51</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
         <v>34</v>
       </c>
       <c r="AR42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV42" t="n">
         <v>81</v>
@@ -8162,10 +8162,10 @@
         <v>41</v>
       </c>
       <c r="AZ42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB42" t="n">
         <v>351</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J43" t="n">
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -8239,13 +8239,13 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T43" t="n">
         <v>2.75</v>
@@ -8290,10 +8290,10 @@
         <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="n">
         <v>13</v>
@@ -8353,7 +8353,7 @@
         <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8391,22 +8391,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
         <v>1.95</v>
       </c>
       <c r="L44" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -8427,28 +8427,28 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8460,13 +8460,13 @@
         <v>7</v>
       </c>
       <c r="AD44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG44" t="n">
         <v>351</v>
@@ -8475,28 +8475,28 @@
         <v>8</v>
       </c>
       <c r="AI44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>15</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>13</v>
-      </c>
       <c r="AK44" t="n">
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -8508,22 +8508,22 @@
         <v>251</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW44" t="n">
         <v>5.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ44" t="n">
         <v>81</v>
@@ -8573,28 +8573,28 @@
         </is>
       </c>
       <c r="G45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.3</v>
       </c>
-      <c r="H45" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="J45" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K45" t="n">
         <v>2.05</v>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.36</v>
@@ -8603,16 +8603,16 @@
         <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R45" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U45" t="n">
         <v>2</v>
@@ -8621,10 +8621,10 @@
         <v>1.73</v>
       </c>
       <c r="W45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="n">
         <v>13</v>
@@ -8639,7 +8639,7 @@
         <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD45" t="n">
         <v>6.5</v>
@@ -8657,31 +8657,31 @@
         <v>6.5</v>
       </c>
       <c r="AI45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>9</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>34</v>
       </c>
       <c r="AN45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
       </c>
       <c r="AQ45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR45" t="n">
         <v>101</v>
@@ -8690,7 +8690,7 @@
         <v>251</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
@@ -8699,10 +8699,10 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY45" t="n">
         <v>23</v>
@@ -8711,7 +8711,7 @@
         <v>41</v>
       </c>
       <c r="BA45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB45" t="n">
         <v>201</v>
@@ -8761,7 +8761,7 @@
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
         <v>2.5</v>
@@ -8791,16 +8791,16 @@
         <v>1.98</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
         <v>7.5</v>
@@ -8833,7 +8833,7 @@
         <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH46" t="n">
         <v>12</v>
@@ -8851,7 +8851,7 @@
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="n">
         <v>4</v>
@@ -8860,7 +8860,7 @@
         <v>10</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
         <v>34</v>
@@ -8869,10 +8869,10 @@
         <v>51</v>
       </c>
       <c r="AS46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8940,10 +8940,10 @@
         <v>2.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J47" t="n">
         <v>2.88</v>
@@ -8961,16 +8961,16 @@
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S47" t="n">
         <v>1.5</v>
@@ -8985,16 +8985,16 @@
         <v>1.8</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y47" t="n">
         <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
         <v>19</v>
@@ -9009,7 +9009,7 @@
         <v>6</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
         <v>51</v>
@@ -9027,7 +9027,7 @@
         <v>13</v>
       </c>
       <c r="AK47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL47" t="n">
         <v>29</v>
@@ -9039,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="AO47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP47" t="n">
         <v>23</v>
@@ -9060,13 +9060,13 @@
         <v>8.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY47" t="n">
         <v>29</v>
@@ -9119,22 +9119,22 @@
         </is>
       </c>
       <c r="G48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.5</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I48" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="J48" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -9143,16 +9143,16 @@
         <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S48" t="n">
         <v>1.4</v>
@@ -9167,19 +9167,19 @@
         <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA48" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9188,73 +9188,73 @@
         <v>10</v>
       </c>
       <c r="AD48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH48" t="n">
         <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN48" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT48" t="n">
         <v>2.75</v>
       </c>
       <c r="AU48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV48" t="n">
         <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX48" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY48" t="n">
         <v>21</v>
       </c>
       <c r="AZ48" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA48" t="n">
         <v>51</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -9316,7 +9316,7 @@
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9331,10 +9331,10 @@
         <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R49" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S49" t="n">
         <v>1.4</v>
@@ -9349,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -9388,13 +9388,13 @@
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK49" t="n">
         <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM49" t="n">
         <v>29</v>
@@ -9412,7 +9412,7 @@
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
@@ -9427,7 +9427,7 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX49" t="n">
         <v>15</v>
@@ -9689,10 +9689,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q51" t="n">
         <v>1.53</v>
@@ -9877,10 +9877,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S52" t="n">
         <v>1.33</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K55" t="n">
         <v>2.1</v>
@@ -10411,22 +10411,22 @@
         <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10435,10 +10435,10 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V55" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10492,7 +10492,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO55" t="n">
         <v>9</v>
@@ -10507,7 +10507,7 @@
         <v>51</v>
       </c>
       <c r="AS55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT55" t="n">
         <v>2.63</v>
@@ -10519,7 +10519,7 @@
         <v>67</v>
       </c>
       <c r="AW55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX55" t="n">
         <v>29</v>
@@ -10534,7 +10534,7 @@
         <v>151</v>
       </c>
       <c r="BB55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC55" t="n">
         <v>81</v>
@@ -10757,10 +10757,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
         <v>4.75</v>
@@ -10775,10 +10775,10 @@
         <v>4.75</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -10799,13 +10799,13 @@
         <v>2.63</v>
       </c>
       <c r="U57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X57" t="n">
         <v>8</v>
@@ -10820,7 +10820,7 @@
         <v>17</v>
       </c>
       <c r="AB57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC57" t="n">
         <v>8</v>
@@ -10835,7 +10835,7 @@
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH57" t="n">
         <v>11</v>
@@ -11867,22 +11867,22 @@
         <v>2.2</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S63" t="n">
         <v>1.3</v>
@@ -12031,13 +12031,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J64" t="n">
         <v>2.12</v>
@@ -12046,7 +12046,7 @@
         <v>2.27</v>
       </c>
       <c r="L64" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12058,7 +12058,7 @@
         <v>1.21</v>
       </c>
       <c r="P64" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q64" t="n">
         <v>1.65</v>
@@ -12079,16 +12079,16 @@
         <v>1.93</v>
       </c>
       <c r="W64" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X64" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
       </c>
       <c r="Z64" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA64" t="n">
         <v>12</v>
@@ -12097,31 +12097,31 @@
         <v>23</v>
       </c>
       <c r="AC64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG64" t="n">
         <v>450</v>
       </c>
       <c r="AH64" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK64" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="n">
         <v>45</v>
@@ -12130,7 +12130,7 @@
         <v>45</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO64" t="n">
         <v>7.6</v>
@@ -12139,7 +12139,7 @@
         <v>16</v>
       </c>
       <c r="AQ64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR64" t="n">
         <v>50</v>
@@ -12157,10 +12157,10 @@
         <v>60</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY64" t="n">
         <v>29</v>
@@ -12213,13 +12213,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
         <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
         <v>2.5</v>
@@ -12228,13 +12228,13 @@
         <v>2.05</v>
       </c>
       <c r="L65" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
@@ -12261,7 +12261,7 @@
         <v>1.67</v>
       </c>
       <c r="W65" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X65" t="n">
         <v>7.5</v>
@@ -12294,13 +12294,13 @@
         <v>900</v>
       </c>
       <c r="AH65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK65" t="n">
         <v>51</v>
@@ -12315,7 +12315,7 @@
         <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP65" t="n">
         <v>23</v>
@@ -12342,7 +12342,7 @@
         <v>6.5</v>
       </c>
       <c r="AX65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY65" t="n">
         <v>41</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12625,7 +12625,7 @@
         <v>2.75</v>
       </c>
       <c r="W67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X67" t="n">
         <v>15</v>
@@ -12640,7 +12640,7 @@
         <v>15</v>
       </c>
       <c r="AB67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC67" t="n">
         <v>23</v>
@@ -12661,10 +12661,10 @@
         <v>17</v>
       </c>
       <c r="AI67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK67" t="n">
         <v>34</v>
@@ -12685,7 +12685,7 @@
         <v>15</v>
       </c>
       <c r="AQ67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR67" t="n">
         <v>41</v>
@@ -12697,7 +12697,7 @@
         <v>4</v>
       </c>
       <c r="AU67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV67" t="n">
         <v>34</v>
@@ -12709,7 +12709,7 @@
         <v>15</v>
       </c>
       <c r="AY67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ67" t="n">
         <v>41</v>
@@ -12721,7 +12721,7 @@
         <v>81</v>
       </c>
       <c r="BC67" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD67" t="n">
         <v>151</v>
@@ -12789,10 +12789,10 @@
         <v>10</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S68" t="n">
         <v>1.14</v>
@@ -12813,7 +12813,7 @@
         <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z68" t="n">
         <v>13</v>
@@ -12822,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="AB68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC68" t="n">
         <v>34</v>
@@ -12834,7 +12834,7 @@
         <v>15</v>
       </c>
       <c r="AF68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG68" t="n">
         <v>81</v>
@@ -12855,7 +12855,7 @@
         <v>41</v>
       </c>
       <c r="AM68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN68" t="n">
         <v>4.33</v>
@@ -12864,7 +12864,7 @@
         <v>6.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ68" t="n">
         <v>15</v>
@@ -12903,7 +12903,7 @@
         <v>101</v>
       </c>
       <c r="BC68" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD68" t="n">
         <v>151</v>
@@ -12941,22 +12941,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J69" t="n">
         <v>2.75</v>
       </c>
       <c r="K69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L69" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
@@ -12971,10 +12971,10 @@
         <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R69" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S69" t="n">
         <v>1.33</v>
@@ -12992,16 +12992,16 @@
         <v>9.5</v>
       </c>
       <c r="X69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y69" t="n">
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB69" t="n">
         <v>23</v>
@@ -13025,7 +13025,7 @@
         <v>12</v>
       </c>
       <c r="AI69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="n">
         <v>12</v>
@@ -13043,7 +13043,7 @@
         <v>4.33</v>
       </c>
       <c r="AO69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP69" t="n">
         <v>19</v>
@@ -13067,7 +13067,7 @@
         <v>41</v>
       </c>
       <c r="AW69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX69" t="n">
         <v>17</v>
@@ -13082,7 +13082,7 @@
         <v>67</v>
       </c>
       <c r="BB69" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC69" t="n">
         <v>126</v>
@@ -13123,16 +13123,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H70" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I70" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J70" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K70" t="n">
         <v>2.38</v>
@@ -13153,10 +13153,10 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S70" t="n">
         <v>1.3</v>
@@ -13195,7 +13195,7 @@
         <v>7.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
         <v>41</v>
@@ -13216,16 +13216,16 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM70" t="n">
         <v>29</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP70" t="n">
         <v>17</v>
@@ -13305,13 +13305,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J71" t="n">
         <v>3.4</v>
@@ -13335,16 +13335,16 @@
         <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
         <v>1.62</v>
@@ -13368,7 +13368,7 @@
         <v>21</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC71" t="n">
         <v>12</v>
@@ -13377,7 +13377,7 @@
         <v>6.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
@@ -13389,7 +13389,7 @@
         <v>9.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ71" t="n">
         <v>9.5</v>
@@ -13398,7 +13398,7 @@
         <v>23</v>
       </c>
       <c r="AL71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM71" t="n">
         <v>23</v>
@@ -13410,7 +13410,7 @@
         <v>15</v>
       </c>
       <c r="AP71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ71" t="n">
         <v>51</v>
@@ -13419,10 +13419,10 @@
         <v>67</v>
       </c>
       <c r="AS71" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU71" t="n">
         <v>7.5</v>
@@ -13487,22 +13487,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="H72" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I72" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J72" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="K72" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L72" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -13511,28 +13511,28 @@
         <v>19</v>
       </c>
       <c r="O72" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R72" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T72" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V72" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W72" t="n">
         <v>11</v>
@@ -13541,10 +13541,10 @@
         <v>9.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA72" t="n">
         <v>11</v>
@@ -13553,49 +13553,49 @@
         <v>19</v>
       </c>
       <c r="AC72" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH72" t="n">
         <v>21</v>
       </c>
-      <c r="AD72" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE72" t="n">
+      <c r="AI72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP72" t="n">
         <v>15</v>
       </c>
-      <c r="AF72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ72" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AR72" t="n">
         <v>34</v>
@@ -13604,7 +13604,7 @@
         <v>81</v>
       </c>
       <c r="AT72" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU72" t="n">
         <v>7.5</v>
@@ -13613,10 +13613,10 @@
         <v>41</v>
       </c>
       <c r="AW72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX72" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY72" t="n">
         <v>26</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K73" t="n">
         <v>2.4</v>
       </c>
       <c r="L73" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -13693,10 +13693,10 @@
         <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q73" t="n">
         <v>1.53</v>
@@ -13705,10 +13705,10 @@
         <v>2.4</v>
       </c>
       <c r="S73" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T73" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U73" t="n">
         <v>1.5</v>
@@ -13717,25 +13717,25 @@
         <v>2.5</v>
       </c>
       <c r="W73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
         <v>9</v>
       </c>
       <c r="Z73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB73" t="n">
         <v>19</v>
       </c>
       <c r="AC73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD73" t="n">
         <v>7.5</v>
@@ -13753,31 +13753,31 @@
         <v>15</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>12</v>
       </c>
       <c r="AK73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM73" t="n">
         <v>23</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>26</v>
       </c>
       <c r="AN73" t="n">
         <v>4.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP73" t="n">
         <v>17</v>
       </c>
       <c r="AQ73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR73" t="n">
         <v>41</v>
@@ -13786,7 +13786,7 @@
         <v>81</v>
       </c>
       <c r="AT73" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU73" t="n">
         <v>7</v>
@@ -13798,7 +13798,7 @@
         <v>5.5</v>
       </c>
       <c r="AX73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY73" t="n">
         <v>21</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K74" t="n">
         <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -13881,16 +13881,16 @@
         <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R74" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U74" t="n">
         <v>1.5</v>
@@ -13899,31 +13899,31 @@
         <v>2.5</v>
       </c>
       <c r="W74" t="n">
+        <v>13</v>
+      </c>
+      <c r="X74" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y74" t="n">
         <v>12</v>
       </c>
-      <c r="X74" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>10</v>
-      </c>
       <c r="Z74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA74" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF74" t="n">
         <v>34</v>
@@ -13932,34 +13932,34 @@
         <v>101</v>
       </c>
       <c r="AH74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI74" t="n">
         <v>12</v>
       </c>
-      <c r="AI74" t="n">
+      <c r="AJ74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL74" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>17</v>
       </c>
       <c r="AM74" t="n">
         <v>21</v>
       </c>
       <c r="AN74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR74" t="n">
         <v>51</v>
@@ -13968,7 +13968,7 @@
         <v>101</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU74" t="n">
         <v>7</v>
@@ -13977,19 +13977,19 @@
         <v>41</v>
       </c>
       <c r="AW74" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX74" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA74" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB74" t="n">
         <v>101</v>
@@ -14033,22 +14033,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>3.8</v>
       </c>
       <c r="I75" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L75" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="n">
         <v>1.03</v>
@@ -14075,16 +14075,16 @@
         <v>3.4</v>
       </c>
       <c r="U75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W75" t="n">
         <v>13</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -14111,7 +14111,7 @@
         <v>41</v>
       </c>
       <c r="AG75" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH75" t="n">
         <v>9.5</v>
@@ -14120,7 +14120,7 @@
         <v>11</v>
       </c>
       <c r="AJ75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK75" t="n">
         <v>17</v>
@@ -14132,7 +14132,7 @@
         <v>21</v>
       </c>
       <c r="AN75" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO75" t="n">
         <v>19</v>
@@ -14147,7 +14147,7 @@
         <v>67</v>
       </c>
       <c r="AS75" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT75" t="n">
         <v>3.4</v>
@@ -14215,28 +14215,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K76" t="n">
         <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
       </c>
       <c r="N76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O76" t="n">
         <v>1.13</v>
@@ -14257,10 +14257,10 @@
         <v>3.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V76" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W76" t="n">
         <v>17</v>
@@ -14272,22 +14272,22 @@
         <v>12</v>
       </c>
       <c r="Z76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC76" t="n">
         <v>21</v>
       </c>
       <c r="AD76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF76" t="n">
         <v>29</v>
@@ -14299,37 +14299,37 @@
         <v>13</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM76" t="n">
         <v>19</v>
       </c>
       <c r="AN76" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP76" t="n">
         <v>19</v>
       </c>
       <c r="AQ76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR76" t="n">
         <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT76" t="n">
         <v>3.75</v>
@@ -14341,16 +14341,16 @@
         <v>41</v>
       </c>
       <c r="AW76" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY76" t="n">
         <v>15</v>
       </c>
       <c r="AZ76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA76" t="n">
         <v>41</v>
@@ -14427,10 +14427,10 @@
         <v>2.63</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R77" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="n">
         <v>1.53</v>
@@ -14579,13 +14579,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="J78" t="n">
         <v>4.5</v>
@@ -14594,13 +14594,13 @@
         <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M78" t="n">
         <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -14639,7 +14639,7 @@
         <v>41</v>
       </c>
       <c r="AA78" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB78" t="n">
         <v>41</v>
@@ -14651,7 +14651,7 @@
         <v>6</v>
       </c>
       <c r="AE78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF78" t="n">
         <v>51</v>
@@ -14663,7 +14663,7 @@
         <v>6.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ78" t="n">
         <v>9</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H79" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K79" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -14785,10 +14785,10 @@
         <v>6.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P79" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q79" t="n">
         <v>2.5</v>
@@ -14797,34 +14797,34 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T79" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U79" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W79" t="n">
         <v>11</v>
       </c>
       <c r="X79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA79" t="n">
         <v>51</v>
       </c>
       <c r="AB79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC79" t="n">
         <v>6.5</v>
@@ -14833,7 +14833,7 @@
         <v>6.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF79" t="n">
         <v>81</v>
@@ -14845,40 +14845,40 @@
         <v>5</v>
       </c>
       <c r="AI79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM79" t="n">
         <v>41</v>
       </c>
       <c r="AN79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP79" t="n">
         <v>41</v>
       </c>
       <c r="AQ79" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR79" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS79" t="n">
         <v>351</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU79" t="n">
         <v>10</v>
@@ -14887,10 +14887,10 @@
         <v>81</v>
       </c>
       <c r="AW79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY79" t="n">
         <v>26</v>
@@ -14943,7 +14943,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
@@ -14958,7 +14958,7 @@
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
@@ -14967,16 +14967,16 @@
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P80" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="n">
         <v>1.5</v>
@@ -14991,7 +14991,7 @@
         <v>1.57</v>
       </c>
       <c r="W80" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X80" t="n">
         <v>6.5</v>
@@ -15039,7 +15039,7 @@
         <v>51</v>
       </c>
       <c r="AM80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN80" t="n">
         <v>3.4</v>
@@ -15048,16 +15048,16 @@
         <v>9</v>
       </c>
       <c r="AP80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
       </c>
       <c r="AR80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS80" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT80" t="n">
         <v>2.5</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H81" t="n">
         <v>4.5</v>
       </c>
       <c r="I81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J81" t="n">
         <v>1.91</v>
@@ -15149,34 +15149,34 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W81" t="n">
+        <v>8</v>
+      </c>
+      <c r="X81" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X81" t="n">
-        <v>7</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15191,19 +15191,19 @@
         <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH81" t="n">
         <v>21</v>
@@ -15212,7 +15212,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK81" t="n">
         <v>81</v>
@@ -15224,7 +15224,7 @@
         <v>51</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO81" t="n">
         <v>6.5</v>
@@ -15239,10 +15239,10 @@
         <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU81" t="n">
         <v>8.5</v>
@@ -15251,22 +15251,22 @@
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX81" t="n">
         <v>34</v>
       </c>
       <c r="AY81" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ81" t="n">
         <v>126</v>
       </c>
       <c r="BA81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB81" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC81" t="n">
         <v>151</v>
@@ -15519,10 +15519,10 @@
         <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R83" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S83" t="n">
         <v>1.33</v>
@@ -16763,7 +16763,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>2.75</v>
@@ -16781,10 +16781,10 @@
         <v>4.75</v>
       </c>
       <c r="M90" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.73</v>
@@ -16793,16 +16793,16 @@
         <v>2</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S90" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T90" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U90" t="n">
         <v>2.63</v>
@@ -16811,13 +16811,13 @@
         <v>1.44</v>
       </c>
       <c r="W90" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X90" t="n">
         <v>9</v>
       </c>
       <c r="Y90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z90" t="n">
         <v>21</v>
@@ -16829,13 +16829,13 @@
         <v>51</v>
       </c>
       <c r="AC90" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD90" t="n">
         <v>6</v>
       </c>
       <c r="AE90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF90" t="n">
         <v>126</v>
@@ -16868,7 +16868,7 @@
         <v>15</v>
       </c>
       <c r="AP90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ90" t="n">
         <v>51</v>
@@ -16901,7 +16901,7 @@
         <v>101</v>
       </c>
       <c r="BA90" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB90" t="n">
         <v>500</v>
@@ -17309,22 +17309,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="J93" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K93" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L93" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
@@ -17351,22 +17351,22 @@
         <v>3.5</v>
       </c>
       <c r="U93" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W93" t="n">
         <v>17</v>
       </c>
       <c r="X93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA93" t="n">
         <v>34</v>
@@ -17378,10 +17378,10 @@
         <v>15</v>
       </c>
       <c r="AD93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF93" t="n">
         <v>41</v>
@@ -17390,34 +17390,34 @@
         <v>151</v>
       </c>
       <c r="AH93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ93" t="n">
         <v>8.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM93" t="n">
         <v>21</v>
       </c>
       <c r="AN93" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ93" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR93" t="n">
         <v>81</v>
@@ -17429,22 +17429,22 @@
         <v>3.5</v>
       </c>
       <c r="AU93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV93" t="n">
         <v>41</v>
       </c>
       <c r="AW93" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY93" t="n">
         <v>17</v>
       </c>
       <c r="AZ93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA93" t="n">
         <v>41</v>
@@ -17679,22 +17679,22 @@
         <v>3.9</v>
       </c>
       <c r="I95" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="J95" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="K95" t="n">
         <v>2.32</v>
       </c>
       <c r="L95" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M95" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O95" t="n">
         <v>1.19</v>
@@ -17706,46 +17706,46 @@
         <v>1.57</v>
       </c>
       <c r="R95" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V95" t="n">
         <v>2.25</v>
       </c>
-      <c r="S95" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T95" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U95" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V95" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W95" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y95" t="n">
         <v>8</v>
       </c>
       <c r="Z95" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA95" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC95" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD95" t="n">
         <v>7.8</v>
       </c>
       <c r="AE95" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF95" t="n">
         <v>45</v>
@@ -17754,67 +17754,67 @@
         <v>300</v>
       </c>
       <c r="AH95" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI95" t="n">
         <v>30</v>
       </c>
       <c r="AJ95" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK95" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL95" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="n">
         <v>37</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>35</v>
       </c>
       <c r="AN95" t="n">
         <v>3.75</v>
       </c>
       <c r="AO95" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ95" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR95" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS95" t="n">
         <v>150</v>
       </c>
       <c r="AT95" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV95" t="n">
         <v>50</v>
       </c>
       <c r="AW95" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AX95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY95" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ95" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA95" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB95" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>
@@ -18401,64 +18401,64 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I99" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K99" t="n">
         <v>2.25</v>
       </c>
       <c r="L99" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M99" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P99" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R99" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S99" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T99" t="n">
         <v>2.75</v>
       </c>
       <c r="U99" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W99" t="n">
         <v>6.5</v>
       </c>
       <c r="X99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y99" t="n">
         <v>8.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA99" t="n">
         <v>13</v>
@@ -18467,16 +18467,16 @@
         <v>29</v>
       </c>
       <c r="AC99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG99" t="n">
         <v>351</v>
@@ -18485,31 +18485,31 @@
         <v>15</v>
       </c>
       <c r="AI99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK99" t="n">
         <v>67</v>
       </c>
       <c r="AL99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM99" t="n">
         <v>51</v>
       </c>
       <c r="AN99" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP99" t="n">
         <v>21</v>
       </c>
       <c r="AQ99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR99" t="n">
         <v>51</v>
@@ -18524,25 +18524,25 @@
         <v>9</v>
       </c>
       <c r="AV99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY99" t="n">
         <v>41</v>
       </c>
       <c r="AZ99" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA99" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB99" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC99" t="n">
         <v>81</v>
@@ -18613,13 +18613,13 @@
         <v>6</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R100" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S100" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T100" t="n">
         <v>3.75</v>
@@ -18765,28 +18765,28 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J101" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K101" t="n">
         <v>2.18</v>
       </c>
       <c r="L101" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M101" t="n">
         <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.24</v>
@@ -18795,10 +18795,10 @@
         <v>3.65</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R101" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S101" t="n">
         <v>1.36</v>
@@ -18810,19 +18810,19 @@
         <v>1.6</v>
       </c>
       <c r="V101" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W101" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y101" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z101" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA101" t="n">
         <v>24</v>
@@ -18831,46 +18831,46 @@
         <v>28</v>
       </c>
       <c r="AC101" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD101" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE101" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG101" t="n">
         <v>300</v>
       </c>
       <c r="AH101" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI101" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AJ101" t="n">
         <v>8.75</v>
       </c>
       <c r="AK101" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL101" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM101" t="n">
         <v>23</v>
       </c>
       <c r="AN101" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO101" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ101" t="n">
         <v>75</v>
@@ -18885,22 +18885,22 @@
         <v>2.9</v>
       </c>
       <c r="AU101" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV101" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW101" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX101" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY101" t="n">
         <v>18</v>
       </c>
       <c r="AZ101" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA101" t="n">
         <v>70</v>
@@ -18947,22 +18947,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H102" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J102" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="K102" t="n">
         <v>2.3</v>
       </c>
       <c r="L102" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M102" t="n">
         <v>1.03</v>
@@ -18977,13 +18977,13 @@
         <v>4.25</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R102" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S102" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T102" t="n">
         <v>3.25</v>
@@ -18995,7 +18995,7 @@
         <v>2.42</v>
       </c>
       <c r="W102" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X102" t="n">
         <v>13</v>
@@ -19004,19 +19004,19 @@
         <v>8.75</v>
       </c>
       <c r="Z102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA102" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC102" t="n">
         <v>9</v>
       </c>
       <c r="AD102" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE102" t="n">
         <v>11.5</v>
@@ -19034,28 +19034,28 @@
         <v>18.5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK102" t="n">
         <v>37</v>
       </c>
       <c r="AL102" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM102" t="n">
         <v>23</v>
       </c>
-      <c r="AM102" t="n">
-        <v>25</v>
-      </c>
       <c r="AN102" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO102" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP102" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR102" t="n">
         <v>55</v>
@@ -19070,25 +19070,25 @@
         <v>6.4</v>
       </c>
       <c r="AV102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW102" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX102" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY102" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AZ102" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA102" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB102" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC102" t="n">
         <v>500</v>
@@ -19129,22 +19129,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="H103" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I103" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="J103" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K103" t="n">
         <v>2.07</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
@@ -19153,121 +19153,121 @@
         <v>7.3</v>
       </c>
       <c r="O103" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P103" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R103" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S103" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T103" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U103" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V103" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W103" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X103" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y103" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Z103" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA103" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB103" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC103" t="n">
         <v>7.3</v>
       </c>
       <c r="AD103" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE103" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG103" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH103" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI103" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AJ103" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK103" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL103" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM103" t="n">
         <v>27</v>
       </c>
       <c r="AN103" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO103" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP103" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ103" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR103" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU103" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV103" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW103" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="AX103" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AY103" t="n">
         <v>20</v>
       </c>
       <c r="AZ103" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA103" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB103" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,25 +789,25 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -819,46 +819,46 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH2" t="n">
         <v>13</v>
       </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -867,31 +867,31 @@
         <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="n">
         <v>21</v>
       </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -944,13 +944,13 @@
         <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -977,22 +977,22 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1019,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,19 +1153,19 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
@@ -1195,22 +1195,22 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1255,7 +1255,7 @@
         <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1341,31 +1341,31 @@
         <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1374,40 +1374,40 @@
         <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1416,22 +1416,22 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
         <v>3.3</v>
@@ -1499,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
         <v>2.88</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
         <v>5.25</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1887,25 +1887,25 @@
         <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1914,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1974,13 +1974,13 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2033,16 +2033,16 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.32</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L17" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3513,31 +3513,31 @@
         <v>2.27</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
@@ -3549,37 +3549,37 @@
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
         <v>200</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>18</v>
@@ -3588,13 +3588,13 @@
         <v>55</v>
       </c>
       <c r="AR17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS17" t="n">
         <v>175</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>6.5</v>
@@ -3603,16 +3603,16 @@
         <v>45</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA17" t="n">
         <v>60</v>
@@ -3621,7 +3621,7 @@
         <v>150</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3668,37 +3668,37 @@
         <v>1.44</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.95</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -3740,10 +3740,10 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
@@ -3776,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3800,7 +3800,7 @@
         <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
         <v>451</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3889,22 +3889,22 @@
         <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3922,28 +3922,28 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
         <v>4.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
@@ -3970,7 +3970,7 @@
         <v>4.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
@@ -4029,7 +4029,7 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
@@ -4038,22 +4038,22 @@
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
         <v>4</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -4074,7 +4074,7 @@
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -4161,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
@@ -4229,16 +4229,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4581,7 +4581,7 @@
         <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L23" t="n">
         <v>4.75</v>
@@ -4757,10 +4757,10 @@
         <v>5.25</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
@@ -4769,10 +4769,10 @@
         <v>7.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -4859,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4892,7 +4892,7 @@
         <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4939,7 +4939,7 @@
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
         <v>2.63</v>
@@ -4948,13 +4948,13 @@
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4963,10 +4963,10 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -5005,7 +5005,7 @@
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -5068,13 +5068,13 @@
         <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>126</v>
@@ -5133,10 +5133,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -5145,13 +5145,13 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T26" t="n">
         <v>2.05</v>
@@ -5300,7 +5300,7 @@
         <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -5315,22 +5315,22 @@
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
         <v>1.62</v>
@@ -5339,10 +5339,10 @@
         <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
         <v>5.5</v>
@@ -5357,7 +5357,7 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
         <v>41</v>
@@ -5384,7 +5384,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
@@ -6604,7 +6604,7 @@
         <v>2.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41" t="n">
         <v>4.75</v>
@@ -7863,10 +7863,10 @@
         <v>1.8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
@@ -7887,16 +7887,16 @@
         <v>3.25</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
         <v>23</v>
       </c>
       <c r="X41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
@@ -7914,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE41" t="n">
         <v>23</v>
@@ -7926,7 +7926,7 @@
         <v>351</v>
       </c>
       <c r="AH41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI41" t="n">
         <v>6</v>
@@ -7944,7 +7944,7 @@
         <v>29</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -8027,28 +8027,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -8063,31 +8063,31 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W42" t="n">
         <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
@@ -8099,7 +8099,7 @@
         <v>6.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
         <v>81</v>
@@ -8108,13 +8108,13 @@
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="n">
         <v>67</v>
@@ -8126,10 +8126,10 @@
         <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
@@ -8144,7 +8144,7 @@
         <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>
@@ -8153,7 +8153,7 @@
         <v>81</v>
       </c>
       <c r="AW42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX42" t="n">
         <v>34</v>
@@ -8162,7 +8162,7 @@
         <v>41</v>
       </c>
       <c r="AZ42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA42" t="n">
         <v>201</v>
@@ -8212,7 +8212,7 @@
         <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -8239,10 +8239,10 @@
         <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
         <v>1.4</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
         <v>2.88</v>
@@ -8409,10 +8409,10 @@
         <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -8421,10 +8421,10 @@
         <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S44" t="n">
         <v>1.57</v>
@@ -8448,7 +8448,7 @@
         <v>9.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8457,7 +8457,7 @@
         <v>41</v>
       </c>
       <c r="AC44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6.5</v>
@@ -8478,7 +8478,7 @@
         <v>17</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
@@ -8490,13 +8490,13 @@
         <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
         <v>12</v>
       </c>
       <c r="AP44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -8573,19 +8573,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J45" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
         <v>2.63</v>
@@ -8603,10 +8603,10 @@
         <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
         <v>1.44</v>
@@ -8615,10 +8615,10 @@
         <v>2.63</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W45" t="n">
         <v>9.5</v>
@@ -8639,7 +8639,7 @@
         <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD45" t="n">
         <v>6.5</v>
@@ -8648,7 +8648,7 @@
         <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="n">
         <v>351</v>
@@ -8669,13 +8669,13 @@
         <v>17</v>
       </c>
       <c r="AM45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
@@ -8696,10 +8696,10 @@
         <v>8.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX45" t="n">
         <v>11</v>
@@ -8714,7 +8714,7 @@
         <v>51</v>
       </c>
       <c r="BB45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8773,10 +8773,10 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -8785,10 +8785,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R46" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8940,7 +8940,7 @@
         <v>2.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
         <v>3.25</v>
@@ -8955,55 +8955,55 @@
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U47" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W47" t="n">
         <v>7</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y47" t="n">
         <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
         <v>19</v>
       </c>
       <c r="AB47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD47" t="n">
         <v>6</v>
@@ -9015,10 +9015,10 @@
         <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI47" t="n">
         <v>17</v>
@@ -9027,7 +9027,7 @@
         <v>13</v>
       </c>
       <c r="AK47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL47" t="n">
         <v>29</v>
@@ -9039,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
         <v>23</v>
@@ -9054,7 +9054,7 @@
         <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU47" t="n">
         <v>8.5</v>
@@ -9063,7 +9063,7 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX47" t="n">
         <v>19</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
@@ -9349,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -9364,7 +9364,7 @@
         <v>19</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
         <v>11</v>
@@ -9388,7 +9388,7 @@
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>29</v>
@@ -9412,7 +9412,7 @@
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
@@ -9427,7 +9427,7 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
         <v>15</v>
@@ -10029,13 +10029,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J53" t="n">
         <v>5</v>
@@ -10047,22 +10047,22 @@
         <v>2.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R53" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10158,7 +10158,7 @@
         <v>3.75</v>
       </c>
       <c r="AX53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY53" t="n">
         <v>19</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J54" t="n">
         <v>5.5</v>
@@ -10226,25 +10226,25 @@
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10253,10 +10253,10 @@
         <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
         <v>12</v>
@@ -10283,19 +10283,19 @@
         <v>7.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ54" t="n">
         <v>8.5</v>
@@ -10325,7 +10325,7 @@
         <v>126</v>
       </c>
       <c r="AS54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT54" t="n">
         <v>2.75</v>
@@ -10337,7 +10337,7 @@
         <v>51</v>
       </c>
       <c r="AW54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX54" t="n">
         <v>8.5</v>
@@ -10346,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="AZ54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA54" t="n">
         <v>51</v>
@@ -10423,10 +10423,10 @@
         <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -10611,10 +10611,10 @@
         <v>1.75</v>
       </c>
       <c r="S56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U56" t="n">
         <v>1.91</v>
@@ -10674,16 +10674,16 @@
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP56" t="n">
         <v>21</v>
       </c>
       <c r="AQ56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR56" t="n">
         <v>51</v>
@@ -10692,7 +10692,7 @@
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU56" t="n">
         <v>8</v>
@@ -10701,22 +10701,22 @@
         <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY56" t="n">
         <v>29</v>
       </c>
       <c r="AZ56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA56" t="n">
         <v>101</v>
       </c>
       <c r="BB56" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC56" t="n">
         <v>81</v>
@@ -10757,19 +10757,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
         <v>2.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
         <v>4.75</v>
@@ -10799,13 +10799,13 @@
         <v>2.63</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X57" t="n">
         <v>8</v>
@@ -10820,7 +10820,7 @@
         <v>17</v>
       </c>
       <c r="AB57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC57" t="n">
         <v>8</v>
@@ -10835,7 +10835,7 @@
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH57" t="n">
         <v>11</v>
@@ -12395,61 +12395,61 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="J66" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K66" t="n">
         <v>2.1</v>
       </c>
       <c r="L66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T66" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U66" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X66" t="n">
         <v>34</v>
       </c>
       <c r="Y66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z66" t="n">
         <v>81</v>
@@ -12458,16 +12458,16 @@
         <v>51</v>
       </c>
       <c r="AB66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC66" t="n">
         <v>7.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF66" t="n">
         <v>81</v>
@@ -12479,25 +12479,25 @@
         <v>5.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ66" t="n">
         <v>9</v>
       </c>
       <c r="AK66" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL66" t="n">
         <v>15</v>
       </c>
       <c r="AM66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP66" t="n">
         <v>41</v>
@@ -12512,25 +12512,25 @@
         <v>351</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV66" t="n">
         <v>81</v>
       </c>
       <c r="AW66" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY66" t="n">
         <v>23</v>
       </c>
       <c r="AZ66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA66" t="n">
         <v>51</v>
@@ -12577,16 +12577,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K67" t="n">
         <v>2.6</v>
@@ -12595,10 +12595,10 @@
         <v>3.4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O67" t="n">
         <v>1.11</v>
@@ -12625,7 +12625,7 @@
         <v>2.75</v>
       </c>
       <c r="W67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X67" t="n">
         <v>15</v>
@@ -12637,7 +12637,7 @@
         <v>21</v>
       </c>
       <c r="AA67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB67" t="n">
         <v>17</v>
@@ -12679,7 +12679,7 @@
         <v>4.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP67" t="n">
         <v>15</v>
@@ -12691,25 +12691,25 @@
         <v>41</v>
       </c>
       <c r="AS67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT67" t="n">
         <v>4</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV67" t="n">
         <v>34</v>
       </c>
       <c r="AW67" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX67" t="n">
         <v>15</v>
       </c>
       <c r="AY67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ67" t="n">
         <v>41</v>
@@ -12759,19 +12759,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H68" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J68" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L68" t="n">
         <v>5.5</v>
@@ -12816,7 +12816,7 @@
         <v>10</v>
       </c>
       <c r="Z68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA68" t="n">
         <v>10</v>
@@ -12834,7 +12834,7 @@
         <v>15</v>
       </c>
       <c r="AF68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
         <v>81</v>
@@ -12888,7 +12888,7 @@
         <v>9</v>
       </c>
       <c r="AX68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY68" t="n">
         <v>23</v>
@@ -12903,7 +12903,7 @@
         <v>101</v>
       </c>
       <c r="BC68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD68" t="n">
         <v>151</v>
@@ -13123,16 +13123,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>3.8</v>
       </c>
       <c r="I70" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.38</v>
@@ -13153,10 +13153,10 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S70" t="n">
         <v>1.3</v>
@@ -13171,7 +13171,7 @@
         <v>2.25</v>
       </c>
       <c r="W70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X70" t="n">
         <v>11</v>
@@ -13216,16 +13216,16 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM70" t="n">
         <v>29</v>
       </c>
       <c r="AN70" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP70" t="n">
         <v>17</v>
@@ -13308,7 +13308,7 @@
         <v>2.9</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
         <v>2.35</v>
@@ -13317,7 +13317,7 @@
         <v>3.4</v>
       </c>
       <c r="K71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L71" t="n">
         <v>3</v>
@@ -13329,16 +13329,16 @@
         <v>12</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S71" t="n">
         <v>1.36</v>
@@ -13347,10 +13347,10 @@
         <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W71" t="n">
         <v>11</v>
@@ -13386,7 +13386,7 @@
         <v>151</v>
       </c>
       <c r="AH71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI71" t="n">
         <v>12</v>
@@ -13398,10 +13398,10 @@
         <v>23</v>
       </c>
       <c r="AL71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN71" t="n">
         <v>5</v>
@@ -13693,16 +13693,16 @@
         <v>17</v>
       </c>
       <c r="O73" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R73" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S73" t="n">
         <v>1.29</v>
@@ -13851,28 +13851,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J74" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K74" t="n">
         <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O74" t="n">
         <v>1.17</v>
@@ -13893,13 +13893,13 @@
         <v>3.5</v>
       </c>
       <c r="U74" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V74" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X74" t="n">
         <v>19</v>
@@ -13929,7 +13929,7 @@
         <v>34</v>
       </c>
       <c r="AG74" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH74" t="n">
         <v>11</v>
@@ -13941,7 +13941,7 @@
         <v>9</v>
       </c>
       <c r="AK74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL74" t="n">
         <v>15</v>
@@ -13965,7 +13965,7 @@
         <v>51</v>
       </c>
       <c r="AS74" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT74" t="n">
         <v>3.5</v>
@@ -13977,7 +13977,7 @@
         <v>41</v>
       </c>
       <c r="AW74" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX74" t="n">
         <v>11</v>
@@ -14236,7 +14236,7 @@
         <v>1.02</v>
       </c>
       <c r="N76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O76" t="n">
         <v>1.13</v>
@@ -14409,7 +14409,7 @@
         <v>3.5</v>
       </c>
       <c r="K77" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L77" t="n">
         <v>3.6</v>
@@ -14430,7 +14430,7 @@
         <v>2.5</v>
       </c>
       <c r="R77" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S77" t="n">
         <v>1.53</v>
@@ -14585,7 +14585,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>4.5</v>
@@ -14597,10 +14597,10 @@
         <v>2.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -14609,10 +14609,10 @@
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14678,10 +14678,10 @@
         <v>34</v>
       </c>
       <c r="AN78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP78" t="n">
         <v>34</v>
@@ -14705,7 +14705,7 @@
         <v>67</v>
       </c>
       <c r="AW78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX78" t="n">
         <v>11</v>
@@ -14767,7 +14767,7 @@
         <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="J79" t="n">
         <v>6.5</v>
@@ -14776,7 +14776,7 @@
         <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -14794,7 +14794,7 @@
         <v>2.5</v>
       </c>
       <c r="R79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S79" t="n">
         <v>1.53</v>
@@ -14908,7 +14908,7 @@
         <v>126</v>
       </c>
       <c r="BD79" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
@@ -14943,7 +14943,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
@@ -14958,13 +14958,13 @@
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14976,7 +14976,7 @@
         <v>2.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S80" t="n">
         <v>1.5</v>
@@ -14991,7 +14991,7 @@
         <v>1.57</v>
       </c>
       <c r="W80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X80" t="n">
         <v>6.5</v>
@@ -15039,7 +15039,7 @@
         <v>51</v>
       </c>
       <c r="AM80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN80" t="n">
         <v>3.4</v>
@@ -15048,13 +15048,13 @@
         <v>9</v>
       </c>
       <c r="AP80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
       </c>
       <c r="AR80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS80" t="n">
         <v>251</v>
@@ -15125,7 +15125,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H81" t="n">
         <v>4.5</v>
@@ -15134,7 +15134,7 @@
         <v>7.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
@@ -15149,16 +15149,16 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81" t="n">
         <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S81" t="n">
         <v>1.29</v>
@@ -15489,52 +15489,52 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J83" t="n">
         <v>4.33</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L83" t="n">
         <v>2.38</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R83" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U83" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V83" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W83" t="n">
         <v>15</v>
@@ -15549,7 +15549,7 @@
         <v>41</v>
       </c>
       <c r="AA83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB83" t="n">
         <v>34</v>
@@ -15558,7 +15558,7 @@
         <v>13</v>
       </c>
       <c r="AD83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE83" t="n">
         <v>13</v>
@@ -15570,7 +15570,7 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI83" t="n">
         <v>9.5</v>
@@ -15606,13 +15606,13 @@
         <v>151</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
       </c>
       <c r="AV83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW83" t="n">
         <v>4</v>
@@ -15633,7 +15633,7 @@
         <v>101</v>
       </c>
       <c r="BC83" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD83" t="n">
         <v>81</v>
@@ -15853,16 +15853,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.8</v>
       </c>
-      <c r="I85" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="n">
         <v>2.4</v>
@@ -15874,19 +15874,19 @@
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R85" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S85" t="n">
         <v>1.29</v>
@@ -15904,13 +15904,13 @@
         <v>10</v>
       </c>
       <c r="X85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA85" t="n">
         <v>13</v>
@@ -15919,10 +15919,10 @@
         <v>21</v>
       </c>
       <c r="AC85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD85" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE85" t="n">
         <v>13</v>
@@ -15937,7 +15937,7 @@
         <v>15</v>
       </c>
       <c r="AI85" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ85" t="n">
         <v>13</v>
@@ -15946,7 +15946,7 @@
         <v>41</v>
       </c>
       <c r="AL85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM85" t="n">
         <v>29</v>
@@ -15955,7 +15955,7 @@
         <v>4</v>
       </c>
       <c r="AO85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP85" t="n">
         <v>17</v>
@@ -15982,7 +15982,7 @@
         <v>6</v>
       </c>
       <c r="AX85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY85" t="n">
         <v>23</v>
@@ -16763,16 +16763,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
         <v>2.75</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K90" t="n">
         <v>1.8</v>
@@ -16781,10 +16781,10 @@
         <v>4.75</v>
       </c>
       <c r="M90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N90" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O90" t="n">
         <v>1.73</v>
@@ -16799,10 +16799,10 @@
         <v>1.3</v>
       </c>
       <c r="S90" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T90" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U90" t="n">
         <v>2.63</v>
@@ -16811,31 +16811,31 @@
         <v>1.44</v>
       </c>
       <c r="W90" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z90" t="n">
         <v>21</v>
       </c>
       <c r="AA90" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB90" t="n">
         <v>51</v>
       </c>
       <c r="AC90" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD90" t="n">
         <v>6</v>
       </c>
       <c r="AE90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF90" t="n">
         <v>126</v>
@@ -16868,7 +16868,7 @@
         <v>15</v>
       </c>
       <c r="AP90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ90" t="n">
         <v>51</v>
@@ -16901,7 +16901,7 @@
         <v>101</v>
       </c>
       <c r="BA90" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB90" t="n">
         <v>500</v>
@@ -17330,7 +17330,7 @@
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O93" t="n">
         <v>1.17</v>
@@ -18404,13 +18404,13 @@
         <v>1.5</v>
       </c>
       <c r="H99" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I99" t="n">
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K99" t="n">
         <v>2.25</v>
@@ -18419,10 +18419,10 @@
         <v>6.5</v>
       </c>
       <c r="M99" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O99" t="n">
         <v>1.29</v>
@@ -18443,13 +18443,13 @@
         <v>2.75</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V99" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X99" t="n">
         <v>6.5</v>
@@ -18467,7 +18467,7 @@
         <v>29</v>
       </c>
       <c r="AC99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD99" t="n">
         <v>7.5</v>
@@ -18491,7 +18491,7 @@
         <v>21</v>
       </c>
       <c r="AK99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL99" t="n">
         <v>51</v>
@@ -18521,7 +18521,7 @@
         <v>2.75</v>
       </c>
       <c r="AU99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV99" t="n">
         <v>67</v>
@@ -18536,7 +18536,7 @@
         <v>41</v>
       </c>
       <c r="AZ99" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA99" t="n">
         <v>151</v>
@@ -19129,22 +19129,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>3.3</v>
       </c>
       <c r="I103" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J103" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K103" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L103" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
@@ -19171,7 +19171,7 @@
         <v>2.67</v>
       </c>
       <c r="U103" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V103" t="n">
         <v>2.02</v>
@@ -19180,16 +19180,16 @@
         <v>10.25</v>
       </c>
       <c r="X103" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z103" t="n">
         <v>40</v>
       </c>
       <c r="AA103" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB103" t="n">
         <v>32</v>
@@ -19210,16 +19210,16 @@
         <v>450</v>
       </c>
       <c r="AH103" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AI103" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ103" t="n">
         <v>8.75</v>
       </c>
       <c r="AK103" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL103" t="n">
         <v>17.5</v>
@@ -19231,7 +19231,7 @@
         <v>5.1</v>
       </c>
       <c r="AO103" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP103" t="n">
         <v>24</v>
@@ -19252,7 +19252,7 @@
         <v>7</v>
       </c>
       <c r="AV103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW103" t="n">
         <v>4.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,22 +789,22 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,19 +828,19 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1192,10 +1192,10 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1210,13 +1210,13 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1231,13 +1231,13 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1246,16 +1246,16 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1505,43 +1505,43 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1550,34 +1550,34 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1589,34 +1589,34 @@
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>5.25</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1890,13 +1890,13 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
@@ -1905,10 +1905,10 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1923,7 +1923,7 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1953,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT8" t="n">
         <v>2.1</v>
@@ -1965,7 +1965,7 @@
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>23</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2075,7 +2075,7 @@
         <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2126,10 +2126,10 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3701,10 +3701,10 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
         <v>19</v>
@@ -3713,7 +3713,7 @@
         <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>67</v>
@@ -3728,10 +3728,10 @@
         <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3743,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
@@ -3758,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3785,16 +3785,16 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
         <v>41</v>
@@ -4205,40 +4205,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
         <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4247,10 +4247,10 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4262,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -4271,13 +4271,13 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>81</v>
@@ -4304,13 +4304,13 @@
         <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" t="n">
         <v>8</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
@@ -4331,19 +4331,19 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB21" t="n">
         <v>351</v>
@@ -4396,10 +4396,10 @@
         <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>4.33</v>
@@ -4408,7 +4408,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4423,25 +4423,25 @@
         <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>19</v>
@@ -4453,22 +4453,22 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4492,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4504,13 +4504,13 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>5.5</v>
@@ -4519,16 +4519,16 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
         <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC22" t="n">
         <v>51</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
         <v>4.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -4611,10 +4611,10 @@
         <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
         <v>5.5</v>
@@ -4629,28 +4629,28 @@
         <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -4757,10 +4757,10 @@
         <v>5.25</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
@@ -4859,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4892,7 +4892,7 @@
         <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4954,7 +4954,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -5145,13 +5145,13 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
         <v>2.05</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
@@ -5348,16 +5348,16 @@
         <v>5.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
         <v>41</v>
@@ -5366,10 +5366,10 @@
         <v>5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
         <v>81</v>
@@ -5387,7 +5387,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5396,10 +5396,10 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5417,7 +5417,7 @@
         <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
@@ -5426,13 +5426,13 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA27" t="n">
         <v>151</v>
@@ -6604,7 +6604,7 @@
         <v>2.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
         <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J41" t="n">
         <v>8.5</v>
@@ -7887,16 +7887,16 @@
         <v>3.25</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
@@ -7914,10 +7914,10 @@
         <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
         <v>67</v>
@@ -7944,7 +7944,7 @@
         <v>29</v>
       </c>
       <c r="AN41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO41" t="n">
         <v>41</v>
@@ -7965,7 +7965,7 @@
         <v>3.25</v>
       </c>
       <c r="AU41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
         <v>67</v>
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
@@ -8045,16 +8045,16 @@
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
         <v>2.5</v>
@@ -8227,22 +8227,22 @@
         <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S43" t="n">
         <v>1.4</v>
@@ -11688,13 +11688,13 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62" t="n">
         <v>2.25</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I64" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="J64" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K64" t="n">
         <v>2.27</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12058,19 +12058,19 @@
         <v>1.21</v>
       </c>
       <c r="P64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S64" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T64" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U64" t="n">
         <v>1.7</v>
@@ -12079,16 +12079,16 @@
         <v>1.93</v>
       </c>
       <c r="W64" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X64" t="n">
         <v>7.9</v>
-      </c>
-      <c r="X64" t="n">
-        <v>8.25</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
       </c>
       <c r="Z64" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA64" t="n">
         <v>12</v>
@@ -12097,13 +12097,13 @@
         <v>23</v>
       </c>
       <c r="AC64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF64" t="n">
         <v>65</v>
@@ -12112,16 +12112,16 @@
         <v>450</v>
       </c>
       <c r="AH64" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK64" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL64" t="n">
         <v>45</v>
@@ -12130,16 +12130,16 @@
         <v>45</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO64" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AP64" t="n">
         <v>16</v>
       </c>
       <c r="AQ64" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR64" t="n">
         <v>50</v>
@@ -12148,7 +12148,7 @@
         <v>200</v>
       </c>
       <c r="AT64" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU64" t="n">
         <v>7.3</v>
@@ -12157,10 +12157,10 @@
         <v>60</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX64" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY64" t="n">
         <v>29</v>
@@ -14409,7 +14409,7 @@
         <v>3.5</v>
       </c>
       <c r="K77" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L77" t="n">
         <v>3.6</v>
@@ -14430,7 +14430,7 @@
         <v>2.5</v>
       </c>
       <c r="R77" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="n">
         <v>1.53</v>
@@ -14776,7 +14776,7 @@
         <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -14961,10 +14961,10 @@
         <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14976,7 +14976,7 @@
         <v>2.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="n">
         <v>1.5</v>
@@ -15134,7 +15134,7 @@
         <v>7.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
@@ -15155,7 +15155,7 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1508,7 +1508,7 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1523,7 +1523,7 @@
         <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>9</v>
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1616,7 +1616,7 @@
         <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1672,7 +1672,7 @@
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1705,7 +1705,7 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1744,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1759,7 +1759,7 @@
         <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>201</v>
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
@@ -1890,19 +1890,19 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -1914,13 +1914,13 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1938,10 +1938,10 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1956,19 +1956,19 @@
         <v>401</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -4408,7 +4408,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -4605,10 +4605,10 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
@@ -4617,19 +4617,19 @@
         <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4650,43 +4650,43 @@
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
         <v>9</v>
@@ -4701,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
         <v>81</v>
@@ -4769,10 +4769,10 @@
         <v>7.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -4781,22 +4781,22 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W24" t="n">
         <v>7</v>
@@ -4814,10 +4814,10 @@
         <v>12</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
         <v>10</v>
@@ -4829,7 +4829,7 @@
         <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
@@ -4856,10 +4856,10 @@
         <v>6.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4868,10 +4868,10 @@
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
@@ -4963,16 +4963,16 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -4987,25 +4987,25 @@
         <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -5014,7 +5014,7 @@
         <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
@@ -5035,13 +5035,13 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5050,7 +5050,7 @@
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5059,7 +5059,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>21</v>
@@ -5074,7 +5074,7 @@
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
         <v>126</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
         <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
@@ -5139,22 +5139,22 @@
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.73</v>
       </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
         <v>2.63</v>
@@ -5169,7 +5169,7 @@
         <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
@@ -5312,25 +5312,25 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>1.62</v>
@@ -5369,7 +5369,7 @@
         <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>81</v>
@@ -5378,10 +5378,10 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5417,7 +5417,7 @@
         <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -6601,10 +6601,10 @@
         <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -6613,34 +6613,34 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -6652,34 +6652,34 @@
         <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
         <v>51</v>
       </c>
       <c r="AL34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="n">
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
@@ -6697,16 +6697,16 @@
         <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="n">
         <v>41</v>
       </c>
       <c r="AZ34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA34" t="n">
         <v>151</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
         <v>2.5</v>
@@ -8042,7 +8042,7 @@
         <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -8051,10 +8051,10 @@
         <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q42" t="n">
         <v>2.5</v>
@@ -8117,16 +8117,16 @@
         <v>19</v>
       </c>
       <c r="AK42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
         <v>51</v>
       </c>
       <c r="AM42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO42" t="n">
         <v>10</v>
@@ -8156,7 +8156,7 @@
         <v>6.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY42" t="n">
         <v>41</v>
@@ -8165,7 +8165,7 @@
         <v>126</v>
       </c>
       <c r="BA42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB42" t="n">
         <v>351</v>
@@ -11709,10 +11709,10 @@
         <v>2.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V62" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W62" t="n">
         <v>7</v>
@@ -11849,22 +11849,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H63" t="n">
         <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J63" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K63" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11879,10 +11879,10 @@
         <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S63" t="n">
         <v>1.3</v>
@@ -11891,10 +11891,10 @@
         <v>3.4</v>
       </c>
       <c r="U63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V63" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W63" t="n">
         <v>17</v>
@@ -11912,10 +11912,10 @@
         <v>34</v>
       </c>
       <c r="AB63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD63" t="n">
         <v>7.5</v>
@@ -11930,10 +11930,10 @@
         <v>151</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ63" t="n">
         <v>8.5</v>
@@ -11942,7 +11942,7 @@
         <v>13</v>
       </c>
       <c r="AL63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM63" t="n">
         <v>21</v>
@@ -11954,10 +11954,10 @@
         <v>23</v>
       </c>
       <c r="AP63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR63" t="n">
         <v>81</v>
@@ -11972,10 +11972,10 @@
         <v>7.5</v>
       </c>
       <c r="AV63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX63" t="n">
         <v>8.5</v>
@@ -11993,7 +11993,7 @@
         <v>101</v>
       </c>
       <c r="BC63" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD63" t="n">
         <v>151</v>
@@ -12034,16 +12034,16 @@
         <v>1.57</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K64" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L64" t="n">
         <v>4.9</v>
@@ -12061,10 +12061,10 @@
         <v>3.55</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R64" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
         <v>1.31</v>
@@ -12082,13 +12082,13 @@
         <v>7.7</v>
       </c>
       <c r="X64" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
       </c>
       <c r="Z64" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
         <v>12</v>
@@ -12097,16 +12097,16 @@
         <v>23</v>
       </c>
       <c r="AC64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG64" t="n">
         <v>450</v>
@@ -12118,7 +12118,7 @@
         <v>30</v>
       </c>
       <c r="AJ64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK64" t="n">
         <v>90</v>
@@ -12130,7 +12130,7 @@
         <v>45</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO64" t="n">
         <v>7.5</v>
@@ -12160,10 +12160,10 @@
         <v>6.6</v>
       </c>
       <c r="AX64" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ64" t="n">
         <v>150</v>
@@ -14943,7 +14943,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
@@ -14967,10 +14967,10 @@
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
         <v>2.35</v>
@@ -14985,10 +14985,10 @@
         <v>2.5</v>
       </c>
       <c r="U80" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V80" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W80" t="n">
         <v>5.5</v>
@@ -15003,10 +15003,10 @@
         <v>12</v>
       </c>
       <c r="AA80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC80" t="n">
         <v>7</v>
@@ -15057,13 +15057,13 @@
         <v>51</v>
       </c>
       <c r="AS80" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT80" t="n">
         <v>2.5</v>
       </c>
       <c r="AU80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV80" t="n">
         <v>81</v>
@@ -15078,10 +15078,10 @@
         <v>41</v>
       </c>
       <c r="AZ80" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA80" t="n">
         <v>151</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>201</v>
       </c>
       <c r="BB80" t="n">
         <v>351</v>
@@ -15155,10 +15155,10 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1672,7 +1672,7 @@
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1681,16 +1681,16 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -1699,22 +1699,22 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1744,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1759,10 +1759,10 @@
         <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1771,28 +1771,28 @@
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
         <v>201</v>
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
@@ -1890,19 +1890,19 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
         <v>26</v>
       </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -1920,10 +1920,10 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1938,10 +1938,10 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1956,19 +1956,19 @@
         <v>401</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
         <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2039,16 +2039,16 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -2063,22 +2063,22 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2090,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2105,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2147,7 +2147,7 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
         <v>21</v>
@@ -2156,10 +2156,10 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>301</v>
@@ -4420,7 +4420,7 @@
         <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -4593,16 +4593,16 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
         <v>1.57</v>
@@ -4614,7 +4614,7 @@
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4623,10 +4623,10 @@
         <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
@@ -4647,10 +4647,10 @@
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -4677,7 +4677,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
         <v>81</v>
@@ -4698,7 +4698,7 @@
         <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
         <v>34</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4781,10 +4781,10 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
         <v>1.3</v>
@@ -4793,31 +4793,31 @@
         <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>6.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>8.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>10</v>
@@ -4832,16 +4832,16 @@
         <v>401</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -4853,7 +4853,7 @@
         <v>3.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4871,13 +4871,13 @@
         <v>3.4</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX24" t="n">
         <v>41</v>
@@ -4886,13 +4886,13 @@
         <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
@@ -4963,10 +4963,10 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4984,13 +4984,13 @@
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -4999,7 +4999,7 @@
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
@@ -5017,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -5062,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.14</v>
@@ -5157,10 +5157,10 @@
         <v>2.08</v>
       </c>
       <c r="U26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
         <v>5</v>
@@ -5241,16 +5241,16 @@
         <v>101</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>41</v>
       </c>
       <c r="AZ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="n">
         <v>151</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S27" t="n">
         <v>1.62</v>
@@ -5339,22 +5339,22 @@
         <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
         <v>5.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
@@ -5366,7 +5366,7 @@
         <v>5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
@@ -5378,16 +5378,16 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5396,10 +5396,10 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5426,13 +5426,13 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
         <v>151</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -6589,10 +6589,10 @@
         <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -6604,7 +6604,7 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -8027,34 +8027,34 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="K42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
         <v>2.5</v>
@@ -8063,79 +8063,79 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
         <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="n">
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="n">
         <v>51</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
       </c>
       <c r="AQ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
@@ -8144,7 +8144,7 @@
         <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>
@@ -8153,19 +8153,19 @@
         <v>81</v>
       </c>
       <c r="AW42" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY42" t="n">
         <v>41</v>
       </c>
       <c r="AZ42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB42" t="n">
         <v>351</v>
@@ -11709,10 +11709,10 @@
         <v>2.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W62" t="n">
         <v>7</v>
@@ -12040,13 +12040,13 @@
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K64" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -12055,16 +12055,16 @@
         <v>11.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S64" t="n">
         <v>1.31</v>
@@ -12073,16 +12073,16 @@
         <v>3.26</v>
       </c>
       <c r="U64" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V64" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W64" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X64" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
@@ -12091,13 +12091,13 @@
         <v>12</v>
       </c>
       <c r="AA64" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD64" t="n">
         <v>7.8</v>
@@ -12109,16 +12109,16 @@
         <v>60</v>
       </c>
       <c r="AG64" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH64" t="n">
         <v>15.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK64" t="n">
         <v>90</v>
@@ -12136,28 +12136,28 @@
         <v>7.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ64" t="n">
         <v>23</v>
       </c>
       <c r="AR64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS64" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV64" t="n">
         <v>60</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AX64" t="n">
         <v>27</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K77" t="n">
         <v>1.95</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.1</v>
@@ -14439,10 +14439,10 @@
         <v>2.38</v>
       </c>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W77" t="n">
         <v>7</v>
@@ -14454,7 +14454,7 @@
         <v>11</v>
       </c>
       <c r="Z77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA77" t="n">
         <v>26</v>
@@ -14475,7 +14475,7 @@
         <v>67</v>
       </c>
       <c r="AG77" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH77" t="n">
         <v>7</v>
@@ -14487,7 +14487,7 @@
         <v>11</v>
       </c>
       <c r="AK77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL77" t="n">
         <v>26</v>
@@ -14496,7 +14496,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO77" t="n">
         <v>17</v>
@@ -14508,22 +14508,22 @@
         <v>51</v>
       </c>
       <c r="AR77" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT77" t="n">
         <v>2.38</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV77" t="n">
         <v>67</v>
       </c>
       <c r="AW77" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX77" t="n">
         <v>17</v>
@@ -14943,16 +14943,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J80" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K80" t="n">
         <v>2.05</v>
@@ -14967,10 +14967,10 @@
         <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P80" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q80" t="n">
         <v>2.35</v>
@@ -14994,7 +14994,7 @@
         <v>5.5</v>
       </c>
       <c r="X80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y80" t="n">
         <v>9</v>
@@ -15003,7 +15003,7 @@
         <v>12</v>
       </c>
       <c r="AA80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB80" t="n">
         <v>34</v>
@@ -15012,7 +15012,7 @@
         <v>7</v>
       </c>
       <c r="AD80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE80" t="n">
         <v>21</v>
@@ -15030,7 +15030,7 @@
         <v>29</v>
       </c>
       <c r="AJ80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK80" t="n">
         <v>67</v>
@@ -15042,7 +15042,7 @@
         <v>51</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO80" t="n">
         <v>9</v>
@@ -15051,7 +15051,7 @@
         <v>23</v>
       </c>
       <c r="AQ80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR80" t="n">
         <v>51</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H81" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
         <v>1.91</v>
@@ -15161,25 +15161,25 @@
         <v>2.25</v>
       </c>
       <c r="S81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V81" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X81" t="n">
         <v>7.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z81" t="n">
         <v>9.5</v>
@@ -15194,16 +15194,16 @@
         <v>15</v>
       </c>
       <c r="AD81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH81" t="n">
         <v>21</v>
@@ -15221,7 +15221,7 @@
         <v>51</v>
       </c>
       <c r="AM81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN81" t="n">
         <v>3.5</v>
@@ -15242,7 +15242,7 @@
         <v>101</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU81" t="n">
         <v>8.5</v>
@@ -15266,7 +15266,7 @@
         <v>126</v>
       </c>
       <c r="BB81" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC81" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -2024,7 +2024,7 @@
         <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>3.5</v>
@@ -2039,16 +2039,16 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -2063,10 +2063,10 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2084,13 +2084,13 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2132,7 +2132,7 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
@@ -2159,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>301</v>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
@@ -4396,7 +4396,7 @@
         <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -4405,13 +4405,13 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
         <v>2.75</v>
@@ -4420,7 +4420,7 @@
         <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>5.5</v>
@@ -4760,7 +4760,7 @@
         <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
@@ -4769,16 +4769,16 @@
         <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -4963,10 +4963,10 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L27" t="n">
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
         <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>1.62</v>
@@ -5366,7 +5366,7 @@
         <v>5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
@@ -5396,10 +5396,10 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -6595,10 +6595,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
         <v>2.5</v>
@@ -6613,16 +6613,16 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
         <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
         <v>9.5</v>
@@ -6652,10 +6652,10 @@
         <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
         <v>17</v>
@@ -6673,7 +6673,7 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6697,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX34" t="n">
         <v>29</v>
@@ -8027,52 +8027,52 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
         <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T42" t="n">
         <v>2.5</v>
       </c>
-      <c r="R42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.5</v>
       </c>
       <c r="W42" t="n">
         <v>5</v>
@@ -8081,19 +8081,19 @@
         <v>6</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
         <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>7</v>
@@ -8102,19 +8102,19 @@
         <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG42" t="n">
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK42" t="n">
         <v>81</v>
@@ -8126,25 +8126,25 @@
         <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
         <v>29</v>
       </c>
       <c r="AR42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS42" t="n">
         <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>
@@ -11697,10 +11697,10 @@
         <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -11852,7 +11852,7 @@
         <v>4.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
         <v>1.7</v>
@@ -12031,19 +12031,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H64" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K64" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="L64" t="n">
         <v>5</v>
@@ -12052,127 +12052,127 @@
         <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R64" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S64" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T64" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="U64" t="n">
         <v>1.65</v>
       </c>
       <c r="V64" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X64" t="n">
         <v>8</v>
-      </c>
-      <c r="X64" t="n">
-        <v>8.25</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
       </c>
       <c r="Z64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG64" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH64" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI64" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ64" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL64" t="n">
         <v>45</v>
       </c>
       <c r="AM64" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN64" t="n">
         <v>3.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AP64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR64" t="n">
         <v>45</v>
       </c>
       <c r="AS64" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT64" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AX64" t="n">
         <v>27</v>
       </c>
       <c r="AY64" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ64" t="n">
         <v>150</v>
       </c>
       <c r="BA64" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB64" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC64" t="n">
         <v>51</v>
@@ -15161,7 +15161,7 @@
         <v>2.25</v>
       </c>
       <c r="S81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T81" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2042,25 +2042,25 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
         <v>2.05</v>
@@ -2081,16 +2081,16 @@
         <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2099,10 +2099,10 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2123,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2135,13 +2135,13 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -4942,31 +4942,31 @@
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,16 +4975,16 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -4996,10 +4996,10 @@
         <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
@@ -5011,7 +5011,7 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -5062,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5297,46 +5297,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
@@ -5348,13 +5348,13 @@
         <v>5.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
@@ -5363,7 +5363,7 @@
         <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5378,16 +5378,16 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5411,10 +5411,10 @@
         <v>81</v>
       </c>
       <c r="AS27" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU27" t="n">
         <v>9.5</v>
@@ -6583,7 +6583,7 @@
         <v>2.6</v>
       </c>
       <c r="K34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
         <v>5.5</v>
@@ -6595,16 +6595,16 @@
         <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q34" t="n">
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>1.53</v>
@@ -11667,40 +11667,40 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I62" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
         <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P62" t="n">
         <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R62" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -11709,22 +11709,22 @@
         <v>2.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V62" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA62" t="n">
         <v>19</v>
@@ -11736,7 +11736,7 @@
         <v>7.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE62" t="n">
         <v>15</v>
@@ -11745,22 +11745,22 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK62" t="n">
         <v>41</v>
       </c>
       <c r="AL62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
@@ -11769,10 +11769,10 @@
         <v>4</v>
       </c>
       <c r="AO62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ62" t="n">
         <v>41</v>
@@ -11793,22 +11793,22 @@
         <v>67</v>
       </c>
       <c r="AW62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA62" t="n">
         <v>101</v>
       </c>
       <c r="BB62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC62" t="n">
         <v>126</v>
@@ -11852,7 +11852,7 @@
         <v>4.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
         <v>1.7</v>
@@ -12031,28 +12031,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I64" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J64" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K64" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>12.9</v>
+        <v>14.4</v>
       </c>
       <c r="O64" t="n">
         <v>1.19</v>
@@ -12061,28 +12061,28 @@
         <v>3.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="S64" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="T64" t="n">
-        <v>3.42</v>
+        <v>3.62</v>
       </c>
       <c r="U64" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="W64" t="n">
+        <v>9</v>
+      </c>
+      <c r="X64" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X64" t="n">
-        <v>8</v>
       </c>
       <c r="Y64" t="n">
         <v>8</v>
@@ -12091,85 +12091,85 @@
         <v>11.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE64" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD64" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>15</v>
-      </c>
       <c r="AF64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG64" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH64" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL64" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM64" t="n">
         <v>45</v>
       </c>
-      <c r="AM64" t="n">
-        <v>40</v>
-      </c>
       <c r="AN64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO64" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AP64" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR64" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AS64" t="n">
         <v>150</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW64" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AX64" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY64" t="n">
         <v>28</v>
       </c>
       <c r="AZ64" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA64" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB64" t="n">
         <v>300</v>
@@ -15143,25 +15143,25 @@
         <v>6.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-18.xlsx
@@ -11685,22 +11685,22 @@
         <v>4.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
         <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
         <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -11870,19 +11870,19 @@
         <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P63" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R63" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S63" t="n">
         <v>1.3</v>
@@ -12067,10 +12067,10 @@
         <v>2.27</v>
       </c>
       <c r="S64" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="T64" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="U64" t="n">
         <v>1.6</v>
@@ -15143,16 +15143,16 @@
         <v>6.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
         <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81" t="n">
         <v>1.57</v>
